--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
@@ -16,14 +16,14 @@
     <sheet name="背景音乐音频格式" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$P$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$P$212</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="555">
   <si>
     <t>编号</t>
   </si>
@@ -5095,10 +5095,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>【列表】单行，显示不下时，不自动滚动
 【9月3日版】可以滚动。但感觉开始滚动的时间有点慢，可以再提前些，否则有滞后感。
@@ -5320,6 +5316,14 @@
   </si>
   <si>
     <t>新增编号205~210记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复到以前的滚动版本。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7370,32 +7374,7 @@
     <cellStyle name="常规 3 7" xfId="16"/>
     <cellStyle name="常规 6" xfId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -7896,7 +7875,7 @@
         <v>42643</v>
       </c>
       <c r="F11" s="350" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7936,10 +7915,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="G215" sqref="G215"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8052,7 +8032,7 @@
       </c>
       <c r="P3" s="193"/>
     </row>
-    <row r="4" spans="1:16" s="72" customFormat="1" ht="81">
+    <row r="4" spans="1:16" s="72" customFormat="1" ht="81" hidden="1">
       <c r="A4" s="311">
         <v>2</v>
       </c>
@@ -8090,7 +8070,7 @@
       </c>
       <c r="P4" s="177"/>
     </row>
-    <row r="5" spans="1:16" s="72" customFormat="1" ht="54">
+    <row r="5" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
       <c r="A5" s="311">
         <v>3</v>
       </c>
@@ -8130,7 +8110,7 @@
       </c>
       <c r="P5" s="177"/>
     </row>
-    <row r="6" spans="1:16" s="178" customFormat="1" ht="54">
+    <row r="6" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
       <c r="A6" s="311">
         <v>4</v>
       </c>
@@ -8172,7 +8152,7 @@
       </c>
       <c r="P6" s="177"/>
     </row>
-    <row r="7" spans="1:16" s="301" customFormat="1" ht="27">
+    <row r="7" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
       <c r="A7" s="311">
         <v>5</v>
       </c>
@@ -8212,7 +8192,7 @@
       </c>
       <c r="P7" s="304"/>
     </row>
-    <row r="8" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="8" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A8" s="311">
         <v>6</v>
       </c>
@@ -8252,7 +8232,7 @@
       </c>
       <c r="P8" s="177"/>
     </row>
-    <row r="9" spans="1:16" s="72" customFormat="1" ht="40.5">
+    <row r="9" spans="1:16" s="72" customFormat="1" ht="40.5" hidden="1">
       <c r="A9" s="311">
         <v>7</v>
       </c>
@@ -8322,7 +8302,7 @@
       <c r="O10" s="34"/>
       <c r="P10" s="252"/>
     </row>
-    <row r="11" spans="1:16" s="97" customFormat="1" ht="40.5">
+    <row r="11" spans="1:16" s="97" customFormat="1" ht="40.5" hidden="1">
       <c r="A11" s="311">
         <v>9</v>
       </c>
@@ -8360,7 +8340,7 @@
       <c r="O11" s="91"/>
       <c r="P11" s="96"/>
     </row>
-    <row r="12" spans="1:16" s="72" customFormat="1" ht="40.5">
+    <row r="12" spans="1:16" s="72" customFormat="1" ht="40.5" hidden="1">
       <c r="A12" s="311">
         <v>10</v>
       </c>
@@ -8396,7 +8376,7 @@
       <c r="O12" s="173"/>
       <c r="P12" s="177"/>
     </row>
-    <row r="13" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="13" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="311">
         <v>11</v>
       </c>
@@ -8432,7 +8412,7 @@
       <c r="O13" s="173"/>
       <c r="P13" s="177"/>
     </row>
-    <row r="14" spans="1:16" s="301" customFormat="1" ht="81">
+    <row r="14" spans="1:16" s="301" customFormat="1" ht="81" hidden="1">
       <c r="A14" s="311">
         <v>12</v>
       </c>
@@ -8470,7 +8450,7 @@
       </c>
       <c r="P14" s="304"/>
     </row>
-    <row r="15" spans="1:16" s="301" customFormat="1" ht="67.5">
+    <row r="15" spans="1:16" s="301" customFormat="1" ht="67.5" hidden="1">
       <c r="A15" s="311">
         <v>13</v>
       </c>
@@ -8508,7 +8488,7 @@
       </c>
       <c r="P15" s="304"/>
     </row>
-    <row r="16" spans="1:16" s="301" customFormat="1" ht="27">
+    <row r="16" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
       <c r="A16" s="311">
         <v>14</v>
       </c>
@@ -8546,7 +8526,7 @@
       </c>
       <c r="P16" s="304"/>
     </row>
-    <row r="17" spans="1:16" s="301" customFormat="1" ht="40.5">
+    <row r="17" spans="1:16" s="301" customFormat="1" ht="40.5" hidden="1">
       <c r="A17" s="311">
         <v>15</v>
       </c>
@@ -8584,7 +8564,7 @@
       </c>
       <c r="P17" s="304"/>
     </row>
-    <row r="18" spans="1:16" s="178" customFormat="1" ht="54">
+    <row r="18" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
       <c r="A18" s="311">
         <v>16</v>
       </c>
@@ -8726,7 +8706,7 @@
       <c r="O21" s="34"/>
       <c r="P21" s="252"/>
     </row>
-    <row r="22" spans="1:16" s="178" customFormat="1" ht="81">
+    <row r="22" spans="1:16" s="178" customFormat="1" ht="81" hidden="1">
       <c r="A22" s="311">
         <v>20</v>
       </c>
@@ -8764,7 +8744,7 @@
       </c>
       <c r="P22" s="168"/>
     </row>
-    <row r="23" spans="1:16" s="178" customFormat="1" ht="108">
+    <row r="23" spans="1:16" s="178" customFormat="1" ht="108" hidden="1">
       <c r="A23" s="311">
         <v>21</v>
       </c>
@@ -8802,7 +8782,7 @@
       </c>
       <c r="P23" s="177"/>
     </row>
-    <row r="24" spans="1:16" s="178" customFormat="1" ht="40.5">
+    <row r="24" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A24" s="311">
         <v>22</v>
       </c>
@@ -8840,7 +8820,7 @@
       </c>
       <c r="P24" s="177"/>
     </row>
-    <row r="25" spans="1:16" s="178" customFormat="1" ht="40.5">
+    <row r="25" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A25" s="311">
         <v>23</v>
       </c>
@@ -8880,7 +8860,7 @@
       </c>
       <c r="P25" s="168"/>
     </row>
-    <row r="26" spans="1:16" s="72" customFormat="1" ht="54">
+    <row r="26" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
       <c r="A26" s="311">
         <v>24</v>
       </c>
@@ -8914,7 +8894,7 @@
       <c r="O26" s="173"/>
       <c r="P26" s="177"/>
     </row>
-    <row r="27" spans="1:16" s="301" customFormat="1" ht="135">
+    <row r="27" spans="1:16" s="301" customFormat="1" ht="135" hidden="1">
       <c r="A27" s="311">
         <v>25</v>
       </c>
@@ -9022,7 +9002,7 @@
       <c r="O29" s="34"/>
       <c r="P29" s="252"/>
     </row>
-    <row r="30" spans="1:16" s="221" customFormat="1" ht="67.5">
+    <row r="30" spans="1:16" s="221" customFormat="1" ht="67.5" hidden="1">
       <c r="A30" s="311">
         <v>28</v>
       </c>
@@ -9056,7 +9036,7 @@
       <c r="O30" s="215"/>
       <c r="P30" s="220"/>
     </row>
-    <row r="31" spans="1:16" s="221" customFormat="1" ht="54">
+    <row r="31" spans="1:16" s="221" customFormat="1" ht="54" hidden="1">
       <c r="A31" s="311">
         <v>29</v>
       </c>
@@ -9092,7 +9072,7 @@
       <c r="O31" s="215"/>
       <c r="P31" s="220"/>
     </row>
-    <row r="32" spans="1:16" s="178" customFormat="1" ht="54">
+    <row r="32" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
       <c r="A32" s="311">
         <v>30</v>
       </c>
@@ -9130,7 +9110,7 @@
       </c>
       <c r="P32" s="177"/>
     </row>
-    <row r="33" spans="1:16" s="178" customFormat="1" ht="54">
+    <row r="33" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
       <c r="A33" s="311">
         <v>31</v>
       </c>
@@ -9168,7 +9148,7 @@
       </c>
       <c r="P33" s="177"/>
     </row>
-    <row r="34" spans="1:16" s="178" customFormat="1" ht="94.5">
+    <row r="34" spans="1:16" s="178" customFormat="1" ht="94.5" hidden="1">
       <c r="A34" s="311">
         <v>32</v>
       </c>
@@ -9206,7 +9186,7 @@
       </c>
       <c r="P34" s="177"/>
     </row>
-    <row r="35" spans="1:16" s="178" customFormat="1" ht="67.5">
+    <row r="35" spans="1:16" s="178" customFormat="1" ht="67.5" hidden="1">
       <c r="A35" s="311">
         <v>33</v>
       </c>
@@ -9244,7 +9224,7 @@
       </c>
       <c r="P35" s="177"/>
     </row>
-    <row r="36" spans="1:16" s="72" customFormat="1">
+    <row r="36" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A36" s="311">
         <v>34</v>
       </c>
@@ -9282,7 +9262,7 @@
       <c r="O36" s="173"/>
       <c r="P36" s="177"/>
     </row>
-    <row r="37" spans="1:16" s="178" customFormat="1" ht="27">
+    <row r="37" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
       <c r="A37" s="311">
         <v>35</v>
       </c>
@@ -9324,7 +9304,7 @@
       </c>
       <c r="P37" s="177"/>
     </row>
-    <row r="38" spans="1:16" s="178" customFormat="1">
+    <row r="38" spans="1:16" s="178" customFormat="1" hidden="1">
       <c r="A38" s="311">
         <v>36</v>
       </c>
@@ -9367,7 +9347,7 @@
       </c>
       <c r="P38" s="177"/>
     </row>
-    <row r="39" spans="1:16" s="178" customFormat="1">
+    <row r="39" spans="1:16" s="178" customFormat="1" hidden="1">
       <c r="A39" s="311">
         <v>37</v>
       </c>
@@ -9403,7 +9383,7 @@
       <c r="O39" s="173"/>
       <c r="P39" s="177"/>
     </row>
-    <row r="40" spans="1:16" s="178" customFormat="1" ht="40.5">
+    <row r="40" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A40" s="311">
         <v>38</v>
       </c>
@@ -9443,7 +9423,7 @@
       <c r="O40" s="173"/>
       <c r="P40" s="177"/>
     </row>
-    <row r="41" spans="1:16" s="72" customFormat="1" ht="54">
+    <row r="41" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
       <c r="A41" s="311">
         <v>39</v>
       </c>
@@ -9483,7 +9463,7 @@
       </c>
       <c r="P41" s="177"/>
     </row>
-    <row r="42" spans="1:16" s="178" customFormat="1" ht="108">
+    <row r="42" spans="1:16" s="178" customFormat="1" ht="108" hidden="1">
       <c r="A42" s="311">
         <v>40</v>
       </c>
@@ -9523,7 +9503,7 @@
       </c>
       <c r="P42" s="177"/>
     </row>
-    <row r="43" spans="1:16" s="178" customFormat="1" ht="256.5">
+    <row r="43" spans="1:16" s="178" customFormat="1" ht="256.5" hidden="1">
       <c r="A43" s="311">
         <v>41</v>
       </c>
@@ -9563,7 +9543,7 @@
       </c>
       <c r="P43" s="177"/>
     </row>
-    <row r="44" spans="1:16" s="178" customFormat="1" ht="40.5">
+    <row r="44" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A44" s="311">
         <v>42</v>
       </c>
@@ -9601,7 +9581,7 @@
       </c>
       <c r="P44" s="177"/>
     </row>
-    <row r="45" spans="1:16" s="178" customFormat="1" ht="121.5">
+    <row r="45" spans="1:16" s="178" customFormat="1" ht="121.5" hidden="1">
       <c r="A45" s="311">
         <v>43</v>
       </c>
@@ -9639,7 +9619,7 @@
       </c>
       <c r="P45" s="177"/>
     </row>
-    <row r="46" spans="1:16" s="178" customFormat="1" ht="270">
+    <row r="46" spans="1:16" s="178" customFormat="1" ht="270" hidden="1">
       <c r="A46" s="311">
         <v>44</v>
       </c>
@@ -9679,7 +9659,7 @@
       </c>
       <c r="P46" s="177"/>
     </row>
-    <row r="47" spans="1:16" s="262" customFormat="1" ht="121.5">
+    <row r="47" spans="1:16" s="262" customFormat="1" ht="121.5" hidden="1">
       <c r="A47" s="311">
         <v>45</v>
       </c>
@@ -9715,7 +9695,7 @@
       <c r="O47" s="257"/>
       <c r="P47" s="263"/>
     </row>
-    <row r="48" spans="1:16" s="178" customFormat="1" ht="94.5">
+    <row r="48" spans="1:16" s="178" customFormat="1" ht="94.5" hidden="1">
       <c r="A48" s="311">
         <v>46</v>
       </c>
@@ -9823,7 +9803,7 @@
       <c r="O50" s="253"/>
       <c r="P50" s="252"/>
     </row>
-    <row r="51" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="51" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A51" s="311">
         <v>49</v>
       </c>
@@ -9879,25 +9859,25 @@
         <v>519</v>
       </c>
       <c r="G52" s="279" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H52" s="280"/>
-      <c r="I52" s="280" t="s">
-        <v>65</v>
-      </c>
+      <c r="I52" s="280"/>
       <c r="J52" s="64"/>
       <c r="K52" s="348"/>
       <c r="L52" s="276" t="s">
-        <v>520</v>
-      </c>
-      <c r="M52" s="280"/>
-      <c r="N52" s="280"/>
-      <c r="O52" s="348">
-        <v>42637</v>
+        <v>553</v>
+      </c>
+      <c r="M52" s="272"/>
+      <c r="N52" s="272" t="s">
+        <v>554</v>
+      </c>
+      <c r="O52" s="324">
+        <v>42651</v>
       </c>
       <c r="P52" s="282"/>
     </row>
-    <row r="53" spans="1:16" s="178" customFormat="1">
+    <row r="53" spans="1:16" s="178" customFormat="1" hidden="1">
       <c r="A53" s="311">
         <v>51</v>
       </c>
@@ -9933,7 +9913,7 @@
       <c r="O53" s="173"/>
       <c r="P53" s="177"/>
     </row>
-    <row r="54" spans="1:16" s="301" customFormat="1" ht="108">
+    <row r="54" spans="1:16" s="301" customFormat="1" ht="108" hidden="1">
       <c r="A54" s="311">
         <v>52</v>
       </c>
@@ -9977,7 +9957,7 @@
       </c>
       <c r="P54" s="304"/>
     </row>
-    <row r="55" spans="1:16" s="178" customFormat="1">
+    <row r="55" spans="1:16" s="178" customFormat="1" hidden="1">
       <c r="A55" s="311">
         <v>53</v>
       </c>
@@ -10017,7 +9997,7 @@
       </c>
       <c r="P55" s="177"/>
     </row>
-    <row r="56" spans="1:16" s="178" customFormat="1" ht="27">
+    <row r="56" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
       <c r="A56" s="311">
         <v>54</v>
       </c>
@@ -10055,7 +10035,7 @@
       </c>
       <c r="P56" s="177"/>
     </row>
-    <row r="57" spans="1:16" s="262" customFormat="1" ht="189">
+    <row r="57" spans="1:16" s="262" customFormat="1" ht="189" hidden="1">
       <c r="A57" s="311">
         <v>55</v>
       </c>
@@ -10093,7 +10073,7 @@
       <c r="O57" s="257"/>
       <c r="P57" s="263"/>
     </row>
-    <row r="58" spans="1:16" s="59" customFormat="1" ht="27">
+    <row r="58" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
       <c r="A58" s="311">
         <v>56</v>
       </c>
@@ -10131,7 +10111,7 @@
       </c>
       <c r="P58" s="58"/>
     </row>
-    <row r="59" spans="1:16" s="59" customFormat="1" ht="27">
+    <row r="59" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
       <c r="A59" s="311">
         <v>57</v>
       </c>
@@ -10169,7 +10149,7 @@
       </c>
       <c r="P59" s="58"/>
     </row>
-    <row r="60" spans="1:16" s="178" customFormat="1" ht="27">
+    <row r="60" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
       <c r="A60" s="311">
         <v>58</v>
       </c>
@@ -10208,7 +10188,7 @@
       </c>
       <c r="P60" s="177"/>
     </row>
-    <row r="61" spans="1:16" s="82" customFormat="1" ht="40.5">
+    <row r="61" spans="1:16" s="82" customFormat="1" ht="40.5" hidden="1">
       <c r="A61" s="311">
         <v>59</v>
       </c>
@@ -10246,7 +10226,7 @@
       </c>
       <c r="P61" s="168"/>
     </row>
-    <row r="62" spans="1:16" s="178" customFormat="1" ht="27">
+    <row r="62" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
       <c r="A62" s="311">
         <v>60</v>
       </c>
@@ -10288,7 +10268,7 @@
       </c>
       <c r="P62" s="177"/>
     </row>
-    <row r="63" spans="1:16" s="72" customFormat="1">
+    <row r="63" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A63" s="311">
         <v>61</v>
       </c>
@@ -10328,7 +10308,7 @@
       </c>
       <c r="P63" s="177"/>
     </row>
-    <row r="64" spans="1:16" s="178" customFormat="1" ht="40.5">
+    <row r="64" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A64" s="311">
         <v>62</v>
       </c>
@@ -10372,7 +10352,7 @@
       </c>
       <c r="P64" s="177"/>
     </row>
-    <row r="65" spans="1:16" s="72" customFormat="1">
+    <row r="65" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A65" s="311">
         <v>63</v>
       </c>
@@ -10412,7 +10392,7 @@
       </c>
       <c r="P65" s="177"/>
     </row>
-    <row r="66" spans="1:16" s="72" customFormat="1">
+    <row r="66" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A66" s="311">
         <v>64</v>
       </c>
@@ -10452,7 +10432,7 @@
       </c>
       <c r="P66" s="177"/>
     </row>
-    <row r="67" spans="1:16" s="100" customFormat="1" ht="40.5">
+    <row r="67" spans="1:16" s="100" customFormat="1" ht="40.5" hidden="1">
       <c r="A67" s="311">
         <v>65</v>
       </c>
@@ -10492,7 +10472,7 @@
       </c>
       <c r="P67" s="177"/>
     </row>
-    <row r="68" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="68" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A68" s="311">
         <v>66</v>
       </c>
@@ -10532,7 +10512,7 @@
       </c>
       <c r="P68" s="177"/>
     </row>
-    <row r="69" spans="1:16" s="72" customFormat="1">
+    <row r="69" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A69" s="311">
         <v>67</v>
       </c>
@@ -10572,7 +10552,7 @@
       </c>
       <c r="P69" s="177"/>
     </row>
-    <row r="70" spans="1:16" s="178" customFormat="1" ht="54">
+    <row r="70" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
       <c r="A70" s="311">
         <v>68</v>
       </c>
@@ -10616,7 +10596,7 @@
       </c>
       <c r="P70" s="177"/>
     </row>
-    <row r="71" spans="1:16" s="178" customFormat="1" ht="27">
+    <row r="71" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
       <c r="A71" s="311">
         <v>69</v>
       </c>
@@ -10658,7 +10638,7 @@
       </c>
       <c r="P71" s="177"/>
     </row>
-    <row r="72" spans="1:16" s="72" customFormat="1">
+    <row r="72" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A72" s="311">
         <v>70</v>
       </c>
@@ -10698,7 +10678,7 @@
       </c>
       <c r="P72" s="177"/>
     </row>
-    <row r="73" spans="1:16" s="178" customFormat="1" ht="54">
+    <row r="73" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
       <c r="A73" s="311">
         <v>71</v>
       </c>
@@ -10740,7 +10720,7 @@
       </c>
       <c r="P73" s="177"/>
     </row>
-    <row r="74" spans="1:16" s="178" customFormat="1" ht="27">
+    <row r="74" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
       <c r="A74" s="311">
         <v>72</v>
       </c>
@@ -10782,7 +10762,7 @@
       </c>
       <c r="P74" s="177"/>
     </row>
-    <row r="75" spans="1:16" s="72" customFormat="1">
+    <row r="75" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A75" s="311">
         <v>73</v>
       </c>
@@ -10862,7 +10842,7 @@
       </c>
       <c r="P76" s="168"/>
     </row>
-    <row r="77" spans="1:16" s="59" customFormat="1" ht="40.5">
+    <row r="77" spans="1:16" s="59" customFormat="1" ht="40.5" hidden="1">
       <c r="A77" s="311">
         <v>75</v>
       </c>
@@ -10900,7 +10880,7 @@
       </c>
       <c r="P77" s="58"/>
     </row>
-    <row r="78" spans="1:16" s="178" customFormat="1" ht="40.5">
+    <row r="78" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A78" s="311">
         <v>76</v>
       </c>
@@ -10940,7 +10920,7 @@
       </c>
       <c r="P78" s="177"/>
     </row>
-    <row r="79" spans="1:16" s="178" customFormat="1" ht="40.5">
+    <row r="79" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A79" s="311">
         <v>77</v>
       </c>
@@ -11012,7 +10992,7 @@
       <c r="O80" s="34"/>
       <c r="P80" s="252"/>
     </row>
-    <row r="81" spans="1:16" s="292" customFormat="1" ht="40.5">
+    <row r="81" spans="1:16" s="292" customFormat="1" ht="40.5" hidden="1">
       <c r="A81" s="284">
         <v>79</v>
       </c>
@@ -11086,7 +11066,7 @@
       <c r="O82" s="34"/>
       <c r="P82" s="252"/>
     </row>
-    <row r="83" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="83" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A83" s="311">
         <v>81</v>
       </c>
@@ -11124,7 +11104,7 @@
       </c>
       <c r="P83" s="177"/>
     </row>
-    <row r="84" spans="1:16" s="178" customFormat="1">
+    <row r="84" spans="1:16" s="178" customFormat="1" hidden="1">
       <c r="A84" s="311">
         <v>82</v>
       </c>
@@ -11164,7 +11144,7 @@
       </c>
       <c r="P84" s="177"/>
     </row>
-    <row r="85" spans="1:16" s="82" customFormat="1" ht="27">
+    <row r="85" spans="1:16" s="82" customFormat="1" ht="27" hidden="1">
       <c r="A85" s="311">
         <v>83</v>
       </c>
@@ -11196,7 +11176,7 @@
       <c r="O85" s="134"/>
       <c r="P85" s="168"/>
     </row>
-    <row r="86" spans="1:16" s="221" customFormat="1" ht="148.5">
+    <row r="86" spans="1:16" s="221" customFormat="1" ht="148.5" hidden="1">
       <c r="A86" s="311">
         <v>84</v>
       </c>
@@ -11238,7 +11218,7 @@
       <c r="O86" s="215"/>
       <c r="P86" s="220"/>
     </row>
-    <row r="87" spans="1:16" s="221" customFormat="1" ht="189">
+    <row r="87" spans="1:16" s="221" customFormat="1" ht="189" hidden="1">
       <c r="A87" s="311">
         <v>85</v>
       </c>
@@ -11304,7 +11284,7 @@
       </c>
       <c r="P88" s="252"/>
     </row>
-    <row r="89" spans="1:16" s="221" customFormat="1">
+    <row r="89" spans="1:16" s="221" customFormat="1" hidden="1">
       <c r="A89" s="311">
         <v>87</v>
       </c>
@@ -11340,7 +11320,7 @@
       <c r="O89" s="215"/>
       <c r="P89" s="220"/>
     </row>
-    <row r="90" spans="1:16" s="221" customFormat="1" ht="27">
+    <row r="90" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
       <c r="A90" s="311">
         <v>88</v>
       </c>
@@ -11380,7 +11360,7 @@
       <c r="O90" s="215"/>
       <c r="P90" s="220"/>
     </row>
-    <row r="91" spans="1:16" s="221" customFormat="1">
+    <row r="91" spans="1:16" s="221" customFormat="1" hidden="1">
       <c r="A91" s="311">
         <v>89</v>
       </c>
@@ -11418,7 +11398,7 @@
       <c r="O91" s="215"/>
       <c r="P91" s="220"/>
     </row>
-    <row r="92" spans="1:16" s="221" customFormat="1">
+    <row r="92" spans="1:16" s="221" customFormat="1" hidden="1">
       <c r="A92" s="311">
         <v>90</v>
       </c>
@@ -11456,7 +11436,7 @@
       <c r="O92" s="215"/>
       <c r="P92" s="220"/>
     </row>
-    <row r="93" spans="1:16" s="221" customFormat="1">
+    <row r="93" spans="1:16" s="221" customFormat="1" hidden="1">
       <c r="A93" s="311">
         <v>91</v>
       </c>
@@ -11494,7 +11474,7 @@
       <c r="O93" s="215"/>
       <c r="P93" s="220"/>
     </row>
-    <row r="94" spans="1:16" s="221" customFormat="1">
+    <row r="94" spans="1:16" s="221" customFormat="1" hidden="1">
       <c r="A94" s="311">
         <v>92</v>
       </c>
@@ -11532,7 +11512,7 @@
       <c r="O94" s="215"/>
       <c r="P94" s="220"/>
     </row>
-    <row r="95" spans="1:16" s="221" customFormat="1" ht="27">
+    <row r="95" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
       <c r="A95" s="311">
         <v>93</v>
       </c>
@@ -11604,7 +11584,7 @@
       <c r="O96" s="34"/>
       <c r="P96" s="252"/>
     </row>
-    <row r="97" spans="1:16" s="262" customFormat="1" ht="27">
+    <row r="97" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
       <c r="A97" s="311">
         <v>95</v>
       </c>
@@ -11644,7 +11624,7 @@
       </c>
       <c r="P97" s="263"/>
     </row>
-    <row r="98" spans="1:16" s="262" customFormat="1" ht="40.5">
+    <row r="98" spans="1:16" s="262" customFormat="1" ht="40.5" hidden="1">
       <c r="A98" s="311">
         <v>96</v>
       </c>
@@ -11684,7 +11664,7 @@
       </c>
       <c r="P98" s="263"/>
     </row>
-    <row r="99" spans="1:16" s="262" customFormat="1" ht="40.5">
+    <row r="99" spans="1:16" s="262" customFormat="1" ht="40.5" hidden="1">
       <c r="A99" s="311">
         <v>97</v>
       </c>
@@ -11724,7 +11704,7 @@
       </c>
       <c r="P99" s="263"/>
     </row>
-    <row r="100" spans="1:16" s="301" customFormat="1" ht="27">
+    <row r="100" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
       <c r="A100" s="311">
         <v>98</v>
       </c>
@@ -11764,7 +11744,7 @@
       <c r="O100" s="296"/>
       <c r="P100" s="304"/>
     </row>
-    <row r="101" spans="1:16" s="221" customFormat="1" ht="54">
+    <row r="101" spans="1:16" s="221" customFormat="1" ht="54" hidden="1">
       <c r="A101" s="311">
         <v>99</v>
       </c>
@@ -11798,7 +11778,7 @@
       <c r="O101" s="215"/>
       <c r="P101" s="220"/>
     </row>
-    <row r="102" spans="1:16" s="221" customFormat="1" ht="27">
+    <row r="102" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
       <c r="A102" s="311">
         <v>100</v>
       </c>
@@ -11836,7 +11816,7 @@
       </c>
       <c r="P102" s="220"/>
     </row>
-    <row r="103" spans="1:16" s="221" customFormat="1">
+    <row r="103" spans="1:16" s="221" customFormat="1" hidden="1">
       <c r="A103" s="311">
         <v>101</v>
       </c>
@@ -11874,7 +11854,7 @@
       </c>
       <c r="P103" s="220"/>
     </row>
-    <row r="104" spans="1:16" s="221" customFormat="1" ht="27">
+    <row r="104" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
       <c r="A104" s="311">
         <v>102</v>
       </c>
@@ -11912,7 +11892,7 @@
       </c>
       <c r="P104" s="220"/>
     </row>
-    <row r="105" spans="1:16" s="221" customFormat="1" ht="27">
+    <row r="105" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
       <c r="A105" s="311">
         <v>103</v>
       </c>
@@ -11954,7 +11934,7 @@
       </c>
       <c r="P105" s="220"/>
     </row>
-    <row r="106" spans="1:16" s="178" customFormat="1">
+    <row r="106" spans="1:16" s="178" customFormat="1" hidden="1">
       <c r="A106" s="311">
         <v>104</v>
       </c>
@@ -11992,7 +11972,7 @@
       </c>
       <c r="P106" s="177"/>
     </row>
-    <row r="107" spans="1:16" s="221" customFormat="1" ht="54">
+    <row r="107" spans="1:16" s="221" customFormat="1" ht="54" hidden="1">
       <c r="A107" s="311">
         <v>105</v>
       </c>
@@ -12072,7 +12052,7 @@
       <c r="O108" s="34"/>
       <c r="P108" s="252"/>
     </row>
-    <row r="109" spans="1:16" s="221" customFormat="1" ht="27">
+    <row r="109" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
       <c r="A109" s="311">
         <v>107</v>
       </c>
@@ -12110,7 +12090,7 @@
       </c>
       <c r="P109" s="220"/>
     </row>
-    <row r="110" spans="1:16" s="328" customFormat="1" ht="54">
+    <row r="110" spans="1:16" s="328" customFormat="1" ht="54" hidden="1">
       <c r="A110" s="311">
         <v>108</v>
       </c>
@@ -12154,7 +12134,7 @@
       </c>
       <c r="P110" s="333"/>
     </row>
-    <row r="111" spans="1:16" s="221" customFormat="1" ht="81">
+    <row r="111" spans="1:16" s="221" customFormat="1" ht="81" hidden="1">
       <c r="A111" s="311">
         <v>109</v>
       </c>
@@ -12258,7 +12238,7 @@
       <c r="O113" s="34"/>
       <c r="P113" s="252"/>
     </row>
-    <row r="114" spans="1:16" s="221" customFormat="1" ht="40.5">
+    <row r="114" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
       <c r="A114" s="311">
         <v>112</v>
       </c>
@@ -12296,7 +12276,7 @@
       </c>
       <c r="P114" s="220"/>
     </row>
-    <row r="115" spans="1:16" s="221" customFormat="1" ht="81">
+    <row r="115" spans="1:16" s="221" customFormat="1" ht="81" hidden="1">
       <c r="A115" s="311">
         <v>113</v>
       </c>
@@ -12364,7 +12344,7 @@
       <c r="O116" s="34"/>
       <c r="P116" s="252"/>
     </row>
-    <row r="117" spans="1:16" s="221" customFormat="1" ht="67.5">
+    <row r="117" spans="1:16" s="221" customFormat="1" ht="67.5" hidden="1">
       <c r="A117" s="311">
         <v>115</v>
       </c>
@@ -12398,7 +12378,7 @@
       <c r="O117" s="215"/>
       <c r="P117" s="220"/>
     </row>
-    <row r="118" spans="1:16" s="221" customFormat="1" ht="40.5">
+    <row r="118" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
       <c r="A118" s="311">
         <v>116</v>
       </c>
@@ -12438,7 +12418,7 @@
       </c>
       <c r="P118" s="220"/>
     </row>
-    <row r="119" spans="1:16" s="221" customFormat="1" ht="40.5">
+    <row r="119" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
       <c r="A119" s="311">
         <v>117</v>
       </c>
@@ -12478,7 +12458,7 @@
       </c>
       <c r="P119" s="220"/>
     </row>
-    <row r="120" spans="1:16" s="221" customFormat="1" ht="94.5">
+    <row r="120" spans="1:16" s="221" customFormat="1" ht="94.5" hidden="1">
       <c r="A120" s="311">
         <v>118</v>
       </c>
@@ -12516,7 +12496,7 @@
       </c>
       <c r="P120" s="220"/>
     </row>
-    <row r="121" spans="1:16" s="221" customFormat="1" ht="121.5">
+    <row r="121" spans="1:16" s="221" customFormat="1" ht="121.5" hidden="1">
       <c r="A121" s="311">
         <v>119</v>
       </c>
@@ -12554,7 +12534,7 @@
       </c>
       <c r="P121" s="220"/>
     </row>
-    <row r="122" spans="1:16" s="221" customFormat="1" ht="54">
+    <row r="122" spans="1:16" s="221" customFormat="1" ht="54" hidden="1">
       <c r="A122" s="311">
         <v>120</v>
       </c>
@@ -12594,7 +12574,7 @@
       </c>
       <c r="P122" s="220"/>
     </row>
-    <row r="123" spans="1:16" s="221" customFormat="1" ht="108">
+    <row r="123" spans="1:16" s="221" customFormat="1" ht="108" hidden="1">
       <c r="A123" s="311">
         <v>121</v>
       </c>
@@ -12632,7 +12612,7 @@
       <c r="O123" s="215"/>
       <c r="P123" s="220"/>
     </row>
-    <row r="124" spans="1:16" s="221" customFormat="1" ht="40.5">
+    <row r="124" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
       <c r="A124" s="311">
         <v>122</v>
       </c>
@@ -12670,7 +12650,7 @@
       </c>
       <c r="P124" s="220"/>
     </row>
-    <row r="125" spans="1:16" s="221" customFormat="1" ht="40.5">
+    <row r="125" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
       <c r="A125" s="311">
         <v>123</v>
       </c>
@@ -12708,7 +12688,7 @@
       </c>
       <c r="P125" s="220"/>
     </row>
-    <row r="126" spans="1:16" s="221" customFormat="1" ht="40.5">
+    <row r="126" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
       <c r="A126" s="311">
         <v>124</v>
       </c>
@@ -12748,7 +12728,7 @@
       <c r="O126" s="215"/>
       <c r="P126" s="220"/>
     </row>
-    <row r="127" spans="1:16" s="221" customFormat="1" ht="40.5">
+    <row r="127" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
       <c r="A127" s="311">
         <v>125</v>
       </c>
@@ -12788,7 +12768,7 @@
       </c>
       <c r="P127" s="220"/>
     </row>
-    <row r="128" spans="1:16" s="221" customFormat="1" ht="40.5">
+    <row r="128" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
       <c r="A128" s="311">
         <v>126</v>
       </c>
@@ -12830,7 +12810,7 @@
       </c>
       <c r="P128" s="220"/>
     </row>
-    <row r="129" spans="1:16" s="221" customFormat="1" ht="27">
+    <row r="129" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
       <c r="A129" s="311">
         <v>127</v>
       </c>
@@ -12872,7 +12852,7 @@
       </c>
       <c r="P129" s="220"/>
     </row>
-    <row r="130" spans="1:16" s="221" customFormat="1" ht="81">
+    <row r="130" spans="1:16" s="221" customFormat="1" ht="81" hidden="1">
       <c r="A130" s="311">
         <v>128</v>
       </c>
@@ -12914,7 +12894,7 @@
       </c>
       <c r="P130" s="220"/>
     </row>
-    <row r="131" spans="1:16" s="328" customFormat="1" ht="40.5">
+    <row r="131" spans="1:16" s="328" customFormat="1" ht="40.5" hidden="1">
       <c r="A131" s="284">
         <v>129</v>
       </c>
@@ -12990,7 +12970,7 @@
       <c r="O132" s="34"/>
       <c r="P132" s="252"/>
     </row>
-    <row r="133" spans="1:16" s="221" customFormat="1" ht="27">
+    <row r="133" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
       <c r="A133" s="311">
         <v>131</v>
       </c>
@@ -13030,7 +13010,7 @@
       </c>
       <c r="P133" s="220"/>
     </row>
-    <row r="134" spans="1:16" s="328" customFormat="1" ht="54">
+    <row r="134" spans="1:16" s="328" customFormat="1" ht="54" hidden="1">
       <c r="A134" s="311">
         <v>132</v>
       </c>
@@ -13068,7 +13048,7 @@
       </c>
       <c r="P134" s="327"/>
     </row>
-    <row r="135" spans="1:16" s="328" customFormat="1" ht="40.5">
+    <row r="135" spans="1:16" s="328" customFormat="1" ht="40.5" hidden="1">
       <c r="A135" s="311">
         <v>133</v>
       </c>
@@ -13140,7 +13120,7 @@
       <c r="O136" s="34"/>
       <c r="P136" s="252"/>
     </row>
-    <row r="137" spans="1:16" s="221" customFormat="1" ht="40.5">
+    <row r="137" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
       <c r="A137" s="311">
         <v>135</v>
       </c>
@@ -13178,7 +13158,7 @@
       </c>
       <c r="P137" s="220"/>
     </row>
-    <row r="138" spans="1:16" s="292" customFormat="1" ht="81">
+    <row r="138" spans="1:16" s="292" customFormat="1" ht="81" hidden="1">
       <c r="A138" s="311">
         <v>136</v>
       </c>
@@ -13220,7 +13200,7 @@
       </c>
       <c r="P138" s="291"/>
     </row>
-    <row r="139" spans="1:16" s="221" customFormat="1">
+    <row r="139" spans="1:16" s="221" customFormat="1" hidden="1">
       <c r="A139" s="311">
         <v>137</v>
       </c>
@@ -13262,7 +13242,7 @@
       </c>
       <c r="P139" s="220"/>
     </row>
-    <row r="140" spans="1:16" s="292" customFormat="1" ht="54">
+    <row r="140" spans="1:16" s="292" customFormat="1" ht="54" hidden="1">
       <c r="A140" s="311">
         <v>138</v>
       </c>
@@ -13302,7 +13282,7 @@
       </c>
       <c r="P140" s="291"/>
     </row>
-    <row r="141" spans="1:16" s="301" customFormat="1" ht="81">
+    <row r="141" spans="1:16" s="301" customFormat="1" ht="81" hidden="1">
       <c r="A141" s="311">
         <v>139</v>
       </c>
@@ -13346,7 +13326,7 @@
       </c>
       <c r="P141" s="304"/>
     </row>
-    <row r="142" spans="1:16" s="301" customFormat="1" ht="81">
+    <row r="142" spans="1:16" s="301" customFormat="1" ht="81" hidden="1">
       <c r="A142" s="311">
         <v>140</v>
       </c>
@@ -13382,7 +13362,7 @@
       </c>
       <c r="P142" s="304"/>
     </row>
-    <row r="143" spans="1:16" s="221" customFormat="1">
+    <row r="143" spans="1:16" s="221" customFormat="1" hidden="1">
       <c r="A143" s="311">
         <v>141</v>
       </c>
@@ -13410,7 +13390,7 @@
       </c>
       <c r="P143" s="220"/>
     </row>
-    <row r="144" spans="1:16" s="221" customFormat="1" ht="27">
+    <row r="144" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
       <c r="A144" s="311">
         <v>142</v>
       </c>
@@ -13438,7 +13418,7 @@
       </c>
       <c r="P144" s="220"/>
     </row>
-    <row r="145" spans="1:16" s="221" customFormat="1" ht="27">
+    <row r="145" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
       <c r="A145" s="311">
         <v>143</v>
       </c>
@@ -13514,7 +13494,7 @@
       </c>
       <c r="P147" s="252"/>
     </row>
-    <row r="148" spans="1:16" s="262" customFormat="1" ht="67.5">
+    <row r="148" spans="1:16" s="262" customFormat="1" ht="67.5" hidden="1">
       <c r="A148" s="311">
         <v>146</v>
       </c>
@@ -13553,7 +13533,7 @@
       </c>
       <c r="P148" s="263"/>
     </row>
-    <row r="149" spans="1:16" s="301" customFormat="1" ht="27">
+    <row r="149" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
       <c r="A149" s="358">
         <v>147</v>
       </c>
@@ -13570,22 +13550,22 @@
         <v>42633</v>
       </c>
       <c r="F149" s="339" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G149" s="340" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I149" s="301" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K149" s="337">
         <v>42643</v>
       </c>
       <c r="L149" s="301" t="s">
+        <v>527</v>
+      </c>
+      <c r="N149" s="301" t="s">
         <v>528</v>
-      </c>
-      <c r="N149" s="301" t="s">
-        <v>529</v>
       </c>
       <c r="O149" s="337">
         <v>42641</v>
@@ -13609,7 +13589,7 @@
         <v>42633</v>
       </c>
       <c r="F150" s="260" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G150" s="310" t="s">
         <v>483</v>
@@ -13628,7 +13608,7 @@
       </c>
       <c r="P150" s="252"/>
     </row>
-    <row r="151" spans="1:16" s="301" customFormat="1">
+    <row r="151" spans="1:16" s="301" customFormat="1" hidden="1">
       <c r="A151" s="311">
         <v>149</v>
       </c>
@@ -13670,7 +13650,7 @@
       </c>
       <c r="P151" s="304"/>
     </row>
-    <row r="152" spans="1:16" s="262" customFormat="1" ht="27">
+    <row r="152" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
       <c r="A152" s="311">
         <v>150</v>
       </c>
@@ -13748,7 +13728,7 @@
       <c r="O153" s="34"/>
       <c r="P153" s="252"/>
     </row>
-    <row r="154" spans="1:16" s="262" customFormat="1" ht="27">
+    <row r="154" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
       <c r="A154" s="311">
         <v>152</v>
       </c>
@@ -13792,7 +13772,7 @@
       </c>
       <c r="P154" s="263"/>
     </row>
-    <row r="155" spans="1:16" s="262" customFormat="1" ht="27">
+    <row r="155" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
       <c r="A155" s="311">
         <v>153</v>
       </c>
@@ -13834,7 +13814,7 @@
       </c>
       <c r="P155" s="263"/>
     </row>
-    <row r="156" spans="1:16" s="301" customFormat="1">
+    <row r="156" spans="1:16" s="301" customFormat="1" hidden="1">
       <c r="A156" s="311">
         <v>154</v>
       </c>
@@ -13876,7 +13856,7 @@
       </c>
       <c r="P156" s="304"/>
     </row>
-    <row r="157" spans="1:16" s="262" customFormat="1" ht="54">
+    <row r="157" spans="1:16" s="262" customFormat="1" ht="54" hidden="1">
       <c r="A157" s="311">
         <v>155</v>
       </c>
@@ -13918,7 +13898,7 @@
       </c>
       <c r="P157" s="263"/>
     </row>
-    <row r="158" spans="1:16" ht="27">
+    <row r="158" spans="1:16" ht="27" hidden="1">
       <c r="A158" s="311">
         <v>156</v>
       </c>
@@ -13960,7 +13940,7 @@
       </c>
       <c r="P158" s="252"/>
     </row>
-    <row r="159" spans="1:16" s="262" customFormat="1" ht="27">
+    <row r="159" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
       <c r="A159" s="311">
         <v>157</v>
       </c>
@@ -14004,7 +13984,7 @@
       </c>
       <c r="P159" s="263"/>
     </row>
-    <row r="160" spans="1:16" s="301" customFormat="1" ht="27">
+    <row r="160" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
       <c r="A160" s="311">
         <v>158</v>
       </c>
@@ -14046,7 +14026,7 @@
       </c>
       <c r="P160" s="304"/>
     </row>
-    <row r="161" spans="1:16" s="301" customFormat="1" ht="27">
+    <row r="161" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
       <c r="A161" s="311">
         <v>159</v>
       </c>
@@ -14086,7 +14066,7 @@
       </c>
       <c r="P161" s="304"/>
     </row>
-    <row r="162" spans="1:16" s="301" customFormat="1">
+    <row r="162" spans="1:16" s="301" customFormat="1" hidden="1">
       <c r="A162" s="311">
         <v>160</v>
       </c>
@@ -14128,7 +14108,7 @@
       </c>
       <c r="P162" s="304"/>
     </row>
-    <row r="163" spans="1:16" s="262" customFormat="1" ht="27">
+    <row r="163" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
       <c r="A163" s="311">
         <v>161</v>
       </c>
@@ -14244,7 +14224,7 @@
       </c>
       <c r="P165" s="213"/>
     </row>
-    <row r="166" spans="1:16" s="328" customFormat="1">
+    <row r="166" spans="1:16" s="328" customFormat="1" hidden="1">
       <c r="A166" s="311">
         <v>164</v>
       </c>
@@ -14288,7 +14268,7 @@
       </c>
       <c r="P166" s="327"/>
     </row>
-    <row r="167" spans="1:16" s="292" customFormat="1" ht="27">
+    <row r="167" spans="1:16" s="292" customFormat="1" ht="27" hidden="1">
       <c r="A167" s="311">
         <v>165</v>
       </c>
@@ -14410,7 +14390,7 @@
       </c>
       <c r="P169" s="213"/>
     </row>
-    <row r="170" spans="1:16" s="301" customFormat="1" ht="27">
+    <row r="170" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
       <c r="A170" s="311">
         <v>168</v>
       </c>
@@ -14487,7 +14467,7 @@
       </c>
       <c r="P171" s="127"/>
     </row>
-    <row r="172" spans="1:16" s="262" customFormat="1" ht="40.5">
+    <row r="172" spans="1:16" s="262" customFormat="1" ht="40.5" hidden="1">
       <c r="A172" s="311">
         <v>170</v>
       </c>
@@ -14526,7 +14506,7 @@
         <v>42642</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="262" customFormat="1" ht="94.5">
+    <row r="173" spans="1:16" s="262" customFormat="1" ht="94.5" hidden="1">
       <c r="A173" s="311">
         <v>171</v>
       </c>
@@ -14568,7 +14548,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="174" spans="1:16" s="301" customFormat="1" ht="27">
+    <row r="174" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
       <c r="A174" s="311">
         <v>172</v>
       </c>
@@ -14605,7 +14585,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="27">
+    <row r="175" spans="1:16" ht="27" hidden="1">
       <c r="A175" s="311">
         <v>173</v>
       </c>
@@ -14659,16 +14639,22 @@
         <v>428</v>
       </c>
       <c r="G176" s="307" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H176" s="280"/>
       <c r="I176" s="272"/>
       <c r="J176" s="272"/>
       <c r="K176" s="272"/>
-      <c r="L176" s="276"/>
+      <c r="L176" s="276" t="s">
+        <v>553</v>
+      </c>
       <c r="M176" s="272"/>
-      <c r="N176" s="272"/>
-      <c r="O176" s="324"/>
+      <c r="N176" s="272" t="s">
+        <v>554</v>
+      </c>
+      <c r="O176" s="324">
+        <v>42651</v>
+      </c>
       <c r="P176" s="272"/>
     </row>
     <row r="177" spans="1:16" s="273" customFormat="1">
@@ -14720,10 +14706,10 @@
         <v>42645</v>
       </c>
       <c r="F178" s="312" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G178" s="307" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H178" s="280"/>
       <c r="I178" s="272"/>
@@ -14752,10 +14738,10 @@
         <v>42645</v>
       </c>
       <c r="F179" s="312" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G179" s="307" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H179" s="280"/>
       <c r="I179" s="272"/>
@@ -14784,10 +14770,10 @@
         <v>42645</v>
       </c>
       <c r="F180" s="312" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G180" s="307" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H180" s="280"/>
       <c r="I180" s="272"/>
@@ -14816,10 +14802,10 @@
         <v>42645</v>
       </c>
       <c r="F181" s="312" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G181" s="307" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H181" s="280"/>
       <c r="I181" s="272"/>
@@ -14848,10 +14834,10 @@
         <v>42645</v>
       </c>
       <c r="F182" s="312" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G182" s="307" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H182" s="280"/>
       <c r="I182" s="272"/>
@@ -15611,7 +15597,7 @@
         <v>19</v>
       </c>
       <c r="C205" s="360" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D205" s="293">
         <v>42643</v>
@@ -15645,7 +15631,7 @@
         <v>19</v>
       </c>
       <c r="C206" s="360" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D206" s="293">
         <v>42643</v>
@@ -15657,7 +15643,7 @@
         <v>513</v>
       </c>
       <c r="G206" s="307" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H206" s="280" t="s">
         <v>47</v>
@@ -15688,10 +15674,10 @@
         <v>42649</v>
       </c>
       <c r="F207" s="312" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G207" s="307" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H207" s="280"/>
       <c r="I207" s="272"/>
@@ -15720,10 +15706,10 @@
         <v>42649</v>
       </c>
       <c r="F208" s="312" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G208" s="323" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H208" s="280" t="s">
         <v>47</v>
@@ -15754,10 +15740,10 @@
         <v>42645</v>
       </c>
       <c r="F209" s="312" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G209" s="307" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H209" s="280"/>
       <c r="I209" s="272"/>
@@ -15786,10 +15772,10 @@
         <v>42645</v>
       </c>
       <c r="F210" s="312" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G210" s="307" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H210" s="280"/>
       <c r="I210" s="272"/>
@@ -15818,10 +15804,10 @@
         <v>42645</v>
       </c>
       <c r="F211" s="312" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G211" s="307" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H211" s="280"/>
       <c r="I211" s="272"/>
@@ -15850,10 +15836,10 @@
         <v>42645</v>
       </c>
       <c r="F212" s="312" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G212" s="307" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H212" s="280"/>
       <c r="I212" s="272"/>
@@ -15866,9 +15852,13 @@
       <c r="P212" s="272"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P204">
+  <autoFilter ref="A2:P212">
     <filterColumn colId="5"/>
-    <filterColumn colId="8"/>
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="返回"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="11"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
@@ -15877,12 +15867,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I61 I63 I1:I59 I65:I1048576">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8 L126:L142 L151:L170 L14:L50 L10 L89:L115 L52:L87 L174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8 L126:L142 L151:L170 L14:L50 L10 L89:L115 L174 L53:L87">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17270,7 +17260,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I10)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="557">
   <si>
     <t>编号</t>
   </si>
@@ -5324,6 +5324,14 @@
   </si>
   <si>
     <t>恢复到以前的滚动版本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没处理连续空格的情况。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7918,8 +7926,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="N177" sqref="N177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14683,10 +14691,16 @@
       <c r="I177" s="272"/>
       <c r="J177" s="272"/>
       <c r="K177" s="272"/>
-      <c r="L177" s="276"/>
+      <c r="L177" s="276" t="s">
+        <v>555</v>
+      </c>
       <c r="M177" s="272"/>
-      <c r="N177" s="272"/>
-      <c r="O177" s="324"/>
+      <c r="N177" s="272" t="s">
+        <v>556</v>
+      </c>
+      <c r="O177" s="324">
+        <v>42651</v>
+      </c>
       <c r="P177" s="272"/>
     </row>
     <row r="178" spans="1:16" s="273" customFormat="1" ht="108">
@@ -15855,7 +15869,7 @@
   <autoFilter ref="A2:P212">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="560">
   <si>
     <t>编号</t>
   </si>
@@ -5332,6 +5332,18 @@
   </si>
   <si>
     <t>没处理连续空格的情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTS引擎的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7926,8 +7938,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="N177" sqref="N177"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="O203" sqref="O203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15529,10 +15541,16 @@
       <c r="I202" s="272"/>
       <c r="J202" s="272"/>
       <c r="K202" s="272"/>
-      <c r="L202" s="276"/>
+      <c r="L202" s="276" t="s">
+        <v>557</v>
+      </c>
       <c r="M202" s="272"/>
-      <c r="N202" s="272"/>
-      <c r="O202" s="324"/>
+      <c r="N202" s="272" t="s">
+        <v>558</v>
+      </c>
+      <c r="O202" s="324">
+        <v>42651</v>
+      </c>
       <c r="P202" s="272"/>
     </row>
     <row r="203" spans="1:16" s="273" customFormat="1" ht="27">
@@ -15563,10 +15581,14 @@
       <c r="I203" s="272"/>
       <c r="J203" s="272"/>
       <c r="K203" s="272"/>
-      <c r="L203" s="276"/>
+      <c r="L203" s="276" t="s">
+        <v>559</v>
+      </c>
       <c r="M203" s="272"/>
       <c r="N203" s="272"/>
-      <c r="O203" s="324"/>
+      <c r="O203" s="324">
+        <v>42651</v>
+      </c>
       <c r="P203" s="272"/>
     </row>
     <row r="204" spans="1:16" s="273" customFormat="1" ht="27">

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="563">
   <si>
     <t>编号</t>
   </si>
@@ -3673,10 +3673,6 @@
     <t>空行</t>
   </si>
   <si>
-    <t>重新每次启动都判断创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【样例】：秾李夭桃.txt，文档开头即为换行符。
 逐段模式，通过跳至开头或跳转页码，跳到第1页后，没有光标条，也没有阅读。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5344,6 +5340,22 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新每次启动都判断创建，样机没有自动刷新出来可以在“文件管理”中查看到文件夹或者重启样机后可以看到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与问题74相同重复问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7825,7 +7837,7 @@
         <v>42634</v>
       </c>
       <c r="F7" s="350" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="271" customFormat="1">
@@ -7837,13 +7849,13 @@
         <v>42638</v>
       </c>
       <c r="D8" s="352" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E8" s="348">
         <v>42634</v>
       </c>
       <c r="F8" s="350" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G8" s="347"/>
     </row>
@@ -7858,7 +7870,7 @@
         <v>42640</v>
       </c>
       <c r="F9" s="356" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G9" s="347"/>
     </row>
@@ -7877,7 +7889,7 @@
         <v>42643</v>
       </c>
       <c r="F10" s="350" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G10" s="347"/>
     </row>
@@ -7895,7 +7907,7 @@
         <v>42643</v>
       </c>
       <c r="F11" s="350" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7938,8 +7950,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="O203" sqref="O203"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="N196" sqref="N196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8045,7 +8057,7 @@
       </c>
       <c r="M3" s="191"/>
       <c r="N3" s="191" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O3" s="188">
         <v>42641</v>
@@ -8189,14 +8201,14 @@
         <v>42555</v>
       </c>
       <c r="F7" s="313" t="s">
+        <v>412</v>
+      </c>
+      <c r="G7" s="298" t="s">
         <v>413</v>
-      </c>
-      <c r="G7" s="298" t="s">
-        <v>414</v>
       </c>
       <c r="H7" s="299"/>
       <c r="I7" s="295" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J7" s="300"/>
       <c r="K7" s="296">
@@ -8934,7 +8946,7 @@
         <v>321</v>
       </c>
       <c r="G27" s="305" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H27" s="299" t="s">
         <v>47</v>
@@ -9699,7 +9711,7 @@
         <v>228</v>
       </c>
       <c r="G47" s="298" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H47" s="299"/>
       <c r="I47" s="299" t="s">
@@ -9771,7 +9783,7 @@
         <v>353</v>
       </c>
       <c r="G49" s="302" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H49" s="211" t="s">
         <v>354</v>
@@ -9807,7 +9819,7 @@
         <v>280</v>
       </c>
       <c r="G50" s="279" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H50" s="211" t="s">
         <v>142</v>
@@ -9876,21 +9888,21 @@
         <v>42612</v>
       </c>
       <c r="F52" s="312" t="s">
+        <v>518</v>
+      </c>
+      <c r="G52" s="279" t="s">
         <v>519</v>
-      </c>
-      <c r="G52" s="279" t="s">
-        <v>520</v>
       </c>
       <c r="H52" s="280"/>
       <c r="I52" s="280"/>
       <c r="J52" s="64"/>
       <c r="K52" s="348"/>
       <c r="L52" s="276" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M52" s="272"/>
       <c r="N52" s="272" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O52" s="324">
         <v>42651</v>
@@ -9953,13 +9965,13 @@
         <v>320</v>
       </c>
       <c r="G54" s="298" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H54" s="299" t="s">
         <v>47</v>
       </c>
       <c r="I54" s="295" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J54" s="300"/>
       <c r="K54" s="296">
@@ -10072,16 +10084,16 @@
         <v>42612</v>
       </c>
       <c r="F57" s="313" t="s">
+        <v>433</v>
+      </c>
+      <c r="G57" s="305" t="s">
         <v>434</v>
       </c>
-      <c r="G57" s="305" t="s">
+      <c r="H57" s="299" t="s">
         <v>435</v>
       </c>
-      <c r="H57" s="299" t="s">
-        <v>436</v>
-      </c>
       <c r="I57" s="295" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J57" s="256"/>
       <c r="K57" s="257">
@@ -10842,23 +10854,23 @@
         <v>277</v>
       </c>
       <c r="G76" s="302" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H76" s="87"/>
       <c r="I76" s="276" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J76" s="64"/>
       <c r="K76" s="62"/>
-      <c r="L76" s="180" t="s">
-        <v>58</v>
+      <c r="L76" s="276" t="s">
+        <v>195</v>
       </c>
       <c r="M76" s="167"/>
-      <c r="N76" s="211" t="s">
-        <v>386</v>
+      <c r="N76" s="280" t="s">
+        <v>559</v>
       </c>
       <c r="O76" s="170">
-        <v>42639</v>
+        <v>42651</v>
       </c>
       <c r="P76" s="168"/>
     </row>
@@ -11029,14 +11041,14 @@
         <v>42612</v>
       </c>
       <c r="F81" s="314" t="s">
+        <v>502</v>
+      </c>
+      <c r="G81" s="288" t="s">
         <v>503</v>
-      </c>
-      <c r="G81" s="288" t="s">
-        <v>504</v>
       </c>
       <c r="H81" s="289"/>
       <c r="I81" s="285" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J81" s="290"/>
       <c r="K81" s="286">
@@ -11047,7 +11059,7 @@
       </c>
       <c r="M81" s="289"/>
       <c r="N81" s="289" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O81" s="286">
         <v>42639</v>
@@ -11300,7 +11312,7 @@
         <v>359</v>
       </c>
       <c r="G88" s="315" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P88" s="252"/>
     </row>
@@ -11590,7 +11602,7 @@
         <v>363</v>
       </c>
       <c r="G96" s="279" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H96" s="211" t="s">
         <v>47</v>
@@ -11624,11 +11636,11 @@
         <v>362</v>
       </c>
       <c r="G97" s="298" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H97" s="299"/>
       <c r="I97" s="295" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J97" s="300"/>
       <c r="K97" s="257">
@@ -11664,7 +11676,7 @@
         <v>362</v>
       </c>
       <c r="G98" s="298" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H98" s="299"/>
       <c r="I98" s="295" t="s">
@@ -11704,7 +11716,7 @@
         <v>362</v>
       </c>
       <c r="G99" s="298" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H99" s="299"/>
       <c r="I99" s="295" t="s">
@@ -12130,7 +12142,7 @@
         <v>308</v>
       </c>
       <c r="G110" s="331" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H110" s="318" t="s">
         <v>47</v>
@@ -12147,7 +12159,7 @@
       </c>
       <c r="M110" s="322"/>
       <c r="N110" s="322" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O110" s="332">
         <v>42643</v>
@@ -12931,16 +12943,16 @@
         <v>42627</v>
       </c>
       <c r="F131" s="314" t="s">
+        <v>505</v>
+      </c>
+      <c r="G131" s="288" t="s">
         <v>506</v>
       </c>
-      <c r="G131" s="288" t="s">
-        <v>507</v>
-      </c>
       <c r="H131" s="289" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I131" s="285" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J131" s="290"/>
       <c r="K131" s="286">
@@ -12951,7 +12963,7 @@
       </c>
       <c r="M131" s="289"/>
       <c r="N131" s="289" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O131" s="325">
         <v>42643</v>
@@ -13048,7 +13060,7 @@
       </c>
       <c r="F134" s="314"/>
       <c r="G134" s="288" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H134" s="289"/>
       <c r="I134" s="285" t="s">
@@ -13086,7 +13098,7 @@
       </c>
       <c r="F135" s="314"/>
       <c r="G135" s="288" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H135" s="289"/>
       <c r="I135" s="285" t="s">
@@ -13123,10 +13135,10 @@
         <v>42627</v>
       </c>
       <c r="F136" s="225" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G136" s="302" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H136" s="211" t="s">
         <v>142</v>
@@ -13196,7 +13208,7 @@
       </c>
       <c r="F138" s="287"/>
       <c r="G138" s="288" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H138" s="289" t="s">
         <v>47</v>
@@ -13213,7 +13225,7 @@
       </c>
       <c r="M138" s="289"/>
       <c r="N138" s="289" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O138" s="286">
         <v>42642</v>
@@ -13280,7 +13292,7 @@
       </c>
       <c r="F140" s="287"/>
       <c r="G140" s="316" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H140" s="289"/>
       <c r="I140" s="285" t="s">
@@ -13295,7 +13307,7 @@
       </c>
       <c r="M140" s="289"/>
       <c r="N140" s="289" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O140" s="286">
         <v>42641</v>
@@ -13319,13 +13331,13 @@
         <v>42630</v>
       </c>
       <c r="F141" s="297" t="s">
+        <v>474</v>
+      </c>
+      <c r="G141" s="305" t="s">
         <v>475</v>
       </c>
-      <c r="G141" s="305" t="s">
-        <v>476</v>
-      </c>
       <c r="H141" s="299" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I141" s="285" t="s">
         <v>40</v>
@@ -13339,7 +13351,7 @@
       </c>
       <c r="M141" s="299"/>
       <c r="N141" s="299" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O141" s="296">
         <v>42641</v>
@@ -13364,7 +13376,7 @@
       </c>
       <c r="F142" s="335"/>
       <c r="G142" s="336" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H142" s="338"/>
       <c r="I142" s="295" t="s">
@@ -13534,10 +13546,10 @@
         <v>376</v>
       </c>
       <c r="G148" s="340" t="s">
+        <v>478</v>
+      </c>
+      <c r="I148" s="301" t="s">
         <v>479</v>
-      </c>
-      <c r="I148" s="301" t="s">
-        <v>480</v>
       </c>
       <c r="K148" s="341">
         <v>42643</v>
@@ -13546,7 +13558,7 @@
         <v>59</v>
       </c>
       <c r="N148" s="262" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O148" s="341">
         <v>42642</v>
@@ -13570,22 +13582,22 @@
         <v>42633</v>
       </c>
       <c r="F149" s="339" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G149" s="340" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I149" s="301" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K149" s="337">
         <v>42643</v>
       </c>
       <c r="L149" s="301" t="s">
+        <v>526</v>
+      </c>
+      <c r="N149" s="301" t="s">
         <v>527</v>
-      </c>
-      <c r="N149" s="301" t="s">
-        <v>528</v>
       </c>
       <c r="O149" s="337">
         <v>42641</v>
@@ -13609,19 +13621,19 @@
         <v>42633</v>
       </c>
       <c r="F150" s="260" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G150" s="310" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I150" s="273" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L150" s="195" t="s">
+        <v>395</v>
+      </c>
+      <c r="N150" s="195" t="s">
         <v>396</v>
-      </c>
-      <c r="N150" s="195" t="s">
-        <v>397</v>
       </c>
       <c r="O150" s="261">
         <v>42642</v>
@@ -13654,7 +13666,7 @@
         <v>47</v>
       </c>
       <c r="I151" s="295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J151" s="300"/>
       <c r="K151" s="296">
@@ -13696,7 +13708,7 @@
         <v>47</v>
       </c>
       <c r="I152" s="295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J152" s="300"/>
       <c r="K152" s="296">
@@ -13707,7 +13719,7 @@
       </c>
       <c r="M152" s="299"/>
       <c r="N152" s="299" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O152" s="257">
         <v>42643</v>
@@ -13774,7 +13786,7 @@
         <v>47</v>
       </c>
       <c r="I154" s="295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J154" s="300"/>
       <c r="K154" s="296">
@@ -13785,7 +13797,7 @@
       </c>
       <c r="M154" s="299"/>
       <c r="N154" s="299" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O154" s="257">
         <v>42643</v>
@@ -13812,11 +13824,11 @@
         <v>294</v>
       </c>
       <c r="G155" s="342" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H155" s="299"/>
       <c r="I155" s="295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J155" s="300"/>
       <c r="K155" s="296">
@@ -13827,7 +13839,7 @@
       </c>
       <c r="M155" s="299"/>
       <c r="N155" s="299" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O155" s="257">
         <v>42643</v>
@@ -13860,7 +13872,7 @@
         <v>47</v>
       </c>
       <c r="I156" s="295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J156" s="300"/>
       <c r="K156" s="296">
@@ -13896,11 +13908,11 @@
         <v>250</v>
       </c>
       <c r="G157" s="298" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H157" s="299"/>
       <c r="I157" s="295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J157" s="300"/>
       <c r="K157" s="296">
@@ -13911,7 +13923,7 @@
       </c>
       <c r="M157" s="299"/>
       <c r="N157" s="299" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O157" s="257">
         <v>42643</v>
@@ -13944,7 +13956,7 @@
         <v>237</v>
       </c>
       <c r="I158" s="280" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J158" s="28"/>
       <c r="K158" s="28"/>
@@ -13953,7 +13965,7 @@
       </c>
       <c r="M158" s="211"/>
       <c r="N158" s="211" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O158" s="34">
         <v>42643</v>
@@ -13986,18 +13998,18 @@
         <v>47</v>
       </c>
       <c r="I159" s="295" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J159" s="300"/>
       <c r="K159" s="296">
         <v>42643</v>
       </c>
       <c r="L159" s="299" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M159" s="299"/>
       <c r="N159" s="299" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O159" s="257">
         <v>42643</v>
@@ -14024,13 +14036,13 @@
         <v>256</v>
       </c>
       <c r="G160" s="305" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H160" s="299" t="s">
         <v>47</v>
       </c>
       <c r="I160" s="295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J160" s="300"/>
       <c r="K160" s="296">
@@ -14070,7 +14082,7 @@
       </c>
       <c r="H161" s="299"/>
       <c r="I161" s="295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J161" s="300"/>
       <c r="K161" s="296">
@@ -14106,13 +14118,13 @@
         <v>332</v>
       </c>
       <c r="G162" s="343" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H162" s="299" t="s">
         <v>47</v>
       </c>
       <c r="I162" s="295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J162" s="300"/>
       <c r="K162" s="296">
@@ -14154,18 +14166,18 @@
         <v>47</v>
       </c>
       <c r="I163" s="295" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J163" s="300"/>
       <c r="K163" s="296">
         <v>42643</v>
       </c>
       <c r="L163" s="299" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M163" s="299"/>
       <c r="N163" s="299" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O163" s="257">
         <v>42643</v>
@@ -14192,7 +14204,7 @@
         <v>303</v>
       </c>
       <c r="G164" s="315" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H164" s="211" t="s">
         <v>47</v>
@@ -14226,11 +14238,11 @@
         <v>304</v>
       </c>
       <c r="G165" s="317" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H165" s="211"/>
       <c r="I165" s="276" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J165" s="212"/>
       <c r="K165" s="212"/>
@@ -14238,9 +14250,11 @@
         <v>58</v>
       </c>
       <c r="M165" s="211"/>
-      <c r="N165" s="211"/>
+      <c r="N165" s="280" t="s">
+        <v>560</v>
+      </c>
       <c r="O165" s="209">
-        <v>42637</v>
+        <v>42651</v>
       </c>
       <c r="P165" s="213"/>
     </row>
@@ -14270,7 +14284,7 @@
         <v>47</v>
       </c>
       <c r="I166" s="285" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J166" s="290"/>
       <c r="K166" s="286">
@@ -14281,7 +14295,7 @@
       </c>
       <c r="M166" s="289"/>
       <c r="N166" s="289" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O166" s="325">
         <v>42643</v>
@@ -14314,7 +14328,7 @@
         <v>47</v>
       </c>
       <c r="I167" s="285" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J167" s="290"/>
       <c r="K167" s="286">
@@ -14350,11 +14364,11 @@
         <v>323</v>
       </c>
       <c r="G168" s="315" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H168" s="211"/>
       <c r="I168" s="276" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J168" s="212"/>
       <c r="K168" s="212"/>
@@ -14363,7 +14377,7 @@
       </c>
       <c r="M168" s="211"/>
       <c r="N168" s="211" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O168" s="209">
         <v>42640</v>
@@ -14390,11 +14404,11 @@
         <v>324</v>
       </c>
       <c r="G169" s="317" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H169" s="211"/>
       <c r="I169" s="276" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J169" s="212"/>
       <c r="K169" s="212"/>
@@ -14403,7 +14417,7 @@
       </c>
       <c r="M169" s="211"/>
       <c r="N169" s="211" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O169" s="209">
         <v>42640</v>
@@ -14436,7 +14450,7 @@
         <v>47</v>
       </c>
       <c r="I170" s="295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J170" s="300"/>
       <c r="K170" s="296">
@@ -14472,15 +14486,15 @@
         <v>380</v>
       </c>
       <c r="G171" s="184" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H171" s="211"/>
       <c r="L171" s="207" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M171" s="127"/>
       <c r="N171" s="207" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O171" s="247">
         <v>42640</v>
@@ -14513,7 +14527,7 @@
         <v>383</v>
       </c>
       <c r="I172" s="295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J172" s="300"/>
       <c r="K172" s="296">
@@ -14546,13 +14560,13 @@
         <v>384</v>
       </c>
       <c r="G173" s="346" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H173" s="299" t="s">
         <v>383</v>
       </c>
       <c r="I173" s="295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J173" s="300"/>
       <c r="K173" s="296">
@@ -14562,7 +14576,7 @@
         <v>59</v>
       </c>
       <c r="N173" s="262" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O173" s="341">
         <v>42643</v>
@@ -14588,11 +14602,11 @@
         <v>385</v>
       </c>
       <c r="G174" s="345" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H174" s="299"/>
       <c r="I174" s="295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J174" s="300"/>
       <c r="K174" s="296">
@@ -14622,14 +14636,14 @@
         <v>42641</v>
       </c>
       <c r="F175" s="269" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G175" s="307" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H175" s="266"/>
       <c r="I175" s="272" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J175" s="264"/>
       <c r="K175" s="324"/>
@@ -14656,21 +14670,21 @@
         <v>42645</v>
       </c>
       <c r="F176" s="312" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G176" s="307" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H176" s="280"/>
       <c r="I176" s="272"/>
       <c r="J176" s="272"/>
       <c r="K176" s="272"/>
       <c r="L176" s="276" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M176" s="272"/>
       <c r="N176" s="272" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O176" s="324">
         <v>42651</v>
@@ -14694,21 +14708,21 @@
         <v>42645</v>
       </c>
       <c r="F177" s="312" t="s">
+        <v>415</v>
+      </c>
+      <c r="G177" s="323" t="s">
         <v>416</v>
-      </c>
-      <c r="G177" s="323" t="s">
-        <v>417</v>
       </c>
       <c r="H177" s="280"/>
       <c r="I177" s="272"/>
       <c r="J177" s="272"/>
       <c r="K177" s="272"/>
       <c r="L177" s="276" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M177" s="272"/>
       <c r="N177" s="272" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O177" s="324">
         <v>42651</v>
@@ -14732,10 +14746,10 @@
         <v>42645</v>
       </c>
       <c r="F178" s="312" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G178" s="307" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H178" s="280"/>
       <c r="I178" s="272"/>
@@ -14764,10 +14778,10 @@
         <v>42645</v>
       </c>
       <c r="F179" s="312" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G179" s="307" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H179" s="280"/>
       <c r="I179" s="272"/>
@@ -14796,10 +14810,10 @@
         <v>42645</v>
       </c>
       <c r="F180" s="312" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G180" s="307" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H180" s="280"/>
       <c r="I180" s="272"/>
@@ -14828,10 +14842,10 @@
         <v>42645</v>
       </c>
       <c r="F181" s="312" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G181" s="307" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H181" s="280"/>
       <c r="I181" s="272"/>
@@ -14860,10 +14874,10 @@
         <v>42645</v>
       </c>
       <c r="F182" s="312" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G182" s="307" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H182" s="280"/>
       <c r="I182" s="272"/>
@@ -14892,10 +14906,10 @@
         <v>42645</v>
       </c>
       <c r="F183" s="312" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G183" s="307" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H183" s="280"/>
       <c r="I183" s="272"/>
@@ -14924,10 +14938,10 @@
         <v>42645</v>
       </c>
       <c r="F184" s="312" t="s">
+        <v>422</v>
+      </c>
+      <c r="G184" s="307" t="s">
         <v>423</v>
-      </c>
-      <c r="G184" s="307" t="s">
-        <v>424</v>
       </c>
       <c r="H184" s="280"/>
       <c r="I184" s="272"/>
@@ -14956,10 +14970,10 @@
         <v>42645</v>
       </c>
       <c r="F185" s="312" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G185" s="323" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H185" s="280"/>
       <c r="I185" s="272"/>
@@ -14988,10 +15002,10 @@
         <v>42645</v>
       </c>
       <c r="F186" s="312" t="s">
+        <v>429</v>
+      </c>
+      <c r="G186" s="307" t="s">
         <v>430</v>
-      </c>
-      <c r="G186" s="307" t="s">
-        <v>431</v>
       </c>
       <c r="H186" s="280" t="s">
         <v>47</v>
@@ -15022,10 +15036,10 @@
         <v>42645</v>
       </c>
       <c r="F187" s="312" t="s">
+        <v>431</v>
+      </c>
+      <c r="G187" s="307" t="s">
         <v>432</v>
-      </c>
-      <c r="G187" s="307" t="s">
-        <v>433</v>
       </c>
       <c r="H187" s="280" t="s">
         <v>47</v>
@@ -15056,10 +15070,10 @@
         <v>42645</v>
       </c>
       <c r="F188" s="312" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G188" s="323" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H188" s="280" t="s">
         <v>47</v>
@@ -15090,10 +15104,10 @@
         <v>42645</v>
       </c>
       <c r="F189" s="312" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G189" s="323" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H189" s="280" t="s">
         <v>47</v>
@@ -15124,10 +15138,10 @@
         <v>42645</v>
       </c>
       <c r="F190" s="312" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G190" s="307" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H190" s="280" t="s">
         <v>47</v>
@@ -15158,10 +15172,10 @@
         <v>42645</v>
       </c>
       <c r="F191" s="312" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G191" s="307" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H191" s="280" t="s">
         <v>47</v>
@@ -15192,10 +15206,10 @@
         <v>42645</v>
       </c>
       <c r="F192" s="312" t="s">
+        <v>452</v>
+      </c>
+      <c r="G192" s="323" t="s">
         <v>453</v>
-      </c>
-      <c r="G192" s="323" t="s">
-        <v>454</v>
       </c>
       <c r="H192" s="280" t="s">
         <v>47</v>
@@ -15226,10 +15240,10 @@
         <v>42645</v>
       </c>
       <c r="F193" s="312" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G193" s="329" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H193" s="280" t="s">
         <v>47</v>
@@ -15260,10 +15274,10 @@
         <v>42645</v>
       </c>
       <c r="F194" s="312" t="s">
+        <v>441</v>
+      </c>
+      <c r="G194" s="307" t="s">
         <v>442</v>
-      </c>
-      <c r="G194" s="307" t="s">
-        <v>443</v>
       </c>
       <c r="H194" s="280" t="s">
         <v>47</v>
@@ -15294,10 +15308,10 @@
         <v>42645</v>
       </c>
       <c r="F195" s="312" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G195" s="307" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H195" s="280" t="s">
         <v>47</v>
@@ -15328,10 +15342,10 @@
         <v>42645</v>
       </c>
       <c r="F196" s="312" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G196" s="307" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H196" s="280" t="s">
         <v>47</v>
@@ -15362,10 +15376,10 @@
         <v>42645</v>
       </c>
       <c r="F197" s="312" t="s">
+        <v>447</v>
+      </c>
+      <c r="G197" s="307" t="s">
         <v>448</v>
-      </c>
-      <c r="G197" s="307" t="s">
-        <v>449</v>
       </c>
       <c r="H197" s="280" t="s">
         <v>47</v>
@@ -15396,10 +15410,10 @@
         <v>42645</v>
       </c>
       <c r="F198" s="312" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G198" s="323" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H198" s="280" t="s">
         <v>47</v>
@@ -15407,10 +15421,16 @@
       <c r="I198" s="272"/>
       <c r="J198" s="272"/>
       <c r="K198" s="272"/>
-      <c r="L198" s="276"/>
+      <c r="L198" s="276" t="s">
+        <v>562</v>
+      </c>
       <c r="M198" s="272"/>
-      <c r="N198" s="272"/>
-      <c r="O198" s="324"/>
+      <c r="N198" s="272" t="s">
+        <v>561</v>
+      </c>
+      <c r="O198" s="324">
+        <v>42651</v>
+      </c>
       <c r="P198" s="272"/>
     </row>
     <row r="199" spans="1:16" s="273" customFormat="1">
@@ -15430,10 +15450,10 @@
         <v>42645</v>
       </c>
       <c r="F199" s="312" t="s">
+        <v>458</v>
+      </c>
+      <c r="G199" s="307" t="s">
         <v>459</v>
-      </c>
-      <c r="G199" s="307" t="s">
-        <v>460</v>
       </c>
       <c r="H199" s="280" t="s">
         <v>47</v>
@@ -15464,10 +15484,10 @@
         <v>42645</v>
       </c>
       <c r="F200" s="312" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G200" s="307" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H200" s="280" t="s">
         <v>47</v>
@@ -15498,10 +15518,10 @@
         <v>42645</v>
       </c>
       <c r="F201" s="312" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G201" s="307" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H201" s="280" t="s">
         <v>47</v>
@@ -15532,21 +15552,21 @@
         <v>42645</v>
       </c>
       <c r="F202" s="312" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G202" s="307" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H202" s="280"/>
       <c r="I202" s="272"/>
       <c r="J202" s="272"/>
       <c r="K202" s="272"/>
       <c r="L202" s="276" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M202" s="272"/>
       <c r="N202" s="272" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O202" s="324">
         <v>42651</v>
@@ -15570,10 +15590,10 @@
         <v>42645</v>
       </c>
       <c r="F203" s="312" t="s">
+        <v>480</v>
+      </c>
+      <c r="G203" s="323" t="s">
         <v>481</v>
-      </c>
-      <c r="G203" s="323" t="s">
-        <v>482</v>
       </c>
       <c r="H203" s="280" t="s">
         <v>47</v>
@@ -15582,7 +15602,7 @@
       <c r="J203" s="272"/>
       <c r="K203" s="272"/>
       <c r="L203" s="276" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M203" s="272"/>
       <c r="N203" s="272"/>
@@ -15608,10 +15628,10 @@
         <v>42645</v>
       </c>
       <c r="F204" s="312" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G204" s="307" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H204" s="280" t="s">
         <v>47</v>
@@ -15633,7 +15653,7 @@
         <v>19</v>
       </c>
       <c r="C205" s="360" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D205" s="293">
         <v>42643</v>
@@ -15642,10 +15662,10 @@
         <v>42645</v>
       </c>
       <c r="F205" s="312" t="s">
+        <v>510</v>
+      </c>
+      <c r="G205" s="307" t="s">
         <v>511</v>
-      </c>
-      <c r="G205" s="307" t="s">
-        <v>512</v>
       </c>
       <c r="H205" s="280" t="s">
         <v>47</v>
@@ -15667,7 +15687,7 @@
         <v>19</v>
       </c>
       <c r="C206" s="360" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D206" s="293">
         <v>42643</v>
@@ -15676,10 +15696,10 @@
         <v>42645</v>
       </c>
       <c r="F206" s="312" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G206" s="307" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H206" s="280" t="s">
         <v>47</v>
@@ -15710,10 +15730,10 @@
         <v>42649</v>
       </c>
       <c r="F207" s="312" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G207" s="307" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H207" s="280"/>
       <c r="I207" s="272"/>
@@ -15742,10 +15762,10 @@
         <v>42649</v>
       </c>
       <c r="F208" s="312" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G208" s="323" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H208" s="280" t="s">
         <v>47</v>
@@ -15776,10 +15796,10 @@
         <v>42645</v>
       </c>
       <c r="F209" s="312" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G209" s="307" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H209" s="280"/>
       <c r="I209" s="272"/>
@@ -15808,10 +15828,10 @@
         <v>42645</v>
       </c>
       <c r="F210" s="312" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G210" s="307" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H210" s="280"/>
       <c r="I210" s="272"/>
@@ -15840,10 +15860,10 @@
         <v>42645</v>
       </c>
       <c r="F211" s="312" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G211" s="307" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H211" s="280"/>
       <c r="I211" s="272"/>
@@ -15872,10 +15892,10 @@
         <v>42645</v>
       </c>
       <c r="F212" s="312" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G212" s="307" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H212" s="280"/>
       <c r="I212" s="272"/>
@@ -15963,7 +15983,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="274" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -17353,7 +17373,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="274" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -17437,10 +17457,10 @@
         <v>42641</v>
       </c>
       <c r="F4" s="306" t="s">
+        <v>410</v>
+      </c>
+      <c r="G4" s="307" t="s">
         <v>411</v>
-      </c>
-      <c r="G4" s="307" t="s">
-        <v>412</v>
       </c>
       <c r="H4" s="280"/>
       <c r="I4" s="276"/>

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="563">
   <si>
     <t>编号</t>
   </si>
@@ -3712,10 +3712,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>现在改为使用后鼎提供的提示框。这个问题我没复现。你再试试吧。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5356,6 +5352,10 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6284,7 +6284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="361">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7067,9 +7067,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7836,78 +7833,78 @@
       <c r="E7" s="222">
         <v>42634</v>
       </c>
-      <c r="F7" s="350" t="s">
+      <c r="F7" s="349" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="270" customFormat="1">
+      <c r="A8" s="346"/>
+      <c r="B8" s="350">
+        <v>6</v>
+      </c>
+      <c r="C8" s="348">
+        <v>42638</v>
+      </c>
+      <c r="D8" s="351" t="s">
+        <v>512</v>
+      </c>
+      <c r="E8" s="347">
+        <v>42634</v>
+      </c>
+      <c r="F8" s="349" t="s">
+        <v>513</v>
+      </c>
+      <c r="G8" s="346"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="346"/>
+      <c r="B9" s="356">
+        <v>7</v>
+      </c>
+      <c r="C9" s="352"/>
+      <c r="D9" s="353"/>
+      <c r="E9" s="354">
+        <v>42640</v>
+      </c>
+      <c r="F9" s="355" t="s">
+        <v>514</v>
+      </c>
+      <c r="G9" s="346"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="346"/>
+      <c r="B10" s="350">
+        <v>8</v>
+      </c>
+      <c r="C10" s="348">
+        <v>42645</v>
+      </c>
+      <c r="D10" s="351" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="347">
+        <v>42643</v>
+      </c>
+      <c r="F10" s="349" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="271" customFormat="1">
-      <c r="A8" s="347"/>
-      <c r="B8" s="351">
-        <v>6</v>
-      </c>
-      <c r="C8" s="349">
-        <v>42638</v>
-      </c>
-      <c r="D8" s="352" t="s">
-        <v>513</v>
-      </c>
-      <c r="E8" s="348">
-        <v>42634</v>
-      </c>
-      <c r="F8" s="350" t="s">
-        <v>514</v>
-      </c>
-      <c r="G8" s="347"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="347"/>
-      <c r="B9" s="357">
-        <v>7</v>
-      </c>
-      <c r="C9" s="353"/>
-      <c r="D9" s="354"/>
-      <c r="E9" s="355">
-        <v>42640</v>
-      </c>
-      <c r="F9" s="356" t="s">
-        <v>515</v>
-      </c>
-      <c r="G9" s="347"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="347"/>
-      <c r="B10" s="351">
-        <v>8</v>
-      </c>
-      <c r="C10" s="349">
-        <v>42645</v>
-      </c>
-      <c r="D10" s="352" t="s">
+      <c r="G10" s="346"/>
+    </row>
+    <row r="11" spans="1:7" s="346" customFormat="1">
+      <c r="B11" s="350">
+        <v>9</v>
+      </c>
+      <c r="C11" s="348">
+        <v>42649</v>
+      </c>
+      <c r="D11" s="351" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="348">
+      <c r="E11" s="347">
         <v>42643</v>
       </c>
-      <c r="F10" s="350" t="s">
-        <v>517</v>
-      </c>
-      <c r="G10" s="347"/>
-    </row>
-    <row r="11" spans="1:7" s="347" customFormat="1">
-      <c r="B11" s="351">
-        <v>9</v>
-      </c>
-      <c r="C11" s="349">
-        <v>42649</v>
-      </c>
-      <c r="D11" s="352" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="348">
-        <v>42643</v>
-      </c>
-      <c r="F11" s="350" t="s">
-        <v>551</v>
+      <c r="F11" s="349" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7950,8 +7947,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="N196" sqref="N196"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="O205" sqref="O205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8065,7 +8062,7 @@
       <c r="P3" s="193"/>
     </row>
     <row r="4" spans="1:16" s="72" customFormat="1" ht="81" hidden="1">
-      <c r="A4" s="311">
+      <c r="A4" s="310">
         <v>2</v>
       </c>
       <c r="B4" s="66" t="s">
@@ -8103,7 +8100,7 @@
       <c r="P4" s="177"/>
     </row>
     <row r="5" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
-      <c r="A5" s="311">
+      <c r="A5" s="310">
         <v>3</v>
       </c>
       <c r="B5" s="66" t="s">
@@ -8143,7 +8140,7 @@
       <c r="P5" s="177"/>
     </row>
     <row r="6" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
-      <c r="A6" s="311">
+      <c r="A6" s="310">
         <v>4</v>
       </c>
       <c r="B6" s="172" t="s">
@@ -8184,48 +8181,48 @@
       </c>
       <c r="P6" s="177"/>
     </row>
-    <row r="7" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A7" s="311">
+    <row r="7" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A7" s="310">
         <v>5</v>
       </c>
-      <c r="B7" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="296">
+      <c r="B7" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="295">
         <v>42552</v>
       </c>
-      <c r="E7" s="297">
+      <c r="E7" s="296">
         <v>42555</v>
       </c>
-      <c r="F7" s="313" t="s">
+      <c r="F7" s="312" t="s">
+        <v>411</v>
+      </c>
+      <c r="G7" s="297" t="s">
         <v>412</v>
       </c>
-      <c r="G7" s="298" t="s">
+      <c r="H7" s="298"/>
+      <c r="I7" s="294" t="s">
         <v>413</v>
       </c>
-      <c r="H7" s="299"/>
-      <c r="I7" s="295" t="s">
-        <v>414</v>
-      </c>
-      <c r="J7" s="300"/>
-      <c r="K7" s="296">
+      <c r="J7" s="299"/>
+      <c r="K7" s="295">
         <v>42643</v>
       </c>
-      <c r="L7" s="295" t="s">
+      <c r="L7" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="299"/>
-      <c r="N7" s="299"/>
-      <c r="O7" s="296">
+      <c r="M7" s="298"/>
+      <c r="N7" s="298"/>
+      <c r="O7" s="295">
         <v>42637</v>
       </c>
-      <c r="P7" s="304"/>
+      <c r="P7" s="303"/>
     </row>
     <row r="8" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
-      <c r="A8" s="311">
+      <c r="A8" s="310">
         <v>6</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -8265,7 +8262,7 @@
       <c r="P8" s="177"/>
     </row>
     <row r="9" spans="1:16" s="72" customFormat="1" ht="40.5" hidden="1">
-      <c r="A9" s="311">
+      <c r="A9" s="310">
         <v>7</v>
       </c>
       <c r="B9" s="66" t="s">
@@ -8301,7 +8298,7 @@
       <c r="P9" s="177"/>
     </row>
     <row r="10" spans="1:16" ht="40.5">
-      <c r="A10" s="311">
+      <c r="A10" s="310">
         <v>8</v>
       </c>
       <c r="B10" s="211" t="s">
@@ -8319,7 +8316,7 @@
       <c r="F10" s="199" t="s">
         <v>342</v>
       </c>
-      <c r="G10" s="302" t="s">
+      <c r="G10" s="301" t="s">
         <v>341</v>
       </c>
       <c r="H10" s="211" t="s">
@@ -8335,7 +8332,7 @@
       <c r="P10" s="252"/>
     </row>
     <row r="11" spans="1:16" s="97" customFormat="1" ht="40.5" hidden="1">
-      <c r="A11" s="311">
+      <c r="A11" s="310">
         <v>9</v>
       </c>
       <c r="B11" s="90" t="s">
@@ -8373,7 +8370,7 @@
       <c r="P11" s="96"/>
     </row>
     <row r="12" spans="1:16" s="72" customFormat="1" ht="40.5" hidden="1">
-      <c r="A12" s="311">
+      <c r="A12" s="310">
         <v>10</v>
       </c>
       <c r="B12" s="66" t="s">
@@ -8409,7 +8406,7 @@
       <c r="P12" s="177"/>
     </row>
     <row r="13" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
-      <c r="A13" s="311">
+      <c r="A13" s="310">
         <v>11</v>
       </c>
       <c r="B13" s="66" t="s">
@@ -8444,160 +8441,160 @@
       <c r="O13" s="173"/>
       <c r="P13" s="177"/>
     </row>
-    <row r="14" spans="1:16" s="301" customFormat="1" ht="81" hidden="1">
-      <c r="A14" s="311">
+    <row r="14" spans="1:16" s="300" customFormat="1" ht="81" hidden="1">
+      <c r="A14" s="310">
         <v>12</v>
       </c>
-      <c r="B14" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="296">
+      <c r="B14" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="295">
         <v>42552</v>
       </c>
-      <c r="E14" s="297">
+      <c r="E14" s="296">
         <v>42555</v>
       </c>
-      <c r="F14" s="313"/>
-      <c r="G14" s="298" t="s">
+      <c r="F14" s="312"/>
+      <c r="G14" s="297" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="299"/>
-      <c r="I14" s="295" t="s">
+      <c r="H14" s="298"/>
+      <c r="I14" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="300"/>
-      <c r="K14" s="296">
+      <c r="J14" s="299"/>
+      <c r="K14" s="295">
         <v>42632</v>
       </c>
-      <c r="L14" s="295" t="s">
+      <c r="L14" s="294" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="299"/>
-      <c r="N14" s="299"/>
-      <c r="O14" s="296">
+      <c r="M14" s="298"/>
+      <c r="N14" s="298"/>
+      <c r="O14" s="295">
         <v>42631</v>
       </c>
-      <c r="P14" s="304"/>
-    </row>
-    <row r="15" spans="1:16" s="301" customFormat="1" ht="67.5" hidden="1">
-      <c r="A15" s="311">
+      <c r="P14" s="303"/>
+    </row>
+    <row r="15" spans="1:16" s="300" customFormat="1" ht="67.5" hidden="1">
+      <c r="A15" s="310">
         <v>13</v>
       </c>
-      <c r="B15" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="296">
+      <c r="B15" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="295">
         <v>42552</v>
       </c>
-      <c r="E15" s="297">
+      <c r="E15" s="296">
         <v>42555</v>
       </c>
-      <c r="F15" s="313"/>
-      <c r="G15" s="298" t="s">
+      <c r="F15" s="312"/>
+      <c r="G15" s="297" t="s">
         <v>177</v>
       </c>
-      <c r="H15" s="299"/>
-      <c r="I15" s="295" t="s">
+      <c r="H15" s="298"/>
+      <c r="I15" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="300"/>
-      <c r="K15" s="296">
+      <c r="J15" s="299"/>
+      <c r="K15" s="295">
         <v>42632</v>
       </c>
-      <c r="L15" s="295" t="s">
+      <c r="L15" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="299"/>
-      <c r="N15" s="299"/>
-      <c r="O15" s="296">
+      <c r="M15" s="298"/>
+      <c r="N15" s="298"/>
+      <c r="O15" s="295">
         <v>42631</v>
       </c>
-      <c r="P15" s="304"/>
-    </row>
-    <row r="16" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A16" s="311">
+      <c r="P15" s="303"/>
+    </row>
+    <row r="16" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A16" s="310">
         <v>14</v>
       </c>
-      <c r="B16" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="296">
+      <c r="B16" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="295">
         <v>42552</v>
       </c>
-      <c r="E16" s="297">
+      <c r="E16" s="296">
         <v>42555</v>
       </c>
-      <c r="F16" s="313"/>
-      <c r="G16" s="298" t="s">
+      <c r="F16" s="312"/>
+      <c r="G16" s="297" t="s">
         <v>178</v>
       </c>
-      <c r="H16" s="299"/>
-      <c r="I16" s="295" t="s">
+      <c r="H16" s="298"/>
+      <c r="I16" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="300"/>
-      <c r="K16" s="296">
+      <c r="J16" s="299"/>
+      <c r="K16" s="295">
         <v>42632</v>
       </c>
-      <c r="L16" s="295" t="s">
+      <c r="L16" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="299"/>
-      <c r="N16" s="299"/>
-      <c r="O16" s="296">
+      <c r="M16" s="298"/>
+      <c r="N16" s="298"/>
+      <c r="O16" s="295">
         <v>42632</v>
       </c>
-      <c r="P16" s="304"/>
-    </row>
-    <row r="17" spans="1:16" s="301" customFormat="1" ht="40.5" hidden="1">
-      <c r="A17" s="311">
+      <c r="P16" s="303"/>
+    </row>
+    <row r="17" spans="1:16" s="300" customFormat="1" ht="40.5" hidden="1">
+      <c r="A17" s="310">
         <v>15</v>
       </c>
-      <c r="B17" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="296">
+      <c r="B17" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="295">
         <v>42503</v>
       </c>
-      <c r="E17" s="297">
+      <c r="E17" s="296">
         <v>42507</v>
       </c>
-      <c r="F17" s="313"/>
-      <c r="G17" s="298" t="s">
+      <c r="F17" s="312"/>
+      <c r="G17" s="297" t="s">
         <v>179</v>
       </c>
-      <c r="H17" s="299"/>
-      <c r="I17" s="295" t="s">
+      <c r="H17" s="298"/>
+      <c r="I17" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="300"/>
-      <c r="K17" s="296">
+      <c r="J17" s="299"/>
+      <c r="K17" s="295">
         <v>42632</v>
       </c>
-      <c r="L17" s="295" t="s">
+      <c r="L17" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="299"/>
-      <c r="N17" s="299"/>
-      <c r="O17" s="296">
+      <c r="M17" s="298"/>
+      <c r="N17" s="298"/>
+      <c r="O17" s="295">
         <v>42632</v>
       </c>
-      <c r="P17" s="304"/>
+      <c r="P17" s="303"/>
     </row>
     <row r="18" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
-      <c r="A18" s="311">
+      <c r="A18" s="310">
         <v>16</v>
       </c>
       <c r="B18" s="172" t="s">
@@ -8637,7 +8634,7 @@
       <c r="P18" s="168"/>
     </row>
     <row r="19" spans="1:16" ht="229.5">
-      <c r="A19" s="311">
+      <c r="A19" s="310">
         <v>17</v>
       </c>
       <c r="B19" s="211" t="s">
@@ -8671,7 +8668,7 @@
       <c r="P19" s="252"/>
     </row>
     <row r="20" spans="1:16" ht="67.5">
-      <c r="A20" s="311">
+      <c r="A20" s="310">
         <v>18</v>
       </c>
       <c r="B20" s="211" t="s">
@@ -8705,7 +8702,7 @@
       <c r="P20" s="252"/>
     </row>
     <row r="21" spans="1:16" ht="189">
-      <c r="A21" s="311">
+      <c r="A21" s="310">
         <v>19</v>
       </c>
       <c r="B21" s="211" t="s">
@@ -8739,7 +8736,7 @@
       <c r="P21" s="252"/>
     </row>
     <row r="22" spans="1:16" s="178" customFormat="1" ht="81" hidden="1">
-      <c r="A22" s="311">
+      <c r="A22" s="310">
         <v>20</v>
       </c>
       <c r="B22" s="172" t="s">
@@ -8777,7 +8774,7 @@
       <c r="P22" s="168"/>
     </row>
     <row r="23" spans="1:16" s="178" customFormat="1" ht="108" hidden="1">
-      <c r="A23" s="311">
+      <c r="A23" s="310">
         <v>21</v>
       </c>
       <c r="B23" s="172" t="s">
@@ -8815,7 +8812,7 @@
       <c r="P23" s="177"/>
     </row>
     <row r="24" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
-      <c r="A24" s="311">
+      <c r="A24" s="310">
         <v>22</v>
       </c>
       <c r="B24" s="172" t="s">
@@ -8853,7 +8850,7 @@
       <c r="P24" s="177"/>
     </row>
     <row r="25" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
-      <c r="A25" s="311">
+      <c r="A25" s="310">
         <v>23</v>
       </c>
       <c r="B25" s="172" t="s">
@@ -8893,7 +8890,7 @@
       <c r="P25" s="168"/>
     </row>
     <row r="26" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
-      <c r="A26" s="311">
+      <c r="A26" s="310">
         <v>24</v>
       </c>
       <c r="B26" s="66" t="s">
@@ -8926,50 +8923,50 @@
       <c r="O26" s="173"/>
       <c r="P26" s="177"/>
     </row>
-    <row r="27" spans="1:16" s="301" customFormat="1" ht="135" hidden="1">
-      <c r="A27" s="311">
+    <row r="27" spans="1:16" s="300" customFormat="1" ht="135" hidden="1">
+      <c r="A27" s="310">
         <v>25</v>
       </c>
-      <c r="B27" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="296">
+      <c r="B27" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="295">
         <v>42552</v>
       </c>
-      <c r="E27" s="297">
+      <c r="E27" s="296">
         <v>42555</v>
       </c>
-      <c r="F27" s="313" t="s">
+      <c r="F27" s="312" t="s">
         <v>321</v>
       </c>
-      <c r="G27" s="305" t="s">
-        <v>417</v>
-      </c>
-      <c r="H27" s="299" t="s">
+      <c r="G27" s="304" t="s">
+        <v>416</v>
+      </c>
+      <c r="H27" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="295" t="s">
+      <c r="I27" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="300"/>
-      <c r="K27" s="296">
+      <c r="J27" s="299"/>
+      <c r="K27" s="295">
         <v>42643</v>
       </c>
-      <c r="L27" s="295" t="s">
+      <c r="L27" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M27" s="299"/>
-      <c r="N27" s="299"/>
-      <c r="O27" s="296">
+      <c r="M27" s="298"/>
+      <c r="N27" s="298"/>
+      <c r="O27" s="295">
         <v>42637</v>
       </c>
-      <c r="P27" s="304"/>
+      <c r="P27" s="303"/>
     </row>
     <row r="28" spans="1:16" ht="229.5">
-      <c r="A28" s="311">
+      <c r="A28" s="310">
         <v>26</v>
       </c>
       <c r="B28" s="211" t="s">
@@ -9005,7 +9002,7 @@
       <c r="P28" s="252"/>
     </row>
     <row r="29" spans="1:16" ht="135">
-      <c r="A29" s="311">
+      <c r="A29" s="310">
         <v>27</v>
       </c>
       <c r="B29" s="211" t="s">
@@ -9021,7 +9018,7 @@
         <v>42555</v>
       </c>
       <c r="F29" s="199"/>
-      <c r="G29" s="279" t="s">
+      <c r="G29" s="278" t="s">
         <v>194</v>
       </c>
       <c r="H29" s="211"/>
@@ -9035,7 +9032,7 @@
       <c r="P29" s="252"/>
     </row>
     <row r="30" spans="1:16" s="221" customFormat="1" ht="67.5" hidden="1">
-      <c r="A30" s="311">
+      <c r="A30" s="310">
         <v>28</v>
       </c>
       <c r="B30" s="214" t="s">
@@ -9069,7 +9066,7 @@
       <c r="P30" s="220"/>
     </row>
     <row r="31" spans="1:16" s="221" customFormat="1" ht="54" hidden="1">
-      <c r="A31" s="311">
+      <c r="A31" s="310">
         <v>29</v>
       </c>
       <c r="B31" s="214" t="s">
@@ -9105,7 +9102,7 @@
       <c r="P31" s="220"/>
     </row>
     <row r="32" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
-      <c r="A32" s="311">
+      <c r="A32" s="310">
         <v>30</v>
       </c>
       <c r="B32" s="172" t="s">
@@ -9143,7 +9140,7 @@
       <c r="P32" s="177"/>
     </row>
     <row r="33" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
-      <c r="A33" s="311">
+      <c r="A33" s="310">
         <v>31</v>
       </c>
       <c r="B33" s="172" t="s">
@@ -9181,7 +9178,7 @@
       <c r="P33" s="177"/>
     </row>
     <row r="34" spans="1:16" s="178" customFormat="1" ht="94.5" hidden="1">
-      <c r="A34" s="311">
+      <c r="A34" s="310">
         <v>32</v>
       </c>
       <c r="B34" s="172" t="s">
@@ -9219,7 +9216,7 @@
       <c r="P34" s="177"/>
     </row>
     <row r="35" spans="1:16" s="178" customFormat="1" ht="67.5" hidden="1">
-      <c r="A35" s="311">
+      <c r="A35" s="310">
         <v>33</v>
       </c>
       <c r="B35" s="172" t="s">
@@ -9257,7 +9254,7 @@
       <c r="P35" s="177"/>
     </row>
     <row r="36" spans="1:16" s="72" customFormat="1" hidden="1">
-      <c r="A36" s="311">
+      <c r="A36" s="310">
         <v>34</v>
       </c>
       <c r="B36" s="137" t="s">
@@ -9295,7 +9292,7 @@
       <c r="P36" s="177"/>
     </row>
     <row r="37" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
-      <c r="A37" s="311">
+      <c r="A37" s="310">
         <v>35</v>
       </c>
       <c r="B37" s="172" t="s">
@@ -9337,7 +9334,7 @@
       <c r="P37" s="177"/>
     </row>
     <row r="38" spans="1:16" s="178" customFormat="1" hidden="1">
-      <c r="A38" s="311">
+      <c r="A38" s="310">
         <v>36</v>
       </c>
       <c r="B38" s="172" t="s">
@@ -9380,7 +9377,7 @@
       <c r="P38" s="177"/>
     </row>
     <row r="39" spans="1:16" s="178" customFormat="1" hidden="1">
-      <c r="A39" s="311">
+      <c r="A39" s="310">
         <v>37</v>
       </c>
       <c r="B39" s="172" t="s">
@@ -9416,7 +9413,7 @@
       <c r="P39" s="177"/>
     </row>
     <row r="40" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
-      <c r="A40" s="311">
+      <c r="A40" s="310">
         <v>38</v>
       </c>
       <c r="B40" s="172" t="s">
@@ -9456,7 +9453,7 @@
       <c r="P40" s="177"/>
     </row>
     <row r="41" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
-      <c r="A41" s="311">
+      <c r="A41" s="310">
         <v>39</v>
       </c>
       <c r="B41" s="137" t="s">
@@ -9496,7 +9493,7 @@
       <c r="P41" s="177"/>
     </row>
     <row r="42" spans="1:16" s="178" customFormat="1" ht="108" hidden="1">
-      <c r="A42" s="311">
+      <c r="A42" s="310">
         <v>40</v>
       </c>
       <c r="B42" s="172" t="s">
@@ -9536,7 +9533,7 @@
       <c r="P42" s="177"/>
     </row>
     <row r="43" spans="1:16" s="178" customFormat="1" ht="256.5" hidden="1">
-      <c r="A43" s="311">
+      <c r="A43" s="310">
         <v>41</v>
       </c>
       <c r="B43" s="172" t="s">
@@ -9576,7 +9573,7 @@
       <c r="P43" s="177"/>
     </row>
     <row r="44" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
-      <c r="A44" s="311">
+      <c r="A44" s="310">
         <v>42</v>
       </c>
       <c r="B44" s="172" t="s">
@@ -9614,7 +9611,7 @@
       <c r="P44" s="177"/>
     </row>
     <row r="45" spans="1:16" s="178" customFormat="1" ht="121.5" hidden="1">
-      <c r="A45" s="311">
+      <c r="A45" s="310">
         <v>43</v>
       </c>
       <c r="B45" s="172" t="s">
@@ -9652,7 +9649,7 @@
       <c r="P45" s="177"/>
     </row>
     <row r="46" spans="1:16" s="178" customFormat="1" ht="270" hidden="1">
-      <c r="A46" s="311">
+      <c r="A46" s="310">
         <v>44</v>
       </c>
       <c r="B46" s="172" t="s">
@@ -9691,44 +9688,44 @@
       </c>
       <c r="P46" s="177"/>
     </row>
-    <row r="47" spans="1:16" s="262" customFormat="1" ht="121.5" hidden="1">
-      <c r="A47" s="311">
+    <row r="47" spans="1:16" s="261" customFormat="1" ht="121.5" hidden="1">
+      <c r="A47" s="310">
         <v>45</v>
       </c>
-      <c r="B47" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="299" t="s">
+      <c r="B47" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="257">
         <v>42552</v>
       </c>
-      <c r="E47" s="313">
+      <c r="E47" s="312">
         <v>42555</v>
       </c>
-      <c r="F47" s="313" t="s">
+      <c r="F47" s="312" t="s">
         <v>228</v>
       </c>
-      <c r="G47" s="298" t="s">
-        <v>419</v>
-      </c>
-      <c r="H47" s="299"/>
-      <c r="I47" s="299" t="s">
+      <c r="G47" s="297" t="s">
+        <v>418</v>
+      </c>
+      <c r="H47" s="298"/>
+      <c r="I47" s="298" t="s">
         <v>51</v>
       </c>
       <c r="J47" s="256"/>
       <c r="K47" s="257">
         <v>42643</v>
       </c>
-      <c r="L47" s="299"/>
-      <c r="M47" s="299"/>
-      <c r="N47" s="299"/>
+      <c r="L47" s="298"/>
+      <c r="M47" s="298"/>
+      <c r="N47" s="298"/>
       <c r="O47" s="257"/>
-      <c r="P47" s="263"/>
+      <c r="P47" s="262"/>
     </row>
     <row r="48" spans="1:16" s="178" customFormat="1" ht="94.5" hidden="1">
-      <c r="A48" s="311">
+      <c r="A48" s="310">
         <v>46</v>
       </c>
       <c r="B48" s="172" t="s">
@@ -9764,7 +9761,7 @@
       <c r="P48" s="177"/>
     </row>
     <row r="49" spans="1:16" ht="94.5">
-      <c r="A49" s="311">
+      <c r="A49" s="310">
         <v>47</v>
       </c>
       <c r="B49" s="211" t="s">
@@ -9782,13 +9779,13 @@
       <c r="F49" s="199" t="s">
         <v>353</v>
       </c>
-      <c r="G49" s="302" t="s">
-        <v>426</v>
+      <c r="G49" s="301" t="s">
+        <v>425</v>
       </c>
       <c r="H49" s="211" t="s">
         <v>354</v>
       </c>
-      <c r="I49" s="280" t="s">
+      <c r="I49" s="279" t="s">
         <v>65</v>
       </c>
       <c r="J49" s="28"/>
@@ -9800,7 +9797,7 @@
       <c r="P49" s="252"/>
     </row>
     <row r="50" spans="1:16" s="254" customFormat="1" ht="121.5">
-      <c r="A50" s="311">
+      <c r="A50" s="310">
         <v>48</v>
       </c>
       <c r="B50" s="211" t="s">
@@ -9818,8 +9815,8 @@
       <c r="F50" s="225" t="s">
         <v>280</v>
       </c>
-      <c r="G50" s="279" t="s">
-        <v>425</v>
+      <c r="G50" s="278" t="s">
+        <v>424</v>
       </c>
       <c r="H50" s="211" t="s">
         <v>142</v>
@@ -9836,7 +9833,7 @@
       <c r="P50" s="252"/>
     </row>
     <row r="51" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
-      <c r="A51" s="311">
+      <c r="A51" s="310">
         <v>49</v>
       </c>
       <c r="B51" s="66" t="s">
@@ -9875,42 +9872,42 @@
       <c r="A52" s="169">
         <v>50</v>
       </c>
-      <c r="B52" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="348">
+      <c r="B52" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="347">
         <v>42610</v>
       </c>
-      <c r="E52" s="349">
+      <c r="E52" s="348">
         <v>42612</v>
       </c>
-      <c r="F52" s="312" t="s">
+      <c r="F52" s="311" t="s">
+        <v>517</v>
+      </c>
+      <c r="G52" s="278" t="s">
         <v>518</v>
       </c>
-      <c r="G52" s="279" t="s">
-        <v>519</v>
-      </c>
-      <c r="H52" s="280"/>
-      <c r="I52" s="280"/>
+      <c r="H52" s="279"/>
+      <c r="I52" s="279"/>
       <c r="J52" s="64"/>
-      <c r="K52" s="348"/>
-      <c r="L52" s="276" t="s">
+      <c r="K52" s="347"/>
+      <c r="L52" s="275" t="s">
+        <v>551</v>
+      </c>
+      <c r="M52" s="271"/>
+      <c r="N52" s="271" t="s">
         <v>552</v>
       </c>
-      <c r="M52" s="272"/>
-      <c r="N52" s="272" t="s">
-        <v>553</v>
-      </c>
-      <c r="O52" s="324">
+      <c r="O52" s="323">
         <v>42651</v>
       </c>
-      <c r="P52" s="282"/>
+      <c r="P52" s="281"/>
     </row>
     <row r="53" spans="1:16" s="178" customFormat="1" hidden="1">
-      <c r="A53" s="311">
+      <c r="A53" s="310">
         <v>51</v>
       </c>
       <c r="B53" s="224" t="s">
@@ -9945,52 +9942,52 @@
       <c r="O53" s="173"/>
       <c r="P53" s="177"/>
     </row>
-    <row r="54" spans="1:16" s="301" customFormat="1" ht="108" hidden="1">
-      <c r="A54" s="311">
+    <row r="54" spans="1:16" s="300" customFormat="1" ht="108" hidden="1">
+      <c r="A54" s="310">
         <v>52</v>
       </c>
-      <c r="B54" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="296">
+      <c r="B54" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="295">
         <v>42610</v>
       </c>
-      <c r="E54" s="297">
+      <c r="E54" s="296">
         <v>42612</v>
       </c>
-      <c r="F54" s="313" t="s">
+      <c r="F54" s="312" t="s">
         <v>320</v>
       </c>
-      <c r="G54" s="298" t="s">
-        <v>428</v>
-      </c>
-      <c r="H54" s="299" t="s">
+      <c r="G54" s="297" t="s">
+        <v>427</v>
+      </c>
+      <c r="H54" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I54" s="295" t="s">
-        <v>414</v>
-      </c>
-      <c r="J54" s="300"/>
-      <c r="K54" s="296">
+      <c r="I54" s="294" t="s">
+        <v>413</v>
+      </c>
+      <c r="J54" s="299"/>
+      <c r="K54" s="295">
         <v>42643</v>
       </c>
-      <c r="L54" s="295" t="s">
+      <c r="L54" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M54" s="299"/>
-      <c r="N54" s="299" t="s">
+      <c r="M54" s="298"/>
+      <c r="N54" s="298" t="s">
         <v>379</v>
       </c>
-      <c r="O54" s="296">
+      <c r="O54" s="295">
         <v>42634</v>
       </c>
-      <c r="P54" s="304"/>
+      <c r="P54" s="303"/>
     </row>
     <row r="55" spans="1:16" s="178" customFormat="1" hidden="1">
-      <c r="A55" s="311">
+      <c r="A55" s="310">
         <v>53</v>
       </c>
       <c r="B55" s="172" t="s">
@@ -10030,7 +10027,7 @@
       <c r="P55" s="177"/>
     </row>
     <row r="56" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
-      <c r="A56" s="311">
+      <c r="A56" s="310">
         <v>54</v>
       </c>
       <c r="B56" s="172" t="s">
@@ -10067,46 +10064,46 @@
       </c>
       <c r="P56" s="177"/>
     </row>
-    <row r="57" spans="1:16" s="262" customFormat="1" ht="189" hidden="1">
-      <c r="A57" s="311">
+    <row r="57" spans="1:16" s="261" customFormat="1" ht="189" hidden="1">
+      <c r="A57" s="310">
         <v>55</v>
       </c>
-      <c r="B57" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="299" t="s">
+      <c r="B57" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="257">
         <v>42610</v>
       </c>
-      <c r="E57" s="313">
+      <c r="E57" s="312">
         <v>42612</v>
       </c>
-      <c r="F57" s="313" t="s">
+      <c r="F57" s="312" t="s">
+        <v>432</v>
+      </c>
+      <c r="G57" s="304" t="s">
         <v>433</v>
       </c>
-      <c r="G57" s="305" t="s">
+      <c r="H57" s="298" t="s">
         <v>434</v>
       </c>
-      <c r="H57" s="299" t="s">
-        <v>435</v>
-      </c>
-      <c r="I57" s="295" t="s">
-        <v>418</v>
+      <c r="I57" s="294" t="s">
+        <v>417</v>
       </c>
       <c r="J57" s="256"/>
       <c r="K57" s="257">
         <v>42643</v>
       </c>
-      <c r="L57" s="299"/>
-      <c r="M57" s="299"/>
-      <c r="N57" s="299"/>
+      <c r="L57" s="298"/>
+      <c r="M57" s="298"/>
+      <c r="N57" s="298"/>
       <c r="O57" s="257"/>
-      <c r="P57" s="263"/>
+      <c r="P57" s="262"/>
     </row>
     <row r="58" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
-      <c r="A58" s="311">
+      <c r="A58" s="310">
         <v>56</v>
       </c>
       <c r="B58" s="52" t="s">
@@ -10144,7 +10141,7 @@
       <c r="P58" s="58"/>
     </row>
     <row r="59" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
-      <c r="A59" s="311">
+      <c r="A59" s="310">
         <v>57</v>
       </c>
       <c r="B59" s="52" t="s">
@@ -10182,7 +10179,7 @@
       <c r="P59" s="58"/>
     </row>
     <row r="60" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
-      <c r="A60" s="311">
+      <c r="A60" s="310">
         <v>58</v>
       </c>
       <c r="B60" s="172" t="s">
@@ -10221,7 +10218,7 @@
       <c r="P60" s="177"/>
     </row>
     <row r="61" spans="1:16" s="82" customFormat="1" ht="40.5" hidden="1">
-      <c r="A61" s="311">
+      <c r="A61" s="310">
         <v>59</v>
       </c>
       <c r="B61" s="84" t="s">
@@ -10259,7 +10256,7 @@
       <c r="P61" s="168"/>
     </row>
     <row r="62" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
-      <c r="A62" s="311">
+      <c r="A62" s="310">
         <v>60</v>
       </c>
       <c r="B62" s="172" t="s">
@@ -10301,7 +10298,7 @@
       <c r="P62" s="177"/>
     </row>
     <row r="63" spans="1:16" s="72" customFormat="1" hidden="1">
-      <c r="A63" s="311">
+      <c r="A63" s="310">
         <v>61</v>
       </c>
       <c r="B63" s="66" t="s">
@@ -10341,7 +10338,7 @@
       <c r="P63" s="177"/>
     </row>
     <row r="64" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
-      <c r="A64" s="311">
+      <c r="A64" s="310">
         <v>62</v>
       </c>
       <c r="B64" s="172" t="s">
@@ -10385,7 +10382,7 @@
       <c r="P64" s="177"/>
     </row>
     <row r="65" spans="1:16" s="72" customFormat="1" hidden="1">
-      <c r="A65" s="311">
+      <c r="A65" s="310">
         <v>63</v>
       </c>
       <c r="B65" s="66" t="s">
@@ -10425,7 +10422,7 @@
       <c r="P65" s="177"/>
     </row>
     <row r="66" spans="1:16" s="72" customFormat="1" hidden="1">
-      <c r="A66" s="311">
+      <c r="A66" s="310">
         <v>64</v>
       </c>
       <c r="B66" s="66" t="s">
@@ -10465,7 +10462,7 @@
       <c r="P66" s="177"/>
     </row>
     <row r="67" spans="1:16" s="100" customFormat="1" ht="40.5" hidden="1">
-      <c r="A67" s="311">
+      <c r="A67" s="310">
         <v>65</v>
       </c>
       <c r="B67" s="66" t="s">
@@ -10505,7 +10502,7 @@
       <c r="P67" s="177"/>
     </row>
     <row r="68" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
-      <c r="A68" s="311">
+      <c r="A68" s="310">
         <v>66</v>
       </c>
       <c r="B68" s="66" t="s">
@@ -10545,7 +10542,7 @@
       <c r="P68" s="177"/>
     </row>
     <row r="69" spans="1:16" s="72" customFormat="1" hidden="1">
-      <c r="A69" s="311">
+      <c r="A69" s="310">
         <v>67</v>
       </c>
       <c r="B69" s="66" t="s">
@@ -10585,7 +10582,7 @@
       <c r="P69" s="177"/>
     </row>
     <row r="70" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
-      <c r="A70" s="311">
+      <c r="A70" s="310">
         <v>68</v>
       </c>
       <c r="B70" s="172" t="s">
@@ -10629,7 +10626,7 @@
       <c r="P70" s="177"/>
     </row>
     <row r="71" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
-      <c r="A71" s="311">
+      <c r="A71" s="310">
         <v>69</v>
       </c>
       <c r="B71" s="172" t="s">
@@ -10671,7 +10668,7 @@
       <c r="P71" s="177"/>
     </row>
     <row r="72" spans="1:16" s="72" customFormat="1" hidden="1">
-      <c r="A72" s="311">
+      <c r="A72" s="310">
         <v>70</v>
       </c>
       <c r="B72" s="66" t="s">
@@ -10711,7 +10708,7 @@
       <c r="P72" s="177"/>
     </row>
     <row r="73" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
-      <c r="A73" s="311">
+      <c r="A73" s="310">
         <v>71</v>
       </c>
       <c r="B73" s="172" t="s">
@@ -10753,7 +10750,7 @@
       <c r="P73" s="177"/>
     </row>
     <row r="74" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
-      <c r="A74" s="311">
+      <c r="A74" s="310">
         <v>72</v>
       </c>
       <c r="B74" s="172" t="s">
@@ -10795,7 +10792,7 @@
       <c r="P74" s="177"/>
     </row>
     <row r="75" spans="1:16" s="72" customFormat="1" hidden="1">
-      <c r="A75" s="311">
+      <c r="A75" s="310">
         <v>73</v>
       </c>
       <c r="B75" s="66" t="s">
@@ -10835,7 +10832,7 @@
       <c r="P75" s="177"/>
     </row>
     <row r="76" spans="1:16" s="65" customFormat="1" ht="67.5">
-      <c r="A76" s="311">
+      <c r="A76" s="310">
         <v>74</v>
       </c>
       <c r="B76" s="84" t="s">
@@ -10853,21 +10850,21 @@
       <c r="F76" s="200" t="s">
         <v>277</v>
       </c>
-      <c r="G76" s="302" t="s">
-        <v>455</v>
+      <c r="G76" s="301" t="s">
+        <v>454</v>
       </c>
       <c r="H76" s="87"/>
-      <c r="I76" s="276" t="s">
-        <v>454</v>
+      <c r="I76" s="275" t="s">
+        <v>453</v>
       </c>
       <c r="J76" s="64"/>
       <c r="K76" s="62"/>
-      <c r="L76" s="276" t="s">
+      <c r="L76" s="275" t="s">
         <v>195</v>
       </c>
       <c r="M76" s="167"/>
-      <c r="N76" s="280" t="s">
-        <v>559</v>
+      <c r="N76" s="279" t="s">
+        <v>558</v>
       </c>
       <c r="O76" s="170">
         <v>42651</v>
@@ -10875,7 +10872,7 @@
       <c r="P76" s="168"/>
     </row>
     <row r="77" spans="1:16" s="59" customFormat="1" ht="40.5" hidden="1">
-      <c r="A77" s="311">
+      <c r="A77" s="310">
         <v>75</v>
       </c>
       <c r="B77" s="52" t="s">
@@ -10913,7 +10910,7 @@
       <c r="P77" s="58"/>
     </row>
     <row r="78" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
-      <c r="A78" s="311">
+      <c r="A78" s="310">
         <v>76</v>
       </c>
       <c r="B78" s="172" t="s">
@@ -10953,7 +10950,7 @@
       <c r="P78" s="177"/>
     </row>
     <row r="79" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
-      <c r="A79" s="311">
+      <c r="A79" s="310">
         <v>77</v>
       </c>
       <c r="B79" s="172" t="s">
@@ -10991,7 +10988,7 @@
       <c r="P79" s="177"/>
     </row>
     <row r="80" spans="1:16" ht="27">
-      <c r="A80" s="311">
+      <c r="A80" s="310">
         <v>78</v>
       </c>
       <c r="B80" s="211" t="s">
@@ -11024,50 +11021,50 @@
       <c r="O80" s="34"/>
       <c r="P80" s="252"/>
     </row>
-    <row r="81" spans="1:16" s="292" customFormat="1" ht="40.5" hidden="1">
-      <c r="A81" s="284">
+    <row r="81" spans="1:16" s="291" customFormat="1" ht="40.5" hidden="1">
+      <c r="A81" s="283">
         <v>79</v>
       </c>
-      <c r="B81" s="285" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="285" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="286">
+      <c r="B81" s="284" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="284" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="285">
         <v>42610</v>
       </c>
-      <c r="E81" s="287">
+      <c r="E81" s="286">
         <v>42612</v>
       </c>
-      <c r="F81" s="314" t="s">
+      <c r="F81" s="313" t="s">
+        <v>501</v>
+      </c>
+      <c r="G81" s="287" t="s">
         <v>502</v>
       </c>
-      <c r="G81" s="288" t="s">
+      <c r="H81" s="288"/>
+      <c r="I81" s="284" t="s">
+        <v>482</v>
+      </c>
+      <c r="J81" s="289"/>
+      <c r="K81" s="285">
+        <v>42643</v>
+      </c>
+      <c r="L81" s="284" t="s">
+        <v>58</v>
+      </c>
+      <c r="M81" s="288"/>
+      <c r="N81" s="288" t="s">
         <v>503</v>
       </c>
-      <c r="H81" s="289"/>
-      <c r="I81" s="285" t="s">
-        <v>483</v>
-      </c>
-      <c r="J81" s="290"/>
-      <c r="K81" s="286">
-        <v>42643</v>
-      </c>
-      <c r="L81" s="285" t="s">
-        <v>58</v>
-      </c>
-      <c r="M81" s="289"/>
-      <c r="N81" s="289" t="s">
-        <v>504</v>
-      </c>
-      <c r="O81" s="286">
+      <c r="O81" s="285">
         <v>42639</v>
       </c>
-      <c r="P81" s="291"/>
+      <c r="P81" s="290"/>
     </row>
     <row r="82" spans="1:16" ht="54">
-      <c r="A82" s="311">
+      <c r="A82" s="310">
         <v>80</v>
       </c>
       <c r="B82" s="211" t="s">
@@ -11099,7 +11096,7 @@
       <c r="P82" s="252"/>
     </row>
     <row r="83" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
-      <c r="A83" s="311">
+      <c r="A83" s="310">
         <v>81</v>
       </c>
       <c r="B83" s="66" t="s">
@@ -11137,7 +11134,7 @@
       <c r="P83" s="177"/>
     </row>
     <row r="84" spans="1:16" s="178" customFormat="1" hidden="1">
-      <c r="A84" s="311">
+      <c r="A84" s="310">
         <v>82</v>
       </c>
       <c r="B84" s="172" t="s">
@@ -11177,7 +11174,7 @@
       <c r="P84" s="177"/>
     </row>
     <row r="85" spans="1:16" s="82" customFormat="1" ht="27" hidden="1">
-      <c r="A85" s="311">
+      <c r="A85" s="310">
         <v>83</v>
       </c>
       <c r="B85" s="84" t="s">
@@ -11209,7 +11206,7 @@
       <c r="P85" s="168"/>
     </row>
     <row r="86" spans="1:16" s="221" customFormat="1" ht="148.5" hidden="1">
-      <c r="A86" s="311">
+      <c r="A86" s="310">
         <v>84</v>
       </c>
       <c r="B86" s="214" t="s">
@@ -11251,7 +11248,7 @@
       <c r="P86" s="220"/>
     </row>
     <row r="87" spans="1:16" s="221" customFormat="1" ht="189" hidden="1">
-      <c r="A87" s="311">
+      <c r="A87" s="310">
         <v>85</v>
       </c>
       <c r="B87" s="214" t="s">
@@ -11293,7 +11290,7 @@
       <c r="P87" s="220"/>
     </row>
     <row r="88" spans="1:16" ht="40.5">
-      <c r="A88" s="311">
+      <c r="A88" s="310">
         <v>86</v>
       </c>
       <c r="B88" s="211" t="s">
@@ -11311,13 +11308,13 @@
       <c r="F88" s="255" t="s">
         <v>359</v>
       </c>
-      <c r="G88" s="315" t="s">
-        <v>460</v>
+      <c r="G88" s="314" t="s">
+        <v>459</v>
       </c>
       <c r="P88" s="252"/>
     </row>
     <row r="89" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A89" s="311">
+      <c r="A89" s="310">
         <v>87</v>
       </c>
       <c r="B89" s="214" t="s">
@@ -11353,7 +11350,7 @@
       <c r="P89" s="220"/>
     </row>
     <row r="90" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A90" s="311">
+      <c r="A90" s="310">
         <v>88</v>
       </c>
       <c r="B90" s="214" t="s">
@@ -11393,7 +11390,7 @@
       <c r="P90" s="220"/>
     </row>
     <row r="91" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A91" s="311">
+      <c r="A91" s="310">
         <v>89</v>
       </c>
       <c r="B91" s="214" t="s">
@@ -11431,7 +11428,7 @@
       <c r="P91" s="220"/>
     </row>
     <row r="92" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A92" s="311">
+      <c r="A92" s="310">
         <v>90</v>
       </c>
       <c r="B92" s="214" t="s">
@@ -11469,7 +11466,7 @@
       <c r="P92" s="220"/>
     </row>
     <row r="93" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A93" s="311">
+      <c r="A93" s="310">
         <v>91</v>
       </c>
       <c r="B93" s="214" t="s">
@@ -11507,7 +11504,7 @@
       <c r="P93" s="220"/>
     </row>
     <row r="94" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A94" s="311">
+      <c r="A94" s="310">
         <v>92</v>
       </c>
       <c r="B94" s="214" t="s">
@@ -11545,7 +11542,7 @@
       <c r="P94" s="220"/>
     </row>
     <row r="95" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A95" s="311">
+      <c r="A95" s="310">
         <v>93</v>
       </c>
       <c r="B95" s="214" t="s">
@@ -11583,7 +11580,7 @@
       <c r="P95" s="220"/>
     </row>
     <row r="96" spans="1:16" ht="27">
-      <c r="A96" s="311">
+      <c r="A96" s="310">
         <v>94</v>
       </c>
       <c r="B96" s="211" t="s">
@@ -11601,8 +11598,8 @@
       <c r="F96" s="199" t="s">
         <v>363</v>
       </c>
-      <c r="G96" s="279" t="s">
-        <v>456</v>
+      <c r="G96" s="278" t="s">
+        <v>455</v>
       </c>
       <c r="H96" s="211" t="s">
         <v>47</v>
@@ -11616,168 +11613,168 @@
       <c r="O96" s="34"/>
       <c r="P96" s="252"/>
     </row>
-    <row r="97" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
-      <c r="A97" s="311">
+    <row r="97" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
+      <c r="A97" s="310">
         <v>95</v>
       </c>
-      <c r="B97" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="299" t="s">
+      <c r="B97" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="257">
         <v>42616</v>
       </c>
-      <c r="E97" s="313">
+      <c r="E97" s="312">
         <v>42616</v>
       </c>
-      <c r="F97" s="313" t="s">
+      <c r="F97" s="312" t="s">
         <v>362</v>
       </c>
-      <c r="G97" s="298" t="s">
-        <v>457</v>
-      </c>
-      <c r="H97" s="299"/>
-      <c r="I97" s="295" t="s">
-        <v>414</v>
-      </c>
-      <c r="J97" s="300"/>
+      <c r="G97" s="297" t="s">
+        <v>456</v>
+      </c>
+      <c r="H97" s="298"/>
+      <c r="I97" s="294" t="s">
+        <v>413</v>
+      </c>
+      <c r="J97" s="299"/>
       <c r="K97" s="257">
         <v>42643</v>
       </c>
-      <c r="L97" s="299" t="s">
+      <c r="L97" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="M97" s="299"/>
-      <c r="N97" s="299"/>
+      <c r="M97" s="298"/>
+      <c r="N97" s="298"/>
       <c r="O97" s="257">
         <v>42642</v>
       </c>
-      <c r="P97" s="263"/>
-    </row>
-    <row r="98" spans="1:16" s="262" customFormat="1" ht="40.5" hidden="1">
-      <c r="A98" s="311">
+      <c r="P97" s="262"/>
+    </row>
+    <row r="98" spans="1:16" s="261" customFormat="1" ht="40.5" hidden="1">
+      <c r="A98" s="310">
         <v>96</v>
       </c>
-      <c r="B98" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="299" t="s">
+      <c r="B98" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="257">
         <v>42616</v>
       </c>
-      <c r="E98" s="313">
+      <c r="E98" s="312">
         <v>42616</v>
       </c>
-      <c r="F98" s="313" t="s">
+      <c r="F98" s="312" t="s">
         <v>362</v>
       </c>
-      <c r="G98" s="298" t="s">
-        <v>461</v>
-      </c>
-      <c r="H98" s="299"/>
-      <c r="I98" s="295" t="s">
+      <c r="G98" s="297" t="s">
+        <v>460</v>
+      </c>
+      <c r="H98" s="298"/>
+      <c r="I98" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J98" s="300"/>
+      <c r="J98" s="299"/>
       <c r="K98" s="257">
         <v>42643</v>
       </c>
-      <c r="L98" s="299" t="s">
+      <c r="L98" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="M98" s="299"/>
-      <c r="N98" s="299"/>
+      <c r="M98" s="298"/>
+      <c r="N98" s="298"/>
       <c r="O98" s="257">
         <v>42642</v>
       </c>
-      <c r="P98" s="263"/>
-    </row>
-    <row r="99" spans="1:16" s="262" customFormat="1" ht="40.5" hidden="1">
-      <c r="A99" s="311">
+      <c r="P98" s="262"/>
+    </row>
+    <row r="99" spans="1:16" s="261" customFormat="1" ht="40.5" hidden="1">
+      <c r="A99" s="310">
         <v>97</v>
       </c>
-      <c r="B99" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="299" t="s">
+      <c r="B99" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="257">
         <v>42616</v>
       </c>
-      <c r="E99" s="313">
+      <c r="E99" s="312">
         <v>42616</v>
       </c>
-      <c r="F99" s="313" t="s">
+      <c r="F99" s="312" t="s">
         <v>362</v>
       </c>
-      <c r="G99" s="298" t="s">
-        <v>462</v>
-      </c>
-      <c r="H99" s="299"/>
-      <c r="I99" s="295" t="s">
+      <c r="G99" s="297" t="s">
+        <v>461</v>
+      </c>
+      <c r="H99" s="298"/>
+      <c r="I99" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J99" s="300"/>
+      <c r="J99" s="299"/>
       <c r="K99" s="257">
         <v>42643</v>
       </c>
-      <c r="L99" s="299" t="s">
+      <c r="L99" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="M99" s="299"/>
-      <c r="N99" s="299"/>
+      <c r="M99" s="298"/>
+      <c r="N99" s="298"/>
       <c r="O99" s="257">
         <v>42642</v>
       </c>
-      <c r="P99" s="263"/>
-    </row>
-    <row r="100" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A100" s="311">
+      <c r="P99" s="262"/>
+    </row>
+    <row r="100" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A100" s="310">
         <v>98</v>
       </c>
-      <c r="B100" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="296">
+      <c r="B100" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="295">
         <v>42616</v>
       </c>
-      <c r="E100" s="297">
+      <c r="E100" s="296">
         <v>42616</v>
       </c>
-      <c r="F100" s="313" t="s">
+      <c r="F100" s="312" t="s">
         <v>336</v>
       </c>
-      <c r="G100" s="298" t="s">
+      <c r="G100" s="297" t="s">
         <v>167</v>
       </c>
-      <c r="H100" s="299"/>
-      <c r="I100" s="295" t="s">
+      <c r="H100" s="298"/>
+      <c r="I100" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J100" s="300"/>
+      <c r="J100" s="299"/>
       <c r="K100" s="257">
         <v>42643</v>
       </c>
-      <c r="L100" s="295" t="s">
+      <c r="L100" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M100" s="299"/>
-      <c r="N100" s="299" t="s">
+      <c r="M100" s="298"/>
+      <c r="N100" s="298" t="s">
         <v>203</v>
       </c>
-      <c r="O100" s="296"/>
-      <c r="P100" s="304"/>
+      <c r="O100" s="295"/>
+      <c r="P100" s="303"/>
     </row>
     <row r="101" spans="1:16" s="221" customFormat="1" ht="54" hidden="1">
-      <c r="A101" s="311">
+      <c r="A101" s="310">
         <v>99</v>
       </c>
       <c r="B101" s="214" t="s">
@@ -11811,7 +11808,7 @@
       <c r="P101" s="220"/>
     </row>
     <row r="102" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A102" s="311">
+      <c r="A102" s="310">
         <v>100</v>
       </c>
       <c r="B102" s="214" t="s">
@@ -11849,7 +11846,7 @@
       <c r="P102" s="220"/>
     </row>
     <row r="103" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A103" s="311">
+      <c r="A103" s="310">
         <v>101</v>
       </c>
       <c r="B103" s="214" t="s">
@@ -11887,7 +11884,7 @@
       <c r="P103" s="220"/>
     </row>
     <row r="104" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A104" s="311">
+      <c r="A104" s="310">
         <v>102</v>
       </c>
       <c r="B104" s="214" t="s">
@@ -11925,7 +11922,7 @@
       <c r="P104" s="220"/>
     </row>
     <row r="105" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A105" s="311">
+      <c r="A105" s="310">
         <v>103</v>
       </c>
       <c r="B105" s="214" t="s">
@@ -11967,7 +11964,7 @@
       <c r="P105" s="220"/>
     </row>
     <row r="106" spans="1:16" s="178" customFormat="1" hidden="1">
-      <c r="A106" s="311">
+      <c r="A106" s="310">
         <v>104</v>
       </c>
       <c r="B106" s="172" t="s">
@@ -12005,7 +12002,7 @@
       <c r="P106" s="177"/>
     </row>
     <row r="107" spans="1:16" s="221" customFormat="1" ht="54" hidden="1">
-      <c r="A107" s="311">
+      <c r="A107" s="310">
         <v>105</v>
       </c>
       <c r="B107" s="214" t="s">
@@ -12047,7 +12044,7 @@
       <c r="P107" s="220"/>
     </row>
     <row r="108" spans="1:16" ht="40.5">
-      <c r="A108" s="311">
+      <c r="A108" s="310">
         <v>106</v>
       </c>
       <c r="B108" s="211" t="s">
@@ -12085,7 +12082,7 @@
       <c r="P108" s="252"/>
     </row>
     <row r="109" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A109" s="311">
+      <c r="A109" s="310">
         <v>107</v>
       </c>
       <c r="B109" s="214" t="s">
@@ -12122,52 +12119,52 @@
       </c>
       <c r="P109" s="220"/>
     </row>
-    <row r="110" spans="1:16" s="328" customFormat="1" ht="54" hidden="1">
-      <c r="A110" s="311">
+    <row r="110" spans="1:16" s="327" customFormat="1" ht="54" hidden="1">
+      <c r="A110" s="310">
         <v>108</v>
       </c>
-      <c r="B110" s="289" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" s="289" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="325">
+      <c r="B110" s="288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="288" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="324">
         <v>42616</v>
       </c>
-      <c r="E110" s="330">
+      <c r="E110" s="329">
         <v>42616</v>
       </c>
-      <c r="F110" s="314" t="s">
+      <c r="F110" s="313" t="s">
         <v>308</v>
       </c>
-      <c r="G110" s="331" t="s">
-        <v>465</v>
-      </c>
-      <c r="H110" s="318" t="s">
+      <c r="G110" s="330" t="s">
+        <v>464</v>
+      </c>
+      <c r="H110" s="317" t="s">
         <v>47</v>
       </c>
-      <c r="I110" s="319" t="s">
+      <c r="I110" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="J110" s="320"/>
-      <c r="K110" s="321">
+      <c r="J110" s="319"/>
+      <c r="K110" s="320">
         <v>42643</v>
       </c>
-      <c r="L110" s="322" t="s">
+      <c r="L110" s="321" t="s">
         <v>58</v>
       </c>
-      <c r="M110" s="322"/>
-      <c r="N110" s="322" t="s">
-        <v>408</v>
-      </c>
-      <c r="O110" s="332">
+      <c r="M110" s="321"/>
+      <c r="N110" s="321" t="s">
+        <v>407</v>
+      </c>
+      <c r="O110" s="331">
         <v>42643</v>
       </c>
-      <c r="P110" s="333"/>
+      <c r="P110" s="332"/>
     </row>
     <row r="111" spans="1:16" s="221" customFormat="1" ht="81" hidden="1">
-      <c r="A111" s="311">
+      <c r="A111" s="310">
         <v>109</v>
       </c>
       <c r="B111" s="214" t="s">
@@ -12207,7 +12204,7 @@
       <c r="P111" s="239"/>
     </row>
     <row r="112" spans="1:16" ht="27">
-      <c r="A112" s="311">
+      <c r="A112" s="310">
         <v>110</v>
       </c>
       <c r="B112" s="211" t="s">
@@ -12239,7 +12236,7 @@
       <c r="P112" s="252"/>
     </row>
     <row r="113" spans="1:16" ht="27">
-      <c r="A113" s="311">
+      <c r="A113" s="310">
         <v>111</v>
       </c>
       <c r="B113" s="211" t="s">
@@ -12271,7 +12268,7 @@
       <c r="P113" s="252"/>
     </row>
     <row r="114" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A114" s="311">
+      <c r="A114" s="310">
         <v>112</v>
       </c>
       <c r="B114" s="214" t="s">
@@ -12309,7 +12306,7 @@
       <c r="P114" s="220"/>
     </row>
     <row r="115" spans="1:16" s="221" customFormat="1" ht="81" hidden="1">
-      <c r="A115" s="311">
+      <c r="A115" s="310">
         <v>113</v>
       </c>
       <c r="B115" s="214" t="s">
@@ -12347,7 +12344,7 @@
       <c r="P115" s="220"/>
     </row>
     <row r="116" spans="1:16" ht="40.5">
-      <c r="A116" s="311">
+      <c r="A116" s="310">
         <v>114</v>
       </c>
       <c r="B116" s="211" t="s">
@@ -12377,7 +12374,7 @@
       <c r="P116" s="252"/>
     </row>
     <row r="117" spans="1:16" s="221" customFormat="1" ht="67.5" hidden="1">
-      <c r="A117" s="311">
+      <c r="A117" s="310">
         <v>115</v>
       </c>
       <c r="B117" s="214" t="s">
@@ -12411,7 +12408,7 @@
       <c r="P117" s="220"/>
     </row>
     <row r="118" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A118" s="311">
+      <c r="A118" s="310">
         <v>116</v>
       </c>
       <c r="B118" s="214" t="s">
@@ -12451,7 +12448,7 @@
       <c r="P118" s="220"/>
     </row>
     <row r="119" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A119" s="311">
+      <c r="A119" s="310">
         <v>117</v>
       </c>
       <c r="B119" s="214" t="s">
@@ -12491,7 +12488,7 @@
       <c r="P119" s="220"/>
     </row>
     <row r="120" spans="1:16" s="221" customFormat="1" ht="94.5" hidden="1">
-      <c r="A120" s="311">
+      <c r="A120" s="310">
         <v>118</v>
       </c>
       <c r="B120" s="214" t="s">
@@ -12529,7 +12526,7 @@
       <c r="P120" s="220"/>
     </row>
     <row r="121" spans="1:16" s="221" customFormat="1" ht="121.5" hidden="1">
-      <c r="A121" s="311">
+      <c r="A121" s="310">
         <v>119</v>
       </c>
       <c r="B121" s="214" t="s">
@@ -12567,7 +12564,7 @@
       <c r="P121" s="220"/>
     </row>
     <row r="122" spans="1:16" s="221" customFormat="1" ht="54" hidden="1">
-      <c r="A122" s="311">
+      <c r="A122" s="310">
         <v>120</v>
       </c>
       <c r="B122" s="214" t="s">
@@ -12607,7 +12604,7 @@
       <c r="P122" s="220"/>
     </row>
     <row r="123" spans="1:16" s="221" customFormat="1" ht="108" hidden="1">
-      <c r="A123" s="311">
+      <c r="A123" s="310">
         <v>121</v>
       </c>
       <c r="B123" s="214" t="s">
@@ -12645,7 +12642,7 @@
       <c r="P123" s="220"/>
     </row>
     <row r="124" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A124" s="311">
+      <c r="A124" s="310">
         <v>122</v>
       </c>
       <c r="B124" s="214" t="s">
@@ -12683,7 +12680,7 @@
       <c r="P124" s="220"/>
     </row>
     <row r="125" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A125" s="311">
+      <c r="A125" s="310">
         <v>123</v>
       </c>
       <c r="B125" s="214" t="s">
@@ -12721,7 +12718,7 @@
       <c r="P125" s="220"/>
     </row>
     <row r="126" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A126" s="311">
+      <c r="A126" s="310">
         <v>124</v>
       </c>
       <c r="B126" s="214" t="s">
@@ -12761,7 +12758,7 @@
       <c r="P126" s="220"/>
     </row>
     <row r="127" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A127" s="311">
+      <c r="A127" s="310">
         <v>125</v>
       </c>
       <c r="B127" s="214" t="s">
@@ -12801,7 +12798,7 @@
       <c r="P127" s="220"/>
     </row>
     <row r="128" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A128" s="311">
+      <c r="A128" s="310">
         <v>126</v>
       </c>
       <c r="B128" s="214" t="s">
@@ -12843,7 +12840,7 @@
       <c r="P128" s="220"/>
     </row>
     <row r="129" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A129" s="311">
+      <c r="A129" s="310">
         <v>127</v>
       </c>
       <c r="B129" s="214" t="s">
@@ -12885,7 +12882,7 @@
       <c r="P129" s="220"/>
     </row>
     <row r="130" spans="1:16" s="221" customFormat="1" ht="81" hidden="1">
-      <c r="A130" s="311">
+      <c r="A130" s="310">
         <v>128</v>
       </c>
       <c r="B130" s="214" t="s">
@@ -12926,52 +12923,52 @@
       </c>
       <c r="P130" s="220"/>
     </row>
-    <row r="131" spans="1:16" s="328" customFormat="1" ht="40.5" hidden="1">
-      <c r="A131" s="284">
+    <row r="131" spans="1:16" s="327" customFormat="1" ht="40.5" hidden="1">
+      <c r="A131" s="283">
         <v>129</v>
       </c>
-      <c r="B131" s="289" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" s="289" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" s="325">
+      <c r="B131" s="288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="288" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="324">
         <v>42625</v>
       </c>
-      <c r="E131" s="314">
+      <c r="E131" s="313">
         <v>42627</v>
       </c>
-      <c r="F131" s="314" t="s">
+      <c r="F131" s="313" t="s">
+        <v>504</v>
+      </c>
+      <c r="G131" s="287" t="s">
         <v>505</v>
       </c>
-      <c r="G131" s="288" t="s">
+      <c r="H131" s="288" t="s">
+        <v>434</v>
+      </c>
+      <c r="I131" s="284" t="s">
+        <v>482</v>
+      </c>
+      <c r="J131" s="289"/>
+      <c r="K131" s="285">
+        <v>42643</v>
+      </c>
+      <c r="L131" s="288" t="s">
+        <v>58</v>
+      </c>
+      <c r="M131" s="288"/>
+      <c r="N131" s="288" t="s">
         <v>506</v>
       </c>
-      <c r="H131" s="289" t="s">
-        <v>435</v>
-      </c>
-      <c r="I131" s="285" t="s">
-        <v>483</v>
-      </c>
-      <c r="J131" s="290"/>
-      <c r="K131" s="286">
+      <c r="O131" s="324">
         <v>42643</v>
       </c>
-      <c r="L131" s="289" t="s">
-        <v>58</v>
-      </c>
-      <c r="M131" s="289"/>
-      <c r="N131" s="289" t="s">
-        <v>507</v>
-      </c>
-      <c r="O131" s="325">
-        <v>42643</v>
-      </c>
-      <c r="P131" s="327"/>
+      <c r="P131" s="326"/>
     </row>
     <row r="132" spans="1:16">
-      <c r="A132" s="311">
+      <c r="A132" s="310">
         <v>130</v>
       </c>
       <c r="B132" s="211" t="s">
@@ -13003,7 +13000,7 @@
       <c r="P132" s="252"/>
     </row>
     <row r="133" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A133" s="311">
+      <c r="A133" s="310">
         <v>131</v>
       </c>
       <c r="B133" s="214" t="s">
@@ -13042,84 +13039,84 @@
       </c>
       <c r="P133" s="220"/>
     </row>
-    <row r="134" spans="1:16" s="328" customFormat="1" ht="54" hidden="1">
-      <c r="A134" s="311">
+    <row r="134" spans="1:16" s="327" customFormat="1" ht="54" hidden="1">
+      <c r="A134" s="310">
         <v>132</v>
       </c>
-      <c r="B134" s="289" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="289" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" s="325">
+      <c r="B134" s="288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="288" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" s="324">
         <v>42625</v>
       </c>
-      <c r="E134" s="314">
+      <c r="E134" s="313">
         <v>42627</v>
       </c>
-      <c r="F134" s="314"/>
-      <c r="G134" s="288" t="s">
-        <v>468</v>
-      </c>
-      <c r="H134" s="289"/>
-      <c r="I134" s="285" t="s">
+      <c r="F134" s="313"/>
+      <c r="G134" s="287" t="s">
+        <v>467</v>
+      </c>
+      <c r="H134" s="288"/>
+      <c r="I134" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="J134" s="326"/>
-      <c r="K134" s="325">
+      <c r="J134" s="325"/>
+      <c r="K134" s="324">
         <v>42643</v>
       </c>
-      <c r="L134" s="289" t="s">
+      <c r="L134" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="M134" s="289"/>
-      <c r="N134" s="289"/>
-      <c r="O134" s="325">
+      <c r="M134" s="288"/>
+      <c r="N134" s="288"/>
+      <c r="O134" s="324">
         <v>42643</v>
       </c>
-      <c r="P134" s="327"/>
-    </row>
-    <row r="135" spans="1:16" s="328" customFormat="1" ht="40.5" hidden="1">
-      <c r="A135" s="311">
+      <c r="P134" s="326"/>
+    </row>
+    <row r="135" spans="1:16" s="327" customFormat="1" ht="40.5" hidden="1">
+      <c r="A135" s="310">
         <v>133</v>
       </c>
-      <c r="B135" s="289" t="s">
-        <v>19</v>
-      </c>
-      <c r="C135" s="289" t="s">
-        <v>16</v>
-      </c>
-      <c r="D135" s="325">
+      <c r="B135" s="288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="288" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="324">
         <v>42625</v>
       </c>
-      <c r="E135" s="314">
+      <c r="E135" s="313">
         <v>42627</v>
       </c>
-      <c r="F135" s="314"/>
-      <c r="G135" s="288" t="s">
-        <v>467</v>
-      </c>
-      <c r="H135" s="289"/>
-      <c r="I135" s="285" t="s">
+      <c r="F135" s="313"/>
+      <c r="G135" s="287" t="s">
+        <v>466</v>
+      </c>
+      <c r="H135" s="288"/>
+      <c r="I135" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="J135" s="326"/>
-      <c r="K135" s="325">
+      <c r="J135" s="325"/>
+      <c r="K135" s="324">
         <v>42643</v>
       </c>
-      <c r="L135" s="289" t="s">
+      <c r="L135" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="M135" s="289"/>
-      <c r="N135" s="289"/>
-      <c r="O135" s="325">
+      <c r="M135" s="288"/>
+      <c r="N135" s="288"/>
+      <c r="O135" s="324">
         <v>42643</v>
       </c>
-      <c r="P135" s="327"/>
+      <c r="P135" s="326"/>
     </row>
     <row r="136" spans="1:16" ht="81">
-      <c r="A136" s="311">
+      <c r="A136" s="310">
         <v>134</v>
       </c>
       <c r="B136" s="211" t="s">
@@ -13135,10 +13132,10 @@
         <v>42627</v>
       </c>
       <c r="F136" s="225" t="s">
-        <v>471</v>
-      </c>
-      <c r="G136" s="302" t="s">
         <v>470</v>
+      </c>
+      <c r="G136" s="301" t="s">
+        <v>469</v>
       </c>
       <c r="H136" s="211" t="s">
         <v>142</v>
@@ -13153,7 +13150,7 @@
       <c r="P136" s="252"/>
     </row>
     <row r="137" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A137" s="311">
+      <c r="A137" s="310">
         <v>135</v>
       </c>
       <c r="B137" s="214" t="s">
@@ -13190,50 +13187,50 @@
       </c>
       <c r="P137" s="220"/>
     </row>
-    <row r="138" spans="1:16" s="292" customFormat="1" ht="81" hidden="1">
-      <c r="A138" s="311">
+    <row r="138" spans="1:16" s="291" customFormat="1" ht="81" hidden="1">
+      <c r="A138" s="310">
         <v>136</v>
       </c>
-      <c r="B138" s="285" t="s">
-        <v>19</v>
-      </c>
-      <c r="C138" s="285" t="s">
-        <v>16</v>
-      </c>
-      <c r="D138" s="286">
+      <c r="B138" s="284" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="284" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="285">
         <v>42625</v>
       </c>
-      <c r="E138" s="287">
+      <c r="E138" s="286">
         <v>42630</v>
       </c>
-      <c r="F138" s="287"/>
-      <c r="G138" s="288" t="s">
-        <v>472</v>
-      </c>
-      <c r="H138" s="289" t="s">
+      <c r="F138" s="286"/>
+      <c r="G138" s="287" t="s">
+        <v>471</v>
+      </c>
+      <c r="H138" s="288" t="s">
         <v>47</v>
       </c>
-      <c r="I138" s="285" t="s">
+      <c r="I138" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="J138" s="290"/>
-      <c r="K138" s="286">
+      <c r="J138" s="289"/>
+      <c r="K138" s="285">
         <v>42643</v>
       </c>
-      <c r="L138" s="285" t="s">
+      <c r="L138" s="284" t="s">
         <v>58</v>
       </c>
-      <c r="M138" s="289"/>
-      <c r="N138" s="289" t="s">
+      <c r="M138" s="288"/>
+      <c r="N138" s="288" t="s">
         <v>394</v>
       </c>
-      <c r="O138" s="286">
+      <c r="O138" s="285">
         <v>42642</v>
       </c>
-      <c r="P138" s="291"/>
+      <c r="P138" s="290"/>
     </row>
     <row r="139" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A139" s="311">
+      <c r="A139" s="310">
         <v>137</v>
       </c>
       <c r="B139" s="214" t="s">
@@ -13274,128 +13271,128 @@
       </c>
       <c r="P139" s="220"/>
     </row>
-    <row r="140" spans="1:16" s="292" customFormat="1" ht="54" hidden="1">
-      <c r="A140" s="311">
+    <row r="140" spans="1:16" s="291" customFormat="1" ht="54" hidden="1">
+      <c r="A140" s="310">
         <v>138</v>
       </c>
-      <c r="B140" s="285" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" s="285" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" s="286">
+      <c r="B140" s="284" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="284" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="285">
         <v>42625</v>
       </c>
-      <c r="E140" s="287">
+      <c r="E140" s="286">
         <v>42630</v>
       </c>
-      <c r="F140" s="287"/>
-      <c r="G140" s="316" t="s">
+      <c r="F140" s="286"/>
+      <c r="G140" s="315" t="s">
+        <v>472</v>
+      </c>
+      <c r="H140" s="288"/>
+      <c r="I140" s="284" t="s">
+        <v>40</v>
+      </c>
+      <c r="J140" s="289"/>
+      <c r="K140" s="285">
+        <v>42643</v>
+      </c>
+      <c r="L140" s="284" t="s">
+        <v>58</v>
+      </c>
+      <c r="M140" s="288"/>
+      <c r="N140" s="288" t="s">
+        <v>392</v>
+      </c>
+      <c r="O140" s="285">
+        <v>42641</v>
+      </c>
+      <c r="P140" s="290"/>
+    </row>
+    <row r="141" spans="1:16" s="300" customFormat="1" ht="81" hidden="1">
+      <c r="A141" s="310">
+        <v>139</v>
+      </c>
+      <c r="B141" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="295">
+        <v>42625</v>
+      </c>
+      <c r="E141" s="296">
+        <v>42630</v>
+      </c>
+      <c r="F141" s="296" t="s">
         <v>473</v>
       </c>
-      <c r="H140" s="289"/>
-      <c r="I140" s="285" t="s">
+      <c r="G141" s="304" t="s">
+        <v>474</v>
+      </c>
+      <c r="H141" s="298" t="s">
+        <v>434</v>
+      </c>
+      <c r="I141" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="J140" s="290"/>
-      <c r="K140" s="286">
+      <c r="J141" s="289"/>
+      <c r="K141" s="285">
         <v>42643</v>
       </c>
-      <c r="L140" s="285" t="s">
+      <c r="L141" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M140" s="289"/>
-      <c r="N140" s="289" t="s">
-        <v>392</v>
-      </c>
-      <c r="O140" s="286">
+      <c r="M141" s="298"/>
+      <c r="N141" s="298" t="s">
+        <v>475</v>
+      </c>
+      <c r="O141" s="295">
         <v>42641</v>
       </c>
-      <c r="P140" s="291"/>
-    </row>
-    <row r="141" spans="1:16" s="301" customFormat="1" ht="81" hidden="1">
-      <c r="A141" s="311">
-        <v>139</v>
-      </c>
-      <c r="B141" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D141" s="296">
-        <v>42625</v>
-      </c>
-      <c r="E141" s="297">
-        <v>42630</v>
-      </c>
-      <c r="F141" s="297" t="s">
-        <v>474</v>
-      </c>
-      <c r="G141" s="305" t="s">
-        <v>475</v>
-      </c>
-      <c r="H141" s="299" t="s">
-        <v>435</v>
-      </c>
-      <c r="I141" s="285" t="s">
+      <c r="P141" s="303"/>
+    </row>
+    <row r="142" spans="1:16" s="300" customFormat="1" ht="81" hidden="1">
+      <c r="A142" s="310">
+        <v>140</v>
+      </c>
+      <c r="B142" s="294" t="s">
+        <v>169</v>
+      </c>
+      <c r="C142" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="295">
+        <v>42616</v>
+      </c>
+      <c r="E142" s="296">
+        <v>42631</v>
+      </c>
+      <c r="F142" s="334"/>
+      <c r="G142" s="335" t="s">
+        <v>476</v>
+      </c>
+      <c r="H142" s="337"/>
+      <c r="I142" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J141" s="290"/>
-      <c r="K141" s="286">
+      <c r="J142" s="299"/>
+      <c r="K142" s="295">
         <v>42643</v>
       </c>
-      <c r="L141" s="295" t="s">
+      <c r="L142" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M141" s="299"/>
-      <c r="N141" s="299" t="s">
-        <v>476</v>
-      </c>
-      <c r="O141" s="296">
-        <v>42641</v>
-      </c>
-      <c r="P141" s="304"/>
-    </row>
-    <row r="142" spans="1:16" s="301" customFormat="1" ht="81" hidden="1">
-      <c r="A142" s="311">
-        <v>140</v>
-      </c>
-      <c r="B142" s="295" t="s">
-        <v>169</v>
-      </c>
-      <c r="C142" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D142" s="296">
-        <v>42616</v>
-      </c>
-      <c r="E142" s="297">
-        <v>42631</v>
-      </c>
-      <c r="F142" s="335"/>
-      <c r="G142" s="336" t="s">
-        <v>477</v>
-      </c>
-      <c r="H142" s="338"/>
-      <c r="I142" s="295" t="s">
-        <v>40</v>
-      </c>
-      <c r="J142" s="300"/>
-      <c r="K142" s="296">
-        <v>42643</v>
-      </c>
-      <c r="L142" s="295" t="s">
-        <v>58</v>
-      </c>
-      <c r="O142" s="337">
+      <c r="O142" s="336">
         <v>42639</v>
       </c>
-      <c r="P142" s="304"/>
+      <c r="P142" s="303"/>
     </row>
     <row r="143" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A143" s="311">
+      <c r="A143" s="310">
         <v>141</v>
       </c>
       <c r="B143" s="214" t="s">
@@ -13423,7 +13420,7 @@
       <c r="P143" s="220"/>
     </row>
     <row r="144" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A144" s="311">
+      <c r="A144" s="310">
         <v>142</v>
       </c>
       <c r="B144" s="214" t="s">
@@ -13451,7 +13448,7 @@
       <c r="P144" s="220"/>
     </row>
     <row r="145" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A145" s="311">
+      <c r="A145" s="310">
         <v>143</v>
       </c>
       <c r="B145" s="214" t="s">
@@ -13479,7 +13476,7 @@
       <c r="P145" s="220"/>
     </row>
     <row r="146" spans="1:16" ht="27">
-      <c r="A146" s="311">
+      <c r="A146" s="310">
         <v>144</v>
       </c>
       <c r="B146" s="211" t="s">
@@ -13503,7 +13500,7 @@
       <c r="P146" s="252"/>
     </row>
     <row r="147" spans="1:16">
-      <c r="A147" s="311">
+      <c r="A147" s="310">
         <v>145</v>
       </c>
       <c r="B147" s="211" t="s">
@@ -13521,91 +13518,91 @@
       <c r="F147" s="260" t="s">
         <v>378</v>
       </c>
-      <c r="G147" s="309" t="s">
+      <c r="G147" s="308" t="s">
         <v>375</v>
       </c>
       <c r="P147" s="252"/>
     </row>
-    <row r="148" spans="1:16" s="262" customFormat="1" ht="67.5" hidden="1">
-      <c r="A148" s="311">
+    <row r="148" spans="1:16" s="261" customFormat="1" ht="67.5" hidden="1">
+      <c r="A148" s="310">
         <v>146</v>
       </c>
-      <c r="B148" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C148" s="299" t="s">
+      <c r="B148" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D148" s="257">
         <v>42632</v>
       </c>
-      <c r="E148" s="334">
+      <c r="E148" s="333">
         <v>42633</v>
       </c>
-      <c r="F148" s="339" t="s">
+      <c r="F148" s="338" t="s">
         <v>376</v>
       </c>
-      <c r="G148" s="340" t="s">
+      <c r="G148" s="339" t="s">
+        <v>477</v>
+      </c>
+      <c r="I148" s="300" t="s">
         <v>478</v>
       </c>
-      <c r="I148" s="301" t="s">
-        <v>479</v>
-      </c>
-      <c r="K148" s="341">
+      <c r="K148" s="340">
         <v>42643</v>
       </c>
-      <c r="L148" s="262" t="s">
+      <c r="L148" s="261" t="s">
         <v>59</v>
       </c>
-      <c r="N148" s="262" t="s">
-        <v>397</v>
-      </c>
-      <c r="O148" s="341">
+      <c r="N148" s="261" t="s">
+        <v>396</v>
+      </c>
+      <c r="O148" s="340">
         <v>42642</v>
       </c>
-      <c r="P148" s="263"/>
-    </row>
-    <row r="149" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A149" s="358">
+      <c r="P148" s="262"/>
+    </row>
+    <row r="149" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A149" s="357">
         <v>147</v>
       </c>
-      <c r="B149" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C149" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" s="296">
+      <c r="B149" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="295">
         <v>42632</v>
       </c>
-      <c r="E149" s="359">
+      <c r="E149" s="358">
         <v>42633</v>
       </c>
-      <c r="F149" s="339" t="s">
-        <v>529</v>
-      </c>
-      <c r="G149" s="340" t="s">
+      <c r="F149" s="338" t="s">
+        <v>528</v>
+      </c>
+      <c r="G149" s="339" t="s">
+        <v>524</v>
+      </c>
+      <c r="I149" s="300" t="s">
+        <v>523</v>
+      </c>
+      <c r="K149" s="336">
+        <v>42643</v>
+      </c>
+      <c r="L149" s="300" t="s">
         <v>525</v>
       </c>
-      <c r="I149" s="301" t="s">
-        <v>524</v>
-      </c>
-      <c r="K149" s="337">
-        <v>42643</v>
-      </c>
-      <c r="L149" s="301" t="s">
+      <c r="N149" s="300" t="s">
         <v>526</v>
       </c>
-      <c r="N149" s="301" t="s">
-        <v>527</v>
-      </c>
-      <c r="O149" s="337">
+      <c r="O149" s="336">
         <v>42641</v>
       </c>
-      <c r="P149" s="304"/>
+      <c r="P149" s="303"/>
     </row>
     <row r="150" spans="1:16" ht="40.5">
-      <c r="A150" s="311">
+      <c r="A150" s="310">
         <v>148</v>
       </c>
       <c r="B150" s="211" t="s">
@@ -13621,113 +13618,111 @@
         <v>42633</v>
       </c>
       <c r="F150" s="260" t="s">
-        <v>528</v>
-      </c>
-      <c r="G150" s="310" t="s">
-        <v>482</v>
-      </c>
-      <c r="I150" s="273" t="s">
-        <v>454</v>
-      </c>
-      <c r="L150" s="195" t="s">
+        <v>527</v>
+      </c>
+      <c r="G150" s="309" t="s">
+        <v>481</v>
+      </c>
+      <c r="I150" s="272"/>
+      <c r="L150" s="272" t="s">
+        <v>59</v>
+      </c>
+      <c r="N150" s="195" t="s">
         <v>395</v>
       </c>
-      <c r="N150" s="195" t="s">
-        <v>396</v>
-      </c>
-      <c r="O150" s="261">
-        <v>42642</v>
+      <c r="O150" s="276">
+        <v>42652</v>
       </c>
       <c r="P150" s="252"/>
     </row>
-    <row r="151" spans="1:16" s="301" customFormat="1" hidden="1">
-      <c r="A151" s="311">
+    <row r="151" spans="1:16" s="300" customFormat="1" hidden="1">
+      <c r="A151" s="310">
         <v>149</v>
       </c>
-      <c r="B151" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D151" s="296">
+      <c r="B151" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="295">
         <v>42634</v>
       </c>
-      <c r="E151" s="297">
+      <c r="E151" s="296">
         <v>42636</v>
       </c>
-      <c r="F151" s="313" t="s">
+      <c r="F151" s="312" t="s">
         <v>236</v>
       </c>
-      <c r="G151" s="298" t="s">
+      <c r="G151" s="297" t="s">
         <v>238</v>
       </c>
-      <c r="H151" s="299" t="s">
+      <c r="H151" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I151" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J151" s="300"/>
-      <c r="K151" s="296">
+      <c r="I151" s="294" t="s">
+        <v>483</v>
+      </c>
+      <c r="J151" s="299"/>
+      <c r="K151" s="295">
         <v>42643</v>
       </c>
-      <c r="L151" s="295" t="s">
+      <c r="L151" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M151" s="299"/>
-      <c r="N151" s="299"/>
-      <c r="O151" s="296">
+      <c r="M151" s="298"/>
+      <c r="N151" s="298"/>
+      <c r="O151" s="295">
         <v>42637</v>
       </c>
-      <c r="P151" s="304"/>
-    </row>
-    <row r="152" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
-      <c r="A152" s="311">
+      <c r="P151" s="303"/>
+    </row>
+    <row r="152" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
+      <c r="A152" s="310">
         <v>150</v>
       </c>
-      <c r="B152" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C152" s="299" t="s">
+      <c r="B152" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D152" s="257">
         <v>42634</v>
       </c>
-      <c r="E152" s="313">
+      <c r="E152" s="312">
         <v>42636</v>
       </c>
-      <c r="F152" s="313" t="s">
+      <c r="F152" s="312" t="s">
         <v>236</v>
       </c>
-      <c r="G152" s="298" t="s">
+      <c r="G152" s="297" t="s">
         <v>239</v>
       </c>
-      <c r="H152" s="299" t="s">
+      <c r="H152" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I152" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J152" s="300"/>
-      <c r="K152" s="296">
+      <c r="I152" s="294" t="s">
+        <v>483</v>
+      </c>
+      <c r="J152" s="299"/>
+      <c r="K152" s="295">
         <v>42643</v>
       </c>
-      <c r="L152" s="299" t="s">
+      <c r="L152" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="M152" s="299"/>
-      <c r="N152" s="299" t="s">
-        <v>407</v>
+      <c r="M152" s="298"/>
+      <c r="N152" s="298" t="s">
+        <v>406</v>
       </c>
       <c r="O152" s="257">
         <v>42643</v>
       </c>
-      <c r="P152" s="263"/>
+      <c r="P152" s="262"/>
     </row>
     <row r="153" spans="1:16" ht="40.5">
-      <c r="A153" s="311">
+      <c r="A153" s="310">
         <v>151</v>
       </c>
       <c r="B153" s="211" t="s">
@@ -13760,178 +13755,178 @@
       <c r="O153" s="34"/>
       <c r="P153" s="252"/>
     </row>
-    <row r="154" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
-      <c r="A154" s="311">
+    <row r="154" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
+      <c r="A154" s="310">
         <v>152</v>
       </c>
-      <c r="B154" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" s="299" t="s">
+      <c r="B154" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D154" s="257">
         <v>42634</v>
       </c>
-      <c r="E154" s="313">
+      <c r="E154" s="312">
         <v>42636</v>
       </c>
-      <c r="F154" s="313" t="s">
+      <c r="F154" s="312" t="s">
         <v>236</v>
       </c>
-      <c r="G154" s="305" t="s">
+      <c r="G154" s="304" t="s">
         <v>290</v>
       </c>
-      <c r="H154" s="299" t="s">
+      <c r="H154" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I154" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J154" s="300"/>
-      <c r="K154" s="296">
+      <c r="I154" s="294" t="s">
+        <v>483</v>
+      </c>
+      <c r="J154" s="299"/>
+      <c r="K154" s="295">
         <v>42643</v>
       </c>
-      <c r="L154" s="299" t="s">
+      <c r="L154" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="M154" s="299"/>
-      <c r="N154" s="299" t="s">
-        <v>405</v>
+      <c r="M154" s="298"/>
+      <c r="N154" s="298" t="s">
+        <v>404</v>
       </c>
       <c r="O154" s="257">
         <v>42643</v>
       </c>
-      <c r="P154" s="263"/>
-    </row>
-    <row r="155" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
-      <c r="A155" s="311">
+      <c r="P154" s="262"/>
+    </row>
+    <row r="155" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
+      <c r="A155" s="310">
         <v>153</v>
       </c>
-      <c r="B155" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="299" t="s">
+      <c r="B155" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D155" s="257">
         <v>42634</v>
       </c>
-      <c r="E155" s="313">
+      <c r="E155" s="312">
         <v>42636</v>
       </c>
-      <c r="F155" s="313" t="s">
+      <c r="F155" s="312" t="s">
         <v>294</v>
       </c>
-      <c r="G155" s="342" t="s">
-        <v>487</v>
-      </c>
-      <c r="H155" s="299"/>
-      <c r="I155" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J155" s="300"/>
-      <c r="K155" s="296">
+      <c r="G155" s="341" t="s">
+        <v>486</v>
+      </c>
+      <c r="H155" s="298"/>
+      <c r="I155" s="294" t="s">
+        <v>483</v>
+      </c>
+      <c r="J155" s="299"/>
+      <c r="K155" s="295">
         <v>42643</v>
       </c>
-      <c r="L155" s="299" t="s">
+      <c r="L155" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="M155" s="299"/>
-      <c r="N155" s="299" t="s">
-        <v>406</v>
+      <c r="M155" s="298"/>
+      <c r="N155" s="298" t="s">
+        <v>405</v>
       </c>
       <c r="O155" s="257">
         <v>42643</v>
       </c>
-      <c r="P155" s="263"/>
-    </row>
-    <row r="156" spans="1:16" s="301" customFormat="1" hidden="1">
-      <c r="A156" s="311">
+      <c r="P155" s="262"/>
+    </row>
+    <row r="156" spans="1:16" s="300" customFormat="1" hidden="1">
+      <c r="A156" s="310">
         <v>154</v>
       </c>
-      <c r="B156" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C156" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D156" s="296">
+      <c r="B156" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="295">
         <v>42634</v>
       </c>
-      <c r="E156" s="297">
+      <c r="E156" s="296">
         <v>42636</v>
       </c>
-      <c r="F156" s="313" t="s">
+      <c r="F156" s="312" t="s">
         <v>247</v>
       </c>
-      <c r="G156" s="305" t="s">
+      <c r="G156" s="304" t="s">
         <v>248</v>
       </c>
-      <c r="H156" s="299" t="s">
+      <c r="H156" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I156" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J156" s="300"/>
-      <c r="K156" s="296">
+      <c r="I156" s="294" t="s">
+        <v>483</v>
+      </c>
+      <c r="J156" s="299"/>
+      <c r="K156" s="295">
         <v>42643</v>
       </c>
-      <c r="L156" s="295" t="s">
+      <c r="L156" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M156" s="299"/>
-      <c r="N156" s="299"/>
-      <c r="O156" s="296">
+      <c r="M156" s="298"/>
+      <c r="N156" s="298"/>
+      <c r="O156" s="295">
         <v>42637</v>
       </c>
-      <c r="P156" s="304"/>
-    </row>
-    <row r="157" spans="1:16" s="262" customFormat="1" ht="54" hidden="1">
-      <c r="A157" s="311">
+      <c r="P156" s="303"/>
+    </row>
+    <row r="157" spans="1:16" s="261" customFormat="1" ht="54" hidden="1">
+      <c r="A157" s="310">
         <v>155</v>
       </c>
-      <c r="B157" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="299" t="s">
+      <c r="B157" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="257">
         <v>42634</v>
       </c>
-      <c r="E157" s="313">
+      <c r="E157" s="312">
         <v>42636</v>
       </c>
-      <c r="F157" s="313" t="s">
+      <c r="F157" s="312" t="s">
         <v>250</v>
       </c>
-      <c r="G157" s="298" t="s">
-        <v>489</v>
-      </c>
-      <c r="H157" s="299"/>
-      <c r="I157" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J157" s="300"/>
-      <c r="K157" s="296">
+      <c r="G157" s="297" t="s">
+        <v>488</v>
+      </c>
+      <c r="H157" s="298"/>
+      <c r="I157" s="294" t="s">
+        <v>483</v>
+      </c>
+      <c r="J157" s="299"/>
+      <c r="K157" s="295">
         <v>42643</v>
       </c>
-      <c r="L157" s="299" t="s">
+      <c r="L157" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="M157" s="299"/>
-      <c r="N157" s="299" t="s">
-        <v>404</v>
+      <c r="M157" s="298"/>
+      <c r="N157" s="298" t="s">
+        <v>403</v>
       </c>
       <c r="O157" s="257">
         <v>42643</v>
       </c>
-      <c r="P157" s="263"/>
+      <c r="P157" s="262"/>
     </row>
     <row r="158" spans="1:16" ht="27" hidden="1">
-      <c r="A158" s="311">
+      <c r="A158" s="310">
         <v>156</v>
       </c>
       <c r="B158" s="211" t="s">
@@ -13955,8 +13950,8 @@
       <c r="H158" s="211" t="s">
         <v>237</v>
       </c>
-      <c r="I158" s="280" t="s">
-        <v>490</v>
+      <c r="I158" s="279" t="s">
+        <v>489</v>
       </c>
       <c r="J158" s="28"/>
       <c r="K158" s="28"/>
@@ -13965,227 +13960,227 @@
       </c>
       <c r="M158" s="211"/>
       <c r="N158" s="211" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O158" s="34">
         <v>42643</v>
       </c>
       <c r="P158" s="252"/>
     </row>
-    <row r="159" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
-      <c r="A159" s="311">
+    <row r="159" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
+      <c r="A159" s="310">
         <v>157</v>
       </c>
-      <c r="B159" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" s="299" t="s">
+      <c r="B159" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D159" s="257">
         <v>42634</v>
       </c>
-      <c r="E159" s="313">
+      <c r="E159" s="312">
         <v>42636</v>
       </c>
-      <c r="F159" s="313" t="s">
+      <c r="F159" s="312" t="s">
         <v>250</v>
       </c>
-      <c r="G159" s="298" t="s">
+      <c r="G159" s="297" t="s">
         <v>252</v>
       </c>
-      <c r="H159" s="299" t="s">
+      <c r="H159" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I159" s="295" t="s">
-        <v>491</v>
-      </c>
-      <c r="J159" s="300"/>
-      <c r="K159" s="296">
+      <c r="I159" s="294" t="s">
+        <v>490</v>
+      </c>
+      <c r="J159" s="299"/>
+      <c r="K159" s="295">
         <v>42643</v>
       </c>
-      <c r="L159" s="299" t="s">
-        <v>398</v>
-      </c>
-      <c r="M159" s="299"/>
-      <c r="N159" s="299" t="s">
-        <v>402</v>
+      <c r="L159" s="298" t="s">
+        <v>397</v>
+      </c>
+      <c r="M159" s="298"/>
+      <c r="N159" s="298" t="s">
+        <v>401</v>
       </c>
       <c r="O159" s="257">
         <v>42643</v>
       </c>
-      <c r="P159" s="263"/>
-    </row>
-    <row r="160" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A160" s="311">
+      <c r="P159" s="262"/>
+    </row>
+    <row r="160" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A160" s="310">
         <v>158</v>
       </c>
-      <c r="B160" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" s="296">
+      <c r="B160" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="295">
         <v>42634</v>
       </c>
-      <c r="E160" s="297">
+      <c r="E160" s="296">
         <v>42636</v>
       </c>
-      <c r="F160" s="313" t="s">
+      <c r="F160" s="312" t="s">
         <v>256</v>
       </c>
-      <c r="G160" s="305" t="s">
+      <c r="G160" s="304" t="s">
+        <v>491</v>
+      </c>
+      <c r="H160" s="298" t="s">
+        <v>47</v>
+      </c>
+      <c r="I160" s="294" t="s">
+        <v>483</v>
+      </c>
+      <c r="J160" s="299"/>
+      <c r="K160" s="295">
+        <v>42643</v>
+      </c>
+      <c r="L160" s="294" t="s">
+        <v>58</v>
+      </c>
+      <c r="M160" s="298"/>
+      <c r="N160" s="298"/>
+      <c r="O160" s="295">
+        <v>42641</v>
+      </c>
+      <c r="P160" s="303"/>
+    </row>
+    <row r="161" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A161" s="310">
+        <v>159</v>
+      </c>
+      <c r="B161" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="295">
+        <v>42634</v>
+      </c>
+      <c r="E161" s="296">
+        <v>42636</v>
+      </c>
+      <c r="F161" s="312" t="s">
+        <v>257</v>
+      </c>
+      <c r="G161" s="297" t="s">
+        <v>261</v>
+      </c>
+      <c r="H161" s="298"/>
+      <c r="I161" s="294" t="s">
+        <v>483</v>
+      </c>
+      <c r="J161" s="299"/>
+      <c r="K161" s="295">
+        <v>42643</v>
+      </c>
+      <c r="L161" s="294" t="s">
+        <v>58</v>
+      </c>
+      <c r="M161" s="298"/>
+      <c r="N161" s="298"/>
+      <c r="O161" s="295">
+        <v>42641</v>
+      </c>
+      <c r="P161" s="303"/>
+    </row>
+    <row r="162" spans="1:16" s="300" customFormat="1" hidden="1">
+      <c r="A162" s="310">
+        <v>160</v>
+      </c>
+      <c r="B162" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="295">
+        <v>42634</v>
+      </c>
+      <c r="E162" s="296">
+        <v>42636</v>
+      </c>
+      <c r="F162" s="312" t="s">
+        <v>332</v>
+      </c>
+      <c r="G162" s="342" t="s">
         <v>492</v>
       </c>
-      <c r="H160" s="299" t="s">
+      <c r="H162" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I160" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J160" s="300"/>
-      <c r="K160" s="296">
+      <c r="I162" s="294" t="s">
+        <v>483</v>
+      </c>
+      <c r="J162" s="299"/>
+      <c r="K162" s="295">
         <v>42643</v>
       </c>
-      <c r="L160" s="295" t="s">
+      <c r="L162" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M160" s="299"/>
-      <c r="N160" s="299"/>
-      <c r="O160" s="296">
-        <v>42641</v>
-      </c>
-      <c r="P160" s="304"/>
-    </row>
-    <row r="161" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A161" s="311">
-        <v>159</v>
-      </c>
-      <c r="B161" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" s="296">
-        <v>42634</v>
-      </c>
-      <c r="E161" s="297">
-        <v>42636</v>
-      </c>
-      <c r="F161" s="313" t="s">
-        <v>257</v>
-      </c>
-      <c r="G161" s="298" t="s">
-        <v>261</v>
-      </c>
-      <c r="H161" s="299"/>
-      <c r="I161" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J161" s="300"/>
-      <c r="K161" s="296">
-        <v>42643</v>
-      </c>
-      <c r="L161" s="295" t="s">
-        <v>58</v>
-      </c>
-      <c r="M161" s="299"/>
-      <c r="N161" s="299"/>
-      <c r="O161" s="296">
-        <v>42641</v>
-      </c>
-      <c r="P161" s="304"/>
-    </row>
-    <row r="162" spans="1:16" s="301" customFormat="1" hidden="1">
-      <c r="A162" s="311">
-        <v>160</v>
-      </c>
-      <c r="B162" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C162" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" s="296">
-        <v>42634</v>
-      </c>
-      <c r="E162" s="297">
-        <v>42636</v>
-      </c>
-      <c r="F162" s="313" t="s">
-        <v>332</v>
-      </c>
-      <c r="G162" s="343" t="s">
-        <v>493</v>
-      </c>
-      <c r="H162" s="299" t="s">
-        <v>47</v>
-      </c>
-      <c r="I162" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J162" s="300"/>
-      <c r="K162" s="296">
-        <v>42643</v>
-      </c>
-      <c r="L162" s="295" t="s">
-        <v>58</v>
-      </c>
-      <c r="M162" s="299"/>
-      <c r="N162" s="299"/>
-      <c r="O162" s="296">
+      <c r="M162" s="298"/>
+      <c r="N162" s="298"/>
+      <c r="O162" s="295">
         <v>42637</v>
       </c>
-      <c r="P162" s="304"/>
-    </row>
-    <row r="163" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
-      <c r="A163" s="311">
+      <c r="P162" s="303"/>
+    </row>
+    <row r="163" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
+      <c r="A163" s="310">
         <v>161</v>
       </c>
-      <c r="B163" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C163" s="299" t="s">
+      <c r="B163" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D163" s="257">
         <v>42634</v>
       </c>
-      <c r="E163" s="313">
+      <c r="E163" s="312">
         <v>42636</v>
       </c>
-      <c r="F163" s="313" t="s">
+      <c r="F163" s="312" t="s">
         <v>303</v>
       </c>
-      <c r="G163" s="342" t="s">
+      <c r="G163" s="341" t="s">
         <v>361</v>
       </c>
-      <c r="H163" s="299" t="s">
+      <c r="H163" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I163" s="295" t="s">
-        <v>491</v>
-      </c>
-      <c r="J163" s="300"/>
-      <c r="K163" s="296">
+      <c r="I163" s="294" t="s">
+        <v>490</v>
+      </c>
+      <c r="J163" s="299"/>
+      <c r="K163" s="295">
         <v>42643</v>
       </c>
-      <c r="L163" s="299" t="s">
+      <c r="L163" s="298" t="s">
+        <v>397</v>
+      </c>
+      <c r="M163" s="298"/>
+      <c r="N163" s="298" t="s">
         <v>398</v>
-      </c>
-      <c r="M163" s="299"/>
-      <c r="N163" s="299" t="s">
-        <v>399</v>
       </c>
       <c r="O163" s="257">
         <v>42643</v>
       </c>
-      <c r="P163" s="263"/>
+      <c r="P163" s="262"/>
     </row>
     <row r="164" spans="1:16" ht="27">
-      <c r="A164" s="311">
+      <c r="A164" s="310">
         <v>162</v>
       </c>
       <c r="B164" s="211" t="s">
@@ -14203,8 +14198,8 @@
       <c r="F164" s="225" t="s">
         <v>303</v>
       </c>
-      <c r="G164" s="315" t="s">
-        <v>494</v>
+      <c r="G164" s="314" t="s">
+        <v>493</v>
       </c>
       <c r="H164" s="211" t="s">
         <v>47</v>
@@ -14219,7 +14214,7 @@
       <c r="P164" s="252"/>
     </row>
     <row r="165" spans="1:16" s="207" customFormat="1" ht="27">
-      <c r="A165" s="311">
+      <c r="A165" s="310">
         <v>163</v>
       </c>
       <c r="B165" s="208" t="s">
@@ -14237,12 +14232,12 @@
       <c r="F165" s="225" t="s">
         <v>304</v>
       </c>
-      <c r="G165" s="317" t="s">
-        <v>495</v>
+      <c r="G165" s="316" t="s">
+        <v>494</v>
       </c>
       <c r="H165" s="211"/>
-      <c r="I165" s="276" t="s">
-        <v>454</v>
+      <c r="I165" s="275" t="s">
+        <v>453</v>
       </c>
       <c r="J165" s="212"/>
       <c r="K165" s="212"/>
@@ -14250,102 +14245,102 @@
         <v>58</v>
       </c>
       <c r="M165" s="211"/>
-      <c r="N165" s="280" t="s">
-        <v>560</v>
+      <c r="N165" s="279" t="s">
+        <v>559</v>
       </c>
       <c r="O165" s="209">
         <v>42651</v>
       </c>
       <c r="P165" s="213"/>
     </row>
-    <row r="166" spans="1:16" s="328" customFormat="1" hidden="1">
-      <c r="A166" s="311">
+    <row r="166" spans="1:16" s="327" customFormat="1" hidden="1">
+      <c r="A166" s="310">
         <v>164</v>
       </c>
-      <c r="B166" s="289" t="s">
-        <v>19</v>
-      </c>
-      <c r="C166" s="289" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166" s="325">
+      <c r="B166" s="288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="288" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="324">
         <v>42634</v>
       </c>
-      <c r="E166" s="314">
+      <c r="E166" s="313">
         <v>42636</v>
       </c>
-      <c r="F166" s="314" t="s">
+      <c r="F166" s="313" t="s">
         <v>306</v>
       </c>
-      <c r="G166" s="344" t="s">
+      <c r="G166" s="343" t="s">
         <v>307</v>
       </c>
-      <c r="H166" s="289" t="s">
+      <c r="H166" s="288" t="s">
         <v>47</v>
       </c>
-      <c r="I166" s="285" t="s">
-        <v>484</v>
-      </c>
-      <c r="J166" s="290"/>
-      <c r="K166" s="286">
+      <c r="I166" s="284" t="s">
+        <v>483</v>
+      </c>
+      <c r="J166" s="289"/>
+      <c r="K166" s="285">
         <v>42643</v>
       </c>
-      <c r="L166" s="289" t="s">
+      <c r="L166" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="M166" s="289"/>
-      <c r="N166" s="289" t="s">
-        <v>403</v>
-      </c>
-      <c r="O166" s="325">
+      <c r="M166" s="288"/>
+      <c r="N166" s="288" t="s">
+        <v>402</v>
+      </c>
+      <c r="O166" s="324">
         <v>42643</v>
       </c>
-      <c r="P166" s="327"/>
-    </row>
-    <row r="167" spans="1:16" s="292" customFormat="1" ht="27" hidden="1">
-      <c r="A167" s="311">
+      <c r="P166" s="326"/>
+    </row>
+    <row r="167" spans="1:16" s="291" customFormat="1" ht="27" hidden="1">
+      <c r="A167" s="310">
         <v>165</v>
       </c>
-      <c r="B167" s="285" t="s">
-        <v>19</v>
-      </c>
-      <c r="C167" s="285" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" s="286">
+      <c r="B167" s="284" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="284" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" s="285">
         <v>42634</v>
       </c>
-      <c r="E167" s="287">
+      <c r="E167" s="286">
         <v>42636</v>
       </c>
-      <c r="F167" s="314" t="s">
+      <c r="F167" s="313" t="s">
         <v>306</v>
       </c>
-      <c r="G167" s="344" t="s">
+      <c r="G167" s="343" t="s">
         <v>310</v>
       </c>
-      <c r="H167" s="289" t="s">
+      <c r="H167" s="288" t="s">
         <v>47</v>
       </c>
-      <c r="I167" s="285" t="s">
-        <v>484</v>
-      </c>
-      <c r="J167" s="290"/>
-      <c r="K167" s="286">
+      <c r="I167" s="284" t="s">
+        <v>483</v>
+      </c>
+      <c r="J167" s="289"/>
+      <c r="K167" s="285">
         <v>42643</v>
       </c>
-      <c r="L167" s="285" t="s">
+      <c r="L167" s="284" t="s">
         <v>58</v>
       </c>
-      <c r="M167" s="289"/>
-      <c r="N167" s="289"/>
-      <c r="O167" s="286">
+      <c r="M167" s="288"/>
+      <c r="N167" s="288"/>
+      <c r="O167" s="285">
         <v>42637</v>
       </c>
-      <c r="P167" s="291"/>
+      <c r="P167" s="290"/>
     </row>
     <row r="168" spans="1:16" s="207" customFormat="1" ht="54">
-      <c r="A168" s="311">
+      <c r="A168" s="310">
         <v>166</v>
       </c>
       <c r="B168" s="208" t="s">
@@ -14363,13 +14358,11 @@
       <c r="F168" s="225" t="s">
         <v>323</v>
       </c>
-      <c r="G168" s="315" t="s">
-        <v>496</v>
+      <c r="G168" s="314" t="s">
+        <v>495</v>
       </c>
       <c r="H168" s="211"/>
-      <c r="I168" s="276" t="s">
-        <v>454</v>
-      </c>
+      <c r="I168" s="275"/>
       <c r="J168" s="212"/>
       <c r="K168" s="212"/>
       <c r="L168" s="208" t="s">
@@ -14380,12 +14373,12 @@
         <v>391</v>
       </c>
       <c r="O168" s="209">
-        <v>42640</v>
+        <v>42652</v>
       </c>
       <c r="P168" s="213"/>
     </row>
     <row r="169" spans="1:16" s="207" customFormat="1" ht="54">
-      <c r="A169" s="311">
+      <c r="A169" s="310">
         <v>167</v>
       </c>
       <c r="B169" s="208" t="s">
@@ -14403,13 +14396,11 @@
       <c r="F169" s="225" t="s">
         <v>324</v>
       </c>
-      <c r="G169" s="317" t="s">
-        <v>497</v>
+      <c r="G169" s="316" t="s">
+        <v>496</v>
       </c>
       <c r="H169" s="211"/>
-      <c r="I169" s="276" t="s">
-        <v>454</v>
-      </c>
+      <c r="I169" s="275"/>
       <c r="J169" s="212"/>
       <c r="K169" s="212"/>
       <c r="L169" s="208" t="s">
@@ -14419,55 +14410,55 @@
       <c r="N169" s="211" t="s">
         <v>390</v>
       </c>
-      <c r="O169" s="209">
+      <c r="O169" s="276">
+        <v>42652</v>
+      </c>
+      <c r="P169" s="213"/>
+    </row>
+    <row r="170" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A170" s="310">
+        <v>168</v>
+      </c>
+      <c r="B170" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" s="295">
+        <v>42634</v>
+      </c>
+      <c r="E170" s="296">
+        <v>42636</v>
+      </c>
+      <c r="F170" s="312" t="s">
+        <v>325</v>
+      </c>
+      <c r="G170" s="342" t="s">
+        <v>326</v>
+      </c>
+      <c r="H170" s="298" t="s">
+        <v>47</v>
+      </c>
+      <c r="I170" s="294" t="s">
+        <v>483</v>
+      </c>
+      <c r="J170" s="299"/>
+      <c r="K170" s="295">
+        <v>42643</v>
+      </c>
+      <c r="L170" s="294" t="s">
+        <v>58</v>
+      </c>
+      <c r="M170" s="298"/>
+      <c r="N170" s="298"/>
+      <c r="O170" s="295">
         <v>42640</v>
       </c>
-      <c r="P169" s="213"/>
-    </row>
-    <row r="170" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A170" s="311">
-        <v>168</v>
-      </c>
-      <c r="B170" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C170" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170" s="296">
-        <v>42634</v>
-      </c>
-      <c r="E170" s="297">
-        <v>42636</v>
-      </c>
-      <c r="F170" s="313" t="s">
-        <v>325</v>
-      </c>
-      <c r="G170" s="343" t="s">
-        <v>326</v>
-      </c>
-      <c r="H170" s="299" t="s">
-        <v>47</v>
-      </c>
-      <c r="I170" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J170" s="300"/>
-      <c r="K170" s="296">
-        <v>42643</v>
-      </c>
-      <c r="L170" s="295" t="s">
-        <v>58</v>
-      </c>
-      <c r="M170" s="299"/>
-      <c r="N170" s="299"/>
-      <c r="O170" s="296">
-        <v>42640</v>
-      </c>
-      <c r="P170" s="304"/>
+      <c r="P170" s="303"/>
     </row>
     <row r="171" spans="1:16" s="1" customFormat="1" ht="54">
-      <c r="A171" s="311">
+      <c r="A171" s="310">
         <v>169</v>
       </c>
       <c r="B171" s="208" t="s">
@@ -14501,1411 +14492,1415 @@
       </c>
       <c r="P171" s="127"/>
     </row>
-    <row r="172" spans="1:16" s="262" customFormat="1" ht="40.5" hidden="1">
-      <c r="A172" s="311">
+    <row r="172" spans="1:16" s="261" customFormat="1" ht="40.5" hidden="1">
+      <c r="A172" s="310">
         <v>170</v>
       </c>
-      <c r="B172" s="299" t="s">
+      <c r="B172" s="298" t="s">
         <v>169</v>
       </c>
-      <c r="C172" s="299" t="s">
+      <c r="C172" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D172" s="257">
         <v>42634</v>
       </c>
-      <c r="E172" s="313">
+      <c r="E172" s="312">
         <v>42636</v>
       </c>
-      <c r="F172" s="339" t="s">
+      <c r="F172" s="338" t="s">
         <v>381</v>
       </c>
-      <c r="G172" s="345" t="s">
+      <c r="G172" s="344" t="s">
         <v>382</v>
       </c>
-      <c r="H172" s="299" t="s">
+      <c r="H172" s="298" t="s">
         <v>383</v>
       </c>
-      <c r="I172" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J172" s="300"/>
-      <c r="K172" s="296">
+      <c r="I172" s="294" t="s">
+        <v>483</v>
+      </c>
+      <c r="J172" s="299"/>
+      <c r="K172" s="295">
         <v>42643</v>
       </c>
-      <c r="L172" s="262" t="s">
+      <c r="L172" s="261" t="s">
         <v>59</v>
       </c>
-      <c r="O172" s="341">
+      <c r="O172" s="340">
         <v>42642</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="262" customFormat="1" ht="94.5" hidden="1">
-      <c r="A173" s="311">
+    <row r="173" spans="1:16" s="261" customFormat="1" ht="94.5" hidden="1">
+      <c r="A173" s="310">
         <v>171</v>
       </c>
-      <c r="B173" s="299" t="s">
+      <c r="B173" s="298" t="s">
         <v>169</v>
       </c>
-      <c r="C173" s="299" t="s">
+      <c r="C173" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D173" s="257">
         <v>42634</v>
       </c>
-      <c r="E173" s="313">
+      <c r="E173" s="312">
         <v>42636</v>
       </c>
-      <c r="F173" s="339" t="s">
+      <c r="F173" s="338" t="s">
         <v>384</v>
       </c>
-      <c r="G173" s="346" t="s">
+      <c r="G173" s="345" t="s">
+        <v>497</v>
+      </c>
+      <c r="H173" s="298" t="s">
+        <v>383</v>
+      </c>
+      <c r="I173" s="294" t="s">
+        <v>483</v>
+      </c>
+      <c r="J173" s="299"/>
+      <c r="K173" s="295">
+        <v>42643</v>
+      </c>
+      <c r="L173" s="261" t="s">
+        <v>59</v>
+      </c>
+      <c r="N173" s="261" t="s">
+        <v>399</v>
+      </c>
+      <c r="O173" s="340">
+        <v>42643</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A174" s="310">
+        <v>172</v>
+      </c>
+      <c r="B174" s="294" t="s">
+        <v>169</v>
+      </c>
+      <c r="C174" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="295">
+        <v>42634</v>
+      </c>
+      <c r="E174" s="296">
+        <v>42636</v>
+      </c>
+      <c r="F174" s="312" t="s">
+        <v>385</v>
+      </c>
+      <c r="G174" s="344" t="s">
+        <v>386</v>
+      </c>
+      <c r="H174" s="298"/>
+      <c r="I174" s="294" t="s">
+        <v>483</v>
+      </c>
+      <c r="J174" s="299"/>
+      <c r="K174" s="295">
+        <v>42643</v>
+      </c>
+      <c r="L174" s="294" t="s">
+        <v>58</v>
+      </c>
+      <c r="O174" s="336">
+        <v>42639</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" ht="27" hidden="1">
+      <c r="A175" s="310">
+        <v>173</v>
+      </c>
+      <c r="B175" s="264" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="264" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="266">
+        <v>42634</v>
+      </c>
+      <c r="E175" s="267">
+        <v>42641</v>
+      </c>
+      <c r="F175" s="268" t="s">
+        <v>408</v>
+      </c>
+      <c r="G175" s="306" t="s">
         <v>498</v>
       </c>
-      <c r="H173" s="299" t="s">
-        <v>383</v>
-      </c>
-      <c r="I173" s="295" t="s">
+      <c r="H175" s="265"/>
+      <c r="I175" s="271" t="s">
+        <v>499</v>
+      </c>
+      <c r="J175" s="263"/>
+      <c r="K175" s="323"/>
+      <c r="L175" s="264"/>
+      <c r="M175" s="263"/>
+      <c r="N175" s="263"/>
+      <c r="O175" s="269"/>
+      <c r="P175" s="263"/>
+    </row>
+    <row r="176" spans="1:16" s="272" customFormat="1" ht="54">
+      <c r="A176" s="310">
+        <v>174</v>
+      </c>
+      <c r="B176" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E176" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F176" s="311" t="s">
+        <v>426</v>
+      </c>
+      <c r="G176" s="306" t="s">
+        <v>520</v>
+      </c>
+      <c r="H176" s="279"/>
+      <c r="I176" s="271"/>
+      <c r="J176" s="271"/>
+      <c r="K176" s="271"/>
+      <c r="L176" s="275" t="s">
+        <v>551</v>
+      </c>
+      <c r="M176" s="271"/>
+      <c r="N176" s="271" t="s">
+        <v>552</v>
+      </c>
+      <c r="O176" s="323">
+        <v>42651</v>
+      </c>
+      <c r="P176" s="271"/>
+    </row>
+    <row r="177" spans="1:16" s="272" customFormat="1">
+      <c r="A177" s="310">
+        <v>175</v>
+      </c>
+      <c r="B177" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E177" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F177" s="311" t="s">
+        <v>414</v>
+      </c>
+      <c r="G177" s="322" t="s">
+        <v>415</v>
+      </c>
+      <c r="H177" s="279"/>
+      <c r="I177" s="271"/>
+      <c r="J177" s="271"/>
+      <c r="K177" s="271"/>
+      <c r="L177" s="275" t="s">
+        <v>553</v>
+      </c>
+      <c r="M177" s="271"/>
+      <c r="N177" s="271" t="s">
+        <v>554</v>
+      </c>
+      <c r="O177" s="323">
+        <v>42651</v>
+      </c>
+      <c r="P177" s="271"/>
+    </row>
+    <row r="178" spans="1:16" s="272" customFormat="1" ht="108">
+      <c r="A178" s="310">
+        <v>176</v>
+      </c>
+      <c r="B178" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E178" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F178" s="311" t="s">
+        <v>532</v>
+      </c>
+      <c r="G178" s="306" t="s">
+        <v>529</v>
+      </c>
+      <c r="H178" s="279"/>
+      <c r="I178" s="271"/>
+      <c r="J178" s="271"/>
+      <c r="K178" s="271"/>
+      <c r="L178" s="275"/>
+      <c r="M178" s="271"/>
+      <c r="N178" s="271"/>
+      <c r="O178" s="323"/>
+      <c r="P178" s="271"/>
+    </row>
+    <row r="179" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A179" s="310">
+        <v>177</v>
+      </c>
+      <c r="B179" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E179" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F179" s="311" t="s">
+        <v>533</v>
+      </c>
+      <c r="G179" s="306" t="s">
+        <v>537</v>
+      </c>
+      <c r="H179" s="279"/>
+      <c r="I179" s="271"/>
+      <c r="J179" s="271"/>
+      <c r="K179" s="271"/>
+      <c r="L179" s="275"/>
+      <c r="M179" s="271"/>
+      <c r="N179" s="271"/>
+      <c r="O179" s="323"/>
+      <c r="P179" s="271"/>
+    </row>
+    <row r="180" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A180" s="310">
+        <v>178</v>
+      </c>
+      <c r="B180" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E180" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F180" s="311" t="s">
+        <v>534</v>
+      </c>
+      <c r="G180" s="306" t="s">
+        <v>538</v>
+      </c>
+      <c r="H180" s="279"/>
+      <c r="I180" s="271"/>
+      <c r="J180" s="271"/>
+      <c r="K180" s="271"/>
+      <c r="L180" s="275"/>
+      <c r="M180" s="271"/>
+      <c r="N180" s="271"/>
+      <c r="O180" s="323"/>
+      <c r="P180" s="271"/>
+    </row>
+    <row r="181" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A181" s="310">
+        <v>179</v>
+      </c>
+      <c r="B181" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E181" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F181" s="311" t="s">
+        <v>535</v>
+      </c>
+      <c r="G181" s="306" t="s">
+        <v>539</v>
+      </c>
+      <c r="H181" s="279"/>
+      <c r="I181" s="271"/>
+      <c r="J181" s="271"/>
+      <c r="K181" s="271"/>
+      <c r="L181" s="275"/>
+      <c r="M181" s="271"/>
+      <c r="N181" s="271"/>
+      <c r="O181" s="323"/>
+      <c r="P181" s="271"/>
+    </row>
+    <row r="182" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A182" s="310">
+        <v>180</v>
+      </c>
+      <c r="B182" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E182" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F182" s="311" t="s">
+        <v>536</v>
+      </c>
+      <c r="G182" s="306" t="s">
+        <v>540</v>
+      </c>
+      <c r="H182" s="279"/>
+      <c r="I182" s="271"/>
+      <c r="J182" s="271"/>
+      <c r="K182" s="271"/>
+      <c r="L182" s="275"/>
+      <c r="M182" s="271"/>
+      <c r="N182" s="271"/>
+      <c r="O182" s="323"/>
+      <c r="P182" s="271"/>
+    </row>
+    <row r="183" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A183" s="310">
+        <v>181</v>
+      </c>
+      <c r="B183" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E183" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F183" s="311" t="s">
+        <v>421</v>
+      </c>
+      <c r="G183" s="306" t="s">
+        <v>420</v>
+      </c>
+      <c r="H183" s="279"/>
+      <c r="I183" s="271"/>
+      <c r="J183" s="271"/>
+      <c r="K183" s="271"/>
+      <c r="L183" s="275"/>
+      <c r="M183" s="271"/>
+      <c r="N183" s="271"/>
+      <c r="O183" s="323"/>
+      <c r="P183" s="271"/>
+    </row>
+    <row r="184" spans="1:16" s="272" customFormat="1" ht="40.5">
+      <c r="A184" s="310">
+        <v>182</v>
+      </c>
+      <c r="B184" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E184" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F184" s="311" t="s">
+        <v>421</v>
+      </c>
+      <c r="G184" s="306" t="s">
+        <v>422</v>
+      </c>
+      <c r="H184" s="279"/>
+      <c r="I184" s="271"/>
+      <c r="J184" s="271"/>
+      <c r="K184" s="271"/>
+      <c r="L184" s="275"/>
+      <c r="M184" s="271"/>
+      <c r="N184" s="271"/>
+      <c r="O184" s="323"/>
+      <c r="P184" s="271"/>
+    </row>
+    <row r="185" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A185" s="310">
+        <v>183</v>
+      </c>
+      <c r="B185" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E185" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F185" s="311" t="s">
+        <v>419</v>
+      </c>
+      <c r="G185" s="322" t="s">
+        <v>423</v>
+      </c>
+      <c r="H185" s="279"/>
+      <c r="I185" s="271"/>
+      <c r="J185" s="271"/>
+      <c r="K185" s="271"/>
+      <c r="L185" s="275"/>
+      <c r="M185" s="271"/>
+      <c r="N185" s="271"/>
+      <c r="O185" s="323"/>
+      <c r="P185" s="271"/>
+    </row>
+    <row r="186" spans="1:16" s="272" customFormat="1">
+      <c r="A186" s="310">
+        <v>184</v>
+      </c>
+      <c r="B186" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E186" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F186" s="311" t="s">
+        <v>428</v>
+      </c>
+      <c r="G186" s="306" t="s">
+        <v>429</v>
+      </c>
+      <c r="H186" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I186" s="271"/>
+      <c r="J186" s="271"/>
+      <c r="K186" s="271"/>
+      <c r="L186" s="275"/>
+      <c r="M186" s="271"/>
+      <c r="N186" s="271"/>
+      <c r="O186" s="323"/>
+      <c r="P186" s="271"/>
+    </row>
+    <row r="187" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A187" s="310">
+        <v>185</v>
+      </c>
+      <c r="B187" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C187" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E187" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F187" s="311" t="s">
+        <v>430</v>
+      </c>
+      <c r="G187" s="306" t="s">
+        <v>431</v>
+      </c>
+      <c r="H187" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I187" s="271"/>
+      <c r="J187" s="271"/>
+      <c r="K187" s="271"/>
+      <c r="L187" s="275"/>
+      <c r="M187" s="271"/>
+      <c r="N187" s="271"/>
+      <c r="O187" s="323"/>
+      <c r="P187" s="271"/>
+    </row>
+    <row r="188" spans="1:16" s="272" customFormat="1" ht="54">
+      <c r="A188" s="310">
+        <v>186</v>
+      </c>
+      <c r="B188" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C188" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E188" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F188" s="311" t="s">
+        <v>435</v>
+      </c>
+      <c r="G188" s="322" t="s">
+        <v>444</v>
+      </c>
+      <c r="H188" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I188" s="271"/>
+      <c r="J188" s="271"/>
+      <c r="K188" s="271"/>
+      <c r="L188" s="275"/>
+      <c r="M188" s="271"/>
+      <c r="N188" s="271"/>
+      <c r="O188" s="323"/>
+      <c r="P188" s="271"/>
+    </row>
+    <row r="189" spans="1:16" s="272" customFormat="1" ht="67.5">
+      <c r="A189" s="310">
+        <v>187</v>
+      </c>
+      <c r="B189" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E189" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F189" s="311" t="s">
+        <v>443</v>
+      </c>
+      <c r="G189" s="322" t="s">
+        <v>500</v>
+      </c>
+      <c r="H189" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I189" s="271"/>
+      <c r="J189" s="271"/>
+      <c r="K189" s="271"/>
+      <c r="L189" s="275"/>
+      <c r="M189" s="271"/>
+      <c r="N189" s="271"/>
+      <c r="O189" s="323"/>
+      <c r="P189" s="271"/>
+    </row>
+    <row r="190" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A190" s="310">
+        <v>188</v>
+      </c>
+      <c r="B190" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E190" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F190" s="311" t="s">
+        <v>436</v>
+      </c>
+      <c r="G190" s="306" t="s">
+        <v>445</v>
+      </c>
+      <c r="H190" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I190" s="271"/>
+      <c r="J190" s="271"/>
+      <c r="K190" s="271"/>
+      <c r="L190" s="275"/>
+      <c r="M190" s="271"/>
+      <c r="N190" s="271"/>
+      <c r="O190" s="323"/>
+      <c r="P190" s="271"/>
+    </row>
+    <row r="191" spans="1:16" s="272" customFormat="1" ht="40.5">
+      <c r="A191" s="310">
+        <v>189</v>
+      </c>
+      <c r="B191" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C191" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E191" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F191" s="311" t="s">
+        <v>438</v>
+      </c>
+      <c r="G191" s="306" t="s">
+        <v>437</v>
+      </c>
+      <c r="H191" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I191" s="271"/>
+      <c r="J191" s="271"/>
+      <c r="K191" s="271"/>
+      <c r="L191" s="275"/>
+      <c r="M191" s="271"/>
+      <c r="N191" s="271"/>
+      <c r="O191" s="323"/>
+      <c r="P191" s="271"/>
+    </row>
+    <row r="192" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A192" s="310">
+        <v>190</v>
+      </c>
+      <c r="B192" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E192" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F192" s="311" t="s">
+        <v>451</v>
+      </c>
+      <c r="G192" s="322" t="s">
+        <v>452</v>
+      </c>
+      <c r="H192" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I192" s="271"/>
+      <c r="J192" s="271"/>
+      <c r="K192" s="271"/>
+      <c r="L192" s="275"/>
+      <c r="M192" s="271"/>
+      <c r="N192" s="271"/>
+      <c r="O192" s="323"/>
+      <c r="P192" s="271"/>
+    </row>
+    <row r="193" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A193" s="310">
+        <v>191</v>
+      </c>
+      <c r="B193" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E193" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F193" s="311" t="s">
+        <v>439</v>
+      </c>
+      <c r="G193" s="328" t="s">
+        <v>450</v>
+      </c>
+      <c r="H193" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I193" s="271"/>
+      <c r="J193" s="271"/>
+      <c r="K193" s="271"/>
+      <c r="L193" s="275"/>
+      <c r="M193" s="271"/>
+      <c r="N193" s="271"/>
+      <c r="O193" s="323"/>
+      <c r="P193" s="271"/>
+    </row>
+    <row r="194" spans="1:16" s="272" customFormat="1">
+      <c r="A194" s="310">
+        <v>192</v>
+      </c>
+      <c r="B194" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E194" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F194" s="311" t="s">
+        <v>440</v>
+      </c>
+      <c r="G194" s="306" t="s">
+        <v>441</v>
+      </c>
+      <c r="H194" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I194" s="271"/>
+      <c r="J194" s="271"/>
+      <c r="K194" s="271"/>
+      <c r="L194" s="275"/>
+      <c r="M194" s="271"/>
+      <c r="N194" s="271"/>
+      <c r="O194" s="323"/>
+      <c r="P194" s="271"/>
+    </row>
+    <row r="195" spans="1:16" s="272" customFormat="1">
+      <c r="A195" s="310">
+        <v>193</v>
+      </c>
+      <c r="B195" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E195" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F195" s="311" t="s">
+        <v>442</v>
+      </c>
+      <c r="G195" s="306" t="s">
+        <v>448</v>
+      </c>
+      <c r="H195" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I195" s="271"/>
+      <c r="J195" s="271"/>
+      <c r="K195" s="271"/>
+      <c r="L195" s="275"/>
+      <c r="M195" s="271"/>
+      <c r="N195" s="271"/>
+      <c r="O195" s="323"/>
+      <c r="P195" s="271"/>
+    </row>
+    <row r="196" spans="1:16" s="272" customFormat="1">
+      <c r="A196" s="310">
+        <v>194</v>
+      </c>
+      <c r="B196" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E196" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F196" s="311" t="s">
+        <v>442</v>
+      </c>
+      <c r="G196" s="306" t="s">
+        <v>449</v>
+      </c>
+      <c r="H196" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I196" s="271"/>
+      <c r="J196" s="271"/>
+      <c r="K196" s="271"/>
+      <c r="L196" s="275"/>
+      <c r="M196" s="271"/>
+      <c r="N196" s="271"/>
+      <c r="O196" s="323"/>
+      <c r="P196" s="271"/>
+    </row>
+    <row r="197" spans="1:16" s="272" customFormat="1">
+      <c r="A197" s="310">
+        <v>195</v>
+      </c>
+      <c r="B197" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E197" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F197" s="311" t="s">
+        <v>446</v>
+      </c>
+      <c r="G197" s="306" t="s">
+        <v>447</v>
+      </c>
+      <c r="H197" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I197" s="271"/>
+      <c r="J197" s="271"/>
+      <c r="K197" s="271"/>
+      <c r="L197" s="275"/>
+      <c r="M197" s="271"/>
+      <c r="N197" s="271"/>
+      <c r="O197" s="323"/>
+      <c r="P197" s="271"/>
+    </row>
+    <row r="198" spans="1:16" s="272" customFormat="1" ht="54">
+      <c r="A198" s="310">
+        <v>196</v>
+      </c>
+      <c r="B198" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E198" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F198" s="311" t="s">
+        <v>446</v>
+      </c>
+      <c r="G198" s="322" t="s">
+        <v>507</v>
+      </c>
+      <c r="H198" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I198" s="271"/>
+      <c r="J198" s="271"/>
+      <c r="K198" s="271"/>
+      <c r="L198" s="275" t="s">
+        <v>561</v>
+      </c>
+      <c r="M198" s="271"/>
+      <c r="N198" s="271" t="s">
+        <v>560</v>
+      </c>
+      <c r="O198" s="323">
+        <v>42651</v>
+      </c>
+      <c r="P198" s="271"/>
+    </row>
+    <row r="199" spans="1:16" s="272" customFormat="1">
+      <c r="A199" s="310">
+        <v>197</v>
+      </c>
+      <c r="B199" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E199" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F199" s="311" t="s">
+        <v>457</v>
+      </c>
+      <c r="G199" s="306" t="s">
+        <v>458</v>
+      </c>
+      <c r="H199" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I199" s="271"/>
+      <c r="J199" s="271"/>
+      <c r="K199" s="271"/>
+      <c r="L199" s="275"/>
+      <c r="M199" s="271"/>
+      <c r="N199" s="271"/>
+      <c r="O199" s="323"/>
+      <c r="P199" s="271"/>
+    </row>
+    <row r="200" spans="1:16" s="272" customFormat="1" ht="40.5">
+      <c r="A200" s="310">
+        <v>198</v>
+      </c>
+      <c r="B200" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E200" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F200" s="311" t="s">
+        <v>462</v>
+      </c>
+      <c r="G200" s="306" t="s">
         <v>484</v>
       </c>
-      <c r="J173" s="300"/>
-      <c r="K173" s="296">
+      <c r="H200" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I200" s="271"/>
+      <c r="J200" s="271"/>
+      <c r="K200" s="271"/>
+      <c r="L200" s="275"/>
+      <c r="M200" s="271"/>
+      <c r="N200" s="271"/>
+      <c r="O200" s="323"/>
+      <c r="P200" s="271"/>
+    </row>
+    <row r="201" spans="1:16" s="272" customFormat="1">
+      <c r="A201" s="310">
+        <v>199</v>
+      </c>
+      <c r="B201" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="292">
         <v>42643</v>
       </c>
-      <c r="L173" s="262" t="s">
-        <v>59</v>
-      </c>
-      <c r="N173" s="262" t="s">
-        <v>400</v>
-      </c>
-      <c r="O173" s="341">
+      <c r="E201" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F201" s="311" t="s">
+        <v>421</v>
+      </c>
+      <c r="G201" s="306" t="s">
+        <v>463</v>
+      </c>
+      <c r="H201" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I201" s="271"/>
+      <c r="J201" s="271"/>
+      <c r="K201" s="271"/>
+      <c r="L201" s="275"/>
+      <c r="M201" s="271"/>
+      <c r="N201" s="271"/>
+      <c r="O201" s="323"/>
+      <c r="P201" s="271"/>
+    </row>
+    <row r="202" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A202" s="310">
+        <v>200</v>
+      </c>
+      <c r="B202" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" s="292">
         <v>42643</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A174" s="311">
-        <v>172</v>
-      </c>
-      <c r="B174" s="295" t="s">
-        <v>169</v>
-      </c>
-      <c r="C174" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" s="296">
-        <v>42634</v>
-      </c>
-      <c r="E174" s="297">
-        <v>42636</v>
-      </c>
-      <c r="F174" s="313" t="s">
-        <v>385</v>
-      </c>
-      <c r="G174" s="345" t="s">
-        <v>386</v>
-      </c>
-      <c r="H174" s="299"/>
-      <c r="I174" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J174" s="300"/>
-      <c r="K174" s="296">
+      <c r="E202" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F202" s="311" t="s">
+        <v>465</v>
+      </c>
+      <c r="G202" s="306" t="s">
+        <v>468</v>
+      </c>
+      <c r="H202" s="279"/>
+      <c r="I202" s="271"/>
+      <c r="J202" s="271"/>
+      <c r="K202" s="271"/>
+      <c r="L202" s="275" t="s">
+        <v>555</v>
+      </c>
+      <c r="M202" s="271"/>
+      <c r="N202" s="271" t="s">
+        <v>556</v>
+      </c>
+      <c r="O202" s="323">
+        <v>42651</v>
+      </c>
+      <c r="P202" s="271"/>
+    </row>
+    <row r="203" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A203" s="310">
+        <v>201</v>
+      </c>
+      <c r="B203" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" s="292">
         <v>42643</v>
       </c>
-      <c r="L174" s="295" t="s">
-        <v>58</v>
-      </c>
-      <c r="O174" s="337">
-        <v>42639</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" ht="27" hidden="1">
-      <c r="A175" s="311">
-        <v>173</v>
-      </c>
-      <c r="B175" s="265" t="s">
-        <v>19</v>
-      </c>
-      <c r="C175" s="265" t="s">
-        <v>16</v>
-      </c>
-      <c r="D175" s="267">
-        <v>42634</v>
-      </c>
-      <c r="E175" s="268">
-        <v>42641</v>
-      </c>
-      <c r="F175" s="269" t="s">
-        <v>409</v>
-      </c>
-      <c r="G175" s="307" t="s">
-        <v>499</v>
-      </c>
-      <c r="H175" s="266"/>
-      <c r="I175" s="272" t="s">
-        <v>500</v>
-      </c>
-      <c r="J175" s="264"/>
-      <c r="K175" s="324"/>
-      <c r="L175" s="265"/>
-      <c r="M175" s="264"/>
-      <c r="N175" s="264"/>
-      <c r="O175" s="270"/>
-      <c r="P175" s="264"/>
-    </row>
-    <row r="176" spans="1:16" s="273" customFormat="1" ht="54">
-      <c r="A176" s="311">
-        <v>174</v>
-      </c>
-      <c r="B176" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C176" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" s="293">
+      <c r="E203" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F203" s="311" t="s">
+        <v>479</v>
+      </c>
+      <c r="G203" s="322" t="s">
+        <v>480</v>
+      </c>
+      <c r="H203" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I203" s="271"/>
+      <c r="J203" s="271"/>
+      <c r="K203" s="271"/>
+      <c r="L203" s="275" t="s">
+        <v>557</v>
+      </c>
+      <c r="M203" s="271"/>
+      <c r="N203" s="271"/>
+      <c r="O203" s="323">
+        <v>42651</v>
+      </c>
+      <c r="P203" s="271"/>
+    </row>
+    <row r="204" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A204" s="310">
+        <v>202</v>
+      </c>
+      <c r="B204" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" s="292">
         <v>42643</v>
       </c>
-      <c r="E176" s="294">
+      <c r="E204" s="293">
         <v>42645</v>
       </c>
-      <c r="F176" s="312" t="s">
-        <v>427</v>
-      </c>
-      <c r="G176" s="307" t="s">
+      <c r="F204" s="311" t="s">
+        <v>485</v>
+      </c>
+      <c r="G204" s="306" t="s">
+        <v>487</v>
+      </c>
+      <c r="H204" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I204" s="271"/>
+      <c r="J204" s="271"/>
+      <c r="K204" s="271"/>
+      <c r="L204" s="275"/>
+      <c r="M204" s="271"/>
+      <c r="N204" s="271"/>
+      <c r="O204" s="323"/>
+      <c r="P204" s="271"/>
+    </row>
+    <row r="205" spans="1:16" s="272" customFormat="1">
+      <c r="A205" s="310">
+        <v>203</v>
+      </c>
+      <c r="B205" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" s="359" t="s">
+        <v>549</v>
+      </c>
+      <c r="D205" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E205" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F205" s="311" t="s">
+        <v>509</v>
+      </c>
+      <c r="G205" s="306" t="s">
+        <v>510</v>
+      </c>
+      <c r="H205" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I205" s="271"/>
+      <c r="J205" s="271"/>
+      <c r="K205" s="271"/>
+      <c r="L205" s="275" t="s">
+        <v>562</v>
+      </c>
+      <c r="M205" s="271"/>
+      <c r="N205" s="271"/>
+      <c r="O205" s="323">
+        <v>42652</v>
+      </c>
+      <c r="P205" s="271"/>
+    </row>
+    <row r="206" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A206" s="310">
+        <v>204</v>
+      </c>
+      <c r="B206" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" s="359" t="s">
+        <v>549</v>
+      </c>
+      <c r="D206" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E206" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F206" s="311" t="s">
+        <v>511</v>
+      </c>
+      <c r="G206" s="306" t="s">
+        <v>522</v>
+      </c>
+      <c r="H206" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I206" s="271"/>
+      <c r="J206" s="271"/>
+      <c r="K206" s="271"/>
+      <c r="L206" s="275"/>
+      <c r="M206" s="271"/>
+      <c r="N206" s="271"/>
+      <c r="O206" s="323"/>
+      <c r="P206" s="271"/>
+    </row>
+    <row r="207" spans="1:16" s="272" customFormat="1" ht="40.5">
+      <c r="A207" s="310">
+        <v>205</v>
+      </c>
+      <c r="B207" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" s="347">
+        <v>42643</v>
+      </c>
+      <c r="E207" s="348">
+        <v>42649</v>
+      </c>
+      <c r="F207" s="311" t="s">
+        <v>519</v>
+      </c>
+      <c r="G207" s="306" t="s">
         <v>521</v>
       </c>
-      <c r="H176" s="280"/>
-      <c r="I176" s="272"/>
-      <c r="J176" s="272"/>
-      <c r="K176" s="272"/>
-      <c r="L176" s="276" t="s">
-        <v>552</v>
-      </c>
-      <c r="M176" s="272"/>
-      <c r="N176" s="272" t="s">
-        <v>553</v>
-      </c>
-      <c r="O176" s="324">
-        <v>42651</v>
-      </c>
-      <c r="P176" s="272"/>
-    </row>
-    <row r="177" spans="1:16" s="273" customFormat="1">
-      <c r="A177" s="311">
-        <v>175</v>
-      </c>
-      <c r="B177" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C177" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177" s="293">
+      <c r="H207" s="279"/>
+      <c r="I207" s="271"/>
+      <c r="J207" s="271"/>
+      <c r="K207" s="271"/>
+      <c r="L207" s="275"/>
+      <c r="M207" s="271"/>
+      <c r="N207" s="271"/>
+      <c r="O207" s="323"/>
+      <c r="P207" s="271"/>
+    </row>
+    <row r="208" spans="1:16" s="272" customFormat="1" ht="148.5">
+      <c r="A208" s="310">
+        <v>206</v>
+      </c>
+      <c r="B208" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" s="347">
         <v>42643</v>
       </c>
-      <c r="E177" s="294">
+      <c r="E208" s="348">
+        <v>42649</v>
+      </c>
+      <c r="F208" s="311" t="s">
+        <v>531</v>
+      </c>
+      <c r="G208" s="322" t="s">
+        <v>530</v>
+      </c>
+      <c r="H208" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I208" s="271"/>
+      <c r="J208" s="271"/>
+      <c r="K208" s="271"/>
+      <c r="L208" s="275"/>
+      <c r="M208" s="271"/>
+      <c r="N208" s="271"/>
+      <c r="O208" s="323"/>
+      <c r="P208" s="271"/>
+    </row>
+    <row r="209" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A209" s="310">
+        <v>207</v>
+      </c>
+      <c r="B209" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" s="347">
+        <v>42643</v>
+      </c>
+      <c r="E209" s="348">
         <v>42645</v>
       </c>
-      <c r="F177" s="312" t="s">
-        <v>415</v>
-      </c>
-      <c r="G177" s="323" t="s">
-        <v>416</v>
-      </c>
-      <c r="H177" s="280"/>
-      <c r="I177" s="272"/>
-      <c r="J177" s="272"/>
-      <c r="K177" s="272"/>
-      <c r="L177" s="276" t="s">
-        <v>554</v>
-      </c>
-      <c r="M177" s="272"/>
-      <c r="N177" s="272" t="s">
-        <v>555</v>
-      </c>
-      <c r="O177" s="324">
-        <v>42651</v>
-      </c>
-      <c r="P177" s="272"/>
-    </row>
-    <row r="178" spans="1:16" s="273" customFormat="1" ht="108">
-      <c r="A178" s="311">
-        <v>176</v>
-      </c>
-      <c r="B178" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C178" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D178" s="293">
+      <c r="F209" s="311" t="s">
+        <v>541</v>
+      </c>
+      <c r="G209" s="306" t="s">
+        <v>545</v>
+      </c>
+      <c r="H209" s="279"/>
+      <c r="I209" s="271"/>
+      <c r="J209" s="271"/>
+      <c r="K209" s="271"/>
+      <c r="L209" s="275"/>
+      <c r="M209" s="271"/>
+      <c r="N209" s="271"/>
+      <c r="O209" s="323"/>
+      <c r="P209" s="271"/>
+    </row>
+    <row r="210" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A210" s="310">
+        <v>208</v>
+      </c>
+      <c r="B210" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C210" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" s="347">
         <v>42643</v>
       </c>
-      <c r="E178" s="294">
+      <c r="E210" s="348">
         <v>42645</v>
       </c>
-      <c r="F178" s="312" t="s">
-        <v>533</v>
-      </c>
-      <c r="G178" s="307" t="s">
-        <v>530</v>
-      </c>
-      <c r="H178" s="280"/>
-      <c r="I178" s="272"/>
-      <c r="J178" s="272"/>
-      <c r="K178" s="272"/>
-      <c r="L178" s="276"/>
-      <c r="M178" s="272"/>
-      <c r="N178" s="272"/>
-      <c r="O178" s="324"/>
-      <c r="P178" s="272"/>
-    </row>
-    <row r="179" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A179" s="311">
-        <v>177</v>
-      </c>
-      <c r="B179" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C179" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D179" s="293">
+      <c r="F210" s="311" t="s">
+        <v>542</v>
+      </c>
+      <c r="G210" s="306" t="s">
+        <v>546</v>
+      </c>
+      <c r="H210" s="279"/>
+      <c r="I210" s="271"/>
+      <c r="J210" s="271"/>
+      <c r="K210" s="271"/>
+      <c r="L210" s="275"/>
+      <c r="M210" s="271"/>
+      <c r="N210" s="271"/>
+      <c r="O210" s="323"/>
+      <c r="P210" s="271"/>
+    </row>
+    <row r="211" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A211" s="310">
+        <v>209</v>
+      </c>
+      <c r="B211" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" s="347">
         <v>42643</v>
       </c>
-      <c r="E179" s="294">
+      <c r="E211" s="348">
         <v>42645</v>
       </c>
-      <c r="F179" s="312" t="s">
-        <v>534</v>
-      </c>
-      <c r="G179" s="307" t="s">
-        <v>538</v>
-      </c>
-      <c r="H179" s="280"/>
-      <c r="I179" s="272"/>
-      <c r="J179" s="272"/>
-      <c r="K179" s="272"/>
-      <c r="L179" s="276"/>
-      <c r="M179" s="272"/>
-      <c r="N179" s="272"/>
-      <c r="O179" s="324"/>
-      <c r="P179" s="272"/>
-    </row>
-    <row r="180" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A180" s="311">
-        <v>178</v>
-      </c>
-      <c r="B180" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C180" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" s="293">
+      <c r="F211" s="311" t="s">
+        <v>543</v>
+      </c>
+      <c r="G211" s="306" t="s">
+        <v>547</v>
+      </c>
+      <c r="H211" s="279"/>
+      <c r="I211" s="271"/>
+      <c r="J211" s="271"/>
+      <c r="K211" s="271"/>
+      <c r="L211" s="275"/>
+      <c r="M211" s="271"/>
+      <c r="N211" s="271"/>
+      <c r="O211" s="323"/>
+      <c r="P211" s="271"/>
+    </row>
+    <row r="212" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A212" s="310">
+        <v>210</v>
+      </c>
+      <c r="B212" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C212" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" s="347">
         <v>42643</v>
       </c>
-      <c r="E180" s="294">
+      <c r="E212" s="348">
         <v>42645</v>
       </c>
-      <c r="F180" s="312" t="s">
-        <v>535</v>
-      </c>
-      <c r="G180" s="307" t="s">
-        <v>539</v>
-      </c>
-      <c r="H180" s="280"/>
-      <c r="I180" s="272"/>
-      <c r="J180" s="272"/>
-      <c r="K180" s="272"/>
-      <c r="L180" s="276"/>
-      <c r="M180" s="272"/>
-      <c r="N180" s="272"/>
-      <c r="O180" s="324"/>
-      <c r="P180" s="272"/>
-    </row>
-    <row r="181" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A181" s="311">
-        <v>179</v>
-      </c>
-      <c r="B181" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C181" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D181" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E181" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F181" s="312" t="s">
-        <v>536</v>
-      </c>
-      <c r="G181" s="307" t="s">
-        <v>540</v>
-      </c>
-      <c r="H181" s="280"/>
-      <c r="I181" s="272"/>
-      <c r="J181" s="272"/>
-      <c r="K181" s="272"/>
-      <c r="L181" s="276"/>
-      <c r="M181" s="272"/>
-      <c r="N181" s="272"/>
-      <c r="O181" s="324"/>
-      <c r="P181" s="272"/>
-    </row>
-    <row r="182" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A182" s="311">
-        <v>180</v>
-      </c>
-      <c r="B182" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C182" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D182" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E182" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F182" s="312" t="s">
-        <v>537</v>
-      </c>
-      <c r="G182" s="307" t="s">
-        <v>541</v>
-      </c>
-      <c r="H182" s="280"/>
-      <c r="I182" s="272"/>
-      <c r="J182" s="272"/>
-      <c r="K182" s="272"/>
-      <c r="L182" s="276"/>
-      <c r="M182" s="272"/>
-      <c r="N182" s="272"/>
-      <c r="O182" s="324"/>
-      <c r="P182" s="272"/>
-    </row>
-    <row r="183" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A183" s="311">
-        <v>181</v>
-      </c>
-      <c r="B183" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C183" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D183" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E183" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F183" s="312" t="s">
-        <v>422</v>
-      </c>
-      <c r="G183" s="307" t="s">
-        <v>421</v>
-      </c>
-      <c r="H183" s="280"/>
-      <c r="I183" s="272"/>
-      <c r="J183" s="272"/>
-      <c r="K183" s="272"/>
-      <c r="L183" s="276"/>
-      <c r="M183" s="272"/>
-      <c r="N183" s="272"/>
-      <c r="O183" s="324"/>
-      <c r="P183" s="272"/>
-    </row>
-    <row r="184" spans="1:16" s="273" customFormat="1" ht="40.5">
-      <c r="A184" s="311">
-        <v>182</v>
-      </c>
-      <c r="B184" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C184" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D184" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E184" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F184" s="312" t="s">
-        <v>422</v>
-      </c>
-      <c r="G184" s="307" t="s">
-        <v>423</v>
-      </c>
-      <c r="H184" s="280"/>
-      <c r="I184" s="272"/>
-      <c r="J184" s="272"/>
-      <c r="K184" s="272"/>
-      <c r="L184" s="276"/>
-      <c r="M184" s="272"/>
-      <c r="N184" s="272"/>
-      <c r="O184" s="324"/>
-      <c r="P184" s="272"/>
-    </row>
-    <row r="185" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A185" s="311">
-        <v>183</v>
-      </c>
-      <c r="B185" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C185" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D185" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E185" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F185" s="312" t="s">
-        <v>420</v>
-      </c>
-      <c r="G185" s="323" t="s">
-        <v>424</v>
-      </c>
-      <c r="H185" s="280"/>
-      <c r="I185" s="272"/>
-      <c r="J185" s="272"/>
-      <c r="K185" s="272"/>
-      <c r="L185" s="276"/>
-      <c r="M185" s="272"/>
-      <c r="N185" s="272"/>
-      <c r="O185" s="324"/>
-      <c r="P185" s="272"/>
-    </row>
-    <row r="186" spans="1:16" s="273" customFormat="1">
-      <c r="A186" s="311">
-        <v>184</v>
-      </c>
-      <c r="B186" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C186" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D186" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E186" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F186" s="312" t="s">
-        <v>429</v>
-      </c>
-      <c r="G186" s="307" t="s">
-        <v>430</v>
-      </c>
-      <c r="H186" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I186" s="272"/>
-      <c r="J186" s="272"/>
-      <c r="K186" s="272"/>
-      <c r="L186" s="276"/>
-      <c r="M186" s="272"/>
-      <c r="N186" s="272"/>
-      <c r="O186" s="324"/>
-      <c r="P186" s="272"/>
-    </row>
-    <row r="187" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A187" s="311">
-        <v>185</v>
-      </c>
-      <c r="B187" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C187" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D187" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E187" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F187" s="312" t="s">
-        <v>431</v>
-      </c>
-      <c r="G187" s="307" t="s">
-        <v>432</v>
-      </c>
-      <c r="H187" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I187" s="272"/>
-      <c r="J187" s="272"/>
-      <c r="K187" s="272"/>
-      <c r="L187" s="276"/>
-      <c r="M187" s="272"/>
-      <c r="N187" s="272"/>
-      <c r="O187" s="324"/>
-      <c r="P187" s="272"/>
-    </row>
-    <row r="188" spans="1:16" s="273" customFormat="1" ht="54">
-      <c r="A188" s="311">
-        <v>186</v>
-      </c>
-      <c r="B188" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C188" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D188" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E188" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F188" s="312" t="s">
-        <v>436</v>
-      </c>
-      <c r="G188" s="323" t="s">
-        <v>445</v>
-      </c>
-      <c r="H188" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I188" s="272"/>
-      <c r="J188" s="272"/>
-      <c r="K188" s="272"/>
-      <c r="L188" s="276"/>
-      <c r="M188" s="272"/>
-      <c r="N188" s="272"/>
-      <c r="O188" s="324"/>
-      <c r="P188" s="272"/>
-    </row>
-    <row r="189" spans="1:16" s="273" customFormat="1" ht="67.5">
-      <c r="A189" s="311">
-        <v>187</v>
-      </c>
-      <c r="B189" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C189" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D189" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E189" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F189" s="312" t="s">
-        <v>444</v>
-      </c>
-      <c r="G189" s="323" t="s">
-        <v>501</v>
-      </c>
-      <c r="H189" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I189" s="272"/>
-      <c r="J189" s="272"/>
-      <c r="K189" s="272"/>
-      <c r="L189" s="276"/>
-      <c r="M189" s="272"/>
-      <c r="N189" s="272"/>
-      <c r="O189" s="324"/>
-      <c r="P189" s="272"/>
-    </row>
-    <row r="190" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A190" s="311">
-        <v>188</v>
-      </c>
-      <c r="B190" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C190" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D190" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E190" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F190" s="312" t="s">
-        <v>437</v>
-      </c>
-      <c r="G190" s="307" t="s">
-        <v>446</v>
-      </c>
-      <c r="H190" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I190" s="272"/>
-      <c r="J190" s="272"/>
-      <c r="K190" s="272"/>
-      <c r="L190" s="276"/>
-      <c r="M190" s="272"/>
-      <c r="N190" s="272"/>
-      <c r="O190" s="324"/>
-      <c r="P190" s="272"/>
-    </row>
-    <row r="191" spans="1:16" s="273" customFormat="1" ht="40.5">
-      <c r="A191" s="311">
-        <v>189</v>
-      </c>
-      <c r="B191" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C191" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D191" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E191" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F191" s="312" t="s">
-        <v>439</v>
-      </c>
-      <c r="G191" s="307" t="s">
-        <v>438</v>
-      </c>
-      <c r="H191" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I191" s="272"/>
-      <c r="J191" s="272"/>
-      <c r="K191" s="272"/>
-      <c r="L191" s="276"/>
-      <c r="M191" s="272"/>
-      <c r="N191" s="272"/>
-      <c r="O191" s="324"/>
-      <c r="P191" s="272"/>
-    </row>
-    <row r="192" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A192" s="311">
-        <v>190</v>
-      </c>
-      <c r="B192" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C192" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D192" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E192" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F192" s="312" t="s">
-        <v>452</v>
-      </c>
-      <c r="G192" s="323" t="s">
-        <v>453</v>
-      </c>
-      <c r="H192" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I192" s="272"/>
-      <c r="J192" s="272"/>
-      <c r="K192" s="272"/>
-      <c r="L192" s="276"/>
-      <c r="M192" s="272"/>
-      <c r="N192" s="272"/>
-      <c r="O192" s="324"/>
-      <c r="P192" s="272"/>
-    </row>
-    <row r="193" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A193" s="311">
-        <v>191</v>
-      </c>
-      <c r="B193" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C193" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D193" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E193" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F193" s="312" t="s">
-        <v>440</v>
-      </c>
-      <c r="G193" s="329" t="s">
-        <v>451</v>
-      </c>
-      <c r="H193" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I193" s="272"/>
-      <c r="J193" s="272"/>
-      <c r="K193" s="272"/>
-      <c r="L193" s="276"/>
-      <c r="M193" s="272"/>
-      <c r="N193" s="272"/>
-      <c r="O193" s="324"/>
-      <c r="P193" s="272"/>
-    </row>
-    <row r="194" spans="1:16" s="273" customFormat="1">
-      <c r="A194" s="311">
-        <v>192</v>
-      </c>
-      <c r="B194" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C194" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D194" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E194" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F194" s="312" t="s">
-        <v>441</v>
-      </c>
-      <c r="G194" s="307" t="s">
-        <v>442</v>
-      </c>
-      <c r="H194" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I194" s="272"/>
-      <c r="J194" s="272"/>
-      <c r="K194" s="272"/>
-      <c r="L194" s="276"/>
-      <c r="M194" s="272"/>
-      <c r="N194" s="272"/>
-      <c r="O194" s="324"/>
-      <c r="P194" s="272"/>
-    </row>
-    <row r="195" spans="1:16" s="273" customFormat="1">
-      <c r="A195" s="311">
-        <v>193</v>
-      </c>
-      <c r="B195" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C195" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D195" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E195" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F195" s="312" t="s">
-        <v>443</v>
-      </c>
-      <c r="G195" s="307" t="s">
-        <v>449</v>
-      </c>
-      <c r="H195" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I195" s="272"/>
-      <c r="J195" s="272"/>
-      <c r="K195" s="272"/>
-      <c r="L195" s="276"/>
-      <c r="M195" s="272"/>
-      <c r="N195" s="272"/>
-      <c r="O195" s="324"/>
-      <c r="P195" s="272"/>
-    </row>
-    <row r="196" spans="1:16" s="273" customFormat="1">
-      <c r="A196" s="311">
-        <v>194</v>
-      </c>
-      <c r="B196" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C196" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D196" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E196" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F196" s="312" t="s">
-        <v>443</v>
-      </c>
-      <c r="G196" s="307" t="s">
-        <v>450</v>
-      </c>
-      <c r="H196" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I196" s="272"/>
-      <c r="J196" s="272"/>
-      <c r="K196" s="272"/>
-      <c r="L196" s="276"/>
-      <c r="M196" s="272"/>
-      <c r="N196" s="272"/>
-      <c r="O196" s="324"/>
-      <c r="P196" s="272"/>
-    </row>
-    <row r="197" spans="1:16" s="273" customFormat="1">
-      <c r="A197" s="311">
-        <v>195</v>
-      </c>
-      <c r="B197" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C197" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D197" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E197" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F197" s="312" t="s">
-        <v>447</v>
-      </c>
-      <c r="G197" s="307" t="s">
-        <v>448</v>
-      </c>
-      <c r="H197" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I197" s="272"/>
-      <c r="J197" s="272"/>
-      <c r="K197" s="272"/>
-      <c r="L197" s="276"/>
-      <c r="M197" s="272"/>
-      <c r="N197" s="272"/>
-      <c r="O197" s="324"/>
-      <c r="P197" s="272"/>
-    </row>
-    <row r="198" spans="1:16" s="273" customFormat="1" ht="54">
-      <c r="A198" s="311">
-        <v>196</v>
-      </c>
-      <c r="B198" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C198" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D198" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E198" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F198" s="312" t="s">
-        <v>447</v>
-      </c>
-      <c r="G198" s="323" t="s">
-        <v>508</v>
-      </c>
-      <c r="H198" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I198" s="272"/>
-      <c r="J198" s="272"/>
-      <c r="K198" s="272"/>
-      <c r="L198" s="276" t="s">
-        <v>562</v>
-      </c>
-      <c r="M198" s="272"/>
-      <c r="N198" s="272" t="s">
-        <v>561</v>
-      </c>
-      <c r="O198" s="324">
-        <v>42651</v>
-      </c>
-      <c r="P198" s="272"/>
-    </row>
-    <row r="199" spans="1:16" s="273" customFormat="1">
-      <c r="A199" s="311">
-        <v>197</v>
-      </c>
-      <c r="B199" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C199" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D199" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E199" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F199" s="312" t="s">
-        <v>458</v>
-      </c>
-      <c r="G199" s="307" t="s">
-        <v>459</v>
-      </c>
-      <c r="H199" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I199" s="272"/>
-      <c r="J199" s="272"/>
-      <c r="K199" s="272"/>
-      <c r="L199" s="276"/>
-      <c r="M199" s="272"/>
-      <c r="N199" s="272"/>
-      <c r="O199" s="324"/>
-      <c r="P199" s="272"/>
-    </row>
-    <row r="200" spans="1:16" s="273" customFormat="1" ht="40.5">
-      <c r="A200" s="311">
-        <v>198</v>
-      </c>
-      <c r="B200" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C200" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D200" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E200" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F200" s="312" t="s">
-        <v>463</v>
-      </c>
-      <c r="G200" s="307" t="s">
-        <v>485</v>
-      </c>
-      <c r="H200" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I200" s="272"/>
-      <c r="J200" s="272"/>
-      <c r="K200" s="272"/>
-      <c r="L200" s="276"/>
-      <c r="M200" s="272"/>
-      <c r="N200" s="272"/>
-      <c r="O200" s="324"/>
-      <c r="P200" s="272"/>
-    </row>
-    <row r="201" spans="1:16" s="273" customFormat="1">
-      <c r="A201" s="311">
-        <v>199</v>
-      </c>
-      <c r="B201" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C201" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D201" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E201" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F201" s="312" t="s">
-        <v>422</v>
-      </c>
-      <c r="G201" s="307" t="s">
-        <v>464</v>
-      </c>
-      <c r="H201" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I201" s="272"/>
-      <c r="J201" s="272"/>
-      <c r="K201" s="272"/>
-      <c r="L201" s="276"/>
-      <c r="M201" s="272"/>
-      <c r="N201" s="272"/>
-      <c r="O201" s="324"/>
-      <c r="P201" s="272"/>
-    </row>
-    <row r="202" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A202" s="311">
-        <v>200</v>
-      </c>
-      <c r="B202" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C202" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D202" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E202" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F202" s="312" t="s">
-        <v>466</v>
-      </c>
-      <c r="G202" s="307" t="s">
-        <v>469</v>
-      </c>
-      <c r="H202" s="280"/>
-      <c r="I202" s="272"/>
-      <c r="J202" s="272"/>
-      <c r="K202" s="272"/>
-      <c r="L202" s="276" t="s">
-        <v>556</v>
-      </c>
-      <c r="M202" s="272"/>
-      <c r="N202" s="272" t="s">
-        <v>557</v>
-      </c>
-      <c r="O202" s="324">
-        <v>42651</v>
-      </c>
-      <c r="P202" s="272"/>
-    </row>
-    <row r="203" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A203" s="311">
-        <v>201</v>
-      </c>
-      <c r="B203" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C203" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D203" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E203" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F203" s="312" t="s">
-        <v>480</v>
-      </c>
-      <c r="G203" s="323" t="s">
-        <v>481</v>
-      </c>
-      <c r="H203" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I203" s="272"/>
-      <c r="J203" s="272"/>
-      <c r="K203" s="272"/>
-      <c r="L203" s="276" t="s">
-        <v>558</v>
-      </c>
-      <c r="M203" s="272"/>
-      <c r="N203" s="272"/>
-      <c r="O203" s="324">
-        <v>42651</v>
-      </c>
-      <c r="P203" s="272"/>
-    </row>
-    <row r="204" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A204" s="311">
-        <v>202</v>
-      </c>
-      <c r="B204" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C204" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D204" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E204" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F204" s="312" t="s">
-        <v>486</v>
-      </c>
-      <c r="G204" s="307" t="s">
-        <v>488</v>
-      </c>
-      <c r="H204" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I204" s="272"/>
-      <c r="J204" s="272"/>
-      <c r="K204" s="272"/>
-      <c r="L204" s="276"/>
-      <c r="M204" s="272"/>
-      <c r="N204" s="272"/>
-      <c r="O204" s="324"/>
-      <c r="P204" s="272"/>
-    </row>
-    <row r="205" spans="1:16" s="273" customFormat="1">
-      <c r="A205" s="311">
-        <v>203</v>
-      </c>
-      <c r="B205" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C205" s="360" t="s">
-        <v>550</v>
-      </c>
-      <c r="D205" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E205" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F205" s="312" t="s">
-        <v>510</v>
-      </c>
-      <c r="G205" s="307" t="s">
-        <v>511</v>
-      </c>
-      <c r="H205" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I205" s="272"/>
-      <c r="J205" s="272"/>
-      <c r="K205" s="272"/>
-      <c r="L205" s="276"/>
-      <c r="M205" s="272"/>
-      <c r="N205" s="272"/>
-      <c r="O205" s="324"/>
-      <c r="P205" s="272"/>
-    </row>
-    <row r="206" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A206" s="311">
-        <v>204</v>
-      </c>
-      <c r="B206" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C206" s="360" t="s">
-        <v>550</v>
-      </c>
-      <c r="D206" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E206" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F206" s="312" t="s">
-        <v>512</v>
-      </c>
-      <c r="G206" s="307" t="s">
-        <v>523</v>
-      </c>
-      <c r="H206" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I206" s="272"/>
-      <c r="J206" s="272"/>
-      <c r="K206" s="272"/>
-      <c r="L206" s="276"/>
-      <c r="M206" s="272"/>
-      <c r="N206" s="272"/>
-      <c r="O206" s="324"/>
-      <c r="P206" s="272"/>
-    </row>
-    <row r="207" spans="1:16" s="273" customFormat="1" ht="40.5">
-      <c r="A207" s="311">
-        <v>205</v>
-      </c>
-      <c r="B207" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C207" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D207" s="348">
-        <v>42643</v>
-      </c>
-      <c r="E207" s="349">
-        <v>42649</v>
-      </c>
-      <c r="F207" s="312" t="s">
-        <v>520</v>
-      </c>
-      <c r="G207" s="307" t="s">
-        <v>522</v>
-      </c>
-      <c r="H207" s="280"/>
-      <c r="I207" s="272"/>
-      <c r="J207" s="272"/>
-      <c r="K207" s="272"/>
-      <c r="L207" s="276"/>
-      <c r="M207" s="272"/>
-      <c r="N207" s="272"/>
-      <c r="O207" s="324"/>
-      <c r="P207" s="272"/>
-    </row>
-    <row r="208" spans="1:16" s="273" customFormat="1" ht="148.5">
-      <c r="A208" s="311">
-        <v>206</v>
-      </c>
-      <c r="B208" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C208" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D208" s="348">
-        <v>42643</v>
-      </c>
-      <c r="E208" s="349">
-        <v>42649</v>
-      </c>
-      <c r="F208" s="312" t="s">
-        <v>532</v>
-      </c>
-      <c r="G208" s="323" t="s">
-        <v>531</v>
-      </c>
-      <c r="H208" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I208" s="272"/>
-      <c r="J208" s="272"/>
-      <c r="K208" s="272"/>
-      <c r="L208" s="276"/>
-      <c r="M208" s="272"/>
-      <c r="N208" s="272"/>
-      <c r="O208" s="324"/>
-      <c r="P208" s="272"/>
-    </row>
-    <row r="209" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A209" s="311">
-        <v>207</v>
-      </c>
-      <c r="B209" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C209" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D209" s="348">
-        <v>42643</v>
-      </c>
-      <c r="E209" s="349">
-        <v>42645</v>
-      </c>
-      <c r="F209" s="312" t="s">
-        <v>542</v>
-      </c>
-      <c r="G209" s="307" t="s">
-        <v>546</v>
-      </c>
-      <c r="H209" s="280"/>
-      <c r="I209" s="272"/>
-      <c r="J209" s="272"/>
-      <c r="K209" s="272"/>
-      <c r="L209" s="276"/>
-      <c r="M209" s="272"/>
-      <c r="N209" s="272"/>
-      <c r="O209" s="324"/>
-      <c r="P209" s="272"/>
-    </row>
-    <row r="210" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A210" s="311">
-        <v>208</v>
-      </c>
-      <c r="B210" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C210" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D210" s="348">
-        <v>42643</v>
-      </c>
-      <c r="E210" s="349">
-        <v>42645</v>
-      </c>
-      <c r="F210" s="312" t="s">
-        <v>543</v>
-      </c>
-      <c r="G210" s="307" t="s">
-        <v>547</v>
-      </c>
-      <c r="H210" s="280"/>
-      <c r="I210" s="272"/>
-      <c r="J210" s="272"/>
-      <c r="K210" s="272"/>
-      <c r="L210" s="276"/>
-      <c r="M210" s="272"/>
-      <c r="N210" s="272"/>
-      <c r="O210" s="324"/>
-      <c r="P210" s="272"/>
-    </row>
-    <row r="211" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A211" s="311">
-        <v>209</v>
-      </c>
-      <c r="B211" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C211" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D211" s="348">
-        <v>42643</v>
-      </c>
-      <c r="E211" s="349">
-        <v>42645</v>
-      </c>
-      <c r="F211" s="312" t="s">
+      <c r="F212" s="311" t="s">
         <v>544</v>
       </c>
-      <c r="G211" s="307" t="s">
+      <c r="G212" s="306" t="s">
         <v>548</v>
       </c>
-      <c r="H211" s="280"/>
-      <c r="I211" s="272"/>
-      <c r="J211" s="272"/>
-      <c r="K211" s="272"/>
-      <c r="L211" s="276"/>
-      <c r="M211" s="272"/>
-      <c r="N211" s="272"/>
-      <c r="O211" s="324"/>
-      <c r="P211" s="272"/>
-    </row>
-    <row r="212" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A212" s="311">
-        <v>210</v>
-      </c>
-      <c r="B212" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C212" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D212" s="348">
-        <v>42643</v>
-      </c>
-      <c r="E212" s="349">
-        <v>42645</v>
-      </c>
-      <c r="F212" s="312" t="s">
-        <v>545</v>
-      </c>
-      <c r="G212" s="307" t="s">
-        <v>549</v>
-      </c>
-      <c r="H212" s="280"/>
-      <c r="I212" s="272"/>
-      <c r="J212" s="272"/>
-      <c r="K212" s="272"/>
-      <c r="L212" s="276"/>
-      <c r="M212" s="272"/>
-      <c r="N212" s="272"/>
-      <c r="O212" s="324"/>
-      <c r="P212" s="272"/>
+      <c r="H212" s="279"/>
+      <c r="I212" s="271"/>
+      <c r="J212" s="271"/>
+      <c r="K212" s="271"/>
+      <c r="L212" s="275"/>
+      <c r="M212" s="271"/>
+      <c r="N212" s="271"/>
+      <c r="O212" s="323"/>
+      <c r="P212" s="271"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:P212">
@@ -15951,7 +15946,7 @@
     <col min="3" max="3" width="15.875" style="50" customWidth="1"/>
     <col min="4" max="4" width="9" style="50"/>
     <col min="5" max="5" width="14.375" style="50" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="272" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="271" customWidth="1"/>
     <col min="7" max="7" width="77.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="7" customWidth="1"/>
     <col min="9" max="9" width="13.125" style="50" customWidth="1"/>
@@ -15982,8 +15977,8 @@
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="274" t="s">
-        <v>509</v>
+      <c r="F2" s="273" t="s">
+        <v>508</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -16032,7 +16027,7 @@
       <c r="E3" s="21">
         <v>42555</v>
       </c>
-      <c r="F3" s="278"/>
+      <c r="F3" s="277"/>
       <c r="G3" s="22" t="s">
         <v>21</v>
       </c>
@@ -16062,7 +16057,7 @@
       <c r="E4" s="21">
         <v>42555</v>
       </c>
-      <c r="F4" s="278"/>
+      <c r="F4" s="277"/>
       <c r="G4" s="22" t="s">
         <v>23</v>
       </c>
@@ -16092,7 +16087,7 @@
       <c r="E5" s="21">
         <v>42555</v>
       </c>
-      <c r="F5" s="278"/>
+      <c r="F5" s="277"/>
       <c r="G5" s="22" t="s">
         <v>22</v>
       </c>
@@ -16122,7 +16117,7 @@
       <c r="E6" s="21">
         <v>42555</v>
       </c>
-      <c r="F6" s="278"/>
+      <c r="F6" s="277"/>
       <c r="G6" s="22" t="s">
         <v>25</v>
       </c>
@@ -16154,7 +16149,7 @@
       <c r="E7" s="21">
         <v>42555</v>
       </c>
-      <c r="F7" s="278"/>
+      <c r="F7" s="277"/>
       <c r="G7" s="22" t="s">
         <v>26</v>
       </c>
@@ -16186,7 +16181,7 @@
       <c r="E8" s="21">
         <v>42555</v>
       </c>
-      <c r="F8" s="278"/>
+      <c r="F8" s="277"/>
       <c r="G8" s="22" t="s">
         <v>27</v>
       </c>
@@ -16218,7 +16213,7 @@
       <c r="E9" s="21">
         <v>42555</v>
       </c>
-      <c r="F9" s="278"/>
+      <c r="F9" s="277"/>
       <c r="G9" s="22" t="s">
         <v>28</v>
       </c>
@@ -16248,7 +16243,7 @@
       <c r="E10" s="171">
         <v>42627</v>
       </c>
-      <c r="F10" s="294"/>
+      <c r="F10" s="293"/>
       <c r="G10" s="132" t="s">
         <v>156</v>
       </c>
@@ -16272,7 +16267,7 @@
       <c r="C11" s="19"/>
       <c r="D11" s="49"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="278"/>
+      <c r="F11" s="277"/>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
       <c r="I11" s="19"/>
@@ -16290,7 +16285,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="49"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="278"/>
+      <c r="F12" s="277"/>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
       <c r="I12" s="19"/>
@@ -16308,7 +16303,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="62"/>
       <c r="E13" s="63"/>
-      <c r="F13" s="294"/>
+      <c r="F13" s="293"/>
       <c r="G13" s="182" t="s">
         <v>184</v>
       </c>
@@ -16328,7 +16323,7 @@
       <c r="C14" s="52"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="287"/>
+      <c r="F14" s="286"/>
       <c r="G14" s="55" t="s">
         <v>185</v>
       </c>
@@ -16348,7 +16343,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="49"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="278"/>
+      <c r="F15" s="277"/>
       <c r="G15" s="182" t="s">
         <v>186</v>
       </c>
@@ -16368,7 +16363,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="49"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="278"/>
+      <c r="F16" s="277"/>
       <c r="G16" s="182" t="s">
         <v>187</v>
       </c>
@@ -16382,46 +16377,46 @@
       <c r="O16" s="20"/>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16" s="272" customFormat="1" ht="40.5">
-      <c r="A17" s="275">
+    <row r="17" spans="1:16" s="271" customFormat="1" ht="40.5">
+      <c r="A17" s="274">
         <v>2</v>
       </c>
-      <c r="B17" s="276" t="s">
+      <c r="B17" s="275" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="276" t="s">
+      <c r="C17" s="275" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="277">
+      <c r="D17" s="276">
         <v>42632</v>
       </c>
-      <c r="E17" s="278">
+      <c r="E17" s="277">
         <v>42634</v>
       </c>
-      <c r="F17" s="278" t="s">
+      <c r="F17" s="277" t="s">
         <v>189</v>
       </c>
-      <c r="G17" s="279" t="s">
+      <c r="G17" s="278" t="s">
         <v>190</v>
       </c>
-      <c r="H17" s="280"/>
-      <c r="I17" s="276"/>
-      <c r="J17" s="281"/>
-      <c r="K17" s="281"/>
-      <c r="L17" s="276"/>
-      <c r="M17" s="280"/>
-      <c r="N17" s="280"/>
-      <c r="O17" s="277"/>
-      <c r="P17" s="282"/>
+      <c r="H17" s="279"/>
+      <c r="I17" s="275"/>
+      <c r="J17" s="280"/>
+      <c r="K17" s="280"/>
+      <c r="L17" s="275"/>
+      <c r="M17" s="279"/>
+      <c r="N17" s="279"/>
+      <c r="O17" s="276"/>
+      <c r="P17" s="281"/>
     </row>
     <row r="18" spans="1:16" s="127" customFormat="1" ht="94.5">
-      <c r="A18" s="275">
+      <c r="A18" s="274">
         <v>3</v>
       </c>
       <c r="B18" s="180" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="276" t="s">
+      <c r="C18" s="275" t="s">
         <v>107</v>
       </c>
       <c r="D18" s="134">
@@ -16452,7 +16447,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="49"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="278"/>
+      <c r="F19" s="277"/>
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
       <c r="I19" s="19"/>
@@ -16470,7 +16465,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="49"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="278"/>
+      <c r="F20" s="277"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
       <c r="I20" s="19"/>
@@ -16488,7 +16483,7 @@
       <c r="C21" s="19"/>
       <c r="D21" s="49"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="278"/>
+      <c r="F21" s="277"/>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
       <c r="I21" s="19"/>
@@ -16506,7 +16501,7 @@
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="278"/>
+      <c r="F22" s="277"/>
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
       <c r="I22" s="19"/>
@@ -16524,7 +16519,7 @@
       <c r="C23" s="52"/>
       <c r="D23" s="53"/>
       <c r="E23" s="54"/>
-      <c r="F23" s="287"/>
+      <c r="F23" s="286"/>
       <c r="G23" s="55"/>
       <c r="H23" s="56"/>
       <c r="I23" s="52"/>
@@ -16542,7 +16537,7 @@
       <c r="C24" s="19"/>
       <c r="D24" s="49"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="278"/>
+      <c r="F24" s="277"/>
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
       <c r="I24" s="19"/>
@@ -16560,7 +16555,7 @@
       <c r="C25" s="52"/>
       <c r="D25" s="53"/>
       <c r="E25" s="54"/>
-      <c r="F25" s="287"/>
+      <c r="F25" s="286"/>
       <c r="G25" s="55"/>
       <c r="H25" s="56"/>
       <c r="I25" s="52"/>
@@ -16578,7 +16573,7 @@
       <c r="C26" s="19"/>
       <c r="D26" s="49"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="278"/>
+      <c r="F26" s="277"/>
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
       <c r="I26" s="19"/>
@@ -16596,7 +16591,7 @@
       <c r="C27" s="52"/>
       <c r="D27" s="53"/>
       <c r="E27" s="54"/>
-      <c r="F27" s="287"/>
+      <c r="F27" s="286"/>
       <c r="G27" s="55"/>
       <c r="H27" s="56"/>
       <c r="I27" s="52"/>
@@ -16614,7 +16609,7 @@
       <c r="C28" s="52"/>
       <c r="D28" s="53"/>
       <c r="E28" s="54"/>
-      <c r="F28" s="287"/>
+      <c r="F28" s="286"/>
       <c r="G28" s="55"/>
       <c r="H28" s="56"/>
       <c r="I28" s="52"/>
@@ -16632,7 +16627,7 @@
       <c r="C29" s="19"/>
       <c r="D29" s="49"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="278"/>
+      <c r="F29" s="277"/>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
       <c r="I29" s="19"/>
@@ -16650,7 +16645,7 @@
       <c r="C30" s="19"/>
       <c r="D30" s="49"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="278"/>
+      <c r="F30" s="277"/>
       <c r="G30" s="22"/>
       <c r="H30" s="23"/>
       <c r="I30" s="19"/>
@@ -16668,7 +16663,7 @@
       <c r="C31" s="19"/>
       <c r="D31" s="49"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="278"/>
+      <c r="F31" s="277"/>
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
       <c r="I31" s="19"/>
@@ -16686,7 +16681,7 @@
       <c r="C32" s="19"/>
       <c r="D32" s="49"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="278"/>
+      <c r="F32" s="277"/>
       <c r="G32" s="22"/>
       <c r="H32" s="23"/>
       <c r="I32" s="19"/>
@@ -16704,7 +16699,7 @@
       <c r="C33" s="19"/>
       <c r="D33" s="49"/>
       <c r="E33" s="21"/>
-      <c r="F33" s="278"/>
+      <c r="F33" s="277"/>
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
       <c r="I33" s="19"/>
@@ -16722,7 +16717,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="49"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="278"/>
+      <c r="F34" s="277"/>
       <c r="G34" s="22"/>
       <c r="H34" s="23"/>
       <c r="I34" s="19"/>
@@ -16740,7 +16735,7 @@
       <c r="C35" s="52"/>
       <c r="D35" s="53"/>
       <c r="E35" s="54"/>
-      <c r="F35" s="287"/>
+      <c r="F35" s="286"/>
       <c r="G35" s="55"/>
       <c r="H35" s="56"/>
       <c r="I35" s="52"/>
@@ -16758,7 +16753,7 @@
       <c r="C36" s="19"/>
       <c r="D36" s="49"/>
       <c r="E36" s="21"/>
-      <c r="F36" s="278"/>
+      <c r="F36" s="277"/>
       <c r="G36" s="22"/>
       <c r="H36" s="23"/>
       <c r="I36" s="19"/>
@@ -16776,7 +16771,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="49"/>
       <c r="E37" s="21"/>
-      <c r="F37" s="278"/>
+      <c r="F37" s="277"/>
       <c r="G37" s="22"/>
       <c r="H37" s="23"/>
       <c r="I37" s="19"/>
@@ -16794,7 +16789,7 @@
       <c r="C38" s="19"/>
       <c r="D38" s="49"/>
       <c r="E38" s="21"/>
-      <c r="F38" s="278"/>
+      <c r="F38" s="277"/>
       <c r="G38" s="22"/>
       <c r="H38" s="23"/>
       <c r="I38" s="19"/>
@@ -16812,7 +16807,7 @@
       <c r="C39" s="19"/>
       <c r="D39" s="49"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="278"/>
+      <c r="F39" s="277"/>
       <c r="G39" s="22"/>
       <c r="H39" s="23"/>
       <c r="I39" s="19"/>
@@ -16830,7 +16825,7 @@
       <c r="C40" s="52"/>
       <c r="D40" s="53"/>
       <c r="E40" s="54"/>
-      <c r="F40" s="287"/>
+      <c r="F40" s="286"/>
       <c r="G40" s="55"/>
       <c r="H40" s="56"/>
       <c r="I40" s="52"/>
@@ -16848,7 +16843,7 @@
       <c r="C41" s="52"/>
       <c r="D41" s="53"/>
       <c r="E41" s="54"/>
-      <c r="F41" s="287"/>
+      <c r="F41" s="286"/>
       <c r="G41" s="55"/>
       <c r="H41" s="56"/>
       <c r="I41" s="52"/>
@@ -16866,7 +16861,7 @@
       <c r="C42" s="19"/>
       <c r="D42" s="49"/>
       <c r="E42" s="21"/>
-      <c r="F42" s="278"/>
+      <c r="F42" s="277"/>
       <c r="G42" s="22"/>
       <c r="H42" s="23"/>
       <c r="I42" s="19"/>
@@ -16884,7 +16879,7 @@
       <c r="C43" s="19"/>
       <c r="D43" s="49"/>
       <c r="E43" s="21"/>
-      <c r="F43" s="278"/>
+      <c r="F43" s="277"/>
       <c r="G43" s="22"/>
       <c r="H43" s="23"/>
       <c r="I43" s="19"/>
@@ -16902,7 +16897,7 @@
       <c r="C44" s="19"/>
       <c r="D44" s="49"/>
       <c r="E44" s="21"/>
-      <c r="F44" s="278"/>
+      <c r="F44" s="277"/>
       <c r="G44" s="22"/>
       <c r="H44" s="23"/>
       <c r="I44" s="19"/>
@@ -16920,7 +16915,7 @@
       <c r="C45" s="19"/>
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
-      <c r="F45" s="278"/>
+      <c r="F45" s="277"/>
       <c r="G45" s="22"/>
       <c r="H45" s="23"/>
       <c r="I45" s="19"/>
@@ -16938,7 +16933,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
-      <c r="F46" s="278"/>
+      <c r="F46" s="277"/>
       <c r="G46" s="22"/>
       <c r="H46" s="23"/>
       <c r="I46" s="19"/>
@@ -16956,7 +16951,7 @@
       <c r="C47" s="19"/>
       <c r="D47" s="49"/>
       <c r="E47" s="21"/>
-      <c r="F47" s="278"/>
+      <c r="F47" s="277"/>
       <c r="G47" s="22"/>
       <c r="H47" s="23"/>
       <c r="I47" s="19"/>
@@ -16974,7 +16969,7 @@
       <c r="C48" s="19"/>
       <c r="D48" s="49"/>
       <c r="E48" s="21"/>
-      <c r="F48" s="278"/>
+      <c r="F48" s="277"/>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
       <c r="I48" s="19"/>
@@ -16992,7 +16987,7 @@
       <c r="C49" s="19"/>
       <c r="D49" s="49"/>
       <c r="E49" s="21"/>
-      <c r="F49" s="278"/>
+      <c r="F49" s="277"/>
       <c r="G49" s="26"/>
       <c r="H49" s="23"/>
       <c r="I49" s="19"/>
@@ -17010,7 +17005,7 @@
       <c r="C50" s="19"/>
       <c r="D50" s="49"/>
       <c r="E50" s="21"/>
-      <c r="F50" s="278"/>
+      <c r="F50" s="277"/>
       <c r="G50" s="26"/>
       <c r="H50" s="23"/>
       <c r="I50" s="19"/>
@@ -17028,7 +17023,7 @@
       <c r="C51" s="19"/>
       <c r="D51" s="49"/>
       <c r="E51" s="21"/>
-      <c r="F51" s="278"/>
+      <c r="F51" s="277"/>
       <c r="G51" s="26"/>
       <c r="H51" s="23"/>
       <c r="I51" s="19"/>
@@ -17046,7 +17041,7 @@
       <c r="C52" s="52"/>
       <c r="D52" s="53"/>
       <c r="E52" s="54"/>
-      <c r="F52" s="287"/>
+      <c r="F52" s="286"/>
       <c r="G52" s="55"/>
       <c r="H52" s="56"/>
       <c r="I52" s="52"/>
@@ -17064,7 +17059,7 @@
       <c r="C53" s="19"/>
       <c r="D53" s="49"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="278"/>
+      <c r="F53" s="277"/>
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
       <c r="I53" s="19"/>
@@ -17082,7 +17077,7 @@
       <c r="C54" s="19"/>
       <c r="D54" s="49"/>
       <c r="E54" s="21"/>
-      <c r="F54" s="278"/>
+      <c r="F54" s="277"/>
       <c r="G54" s="22"/>
       <c r="H54" s="23"/>
       <c r="I54" s="19"/>
@@ -17100,7 +17095,7 @@
       <c r="C55" s="19"/>
       <c r="D55" s="49"/>
       <c r="E55" s="21"/>
-      <c r="F55" s="278"/>
+      <c r="F55" s="277"/>
       <c r="G55" s="26"/>
       <c r="H55" s="23"/>
       <c r="I55" s="19"/>
@@ -17118,7 +17113,7 @@
       <c r="C56" s="19"/>
       <c r="D56" s="49"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="278"/>
+      <c r="F56" s="277"/>
       <c r="G56" s="22"/>
       <c r="H56" s="23"/>
       <c r="I56" s="19"/>
@@ -17136,7 +17131,7 @@
       <c r="C57" s="19"/>
       <c r="D57" s="49"/>
       <c r="E57" s="21"/>
-      <c r="F57" s="278"/>
+      <c r="F57" s="277"/>
       <c r="G57" s="22"/>
       <c r="H57" s="23"/>
       <c r="I57" s="19"/>
@@ -17154,7 +17149,7 @@
       <c r="C58" s="19"/>
       <c r="D58" s="49"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="278"/>
+      <c r="F58" s="277"/>
       <c r="G58" s="22"/>
       <c r="H58" s="23"/>
       <c r="I58" s="19"/>
@@ -17172,7 +17167,7 @@
       <c r="C59" s="19"/>
       <c r="D59" s="49"/>
       <c r="E59" s="21"/>
-      <c r="F59" s="278"/>
+      <c r="F59" s="277"/>
       <c r="G59" s="22"/>
       <c r="H59" s="23"/>
       <c r="I59" s="19"/>
@@ -17190,7 +17185,7 @@
       <c r="C60" s="19"/>
       <c r="D60" s="49"/>
       <c r="E60" s="21"/>
-      <c r="F60" s="278"/>
+      <c r="F60" s="277"/>
       <c r="G60" s="22"/>
       <c r="H60" s="23"/>
       <c r="I60" s="19"/>
@@ -17208,7 +17203,7 @@
       <c r="C61" s="19"/>
       <c r="D61" s="49"/>
       <c r="E61" s="21"/>
-      <c r="F61" s="278"/>
+      <c r="F61" s="277"/>
       <c r="G61" s="22"/>
       <c r="H61" s="23"/>
       <c r="I61" s="19"/>
@@ -17226,7 +17221,7 @@
       <c r="C62" s="19"/>
       <c r="D62" s="49"/>
       <c r="E62" s="21"/>
-      <c r="F62" s="278"/>
+      <c r="F62" s="277"/>
       <c r="G62" s="22"/>
       <c r="H62" s="23"/>
       <c r="I62" s="19"/>
@@ -17244,7 +17239,7 @@
       <c r="C63" s="19"/>
       <c r="D63" s="49"/>
       <c r="E63" s="21"/>
-      <c r="F63" s="278"/>
+      <c r="F63" s="277"/>
       <c r="G63" s="22"/>
       <c r="H63" s="23"/>
       <c r="I63" s="19"/>
@@ -17262,7 +17257,7 @@
       <c r="C64" s="19"/>
       <c r="D64" s="49"/>
       <c r="E64" s="21"/>
-      <c r="F64" s="278"/>
+      <c r="F64" s="277"/>
       <c r="G64" s="22"/>
       <c r="H64" s="23"/>
       <c r="I64" s="19"/>
@@ -17280,7 +17275,7 @@
       <c r="C65" s="19"/>
       <c r="D65" s="49"/>
       <c r="E65" s="21"/>
-      <c r="F65" s="308"/>
+      <c r="F65" s="307"/>
       <c r="G65" s="50"/>
       <c r="H65" s="23"/>
       <c r="I65" s="19"/>
@@ -17298,7 +17293,7 @@
       <c r="C66" s="40"/>
       <c r="D66" s="41"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="283"/>
+      <c r="F66" s="282"/>
       <c r="G66" s="43"/>
       <c r="H66" s="44"/>
       <c r="I66" s="40"/>
@@ -17372,8 +17367,8 @@
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="274" t="s">
-        <v>509</v>
+      <c r="F2" s="273" t="s">
+        <v>508</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -17441,36 +17436,36 @@
       <c r="P3" s="89"/>
     </row>
     <row r="4" spans="1:16" ht="54">
-      <c r="A4" s="275">
+      <c r="A4" s="274">
         <v>2</v>
       </c>
-      <c r="B4" s="276" t="s">
+      <c r="B4" s="275" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="276" t="s">
+      <c r="C4" s="275" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="277">
+      <c r="D4" s="276">
         <v>42632</v>
       </c>
-      <c r="E4" s="303">
+      <c r="E4" s="302">
         <v>42641</v>
       </c>
-      <c r="F4" s="306" t="s">
+      <c r="F4" s="305" t="s">
+        <v>409</v>
+      </c>
+      <c r="G4" s="306" t="s">
         <v>410</v>
       </c>
-      <c r="G4" s="307" t="s">
-        <v>411</v>
-      </c>
-      <c r="H4" s="280"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="276"/>
-      <c r="M4" s="280"/>
-      <c r="N4" s="280"/>
-      <c r="O4" s="277"/>
-      <c r="P4" s="282"/>
+      <c r="H4" s="279"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="280"/>
+      <c r="L4" s="275"/>
+      <c r="M4" s="279"/>
+      <c r="N4" s="279"/>
+      <c r="O4" s="276"/>
+      <c r="P4" s="281"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="18"/>

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -4464,10 +4464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>【背景音乐】目前好像没有自动创建文件夹。我测试时自己建的文件夹然后复制文件的
 【9月3日版】只有在安装apk后才会自动创建“book/背景音乐”文件夹？手动将其删除后，可否再次运行电子书apk时就自动创建？</t>
@@ -5356,6 +5352,10 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照10月8日晚上讨论的规格，按2键只提示“已经到开头”，不自动从头朗读。按【5】或者【OK】键才从头朗读。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7834,7 +7834,7 @@
         <v>42634</v>
       </c>
       <c r="F7" s="349" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="270" customFormat="1">
@@ -7846,13 +7846,13 @@
         <v>42638</v>
       </c>
       <c r="D8" s="351" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E8" s="347">
         <v>42634</v>
       </c>
       <c r="F8" s="349" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G8" s="346"/>
     </row>
@@ -7867,7 +7867,7 @@
         <v>42640</v>
       </c>
       <c r="F9" s="355" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G9" s="346"/>
     </row>
@@ -7886,7 +7886,7 @@
         <v>42643</v>
       </c>
       <c r="F10" s="349" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G10" s="346"/>
     </row>
@@ -7904,7 +7904,7 @@
         <v>42643</v>
       </c>
       <c r="F11" s="349" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7947,8 +7947,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="O205" sqref="O205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="P27" s="303"/>
     </row>
-    <row r="28" spans="1:16" ht="229.5">
+    <row r="28" spans="1:16" ht="229.5" hidden="1">
       <c r="A28" s="310">
         <v>26</v>
       </c>
@@ -8990,15 +8990,19 @@
       <c r="H28" s="211" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="211" t="s">
-        <v>346</v>
-      </c>
+      <c r="I28" s="211"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
-      <c r="L28" s="211"/>
+      <c r="L28" s="279" t="s">
+        <v>58</v>
+      </c>
       <c r="M28" s="211"/>
-      <c r="N28" s="211"/>
-      <c r="O28" s="34"/>
+      <c r="N28" s="279" t="s">
+        <v>562</v>
+      </c>
+      <c r="O28" s="34">
+        <v>42652</v>
+      </c>
       <c r="P28" s="252"/>
     </row>
     <row r="29" spans="1:16" ht="135">
@@ -9868,7 +9872,7 @@
       <c r="O51" s="173"/>
       <c r="P51" s="177"/>
     </row>
-    <row r="52" spans="1:16" s="151" customFormat="1" ht="54">
+    <row r="52" spans="1:16" s="151" customFormat="1" ht="54" hidden="1">
       <c r="A52" s="169">
         <v>50</v>
       </c>
@@ -9885,21 +9889,21 @@
         <v>42612</v>
       </c>
       <c r="F52" s="311" t="s">
+        <v>516</v>
+      </c>
+      <c r="G52" s="278" t="s">
         <v>517</v>
-      </c>
-      <c r="G52" s="278" t="s">
-        <v>518</v>
       </c>
       <c r="H52" s="279"/>
       <c r="I52" s="279"/>
       <c r="J52" s="64"/>
       <c r="K52" s="347"/>
       <c r="L52" s="275" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M52" s="271"/>
       <c r="N52" s="271" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O52" s="323">
         <v>42651</v>
@@ -10831,7 +10835,7 @@
       </c>
       <c r="P75" s="177"/>
     </row>
-    <row r="76" spans="1:16" s="65" customFormat="1" ht="67.5">
+    <row r="76" spans="1:16" s="65" customFormat="1" ht="67.5" hidden="1">
       <c r="A76" s="310">
         <v>74</v>
       </c>
@@ -10851,12 +10855,10 @@
         <v>277</v>
       </c>
       <c r="G76" s="301" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H76" s="87"/>
-      <c r="I76" s="275" t="s">
-        <v>453</v>
-      </c>
+      <c r="I76" s="275"/>
       <c r="J76" s="64"/>
       <c r="K76" s="62"/>
       <c r="L76" s="275" t="s">
@@ -10864,7 +10866,7 @@
       </c>
       <c r="M76" s="167"/>
       <c r="N76" s="279" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O76" s="170">
         <v>42651</v>
@@ -11038,14 +11040,14 @@
         <v>42612</v>
       </c>
       <c r="F81" s="313" t="s">
+        <v>500</v>
+      </c>
+      <c r="G81" s="287" t="s">
         <v>501</v>
-      </c>
-      <c r="G81" s="287" t="s">
-        <v>502</v>
       </c>
       <c r="H81" s="288"/>
       <c r="I81" s="284" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J81" s="289"/>
       <c r="K81" s="285">
@@ -11056,7 +11058,7 @@
       </c>
       <c r="M81" s="288"/>
       <c r="N81" s="288" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O81" s="285">
         <v>42639</v>
@@ -11309,7 +11311,7 @@
         <v>359</v>
       </c>
       <c r="G88" s="314" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P88" s="252"/>
     </row>
@@ -11599,7 +11601,7 @@
         <v>363</v>
       </c>
       <c r="G96" s="278" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H96" s="211" t="s">
         <v>47</v>
@@ -11633,7 +11635,7 @@
         <v>362</v>
       </c>
       <c r="G97" s="297" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H97" s="298"/>
       <c r="I97" s="294" t="s">
@@ -11673,7 +11675,7 @@
         <v>362</v>
       </c>
       <c r="G98" s="297" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H98" s="298"/>
       <c r="I98" s="294" t="s">
@@ -11713,7 +11715,7 @@
         <v>362</v>
       </c>
       <c r="G99" s="297" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H99" s="298"/>
       <c r="I99" s="294" t="s">
@@ -12139,7 +12141,7 @@
         <v>308</v>
       </c>
       <c r="G110" s="330" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H110" s="317" t="s">
         <v>47</v>
@@ -12940,16 +12942,16 @@
         <v>42627</v>
       </c>
       <c r="F131" s="313" t="s">
+        <v>503</v>
+      </c>
+      <c r="G131" s="287" t="s">
         <v>504</v>
-      </c>
-      <c r="G131" s="287" t="s">
-        <v>505</v>
       </c>
       <c r="H131" s="288" t="s">
         <v>434</v>
       </c>
       <c r="I131" s="284" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J131" s="289"/>
       <c r="K131" s="285">
@@ -12960,14 +12962,14 @@
       </c>
       <c r="M131" s="288"/>
       <c r="N131" s="288" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O131" s="324">
         <v>42643</v>
       </c>
       <c r="P131" s="326"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" hidden="1">
       <c r="A132" s="310">
         <v>130</v>
       </c>
@@ -12984,7 +12986,7 @@
         <v>42627</v>
       </c>
       <c r="F132" s="225"/>
-      <c r="G132" s="210" t="s">
+      <c r="G132" s="278" t="s">
         <v>161</v>
       </c>
       <c r="H132" s="211" t="s">
@@ -12993,10 +12995,14 @@
       <c r="I132" s="211"/>
       <c r="J132" s="28"/>
       <c r="K132" s="28"/>
-      <c r="L132" s="211"/>
+      <c r="L132" s="279" t="s">
+        <v>58</v>
+      </c>
       <c r="M132" s="211"/>
       <c r="N132" s="211"/>
-      <c r="O132" s="34"/>
+      <c r="O132" s="34">
+        <v>42652</v>
+      </c>
       <c r="P132" s="252"/>
     </row>
     <row r="133" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
@@ -13057,7 +13063,7 @@
       </c>
       <c r="F134" s="313"/>
       <c r="G134" s="287" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H134" s="288"/>
       <c r="I134" s="284" t="s">
@@ -13095,7 +13101,7 @@
       </c>
       <c r="F135" s="313"/>
       <c r="G135" s="287" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H135" s="288"/>
       <c r="I135" s="284" t="s">
@@ -13132,10 +13138,10 @@
         <v>42627</v>
       </c>
       <c r="F136" s="225" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G136" s="301" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H136" s="211" t="s">
         <v>142</v>
@@ -13205,7 +13211,7 @@
       </c>
       <c r="F138" s="286"/>
       <c r="G138" s="287" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H138" s="288" t="s">
         <v>47</v>
@@ -13289,7 +13295,7 @@
       </c>
       <c r="F140" s="286"/>
       <c r="G140" s="315" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H140" s="288"/>
       <c r="I140" s="284" t="s">
@@ -13328,10 +13334,10 @@
         <v>42630</v>
       </c>
       <c r="F141" s="296" t="s">
+        <v>472</v>
+      </c>
+      <c r="G141" s="304" t="s">
         <v>473</v>
-      </c>
-      <c r="G141" s="304" t="s">
-        <v>474</v>
       </c>
       <c r="H141" s="298" t="s">
         <v>434</v>
@@ -13348,7 +13354,7 @@
       </c>
       <c r="M141" s="298"/>
       <c r="N141" s="298" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O141" s="295">
         <v>42641</v>
@@ -13373,7 +13379,7 @@
       </c>
       <c r="F142" s="334"/>
       <c r="G142" s="335" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H142" s="337"/>
       <c r="I142" s="294" t="s">
@@ -13543,10 +13549,10 @@
         <v>376</v>
       </c>
       <c r="G148" s="339" t="s">
+        <v>476</v>
+      </c>
+      <c r="I148" s="300" t="s">
         <v>477</v>
-      </c>
-      <c r="I148" s="300" t="s">
-        <v>478</v>
       </c>
       <c r="K148" s="340">
         <v>42643</v>
@@ -13579,29 +13585,29 @@
         <v>42633</v>
       </c>
       <c r="F149" s="338" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G149" s="339" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I149" s="300" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K149" s="336">
         <v>42643</v>
       </c>
       <c r="L149" s="300" t="s">
+        <v>524</v>
+      </c>
+      <c r="N149" s="300" t="s">
         <v>525</v>
-      </c>
-      <c r="N149" s="300" t="s">
-        <v>526</v>
       </c>
       <c r="O149" s="336">
         <v>42641</v>
       </c>
       <c r="P149" s="303"/>
     </row>
-    <row r="150" spans="1:16" ht="40.5">
+    <row r="150" spans="1:16" ht="40.5" hidden="1">
       <c r="A150" s="310">
         <v>148</v>
       </c>
@@ -13618,10 +13624,10 @@
         <v>42633</v>
       </c>
       <c r="F150" s="260" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G150" s="309" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I150" s="272"/>
       <c r="L150" s="272" t="s">
@@ -13661,7 +13667,7 @@
         <v>47</v>
       </c>
       <c r="I151" s="294" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J151" s="299"/>
       <c r="K151" s="295">
@@ -13703,7 +13709,7 @@
         <v>47</v>
       </c>
       <c r="I152" s="294" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J152" s="299"/>
       <c r="K152" s="295">
@@ -13781,7 +13787,7 @@
         <v>47</v>
       </c>
       <c r="I154" s="294" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J154" s="299"/>
       <c r="K154" s="295">
@@ -13819,11 +13825,11 @@
         <v>294</v>
       </c>
       <c r="G155" s="341" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H155" s="298"/>
       <c r="I155" s="294" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J155" s="299"/>
       <c r="K155" s="295">
@@ -13867,7 +13873,7 @@
         <v>47</v>
       </c>
       <c r="I156" s="294" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J156" s="299"/>
       <c r="K156" s="295">
@@ -13903,11 +13909,11 @@
         <v>250</v>
       </c>
       <c r="G157" s="297" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H157" s="298"/>
       <c r="I157" s="294" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J157" s="299"/>
       <c r="K157" s="295">
@@ -13951,7 +13957,7 @@
         <v>237</v>
       </c>
       <c r="I158" s="279" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J158" s="28"/>
       <c r="K158" s="28"/>
@@ -13993,7 +13999,7 @@
         <v>47</v>
       </c>
       <c r="I159" s="294" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J159" s="299"/>
       <c r="K159" s="295">
@@ -14031,13 +14037,13 @@
         <v>256</v>
       </c>
       <c r="G160" s="304" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H160" s="298" t="s">
         <v>47</v>
       </c>
       <c r="I160" s="294" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J160" s="299"/>
       <c r="K160" s="295">
@@ -14077,7 +14083,7 @@
       </c>
       <c r="H161" s="298"/>
       <c r="I161" s="294" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J161" s="299"/>
       <c r="K161" s="295">
@@ -14113,13 +14119,13 @@
         <v>332</v>
       </c>
       <c r="G162" s="342" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H162" s="298" t="s">
         <v>47</v>
       </c>
       <c r="I162" s="294" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J162" s="299"/>
       <c r="K162" s="295">
@@ -14161,7 +14167,7 @@
         <v>47</v>
       </c>
       <c r="I163" s="294" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J163" s="299"/>
       <c r="K163" s="295">
@@ -14199,7 +14205,7 @@
         <v>303</v>
       </c>
       <c r="G164" s="314" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H164" s="211" t="s">
         <v>47</v>
@@ -14213,7 +14219,7 @@
       <c r="O164" s="34"/>
       <c r="P164" s="252"/>
     </row>
-    <row r="165" spans="1:16" s="207" customFormat="1" ht="27">
+    <row r="165" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
       <c r="A165" s="310">
         <v>163</v>
       </c>
@@ -14233,12 +14239,10 @@
         <v>304</v>
       </c>
       <c r="G165" s="316" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H165" s="211"/>
-      <c r="I165" s="275" t="s">
-        <v>453</v>
-      </c>
+      <c r="I165" s="275"/>
       <c r="J165" s="212"/>
       <c r="K165" s="212"/>
       <c r="L165" s="208" t="s">
@@ -14246,7 +14250,7 @@
       </c>
       <c r="M165" s="211"/>
       <c r="N165" s="279" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O165" s="209">
         <v>42651</v>
@@ -14279,7 +14283,7 @@
         <v>47</v>
       </c>
       <c r="I166" s="284" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J166" s="289"/>
       <c r="K166" s="285">
@@ -14323,7 +14327,7 @@
         <v>47</v>
       </c>
       <c r="I167" s="284" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J167" s="289"/>
       <c r="K167" s="285">
@@ -14339,7 +14343,7 @@
       </c>
       <c r="P167" s="290"/>
     </row>
-    <row r="168" spans="1:16" s="207" customFormat="1" ht="54">
+    <row r="168" spans="1:16" s="207" customFormat="1" ht="54" hidden="1">
       <c r="A168" s="310">
         <v>166</v>
       </c>
@@ -14359,7 +14363,7 @@
         <v>323</v>
       </c>
       <c r="G168" s="314" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H168" s="211"/>
       <c r="I168" s="275"/>
@@ -14377,7 +14381,7 @@
       </c>
       <c r="P168" s="213"/>
     </row>
-    <row r="169" spans="1:16" s="207" customFormat="1" ht="54">
+    <row r="169" spans="1:16" s="207" customFormat="1" ht="54" hidden="1">
       <c r="A169" s="310">
         <v>167</v>
       </c>
@@ -14397,7 +14401,7 @@
         <v>324</v>
       </c>
       <c r="G169" s="316" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H169" s="211"/>
       <c r="I169" s="275"/>
@@ -14441,7 +14445,7 @@
         <v>47</v>
       </c>
       <c r="I170" s="294" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J170" s="299"/>
       <c r="K170" s="295">
@@ -14518,7 +14522,7 @@
         <v>383</v>
       </c>
       <c r="I172" s="294" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J172" s="299"/>
       <c r="K172" s="295">
@@ -14551,13 +14555,13 @@
         <v>384</v>
       </c>
       <c r="G173" s="345" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H173" s="298" t="s">
         <v>383</v>
       </c>
       <c r="I173" s="294" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J173" s="299"/>
       <c r="K173" s="295">
@@ -14597,7 +14601,7 @@
       </c>
       <c r="H174" s="298"/>
       <c r="I174" s="294" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J174" s="299"/>
       <c r="K174" s="295">
@@ -14630,11 +14634,11 @@
         <v>408</v>
       </c>
       <c r="G175" s="306" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H175" s="265"/>
       <c r="I175" s="271" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J175" s="263"/>
       <c r="K175" s="323"/>
@@ -14644,7 +14648,7 @@
       <c r="O175" s="269"/>
       <c r="P175" s="263"/>
     </row>
-    <row r="176" spans="1:16" s="272" customFormat="1" ht="54">
+    <row r="176" spans="1:16" s="272" customFormat="1" ht="54" hidden="1">
       <c r="A176" s="310">
         <v>174</v>
       </c>
@@ -14664,25 +14668,25 @@
         <v>426</v>
       </c>
       <c r="G176" s="306" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H176" s="279"/>
       <c r="I176" s="271"/>
       <c r="J176" s="271"/>
       <c r="K176" s="271"/>
       <c r="L176" s="275" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M176" s="271"/>
       <c r="N176" s="271" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O176" s="323">
         <v>42651</v>
       </c>
       <c r="P176" s="271"/>
     </row>
-    <row r="177" spans="1:16" s="272" customFormat="1">
+    <row r="177" spans="1:16" s="272" customFormat="1" hidden="1">
       <c r="A177" s="310">
         <v>175</v>
       </c>
@@ -14709,11 +14713,11 @@
       <c r="J177" s="271"/>
       <c r="K177" s="271"/>
       <c r="L177" s="275" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M177" s="271"/>
       <c r="N177" s="271" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O177" s="323">
         <v>42651</v>
@@ -14737,10 +14741,10 @@
         <v>42645</v>
       </c>
       <c r="F178" s="311" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G178" s="306" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H178" s="279"/>
       <c r="I178" s="271"/>
@@ -14769,10 +14773,10 @@
         <v>42645</v>
       </c>
       <c r="F179" s="311" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G179" s="306" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H179" s="279"/>
       <c r="I179" s="271"/>
@@ -14801,10 +14805,10 @@
         <v>42645</v>
       </c>
       <c r="F180" s="311" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G180" s="306" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H180" s="279"/>
       <c r="I180" s="271"/>
@@ -14833,10 +14837,10 @@
         <v>42645</v>
       </c>
       <c r="F181" s="311" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G181" s="306" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H181" s="279"/>
       <c r="I181" s="271"/>
@@ -14865,10 +14869,10 @@
         <v>42645</v>
       </c>
       <c r="F182" s="311" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G182" s="306" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H182" s="279"/>
       <c r="I182" s="271"/>
@@ -15098,7 +15102,7 @@
         <v>443</v>
       </c>
       <c r="G189" s="322" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H189" s="279" t="s">
         <v>47</v>
@@ -15384,7 +15388,7 @@
       <c r="O197" s="323"/>
       <c r="P197" s="271"/>
     </row>
-    <row r="198" spans="1:16" s="272" customFormat="1" ht="54">
+    <row r="198" spans="1:16" s="272" customFormat="1" ht="54" hidden="1">
       <c r="A198" s="310">
         <v>196</v>
       </c>
@@ -15404,7 +15408,7 @@
         <v>446</v>
       </c>
       <c r="G198" s="322" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H198" s="279" t="s">
         <v>47</v>
@@ -15413,11 +15417,11 @@
       <c r="J198" s="271"/>
       <c r="K198" s="271"/>
       <c r="L198" s="275" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M198" s="271"/>
       <c r="N198" s="271" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O198" s="323">
         <v>42651</v>
@@ -15441,10 +15445,10 @@
         <v>42645</v>
       </c>
       <c r="F199" s="311" t="s">
+        <v>456</v>
+      </c>
+      <c r="G199" s="306" t="s">
         <v>457</v>
-      </c>
-      <c r="G199" s="306" t="s">
-        <v>458</v>
       </c>
       <c r="H199" s="279" t="s">
         <v>47</v>
@@ -15475,10 +15479,10 @@
         <v>42645</v>
       </c>
       <c r="F200" s="311" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G200" s="306" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H200" s="279" t="s">
         <v>47</v>
@@ -15512,7 +15516,7 @@
         <v>421</v>
       </c>
       <c r="G201" s="306" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H201" s="279" t="s">
         <v>47</v>
@@ -15526,7 +15530,7 @@
       <c r="O201" s="323"/>
       <c r="P201" s="271"/>
     </row>
-    <row r="202" spans="1:16" s="272" customFormat="1" ht="27">
+    <row r="202" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A202" s="310">
         <v>200</v>
       </c>
@@ -15543,28 +15547,28 @@
         <v>42645</v>
       </c>
       <c r="F202" s="311" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G202" s="306" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H202" s="279"/>
       <c r="I202" s="271"/>
       <c r="J202" s="271"/>
       <c r="K202" s="271"/>
       <c r="L202" s="275" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M202" s="271"/>
       <c r="N202" s="271" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O202" s="323">
         <v>42651</v>
       </c>
       <c r="P202" s="271"/>
     </row>
-    <row r="203" spans="1:16" s="272" customFormat="1" ht="27">
+    <row r="203" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A203" s="310">
         <v>201</v>
       </c>
@@ -15581,10 +15585,10 @@
         <v>42645</v>
       </c>
       <c r="F203" s="311" t="s">
+        <v>478</v>
+      </c>
+      <c r="G203" s="322" t="s">
         <v>479</v>
-      </c>
-      <c r="G203" s="322" t="s">
-        <v>480</v>
       </c>
       <c r="H203" s="279" t="s">
         <v>47</v>
@@ -15593,7 +15597,7 @@
       <c r="J203" s="271"/>
       <c r="K203" s="271"/>
       <c r="L203" s="275" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M203" s="271"/>
       <c r="N203" s="271"/>
@@ -15619,10 +15623,10 @@
         <v>42645</v>
       </c>
       <c r="F204" s="311" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G204" s="306" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H204" s="279" t="s">
         <v>47</v>
@@ -15636,7 +15640,7 @@
       <c r="O204" s="323"/>
       <c r="P204" s="271"/>
     </row>
-    <row r="205" spans="1:16" s="272" customFormat="1">
+    <row r="205" spans="1:16" s="272" customFormat="1" hidden="1">
       <c r="A205" s="310">
         <v>203</v>
       </c>
@@ -15644,7 +15648,7 @@
         <v>19</v>
       </c>
       <c r="C205" s="359" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D205" s="292">
         <v>42643</v>
@@ -15653,10 +15657,10 @@
         <v>42645</v>
       </c>
       <c r="F205" s="311" t="s">
+        <v>508</v>
+      </c>
+      <c r="G205" s="306" t="s">
         <v>509</v>
-      </c>
-      <c r="G205" s="306" t="s">
-        <v>510</v>
       </c>
       <c r="H205" s="279" t="s">
         <v>47</v>
@@ -15665,7 +15669,7 @@
       <c r="J205" s="271"/>
       <c r="K205" s="271"/>
       <c r="L205" s="275" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M205" s="271"/>
       <c r="N205" s="271"/>
@@ -15682,7 +15686,7 @@
         <v>19</v>
       </c>
       <c r="C206" s="359" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D206" s="292">
         <v>42643</v>
@@ -15691,10 +15695,10 @@
         <v>42645</v>
       </c>
       <c r="F206" s="311" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G206" s="306" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H206" s="279" t="s">
         <v>47</v>
@@ -15725,10 +15729,10 @@
         <v>42649</v>
       </c>
       <c r="F207" s="311" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G207" s="306" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H207" s="279"/>
       <c r="I207" s="271"/>
@@ -15757,10 +15761,10 @@
         <v>42649</v>
       </c>
       <c r="F208" s="311" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G208" s="322" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H208" s="279" t="s">
         <v>47</v>
@@ -15791,10 +15795,10 @@
         <v>42645</v>
       </c>
       <c r="F209" s="311" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G209" s="306" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H209" s="279"/>
       <c r="I209" s="271"/>
@@ -15823,10 +15827,10 @@
         <v>42645</v>
       </c>
       <c r="F210" s="311" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G210" s="306" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H210" s="279"/>
       <c r="I210" s="271"/>
@@ -15855,10 +15859,10 @@
         <v>42645</v>
       </c>
       <c r="F211" s="311" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G211" s="306" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H211" s="279"/>
       <c r="I211" s="271"/>
@@ -15887,10 +15891,10 @@
         <v>42645</v>
       </c>
       <c r="F212" s="311" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G212" s="306" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H212" s="279"/>
       <c r="I212" s="271"/>
@@ -15906,14 +15910,18 @@
   <autoFilter ref="A2:P212">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters>
+      <filters blank="1">
         <filter val="返回"/>
       </filters>
     </filterColumn>
     <filterColumn colId="11"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
-    <filterColumn colId="14"/>
+    <filterColumn colId="14">
+      <filters blank="1">
+        <dateGroupItem year="2016" month="9" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15978,7 +15986,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="273" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -17368,7 +17376,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="273" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="564">
   <si>
     <t>编号</t>
   </si>
@@ -5356,6 +5356,10 @@
   </si>
   <si>
     <t>按照10月8日晚上讨论的规格，按2键只提示“已经到开头”，不自动从头朗读。按【5】或者【OK】键才从头朗读。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7947,8 +7951,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I165" sqref="I165"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="O116" sqref="O116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12369,10 +12373,14 @@
       <c r="I116" s="258"/>
       <c r="J116" s="256"/>
       <c r="K116" s="257"/>
-      <c r="L116" s="211"/>
+      <c r="L116" s="279" t="s">
+        <v>563</v>
+      </c>
       <c r="M116" s="211"/>
       <c r="N116" s="211"/>
-      <c r="O116" s="34"/>
+      <c r="O116" s="34">
+        <v>42652</v>
+      </c>
       <c r="P116" s="252"/>
     </row>
     <row r="117" spans="1:16" s="221" customFormat="1" ht="67.5" hidden="1">
@@ -15910,7 +15918,7 @@
   <autoFilter ref="A2:P212">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="568">
   <si>
     <t>编号</t>
   </si>
@@ -5356,6 +5356,26 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有复现，放到二级和三级目录可以显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加重复但不区分文件和文件夹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7950,8 +7970,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="N196" sqref="N196"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="N188" sqref="N188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14915,10 +14935,16 @@
       <c r="I183" s="272"/>
       <c r="J183" s="272"/>
       <c r="K183" s="272"/>
-      <c r="L183" s="276"/>
+      <c r="L183" s="276" t="s">
+        <v>563</v>
+      </c>
       <c r="M183" s="272"/>
-      <c r="N183" s="272"/>
-      <c r="O183" s="324"/>
+      <c r="N183" s="272" t="s">
+        <v>564</v>
+      </c>
+      <c r="O183" s="324">
+        <v>42651</v>
+      </c>
       <c r="P183" s="272"/>
     </row>
     <row r="184" spans="1:16" s="273" customFormat="1" ht="40.5">
@@ -14947,10 +14973,16 @@
       <c r="I184" s="272"/>
       <c r="J184" s="272"/>
       <c r="K184" s="272"/>
-      <c r="L184" s="276"/>
+      <c r="L184" s="276" t="s">
+        <v>563</v>
+      </c>
       <c r="M184" s="272"/>
-      <c r="N184" s="272"/>
-      <c r="O184" s="324"/>
+      <c r="N184" s="272" t="s">
+        <v>567</v>
+      </c>
+      <c r="O184" s="324">
+        <v>42651</v>
+      </c>
       <c r="P184" s="272"/>
     </row>
     <row r="185" spans="1:16" s="273" customFormat="1" ht="27">
@@ -15529,10 +15561,16 @@
       <c r="I201" s="272"/>
       <c r="J201" s="272"/>
       <c r="K201" s="272"/>
-      <c r="L201" s="276"/>
+      <c r="L201" s="276" t="s">
+        <v>563</v>
+      </c>
       <c r="M201" s="272"/>
-      <c r="N201" s="272"/>
-      <c r="O201" s="324"/>
+      <c r="N201" s="272" t="s">
+        <v>564</v>
+      </c>
+      <c r="O201" s="324">
+        <v>42651</v>
+      </c>
       <c r="P201" s="272"/>
     </row>
     <row r="202" spans="1:16" s="273" customFormat="1" ht="27">
@@ -15707,10 +15745,16 @@
       <c r="I206" s="272"/>
       <c r="J206" s="272"/>
       <c r="K206" s="272"/>
-      <c r="L206" s="276"/>
+      <c r="L206" s="276" t="s">
+        <v>565</v>
+      </c>
       <c r="M206" s="272"/>
-      <c r="N206" s="272"/>
-      <c r="O206" s="324"/>
+      <c r="N206" s="272" t="s">
+        <v>566</v>
+      </c>
+      <c r="O206" s="324">
+        <v>42651</v>
+      </c>
       <c r="P206" s="272"/>
     </row>
     <row r="207" spans="1:16" s="273" customFormat="1" ht="40.5">

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="567">
   <si>
     <t>编号</t>
   </si>
@@ -2727,10 +2727,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加书签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2970,10 +2966,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>【全文朗读：到尾处理】朗读完当前电子书，</t>
     </r>
@@ -3709,10 +3701,6 @@
   </si>
   <si>
     <t>加上提示信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4468,10 +4456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>【背景音乐】目前好像没有自动创建文件夹。我测试时自己建的文件夹然后复制文件的
 【9月3日版】只有在安装apk后才会自动创建“book/背景音乐”文件夹？手动将其删除后，可否再次运行电子书apk时就自动创建？</t>
@@ -5363,19 +5347,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>按照10月8日晚上讨论的规格，按2键只提示“已经到开头”，不自动从头朗读。按【5】或者【OK】键才从头朗读。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>添加提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>添加重复但不区分文件和文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>没有复现，放到二级和三级目录可以显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加重复但不区分文件和文件夹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6304,7 +6300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="361">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7087,9 +7083,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7426,7 +7419,17 @@
     <cellStyle name="常规 3 7" xfId="16"/>
     <cellStyle name="常规 6" xfId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -7856,78 +7859,78 @@
       <c r="E7" s="222">
         <v>42634</v>
       </c>
-      <c r="F7" s="350" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="271" customFormat="1">
-      <c r="A8" s="347"/>
-      <c r="B8" s="351">
+      <c r="F7" s="349" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="270" customFormat="1">
+      <c r="A8" s="346"/>
+      <c r="B8" s="350">
         <v>6</v>
       </c>
-      <c r="C8" s="349">
+      <c r="C8" s="348">
         <v>42638</v>
       </c>
-      <c r="D8" s="352" t="s">
+      <c r="D8" s="351" t="s">
+        <v>509</v>
+      </c>
+      <c r="E8" s="347">
+        <v>42634</v>
+      </c>
+      <c r="F8" s="349" t="s">
+        <v>510</v>
+      </c>
+      <c r="G8" s="346"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="346"/>
+      <c r="B9" s="356">
+        <v>7</v>
+      </c>
+      <c r="C9" s="352"/>
+      <c r="D9" s="353"/>
+      <c r="E9" s="354">
+        <v>42640</v>
+      </c>
+      <c r="F9" s="355" t="s">
+        <v>511</v>
+      </c>
+      <c r="G9" s="346"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="346"/>
+      <c r="B10" s="350">
+        <v>8</v>
+      </c>
+      <c r="C10" s="348">
+        <v>42645</v>
+      </c>
+      <c r="D10" s="351" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="347">
+        <v>42643</v>
+      </c>
+      <c r="F10" s="349" t="s">
         <v>513</v>
       </c>
-      <c r="E8" s="348">
-        <v>42634</v>
-      </c>
-      <c r="F8" s="350" t="s">
-        <v>514</v>
-      </c>
-      <c r="G8" s="347"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="347"/>
-      <c r="B9" s="357">
-        <v>7</v>
-      </c>
-      <c r="C9" s="353"/>
-      <c r="D9" s="354"/>
-      <c r="E9" s="355">
-        <v>42640</v>
-      </c>
-      <c r="F9" s="356" t="s">
-        <v>515</v>
-      </c>
-      <c r="G9" s="347"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="347"/>
-      <c r="B10" s="351">
-        <v>8</v>
-      </c>
-      <c r="C10" s="349">
-        <v>42645</v>
-      </c>
-      <c r="D10" s="352" t="s">
+      <c r="G10" s="346"/>
+    </row>
+    <row r="11" spans="1:7" s="346" customFormat="1">
+      <c r="B11" s="350">
+        <v>9</v>
+      </c>
+      <c r="C11" s="348">
+        <v>42649</v>
+      </c>
+      <c r="D11" s="351" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="348">
+      <c r="E11" s="347">
         <v>42643</v>
       </c>
-      <c r="F10" s="350" t="s">
-        <v>517</v>
-      </c>
-      <c r="G10" s="347"/>
-    </row>
-    <row r="11" spans="1:7" s="347" customFormat="1">
-      <c r="B11" s="351">
-        <v>9</v>
-      </c>
-      <c r="C11" s="349">
-        <v>42649</v>
-      </c>
-      <c r="D11" s="352" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="348">
-        <v>42643</v>
-      </c>
-      <c r="F11" s="350" t="s">
-        <v>551</v>
+      <c r="F11" s="349" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7970,8 +7973,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="N188" sqref="N188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M215" sqref="M215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7987,7 +7990,7 @@
     <col min="9" max="9" width="6.75" style="195" customWidth="1"/>
     <col min="10" max="10" width="7" style="195" customWidth="1"/>
     <col min="11" max="13" width="9" style="195"/>
-    <col min="14" max="14" width="23.75" style="195" customWidth="1"/>
+    <col min="14" max="14" width="34.5" style="195" customWidth="1"/>
     <col min="15" max="16384" width="9" style="195"/>
   </cols>
   <sheetData>
@@ -8044,7 +8047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="194" customFormat="1" ht="81">
+    <row r="3" spans="1:16" s="194" customFormat="1" ht="81" hidden="1">
       <c r="A3" s="186">
         <v>1</v>
       </c>
@@ -8077,7 +8080,7 @@
       </c>
       <c r="M3" s="191"/>
       <c r="N3" s="191" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O3" s="188">
         <v>42641</v>
@@ -8085,7 +8088,7 @@
       <c r="P3" s="193"/>
     </row>
     <row r="4" spans="1:16" s="72" customFormat="1" ht="81" hidden="1">
-      <c r="A4" s="311">
+      <c r="A4" s="310">
         <v>2</v>
       </c>
       <c r="B4" s="66" t="s">
@@ -8123,7 +8126,7 @@
       <c r="P4" s="177"/>
     </row>
     <row r="5" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
-      <c r="A5" s="311">
+      <c r="A5" s="310">
         <v>3</v>
       </c>
       <c r="B5" s="66" t="s">
@@ -8163,7 +8166,7 @@
       <c r="P5" s="177"/>
     </row>
     <row r="6" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
-      <c r="A6" s="311">
+      <c r="A6" s="310">
         <v>4</v>
       </c>
       <c r="B6" s="172" t="s">
@@ -8204,48 +8207,48 @@
       </c>
       <c r="P6" s="177"/>
     </row>
-    <row r="7" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A7" s="311">
+    <row r="7" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A7" s="310">
         <v>5</v>
       </c>
-      <c r="B7" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="296">
+      <c r="B7" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="295">
         <v>42552</v>
       </c>
-      <c r="E7" s="297">
+      <c r="E7" s="296">
         <v>42555</v>
       </c>
-      <c r="F7" s="313" t="s">
-        <v>412</v>
-      </c>
-      <c r="G7" s="298" t="s">
-        <v>413</v>
-      </c>
-      <c r="H7" s="299"/>
-      <c r="I7" s="295" t="s">
-        <v>414</v>
-      </c>
-      <c r="J7" s="300"/>
-      <c r="K7" s="296">
+      <c r="F7" s="312" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" s="297" t="s">
+        <v>410</v>
+      </c>
+      <c r="H7" s="298"/>
+      <c r="I7" s="294" t="s">
+        <v>411</v>
+      </c>
+      <c r="J7" s="299"/>
+      <c r="K7" s="295">
         <v>42643</v>
       </c>
-      <c r="L7" s="295" t="s">
+      <c r="L7" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="299"/>
-      <c r="N7" s="299"/>
-      <c r="O7" s="296">
+      <c r="M7" s="298"/>
+      <c r="N7" s="298"/>
+      <c r="O7" s="295">
         <v>42637</v>
       </c>
-      <c r="P7" s="304"/>
+      <c r="P7" s="303"/>
     </row>
     <row r="8" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
-      <c r="A8" s="311">
+      <c r="A8" s="310">
         <v>6</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -8285,7 +8288,7 @@
       <c r="P8" s="177"/>
     </row>
     <row r="9" spans="1:16" s="72" customFormat="1" ht="40.5" hidden="1">
-      <c r="A9" s="311">
+      <c r="A9" s="310">
         <v>7</v>
       </c>
       <c r="B9" s="66" t="s">
@@ -8321,7 +8324,7 @@
       <c r="P9" s="177"/>
     </row>
     <row r="10" spans="1:16" ht="40.5">
-      <c r="A10" s="311">
+      <c r="A10" s="310">
         <v>8</v>
       </c>
       <c r="B10" s="211" t="s">
@@ -8337,10 +8340,10 @@
         <v>42555</v>
       </c>
       <c r="F10" s="199" t="s">
-        <v>342</v>
-      </c>
-      <c r="G10" s="302" t="s">
         <v>341</v>
+      </c>
+      <c r="G10" s="301" t="s">
+        <v>340</v>
       </c>
       <c r="H10" s="211" t="s">
         <v>47</v>
@@ -8355,7 +8358,7 @@
       <c r="P10" s="252"/>
     </row>
     <row r="11" spans="1:16" s="97" customFormat="1" ht="40.5" hidden="1">
-      <c r="A11" s="311">
+      <c r="A11" s="310">
         <v>9</v>
       </c>
       <c r="B11" s="90" t="s">
@@ -8393,7 +8396,7 @@
       <c r="P11" s="96"/>
     </row>
     <row r="12" spans="1:16" s="72" customFormat="1" ht="40.5" hidden="1">
-      <c r="A12" s="311">
+      <c r="A12" s="310">
         <v>10</v>
       </c>
       <c r="B12" s="66" t="s">
@@ -8429,7 +8432,7 @@
       <c r="P12" s="177"/>
     </row>
     <row r="13" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
-      <c r="A13" s="311">
+      <c r="A13" s="310">
         <v>11</v>
       </c>
       <c r="B13" s="66" t="s">
@@ -8464,160 +8467,160 @@
       <c r="O13" s="173"/>
       <c r="P13" s="177"/>
     </row>
-    <row r="14" spans="1:16" s="301" customFormat="1" ht="81" hidden="1">
-      <c r="A14" s="311">
+    <row r="14" spans="1:16" s="300" customFormat="1" ht="81" hidden="1">
+      <c r="A14" s="310">
         <v>12</v>
       </c>
-      <c r="B14" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="296">
+      <c r="B14" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="295">
         <v>42552</v>
       </c>
-      <c r="E14" s="297">
+      <c r="E14" s="296">
         <v>42555</v>
       </c>
-      <c r="F14" s="313"/>
-      <c r="G14" s="298" t="s">
+      <c r="F14" s="312"/>
+      <c r="G14" s="297" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="299"/>
-      <c r="I14" s="295" t="s">
+      <c r="H14" s="298"/>
+      <c r="I14" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="300"/>
-      <c r="K14" s="296">
+      <c r="J14" s="299"/>
+      <c r="K14" s="295">
         <v>42632</v>
       </c>
-      <c r="L14" s="295" t="s">
+      <c r="L14" s="294" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="299"/>
-      <c r="N14" s="299"/>
-      <c r="O14" s="296">
+      <c r="M14" s="298"/>
+      <c r="N14" s="298"/>
+      <c r="O14" s="295">
         <v>42631</v>
       </c>
-      <c r="P14" s="304"/>
-    </row>
-    <row r="15" spans="1:16" s="301" customFormat="1" ht="67.5" hidden="1">
-      <c r="A15" s="311">
+      <c r="P14" s="303"/>
+    </row>
+    <row r="15" spans="1:16" s="300" customFormat="1" ht="67.5" hidden="1">
+      <c r="A15" s="310">
         <v>13</v>
       </c>
-      <c r="B15" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="296">
+      <c r="B15" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="295">
         <v>42552</v>
       </c>
-      <c r="E15" s="297">
+      <c r="E15" s="296">
         <v>42555</v>
       </c>
-      <c r="F15" s="313"/>
-      <c r="G15" s="298" t="s">
+      <c r="F15" s="312"/>
+      <c r="G15" s="297" t="s">
         <v>177</v>
       </c>
-      <c r="H15" s="299"/>
-      <c r="I15" s="295" t="s">
+      <c r="H15" s="298"/>
+      <c r="I15" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="300"/>
-      <c r="K15" s="296">
+      <c r="J15" s="299"/>
+      <c r="K15" s="295">
         <v>42632</v>
       </c>
-      <c r="L15" s="295" t="s">
+      <c r="L15" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="299"/>
-      <c r="N15" s="299"/>
-      <c r="O15" s="296">
+      <c r="M15" s="298"/>
+      <c r="N15" s="298"/>
+      <c r="O15" s="295">
         <v>42631</v>
       </c>
-      <c r="P15" s="304"/>
-    </row>
-    <row r="16" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A16" s="311">
+      <c r="P15" s="303"/>
+    </row>
+    <row r="16" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A16" s="310">
         <v>14</v>
       </c>
-      <c r="B16" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="296">
+      <c r="B16" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="295">
         <v>42552</v>
       </c>
-      <c r="E16" s="297">
+      <c r="E16" s="296">
         <v>42555</v>
       </c>
-      <c r="F16" s="313"/>
-      <c r="G16" s="298" t="s">
+      <c r="F16" s="312"/>
+      <c r="G16" s="297" t="s">
         <v>178</v>
       </c>
-      <c r="H16" s="299"/>
-      <c r="I16" s="295" t="s">
+      <c r="H16" s="298"/>
+      <c r="I16" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="300"/>
-      <c r="K16" s="296">
+      <c r="J16" s="299"/>
+      <c r="K16" s="295">
         <v>42632</v>
       </c>
-      <c r="L16" s="295" t="s">
+      <c r="L16" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="299"/>
-      <c r="N16" s="299"/>
-      <c r="O16" s="296">
+      <c r="M16" s="298"/>
+      <c r="N16" s="298"/>
+      <c r="O16" s="295">
         <v>42632</v>
       </c>
-      <c r="P16" s="304"/>
-    </row>
-    <row r="17" spans="1:16" s="301" customFormat="1" ht="40.5" hidden="1">
-      <c r="A17" s="311">
+      <c r="P16" s="303"/>
+    </row>
+    <row r="17" spans="1:16" s="300" customFormat="1" ht="40.5" hidden="1">
+      <c r="A17" s="310">
         <v>15</v>
       </c>
-      <c r="B17" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="296">
+      <c r="B17" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="295">
         <v>42503</v>
       </c>
-      <c r="E17" s="297">
+      <c r="E17" s="296">
         <v>42507</v>
       </c>
-      <c r="F17" s="313"/>
-      <c r="G17" s="298" t="s">
+      <c r="F17" s="312"/>
+      <c r="G17" s="297" t="s">
         <v>179</v>
       </c>
-      <c r="H17" s="299"/>
-      <c r="I17" s="295" t="s">
+      <c r="H17" s="298"/>
+      <c r="I17" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="300"/>
-      <c r="K17" s="296">
+      <c r="J17" s="299"/>
+      <c r="K17" s="295">
         <v>42632</v>
       </c>
-      <c r="L17" s="295" t="s">
+      <c r="L17" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="299"/>
-      <c r="N17" s="299"/>
-      <c r="O17" s="296">
+      <c r="M17" s="298"/>
+      <c r="N17" s="298"/>
+      <c r="O17" s="295">
         <v>42632</v>
       </c>
-      <c r="P17" s="304"/>
+      <c r="P17" s="303"/>
     </row>
     <row r="18" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
-      <c r="A18" s="311">
+      <c r="A18" s="310">
         <v>16</v>
       </c>
       <c r="B18" s="172" t="s">
@@ -8656,8 +8659,8 @@
       </c>
       <c r="P18" s="168"/>
     </row>
-    <row r="19" spans="1:16" ht="229.5">
-      <c r="A19" s="311">
+    <row r="19" spans="1:16" ht="229.5" hidden="1">
+      <c r="A19" s="310">
         <v>17</v>
       </c>
       <c r="B19" s="211" t="s">
@@ -8673,25 +8676,27 @@
         <v>42555</v>
       </c>
       <c r="F19" s="199" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19" s="210" t="s">
         <v>343</v>
       </c>
-      <c r="G19" s="210" t="s">
-        <v>344</v>
-      </c>
       <c r="H19" s="211"/>
-      <c r="I19" s="211" t="s">
-        <v>346</v>
-      </c>
+      <c r="I19" s="211"/>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
-      <c r="L19" s="211"/>
+      <c r="L19" s="279" t="s">
+        <v>58</v>
+      </c>
       <c r="M19" s="211"/>
       <c r="N19" s="211"/>
-      <c r="O19" s="34"/>
+      <c r="O19" s="34">
+        <v>42652</v>
+      </c>
       <c r="P19" s="252"/>
     </row>
-    <row r="20" spans="1:16" ht="67.5">
-      <c r="A20" s="311">
+    <row r="20" spans="1:16" ht="67.5" hidden="1">
+      <c r="A20" s="310">
         <v>18</v>
       </c>
       <c r="B20" s="211" t="s">
@@ -8707,25 +8712,27 @@
         <v>42555</v>
       </c>
       <c r="F20" s="199" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G20" s="210" t="s">
         <v>182</v>
       </c>
       <c r="H20" s="211"/>
-      <c r="I20" s="211" t="s">
-        <v>331</v>
-      </c>
+      <c r="I20" s="279"/>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
-      <c r="L20" s="211"/>
-      <c r="M20" s="211"/>
-      <c r="N20" s="211"/>
-      <c r="O20" s="34"/>
+      <c r="L20" s="279" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="279"/>
+      <c r="N20" s="279"/>
+      <c r="O20" s="34">
+        <v>42652</v>
+      </c>
       <c r="P20" s="252"/>
     </row>
-    <row r="21" spans="1:16" ht="189">
-      <c r="A21" s="311">
+    <row r="21" spans="1:16" ht="189" hidden="1">
+      <c r="A21" s="310">
         <v>19</v>
       </c>
       <c r="B21" s="211" t="s">
@@ -8741,25 +8748,27 @@
         <v>42555</v>
       </c>
       <c r="F21" s="199" t="s">
+        <v>344</v>
+      </c>
+      <c r="G21" s="210" t="s">
         <v>345</v>
       </c>
-      <c r="G21" s="210" t="s">
-        <v>347</v>
-      </c>
       <c r="H21" s="211"/>
-      <c r="I21" s="211" t="s">
-        <v>331</v>
-      </c>
+      <c r="I21" s="279"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
-      <c r="L21" s="211"/>
-      <c r="M21" s="211"/>
-      <c r="N21" s="211"/>
-      <c r="O21" s="34"/>
+      <c r="L21" s="279" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="279"/>
+      <c r="N21" s="279"/>
+      <c r="O21" s="34">
+        <v>42652</v>
+      </c>
       <c r="P21" s="252"/>
     </row>
     <row r="22" spans="1:16" s="178" customFormat="1" ht="81" hidden="1">
-      <c r="A22" s="311">
+      <c r="A22" s="310">
         <v>20</v>
       </c>
       <c r="B22" s="172" t="s">
@@ -8797,7 +8806,7 @@
       <c r="P22" s="168"/>
     </row>
     <row r="23" spans="1:16" s="178" customFormat="1" ht="108" hidden="1">
-      <c r="A23" s="311">
+      <c r="A23" s="310">
         <v>21</v>
       </c>
       <c r="B23" s="172" t="s">
@@ -8835,7 +8844,7 @@
       <c r="P23" s="177"/>
     </row>
     <row r="24" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
-      <c r="A24" s="311">
+      <c r="A24" s="310">
         <v>22</v>
       </c>
       <c r="B24" s="172" t="s">
@@ -8873,7 +8882,7 @@
       <c r="P24" s="177"/>
     </row>
     <row r="25" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
-      <c r="A25" s="311">
+      <c r="A25" s="310">
         <v>23</v>
       </c>
       <c r="B25" s="172" t="s">
@@ -8913,7 +8922,7 @@
       <c r="P25" s="168"/>
     </row>
     <row r="26" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
-      <c r="A26" s="311">
+      <c r="A26" s="310">
         <v>24</v>
       </c>
       <c r="B26" s="66" t="s">
@@ -8946,50 +8955,50 @@
       <c r="O26" s="173"/>
       <c r="P26" s="177"/>
     </row>
-    <row r="27" spans="1:16" s="301" customFormat="1" ht="135" hidden="1">
-      <c r="A27" s="311">
+    <row r="27" spans="1:16" s="300" customFormat="1" ht="135" hidden="1">
+      <c r="A27" s="310">
         <v>25</v>
       </c>
-      <c r="B27" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="296">
+      <c r="B27" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="295">
         <v>42552</v>
       </c>
-      <c r="E27" s="297">
+      <c r="E27" s="296">
         <v>42555</v>
       </c>
-      <c r="F27" s="313" t="s">
+      <c r="F27" s="312" t="s">
         <v>321</v>
       </c>
-      <c r="G27" s="305" t="s">
-        <v>417</v>
-      </c>
-      <c r="H27" s="299" t="s">
+      <c r="G27" s="304" t="s">
+        <v>414</v>
+      </c>
+      <c r="H27" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="295" t="s">
+      <c r="I27" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="300"/>
-      <c r="K27" s="296">
+      <c r="J27" s="299"/>
+      <c r="K27" s="295">
         <v>42643</v>
       </c>
-      <c r="L27" s="295" t="s">
+      <c r="L27" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M27" s="299"/>
-      <c r="N27" s="299"/>
-      <c r="O27" s="296">
+      <c r="M27" s="298"/>
+      <c r="N27" s="298"/>
+      <c r="O27" s="295">
         <v>42637</v>
       </c>
-      <c r="P27" s="304"/>
-    </row>
-    <row r="28" spans="1:16" ht="229.5">
-      <c r="A28" s="311">
+      <c r="P27" s="303"/>
+    </row>
+    <row r="28" spans="1:16" ht="229.5" hidden="1">
+      <c r="A28" s="310">
         <v>26</v>
       </c>
       <c r="B28" s="211" t="s">
@@ -9005,27 +9014,31 @@
         <v>42555</v>
       </c>
       <c r="F28" s="199" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G28" s="210" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H28" s="211" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="211" t="s">
-        <v>346</v>
-      </c>
+      <c r="I28" s="211"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
-      <c r="L28" s="211"/>
+      <c r="L28" s="279" t="s">
+        <v>58</v>
+      </c>
       <c r="M28" s="211"/>
-      <c r="N28" s="211"/>
-      <c r="O28" s="34"/>
+      <c r="N28" s="279" t="s">
+        <v>560</v>
+      </c>
+      <c r="O28" s="34">
+        <v>42652</v>
+      </c>
       <c r="P28" s="252"/>
     </row>
-    <row r="29" spans="1:16" ht="135">
-      <c r="A29" s="311">
+    <row r="29" spans="1:16" ht="135" hidden="1">
+      <c r="A29" s="310">
         <v>27</v>
       </c>
       <c r="B29" s="211" t="s">
@@ -9041,21 +9054,25 @@
         <v>42555</v>
       </c>
       <c r="F29" s="199"/>
-      <c r="G29" s="279" t="s">
+      <c r="G29" s="278" t="s">
         <v>194</v>
       </c>
       <c r="H29" s="211"/>
       <c r="I29" s="211"/>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="211"/>
-      <c r="N29" s="211"/>
-      <c r="O29" s="34"/>
+      <c r="L29" s="279" t="s">
+        <v>58</v>
+      </c>
+      <c r="M29" s="279"/>
+      <c r="N29" s="279"/>
+      <c r="O29" s="34">
+        <v>42652</v>
+      </c>
       <c r="P29" s="252"/>
     </row>
     <row r="30" spans="1:16" s="221" customFormat="1" ht="67.5" hidden="1">
-      <c r="A30" s="311">
+      <c r="A30" s="310">
         <v>28</v>
       </c>
       <c r="B30" s="214" t="s">
@@ -9072,7 +9089,7 @@
       </c>
       <c r="F30" s="216"/>
       <c r="G30" s="217" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H30" s="218"/>
       <c r="I30" s="214" t="s">
@@ -9089,7 +9106,7 @@
       <c r="P30" s="220"/>
     </row>
     <row r="31" spans="1:16" s="221" customFormat="1" ht="54" hidden="1">
-      <c r="A31" s="311">
+      <c r="A31" s="310">
         <v>29</v>
       </c>
       <c r="B31" s="214" t="s">
@@ -9105,10 +9122,10 @@
         <v>42507</v>
       </c>
       <c r="F31" s="216" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G31" s="217" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H31" s="218"/>
       <c r="I31" s="214" t="s">
@@ -9125,7 +9142,7 @@
       <c r="P31" s="220"/>
     </row>
     <row r="32" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
-      <c r="A32" s="311">
+      <c r="A32" s="310">
         <v>30</v>
       </c>
       <c r="B32" s="172" t="s">
@@ -9163,7 +9180,7 @@
       <c r="P32" s="177"/>
     </row>
     <row r="33" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
-      <c r="A33" s="311">
+      <c r="A33" s="310">
         <v>31</v>
       </c>
       <c r="B33" s="172" t="s">
@@ -9201,7 +9218,7 @@
       <c r="P33" s="177"/>
     </row>
     <row r="34" spans="1:16" s="178" customFormat="1" ht="94.5" hidden="1">
-      <c r="A34" s="311">
+      <c r="A34" s="310">
         <v>32</v>
       </c>
       <c r="B34" s="172" t="s">
@@ -9239,7 +9256,7 @@
       <c r="P34" s="177"/>
     </row>
     <row r="35" spans="1:16" s="178" customFormat="1" ht="67.5" hidden="1">
-      <c r="A35" s="311">
+      <c r="A35" s="310">
         <v>33</v>
       </c>
       <c r="B35" s="172" t="s">
@@ -9277,7 +9294,7 @@
       <c r="P35" s="177"/>
     </row>
     <row r="36" spans="1:16" s="72" customFormat="1" hidden="1">
-      <c r="A36" s="311">
+      <c r="A36" s="310">
         <v>34</v>
       </c>
       <c r="B36" s="137" t="s">
@@ -9315,7 +9332,7 @@
       <c r="P36" s="177"/>
     </row>
     <row r="37" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
-      <c r="A37" s="311">
+      <c r="A37" s="310">
         <v>35</v>
       </c>
       <c r="B37" s="172" t="s">
@@ -9357,7 +9374,7 @@
       <c r="P37" s="177"/>
     </row>
     <row r="38" spans="1:16" s="178" customFormat="1" hidden="1">
-      <c r="A38" s="311">
+      <c r="A38" s="310">
         <v>36</v>
       </c>
       <c r="B38" s="172" t="s">
@@ -9400,7 +9417,7 @@
       <c r="P38" s="177"/>
     </row>
     <row r="39" spans="1:16" s="178" customFormat="1" hidden="1">
-      <c r="A39" s="311">
+      <c r="A39" s="310">
         <v>37</v>
       </c>
       <c r="B39" s="172" t="s">
@@ -9436,7 +9453,7 @@
       <c r="P39" s="177"/>
     </row>
     <row r="40" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
-      <c r="A40" s="311">
+      <c r="A40" s="310">
         <v>38</v>
       </c>
       <c r="B40" s="172" t="s">
@@ -9476,7 +9493,7 @@
       <c r="P40" s="177"/>
     </row>
     <row r="41" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
-      <c r="A41" s="311">
+      <c r="A41" s="310">
         <v>39</v>
       </c>
       <c r="B41" s="137" t="s">
@@ -9516,7 +9533,7 @@
       <c r="P41" s="177"/>
     </row>
     <row r="42" spans="1:16" s="178" customFormat="1" ht="108" hidden="1">
-      <c r="A42" s="311">
+      <c r="A42" s="310">
         <v>40</v>
       </c>
       <c r="B42" s="172" t="s">
@@ -9556,7 +9573,7 @@
       <c r="P42" s="177"/>
     </row>
     <row r="43" spans="1:16" s="178" customFormat="1" ht="256.5" hidden="1">
-      <c r="A43" s="311">
+      <c r="A43" s="310">
         <v>41</v>
       </c>
       <c r="B43" s="172" t="s">
@@ -9596,7 +9613,7 @@
       <c r="P43" s="177"/>
     </row>
     <row r="44" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
-      <c r="A44" s="311">
+      <c r="A44" s="310">
         <v>42</v>
       </c>
       <c r="B44" s="172" t="s">
@@ -9634,7 +9651,7 @@
       <c r="P44" s="177"/>
     </row>
     <row r="45" spans="1:16" s="178" customFormat="1" ht="121.5" hidden="1">
-      <c r="A45" s="311">
+      <c r="A45" s="310">
         <v>43</v>
       </c>
       <c r="B45" s="172" t="s">
@@ -9672,7 +9689,7 @@
       <c r="P45" s="177"/>
     </row>
     <row r="46" spans="1:16" s="178" customFormat="1" ht="270" hidden="1">
-      <c r="A46" s="311">
+      <c r="A46" s="310">
         <v>44</v>
       </c>
       <c r="B46" s="172" t="s">
@@ -9711,44 +9728,44 @@
       </c>
       <c r="P46" s="177"/>
     </row>
-    <row r="47" spans="1:16" s="262" customFormat="1" ht="121.5" hidden="1">
-      <c r="A47" s="311">
+    <row r="47" spans="1:16" s="261" customFormat="1" ht="121.5" hidden="1">
+      <c r="A47" s="310">
         <v>45</v>
       </c>
-      <c r="B47" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="299" t="s">
+      <c r="B47" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D47" s="257">
         <v>42552</v>
       </c>
-      <c r="E47" s="313">
+      <c r="E47" s="312">
         <v>42555</v>
       </c>
-      <c r="F47" s="313" t="s">
+      <c r="F47" s="312" t="s">
         <v>228</v>
       </c>
-      <c r="G47" s="298" t="s">
-        <v>419</v>
-      </c>
-      <c r="H47" s="299"/>
-      <c r="I47" s="299" t="s">
+      <c r="G47" s="297" t="s">
+        <v>416</v>
+      </c>
+      <c r="H47" s="298"/>
+      <c r="I47" s="298" t="s">
         <v>51</v>
       </c>
       <c r="J47" s="256"/>
       <c r="K47" s="257">
         <v>42643</v>
       </c>
-      <c r="L47" s="299"/>
-      <c r="M47" s="299"/>
-      <c r="N47" s="299"/>
+      <c r="L47" s="298"/>
+      <c r="M47" s="298"/>
+      <c r="N47" s="298"/>
       <c r="O47" s="257"/>
-      <c r="P47" s="263"/>
+      <c r="P47" s="262"/>
     </row>
     <row r="48" spans="1:16" s="178" customFormat="1" ht="94.5" hidden="1">
-      <c r="A48" s="311">
+      <c r="A48" s="310">
         <v>46</v>
       </c>
       <c r="B48" s="172" t="s">
@@ -9784,7 +9801,7 @@
       <c r="P48" s="177"/>
     </row>
     <row r="49" spans="1:16" ht="94.5">
-      <c r="A49" s="311">
+      <c r="A49" s="310">
         <v>47</v>
       </c>
       <c r="B49" s="211" t="s">
@@ -9800,15 +9817,15 @@
         <v>42558</v>
       </c>
       <c r="F49" s="199" t="s">
-        <v>353</v>
-      </c>
-      <c r="G49" s="302" t="s">
-        <v>426</v>
+        <v>351</v>
+      </c>
+      <c r="G49" s="301" t="s">
+        <v>423</v>
       </c>
       <c r="H49" s="211" t="s">
-        <v>354</v>
-      </c>
-      <c r="I49" s="280" t="s">
+        <v>352</v>
+      </c>
+      <c r="I49" s="279" t="s">
         <v>65</v>
       </c>
       <c r="J49" s="28"/>
@@ -9820,7 +9837,7 @@
       <c r="P49" s="252"/>
     </row>
     <row r="50" spans="1:16" s="254" customFormat="1" ht="121.5">
-      <c r="A50" s="311">
+      <c r="A50" s="310">
         <v>48</v>
       </c>
       <c r="B50" s="211" t="s">
@@ -9838,8 +9855,8 @@
       <c r="F50" s="225" t="s">
         <v>280</v>
       </c>
-      <c r="G50" s="279" t="s">
-        <v>425</v>
+      <c r="G50" s="278" t="s">
+        <v>422</v>
       </c>
       <c r="H50" s="211" t="s">
         <v>142</v>
@@ -9856,7 +9873,7 @@
       <c r="P50" s="252"/>
     </row>
     <row r="51" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
-      <c r="A51" s="311">
+      <c r="A51" s="310">
         <v>49</v>
       </c>
       <c r="B51" s="66" t="s">
@@ -9891,46 +9908,46 @@
       <c r="O51" s="173"/>
       <c r="P51" s="177"/>
     </row>
-    <row r="52" spans="1:16" s="151" customFormat="1" ht="54">
+    <row r="52" spans="1:16" s="151" customFormat="1" ht="54" hidden="1">
       <c r="A52" s="169">
         <v>50</v>
       </c>
-      <c r="B52" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="348">
+      <c r="B52" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="347">
         <v>42610</v>
       </c>
-      <c r="E52" s="349">
+      <c r="E52" s="348">
         <v>42612</v>
       </c>
-      <c r="F52" s="312" t="s">
-        <v>518</v>
-      </c>
-      <c r="G52" s="279" t="s">
-        <v>519</v>
-      </c>
-      <c r="H52" s="280"/>
-      <c r="I52" s="280"/>
+      <c r="F52" s="311" t="s">
+        <v>514</v>
+      </c>
+      <c r="G52" s="278" t="s">
+        <v>515</v>
+      </c>
+      <c r="H52" s="279"/>
+      <c r="I52" s="279"/>
       <c r="J52" s="64"/>
-      <c r="K52" s="348"/>
-      <c r="L52" s="276" t="s">
-        <v>552</v>
-      </c>
-      <c r="M52" s="272"/>
-      <c r="N52" s="272" t="s">
-        <v>553</v>
-      </c>
-      <c r="O52" s="324">
+      <c r="K52" s="347"/>
+      <c r="L52" s="275" t="s">
+        <v>548</v>
+      </c>
+      <c r="M52" s="271"/>
+      <c r="N52" s="271" t="s">
+        <v>549</v>
+      </c>
+      <c r="O52" s="323">
         <v>42651</v>
       </c>
-      <c r="P52" s="282"/>
+      <c r="P52" s="281"/>
     </row>
     <row r="53" spans="1:16" s="178" customFormat="1" hidden="1">
-      <c r="A53" s="311">
+      <c r="A53" s="310">
         <v>51</v>
       </c>
       <c r="B53" s="224" t="s">
@@ -9946,14 +9963,14 @@
         <v>42612</v>
       </c>
       <c r="F53" s="174" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G53" s="175" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H53" s="176"/>
       <c r="I53" s="224" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J53" s="131"/>
       <c r="K53" s="173">
@@ -9965,52 +9982,52 @@
       <c r="O53" s="173"/>
       <c r="P53" s="177"/>
     </row>
-    <row r="54" spans="1:16" s="301" customFormat="1" ht="108" hidden="1">
-      <c r="A54" s="311">
+    <row r="54" spans="1:16" s="300" customFormat="1" ht="108" hidden="1">
+      <c r="A54" s="310">
         <v>52</v>
       </c>
-      <c r="B54" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="296">
+      <c r="B54" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="295">
         <v>42610</v>
       </c>
-      <c r="E54" s="297">
+      <c r="E54" s="296">
         <v>42612</v>
       </c>
-      <c r="F54" s="313" t="s">
+      <c r="F54" s="312" t="s">
         <v>320</v>
       </c>
-      <c r="G54" s="298" t="s">
-        <v>428</v>
-      </c>
-      <c r="H54" s="299" t="s">
+      <c r="G54" s="297" t="s">
+        <v>425</v>
+      </c>
+      <c r="H54" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I54" s="295" t="s">
-        <v>414</v>
-      </c>
-      <c r="J54" s="300"/>
-      <c r="K54" s="296">
+      <c r="I54" s="294" t="s">
+        <v>411</v>
+      </c>
+      <c r="J54" s="299"/>
+      <c r="K54" s="295">
         <v>42643</v>
       </c>
-      <c r="L54" s="295" t="s">
+      <c r="L54" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M54" s="299"/>
-      <c r="N54" s="299" t="s">
-        <v>379</v>
-      </c>
-      <c r="O54" s="296">
+      <c r="M54" s="298"/>
+      <c r="N54" s="298" t="s">
+        <v>377</v>
+      </c>
+      <c r="O54" s="295">
         <v>42634</v>
       </c>
-      <c r="P54" s="304"/>
+      <c r="P54" s="303"/>
     </row>
     <row r="55" spans="1:16" s="178" customFormat="1" hidden="1">
-      <c r="A55" s="311">
+      <c r="A55" s="310">
         <v>53</v>
       </c>
       <c r="B55" s="172" t="s">
@@ -10050,7 +10067,7 @@
       <c r="P55" s="177"/>
     </row>
     <row r="56" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
-      <c r="A56" s="311">
+      <c r="A56" s="310">
         <v>54</v>
       </c>
       <c r="B56" s="172" t="s">
@@ -10087,46 +10104,46 @@
       </c>
       <c r="P56" s="177"/>
     </row>
-    <row r="57" spans="1:16" s="262" customFormat="1" ht="189" hidden="1">
-      <c r="A57" s="311">
+    <row r="57" spans="1:16" s="261" customFormat="1" ht="189" hidden="1">
+      <c r="A57" s="310">
         <v>55</v>
       </c>
-      <c r="B57" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="299" t="s">
+      <c r="B57" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="257">
         <v>42610</v>
       </c>
-      <c r="E57" s="313">
+      <c r="E57" s="312">
         <v>42612</v>
       </c>
-      <c r="F57" s="313" t="s">
-        <v>433</v>
-      </c>
-      <c r="G57" s="305" t="s">
-        <v>434</v>
-      </c>
-      <c r="H57" s="299" t="s">
-        <v>435</v>
-      </c>
-      <c r="I57" s="295" t="s">
-        <v>418</v>
+      <c r="F57" s="312" t="s">
+        <v>430</v>
+      </c>
+      <c r="G57" s="304" t="s">
+        <v>431</v>
+      </c>
+      <c r="H57" s="298" t="s">
+        <v>432</v>
+      </c>
+      <c r="I57" s="294" t="s">
+        <v>415</v>
       </c>
       <c r="J57" s="256"/>
       <c r="K57" s="257">
         <v>42643</v>
       </c>
-      <c r="L57" s="299"/>
-      <c r="M57" s="299"/>
-      <c r="N57" s="299"/>
+      <c r="L57" s="298"/>
+      <c r="M57" s="298"/>
+      <c r="N57" s="298"/>
       <c r="O57" s="257"/>
-      <c r="P57" s="263"/>
+      <c r="P57" s="262"/>
     </row>
     <row r="58" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
-      <c r="A58" s="311">
+      <c r="A58" s="310">
         <v>56</v>
       </c>
       <c r="B58" s="52" t="s">
@@ -10164,7 +10181,7 @@
       <c r="P58" s="58"/>
     </row>
     <row r="59" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
-      <c r="A59" s="311">
+      <c r="A59" s="310">
         <v>57</v>
       </c>
       <c r="B59" s="52" t="s">
@@ -10202,7 +10219,7 @@
       <c r="P59" s="58"/>
     </row>
     <row r="60" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
-      <c r="A60" s="311">
+      <c r="A60" s="310">
         <v>58</v>
       </c>
       <c r="B60" s="172" t="s">
@@ -10241,7 +10258,7 @@
       <c r="P60" s="177"/>
     </row>
     <row r="61" spans="1:16" s="82" customFormat="1" ht="40.5" hidden="1">
-      <c r="A61" s="311">
+      <c r="A61" s="310">
         <v>59</v>
       </c>
       <c r="B61" s="84" t="s">
@@ -10279,7 +10296,7 @@
       <c r="P61" s="168"/>
     </row>
     <row r="62" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
-      <c r="A62" s="311">
+      <c r="A62" s="310">
         <v>60</v>
       </c>
       <c r="B62" s="172" t="s">
@@ -10321,7 +10338,7 @@
       <c r="P62" s="177"/>
     </row>
     <row r="63" spans="1:16" s="72" customFormat="1" hidden="1">
-      <c r="A63" s="311">
+      <c r="A63" s="310">
         <v>61</v>
       </c>
       <c r="B63" s="66" t="s">
@@ -10361,7 +10378,7 @@
       <c r="P63" s="177"/>
     </row>
     <row r="64" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
-      <c r="A64" s="311">
+      <c r="A64" s="310">
         <v>62</v>
       </c>
       <c r="B64" s="172" t="s">
@@ -10405,7 +10422,7 @@
       <c r="P64" s="177"/>
     </row>
     <row r="65" spans="1:16" s="72" customFormat="1" hidden="1">
-      <c r="A65" s="311">
+      <c r="A65" s="310">
         <v>63</v>
       </c>
       <c r="B65" s="66" t="s">
@@ -10445,7 +10462,7 @@
       <c r="P65" s="177"/>
     </row>
     <row r="66" spans="1:16" s="72" customFormat="1" hidden="1">
-      <c r="A66" s="311">
+      <c r="A66" s="310">
         <v>64</v>
       </c>
       <c r="B66" s="66" t="s">
@@ -10485,7 +10502,7 @@
       <c r="P66" s="177"/>
     </row>
     <row r="67" spans="1:16" s="100" customFormat="1" ht="40.5" hidden="1">
-      <c r="A67" s="311">
+      <c r="A67" s="310">
         <v>65</v>
       </c>
       <c r="B67" s="66" t="s">
@@ -10525,7 +10542,7 @@
       <c r="P67" s="177"/>
     </row>
     <row r="68" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
-      <c r="A68" s="311">
+      <c r="A68" s="310">
         <v>66</v>
       </c>
       <c r="B68" s="66" t="s">
@@ -10565,7 +10582,7 @@
       <c r="P68" s="177"/>
     </row>
     <row r="69" spans="1:16" s="72" customFormat="1" hidden="1">
-      <c r="A69" s="311">
+      <c r="A69" s="310">
         <v>67</v>
       </c>
       <c r="B69" s="66" t="s">
@@ -10605,7 +10622,7 @@
       <c r="P69" s="177"/>
     </row>
     <row r="70" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
-      <c r="A70" s="311">
+      <c r="A70" s="310">
         <v>68</v>
       </c>
       <c r="B70" s="172" t="s">
@@ -10649,7 +10666,7 @@
       <c r="P70" s="177"/>
     </row>
     <row r="71" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
-      <c r="A71" s="311">
+      <c r="A71" s="310">
         <v>69</v>
       </c>
       <c r="B71" s="172" t="s">
@@ -10691,7 +10708,7 @@
       <c r="P71" s="177"/>
     </row>
     <row r="72" spans="1:16" s="72" customFormat="1" hidden="1">
-      <c r="A72" s="311">
+      <c r="A72" s="310">
         <v>70</v>
       </c>
       <c r="B72" s="66" t="s">
@@ -10731,7 +10748,7 @@
       <c r="P72" s="177"/>
     </row>
     <row r="73" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
-      <c r="A73" s="311">
+      <c r="A73" s="310">
         <v>71</v>
       </c>
       <c r="B73" s="172" t="s">
@@ -10773,7 +10790,7 @@
       <c r="P73" s="177"/>
     </row>
     <row r="74" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
-      <c r="A74" s="311">
+      <c r="A74" s="310">
         <v>72</v>
       </c>
       <c r="B74" s="172" t="s">
@@ -10815,7 +10832,7 @@
       <c r="P74" s="177"/>
     </row>
     <row r="75" spans="1:16" s="72" customFormat="1" hidden="1">
-      <c r="A75" s="311">
+      <c r="A75" s="310">
         <v>73</v>
       </c>
       <c r="B75" s="66" t="s">
@@ -10854,8 +10871,8 @@
       </c>
       <c r="P75" s="177"/>
     </row>
-    <row r="76" spans="1:16" s="65" customFormat="1" ht="67.5">
-      <c r="A76" s="311">
+    <row r="76" spans="1:16" s="65" customFormat="1" ht="67.5" hidden="1">
+      <c r="A76" s="310">
         <v>74</v>
       </c>
       <c r="B76" s="84" t="s">
@@ -10873,21 +10890,19 @@
       <c r="F76" s="200" t="s">
         <v>277</v>
       </c>
-      <c r="G76" s="302" t="s">
-        <v>455</v>
+      <c r="G76" s="301" t="s">
+        <v>451</v>
       </c>
       <c r="H76" s="87"/>
-      <c r="I76" s="276" t="s">
-        <v>454</v>
-      </c>
+      <c r="I76" s="275"/>
       <c r="J76" s="64"/>
       <c r="K76" s="62"/>
-      <c r="L76" s="276" t="s">
+      <c r="L76" s="275" t="s">
         <v>195</v>
       </c>
       <c r="M76" s="167"/>
-      <c r="N76" s="280" t="s">
-        <v>559</v>
+      <c r="N76" s="279" t="s">
+        <v>555</v>
       </c>
       <c r="O76" s="170">
         <v>42651</v>
@@ -10895,7 +10910,7 @@
       <c r="P76" s="168"/>
     </row>
     <row r="77" spans="1:16" s="59" customFormat="1" ht="40.5" hidden="1">
-      <c r="A77" s="311">
+      <c r="A77" s="310">
         <v>75</v>
       </c>
       <c r="B77" s="52" t="s">
@@ -10933,7 +10948,7 @@
       <c r="P77" s="58"/>
     </row>
     <row r="78" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
-      <c r="A78" s="311">
+      <c r="A78" s="310">
         <v>76</v>
       </c>
       <c r="B78" s="172" t="s">
@@ -10973,7 +10988,7 @@
       <c r="P78" s="177"/>
     </row>
     <row r="79" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
-      <c r="A79" s="311">
+      <c r="A79" s="310">
         <v>77</v>
       </c>
       <c r="B79" s="172" t="s">
@@ -11011,7 +11026,7 @@
       <c r="P79" s="177"/>
     </row>
     <row r="80" spans="1:16" ht="27">
-      <c r="A80" s="311">
+      <c r="A80" s="310">
         <v>78</v>
       </c>
       <c r="B80" s="211" t="s">
@@ -11027,7 +11042,7 @@
         <v>42612</v>
       </c>
       <c r="F80" s="199" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G80" s="210" t="s">
         <v>163</v>
@@ -11044,50 +11059,50 @@
       <c r="O80" s="34"/>
       <c r="P80" s="252"/>
     </row>
-    <row r="81" spans="1:16" s="292" customFormat="1" ht="40.5" hidden="1">
-      <c r="A81" s="284">
+    <row r="81" spans="1:16" s="291" customFormat="1" ht="40.5" hidden="1">
+      <c r="A81" s="283">
         <v>79</v>
       </c>
-      <c r="B81" s="285" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="285" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="286">
+      <c r="B81" s="284" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="284" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="285">
         <v>42610</v>
       </c>
-      <c r="E81" s="287">
+      <c r="E81" s="286">
         <v>42612</v>
       </c>
-      <c r="F81" s="314" t="s">
-        <v>502</v>
-      </c>
-      <c r="G81" s="288" t="s">
-        <v>503</v>
-      </c>
-      <c r="H81" s="289"/>
-      <c r="I81" s="285" t="s">
-        <v>483</v>
-      </c>
-      <c r="J81" s="290"/>
-      <c r="K81" s="286">
+      <c r="F81" s="313" t="s">
+        <v>498</v>
+      </c>
+      <c r="G81" s="287" t="s">
+        <v>499</v>
+      </c>
+      <c r="H81" s="288"/>
+      <c r="I81" s="284" t="s">
+        <v>479</v>
+      </c>
+      <c r="J81" s="289"/>
+      <c r="K81" s="285">
         <v>42643</v>
       </c>
-      <c r="L81" s="285" t="s">
+      <c r="L81" s="284" t="s">
         <v>58</v>
       </c>
-      <c r="M81" s="289"/>
-      <c r="N81" s="289" t="s">
-        <v>504</v>
-      </c>
-      <c r="O81" s="286">
+      <c r="M81" s="288"/>
+      <c r="N81" s="288" t="s">
+        <v>500</v>
+      </c>
+      <c r="O81" s="285">
         <v>42639</v>
       </c>
-      <c r="P81" s="291"/>
+      <c r="P81" s="290"/>
     </row>
     <row r="82" spans="1:16" ht="54">
-      <c r="A82" s="311">
+      <c r="A82" s="310">
         <v>80</v>
       </c>
       <c r="B82" s="211" t="s">
@@ -11119,7 +11134,7 @@
       <c r="P82" s="252"/>
     </row>
     <row r="83" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
-      <c r="A83" s="311">
+      <c r="A83" s="310">
         <v>81</v>
       </c>
       <c r="B83" s="66" t="s">
@@ -11157,7 +11172,7 @@
       <c r="P83" s="177"/>
     </row>
     <row r="84" spans="1:16" s="178" customFormat="1" hidden="1">
-      <c r="A84" s="311">
+      <c r="A84" s="310">
         <v>82</v>
       </c>
       <c r="B84" s="172" t="s">
@@ -11197,7 +11212,7 @@
       <c r="P84" s="177"/>
     </row>
     <row r="85" spans="1:16" s="82" customFormat="1" ht="27" hidden="1">
-      <c r="A85" s="311">
+      <c r="A85" s="310">
         <v>83</v>
       </c>
       <c r="B85" s="84" t="s">
@@ -11218,7 +11233,7 @@
       </c>
       <c r="H85" s="87"/>
       <c r="I85" s="224" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J85" s="71"/>
       <c r="K85" s="67"/>
@@ -11229,7 +11244,7 @@
       <c r="P85" s="168"/>
     </row>
     <row r="86" spans="1:16" s="221" customFormat="1" ht="148.5" hidden="1">
-      <c r="A86" s="311">
+      <c r="A86" s="310">
         <v>84</v>
       </c>
       <c r="B86" s="214" t="s">
@@ -11271,7 +11286,7 @@
       <c r="P86" s="220"/>
     </row>
     <row r="87" spans="1:16" s="221" customFormat="1" ht="189" hidden="1">
-      <c r="A87" s="311">
+      <c r="A87" s="310">
         <v>85</v>
       </c>
       <c r="B87" s="214" t="s">
@@ -11313,7 +11328,7 @@
       <c r="P87" s="220"/>
     </row>
     <row r="88" spans="1:16" ht="40.5">
-      <c r="A88" s="311">
+      <c r="A88" s="310">
         <v>86</v>
       </c>
       <c r="B88" s="211" t="s">
@@ -11329,15 +11344,15 @@
         <v>42616</v>
       </c>
       <c r="F88" s="255" t="s">
-        <v>359</v>
-      </c>
-      <c r="G88" s="315" t="s">
-        <v>460</v>
+        <v>357</v>
+      </c>
+      <c r="G88" s="314" t="s">
+        <v>456</v>
       </c>
       <c r="P88" s="252"/>
     </row>
     <row r="89" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A89" s="311">
+      <c r="A89" s="310">
         <v>87</v>
       </c>
       <c r="B89" s="214" t="s">
@@ -11354,7 +11369,7 @@
       </c>
       <c r="F89" s="216"/>
       <c r="G89" s="217" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H89" s="218" t="s">
         <v>316</v>
@@ -11373,7 +11388,7 @@
       <c r="P89" s="220"/>
     </row>
     <row r="90" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A90" s="311">
+      <c r="A90" s="310">
         <v>88</v>
       </c>
       <c r="B90" s="214" t="s">
@@ -11413,7 +11428,7 @@
       <c r="P90" s="220"/>
     </row>
     <row r="91" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A91" s="311">
+      <c r="A91" s="310">
         <v>89</v>
       </c>
       <c r="B91" s="214" t="s">
@@ -11451,7 +11466,7 @@
       <c r="P91" s="220"/>
     </row>
     <row r="92" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A92" s="311">
+      <c r="A92" s="310">
         <v>90</v>
       </c>
       <c r="B92" s="214" t="s">
@@ -11489,7 +11504,7 @@
       <c r="P92" s="220"/>
     </row>
     <row r="93" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A93" s="311">
+      <c r="A93" s="310">
         <v>91</v>
       </c>
       <c r="B93" s="214" t="s">
@@ -11527,7 +11542,7 @@
       <c r="P93" s="220"/>
     </row>
     <row r="94" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A94" s="311">
+      <c r="A94" s="310">
         <v>92</v>
       </c>
       <c r="B94" s="214" t="s">
@@ -11565,7 +11580,7 @@
       <c r="P94" s="220"/>
     </row>
     <row r="95" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A95" s="311">
+      <c r="A95" s="310">
         <v>93</v>
       </c>
       <c r="B95" s="214" t="s">
@@ -11603,7 +11618,7 @@
       <c r="P95" s="220"/>
     </row>
     <row r="96" spans="1:16" ht="27">
-      <c r="A96" s="311">
+      <c r="A96" s="310">
         <v>94</v>
       </c>
       <c r="B96" s="211" t="s">
@@ -11619,10 +11634,10 @@
         <v>42616</v>
       </c>
       <c r="F96" s="199" t="s">
-        <v>363</v>
-      </c>
-      <c r="G96" s="279" t="s">
-        <v>456</v>
+        <v>361</v>
+      </c>
+      <c r="G96" s="278" t="s">
+        <v>452</v>
       </c>
       <c r="H96" s="211" t="s">
         <v>47</v>
@@ -11636,168 +11651,168 @@
       <c r="O96" s="34"/>
       <c r="P96" s="252"/>
     </row>
-    <row r="97" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
-      <c r="A97" s="311">
+    <row r="97" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
+      <c r="A97" s="310">
         <v>95</v>
       </c>
-      <c r="B97" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="299" t="s">
+      <c r="B97" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="257">
         <v>42616</v>
       </c>
-      <c r="E97" s="313">
+      <c r="E97" s="312">
         <v>42616</v>
       </c>
-      <c r="F97" s="313" t="s">
-        <v>362</v>
-      </c>
-      <c r="G97" s="298" t="s">
-        <v>457</v>
-      </c>
-      <c r="H97" s="299"/>
-      <c r="I97" s="295" t="s">
-        <v>414</v>
-      </c>
-      <c r="J97" s="300"/>
+      <c r="F97" s="312" t="s">
+        <v>360</v>
+      </c>
+      <c r="G97" s="297" t="s">
+        <v>453</v>
+      </c>
+      <c r="H97" s="298"/>
+      <c r="I97" s="294" t="s">
+        <v>411</v>
+      </c>
+      <c r="J97" s="299"/>
       <c r="K97" s="257">
         <v>42643</v>
       </c>
-      <c r="L97" s="299" t="s">
+      <c r="L97" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="M97" s="299"/>
-      <c r="N97" s="299"/>
+      <c r="M97" s="298"/>
+      <c r="N97" s="298"/>
       <c r="O97" s="257">
         <v>42642</v>
       </c>
-      <c r="P97" s="263"/>
-    </row>
-    <row r="98" spans="1:16" s="262" customFormat="1" ht="40.5" hidden="1">
-      <c r="A98" s="311">
+      <c r="P97" s="262"/>
+    </row>
+    <row r="98" spans="1:16" s="261" customFormat="1" ht="40.5" hidden="1">
+      <c r="A98" s="310">
         <v>96</v>
       </c>
-      <c r="B98" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="299" t="s">
+      <c r="B98" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="257">
         <v>42616</v>
       </c>
-      <c r="E98" s="313">
+      <c r="E98" s="312">
         <v>42616</v>
       </c>
-      <c r="F98" s="313" t="s">
-        <v>362</v>
-      </c>
-      <c r="G98" s="298" t="s">
-        <v>461</v>
-      </c>
-      <c r="H98" s="299"/>
-      <c r="I98" s="295" t="s">
+      <c r="F98" s="312" t="s">
+        <v>360</v>
+      </c>
+      <c r="G98" s="297" t="s">
+        <v>457</v>
+      </c>
+      <c r="H98" s="298"/>
+      <c r="I98" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J98" s="300"/>
+      <c r="J98" s="299"/>
       <c r="K98" s="257">
         <v>42643</v>
       </c>
-      <c r="L98" s="299" t="s">
+      <c r="L98" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="M98" s="299"/>
-      <c r="N98" s="299"/>
+      <c r="M98" s="298"/>
+      <c r="N98" s="298"/>
       <c r="O98" s="257">
         <v>42642</v>
       </c>
-      <c r="P98" s="263"/>
-    </row>
-    <row r="99" spans="1:16" s="262" customFormat="1" ht="40.5" hidden="1">
-      <c r="A99" s="311">
+      <c r="P98" s="262"/>
+    </row>
+    <row r="99" spans="1:16" s="261" customFormat="1" ht="40.5" hidden="1">
+      <c r="A99" s="310">
         <v>97</v>
       </c>
-      <c r="B99" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="299" t="s">
+      <c r="B99" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="257">
         <v>42616</v>
       </c>
-      <c r="E99" s="313">
+      <c r="E99" s="312">
         <v>42616</v>
       </c>
-      <c r="F99" s="313" t="s">
-        <v>362</v>
-      </c>
-      <c r="G99" s="298" t="s">
-        <v>462</v>
-      </c>
-      <c r="H99" s="299"/>
-      <c r="I99" s="295" t="s">
+      <c r="F99" s="312" t="s">
+        <v>360</v>
+      </c>
+      <c r="G99" s="297" t="s">
+        <v>458</v>
+      </c>
+      <c r="H99" s="298"/>
+      <c r="I99" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J99" s="300"/>
+      <c r="J99" s="299"/>
       <c r="K99" s="257">
         <v>42643</v>
       </c>
-      <c r="L99" s="299" t="s">
+      <c r="L99" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="M99" s="299"/>
-      <c r="N99" s="299"/>
+      <c r="M99" s="298"/>
+      <c r="N99" s="298"/>
       <c r="O99" s="257">
         <v>42642</v>
       </c>
-      <c r="P99" s="263"/>
-    </row>
-    <row r="100" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A100" s="311">
+      <c r="P99" s="262"/>
+    </row>
+    <row r="100" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A100" s="310">
         <v>98</v>
       </c>
-      <c r="B100" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="296">
+      <c r="B100" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="295">
         <v>42616</v>
       </c>
-      <c r="E100" s="297">
+      <c r="E100" s="296">
         <v>42616</v>
       </c>
-      <c r="F100" s="313" t="s">
-        <v>336</v>
-      </c>
-      <c r="G100" s="298" t="s">
+      <c r="F100" s="312" t="s">
+        <v>335</v>
+      </c>
+      <c r="G100" s="297" t="s">
         <v>167</v>
       </c>
-      <c r="H100" s="299"/>
-      <c r="I100" s="295" t="s">
+      <c r="H100" s="298"/>
+      <c r="I100" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J100" s="300"/>
+      <c r="J100" s="299"/>
       <c r="K100" s="257">
         <v>42643</v>
       </c>
-      <c r="L100" s="295" t="s">
+      <c r="L100" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M100" s="299"/>
-      <c r="N100" s="299" t="s">
+      <c r="M100" s="298"/>
+      <c r="N100" s="298" t="s">
         <v>203</v>
       </c>
-      <c r="O100" s="296"/>
-      <c r="P100" s="304"/>
+      <c r="O100" s="295"/>
+      <c r="P100" s="303"/>
     </row>
     <row r="101" spans="1:16" s="221" customFormat="1" ht="54" hidden="1">
-      <c r="A101" s="311">
+      <c r="A101" s="310">
         <v>99</v>
       </c>
       <c r="B101" s="214" t="s">
@@ -11814,11 +11829,11 @@
       </c>
       <c r="F101" s="216"/>
       <c r="G101" s="229" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H101" s="218"/>
       <c r="I101" s="214" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J101" s="219"/>
       <c r="K101" s="215">
@@ -11831,7 +11846,7 @@
       <c r="P101" s="220"/>
     </row>
     <row r="102" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A102" s="311">
+      <c r="A102" s="310">
         <v>100</v>
       </c>
       <c r="B102" s="214" t="s">
@@ -11869,7 +11884,7 @@
       <c r="P102" s="220"/>
     </row>
     <row r="103" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A103" s="311">
+      <c r="A103" s="310">
         <v>101</v>
       </c>
       <c r="B103" s="214" t="s">
@@ -11907,7 +11922,7 @@
       <c r="P103" s="220"/>
     </row>
     <row r="104" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A104" s="311">
+      <c r="A104" s="310">
         <v>102</v>
       </c>
       <c r="B104" s="214" t="s">
@@ -11945,7 +11960,7 @@
       <c r="P104" s="220"/>
     </row>
     <row r="105" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A105" s="311">
+      <c r="A105" s="310">
         <v>103</v>
       </c>
       <c r="B105" s="214" t="s">
@@ -11987,7 +12002,7 @@
       <c r="P105" s="220"/>
     </row>
     <row r="106" spans="1:16" s="178" customFormat="1" hidden="1">
-      <c r="A106" s="311">
+      <c r="A106" s="310">
         <v>104</v>
       </c>
       <c r="B106" s="172" t="s">
@@ -12025,7 +12040,7 @@
       <c r="P106" s="177"/>
     </row>
     <row r="107" spans="1:16" s="221" customFormat="1" ht="54" hidden="1">
-      <c r="A107" s="311">
+      <c r="A107" s="310">
         <v>105</v>
       </c>
       <c r="B107" s="214" t="s">
@@ -12067,7 +12082,7 @@
       <c r="P107" s="220"/>
     </row>
     <row r="108" spans="1:16" ht="40.5">
-      <c r="A108" s="311">
+      <c r="A108" s="310">
         <v>106</v>
       </c>
       <c r="B108" s="211" t="s">
@@ -12083,7 +12098,7 @@
         <v>42616</v>
       </c>
       <c r="F108" s="199" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G108" s="210" t="s">
         <v>311</v>
@@ -12105,7 +12120,7 @@
       <c r="P108" s="252"/>
     </row>
     <row r="109" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A109" s="311">
+      <c r="A109" s="310">
         <v>107</v>
       </c>
       <c r="B109" s="214" t="s">
@@ -12122,13 +12137,13 @@
       </c>
       <c r="F109" s="216"/>
       <c r="G109" s="217" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H109" s="218" t="s">
         <v>47</v>
       </c>
       <c r="I109" s="214" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J109" s="219"/>
       <c r="K109" s="215">
@@ -12142,52 +12157,52 @@
       </c>
       <c r="P109" s="220"/>
     </row>
-    <row r="110" spans="1:16" s="328" customFormat="1" ht="54" hidden="1">
-      <c r="A110" s="311">
+    <row r="110" spans="1:16" s="327" customFormat="1" ht="54" hidden="1">
+      <c r="A110" s="310">
         <v>108</v>
       </c>
-      <c r="B110" s="289" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" s="289" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="325">
+      <c r="B110" s="288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="288" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="324">
         <v>42616</v>
       </c>
-      <c r="E110" s="330">
+      <c r="E110" s="329">
         <v>42616</v>
       </c>
-      <c r="F110" s="314" t="s">
+      <c r="F110" s="313" t="s">
         <v>308</v>
       </c>
-      <c r="G110" s="331" t="s">
-        <v>465</v>
-      </c>
-      <c r="H110" s="318" t="s">
+      <c r="G110" s="330" t="s">
+        <v>461</v>
+      </c>
+      <c r="H110" s="317" t="s">
         <v>47</v>
       </c>
-      <c r="I110" s="319" t="s">
+      <c r="I110" s="318" t="s">
         <v>40</v>
       </c>
-      <c r="J110" s="320"/>
-      <c r="K110" s="321">
+      <c r="J110" s="319"/>
+      <c r="K110" s="320">
         <v>42643</v>
       </c>
-      <c r="L110" s="322" t="s">
+      <c r="L110" s="321" t="s">
         <v>58</v>
       </c>
-      <c r="M110" s="322"/>
-      <c r="N110" s="322" t="s">
-        <v>408</v>
-      </c>
-      <c r="O110" s="332">
+      <c r="M110" s="321"/>
+      <c r="N110" s="321" t="s">
+        <v>405</v>
+      </c>
+      <c r="O110" s="331">
         <v>42643</v>
       </c>
-      <c r="P110" s="333"/>
+      <c r="P110" s="332"/>
     </row>
     <row r="111" spans="1:16" s="221" customFormat="1" ht="81" hidden="1">
-      <c r="A111" s="311">
+      <c r="A111" s="310">
         <v>109</v>
       </c>
       <c r="B111" s="214" t="s">
@@ -12227,7 +12242,7 @@
       <c r="P111" s="239"/>
     </row>
     <row r="112" spans="1:16" ht="27">
-      <c r="A112" s="311">
+      <c r="A112" s="310">
         <v>110</v>
       </c>
       <c r="B112" s="211" t="s">
@@ -12259,7 +12274,7 @@
       <c r="P112" s="252"/>
     </row>
     <row r="113" spans="1:16" ht="27">
-      <c r="A113" s="311">
+      <c r="A113" s="310">
         <v>111</v>
       </c>
       <c r="B113" s="211" t="s">
@@ -12291,7 +12306,7 @@
       <c r="P113" s="252"/>
     </row>
     <row r="114" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A114" s="311">
+      <c r="A114" s="310">
         <v>112</v>
       </c>
       <c r="B114" s="214" t="s">
@@ -12329,7 +12344,7 @@
       <c r="P114" s="220"/>
     </row>
     <row r="115" spans="1:16" s="221" customFormat="1" ht="81" hidden="1">
-      <c r="A115" s="311">
+      <c r="A115" s="310">
         <v>113</v>
       </c>
       <c r="B115" s="214" t="s">
@@ -12366,8 +12381,8 @@
       </c>
       <c r="P115" s="220"/>
     </row>
-    <row r="116" spans="1:16" ht="40.5">
-      <c r="A116" s="311">
+    <row r="116" spans="1:16" ht="40.5" hidden="1">
+      <c r="A116" s="310">
         <v>114</v>
       </c>
       <c r="B116" s="211" t="s">
@@ -12390,14 +12405,18 @@
       <c r="I116" s="258"/>
       <c r="J116" s="256"/>
       <c r="K116" s="257"/>
-      <c r="L116" s="211"/>
+      <c r="L116" s="279" t="s">
+        <v>561</v>
+      </c>
       <c r="M116" s="211"/>
       <c r="N116" s="211"/>
-      <c r="O116" s="34"/>
+      <c r="O116" s="34">
+        <v>42652</v>
+      </c>
       <c r="P116" s="252"/>
     </row>
     <row r="117" spans="1:16" s="221" customFormat="1" ht="67.5" hidden="1">
-      <c r="A117" s="311">
+      <c r="A117" s="310">
         <v>115</v>
       </c>
       <c r="B117" s="214" t="s">
@@ -12414,11 +12433,11 @@
       </c>
       <c r="F117" s="216"/>
       <c r="G117" s="217" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H117" s="218"/>
       <c r="I117" s="240" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J117" s="219"/>
       <c r="K117" s="215">
@@ -12431,7 +12450,7 @@
       <c r="P117" s="220"/>
     </row>
     <row r="118" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A118" s="311">
+      <c r="A118" s="310">
         <v>116</v>
       </c>
       <c r="B118" s="214" t="s">
@@ -12471,7 +12490,7 @@
       <c r="P118" s="220"/>
     </row>
     <row r="119" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A119" s="311">
+      <c r="A119" s="310">
         <v>117</v>
       </c>
       <c r="B119" s="214" t="s">
@@ -12511,7 +12530,7 @@
       <c r="P119" s="220"/>
     </row>
     <row r="120" spans="1:16" s="221" customFormat="1" ht="94.5" hidden="1">
-      <c r="A120" s="311">
+      <c r="A120" s="310">
         <v>118</v>
       </c>
       <c r="B120" s="214" t="s">
@@ -12549,7 +12568,7 @@
       <c r="P120" s="220"/>
     </row>
     <row r="121" spans="1:16" s="221" customFormat="1" ht="121.5" hidden="1">
-      <c r="A121" s="311">
+      <c r="A121" s="310">
         <v>119</v>
       </c>
       <c r="B121" s="214" t="s">
@@ -12566,7 +12585,7 @@
       </c>
       <c r="F121" s="204"/>
       <c r="G121" s="217" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H121" s="218"/>
       <c r="I121" s="240" t="s">
@@ -12587,7 +12606,7 @@
       <c r="P121" s="220"/>
     </row>
     <row r="122" spans="1:16" s="221" customFormat="1" ht="54" hidden="1">
-      <c r="A122" s="311">
+      <c r="A122" s="310">
         <v>120</v>
       </c>
       <c r="B122" s="214" t="s">
@@ -12627,7 +12646,7 @@
       <c r="P122" s="220"/>
     </row>
     <row r="123" spans="1:16" s="221" customFormat="1" ht="108" hidden="1">
-      <c r="A123" s="311">
+      <c r="A123" s="310">
         <v>121</v>
       </c>
       <c r="B123" s="214" t="s">
@@ -12643,10 +12662,10 @@
         <v>42626</v>
       </c>
       <c r="F123" s="204" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G123" s="217" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H123" s="218"/>
       <c r="I123" s="214" t="s">
@@ -12665,7 +12684,7 @@
       <c r="P123" s="220"/>
     </row>
     <row r="124" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A124" s="311">
+      <c r="A124" s="310">
         <v>122</v>
       </c>
       <c r="B124" s="214" t="s">
@@ -12703,7 +12722,7 @@
       <c r="P124" s="220"/>
     </row>
     <row r="125" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A125" s="311">
+      <c r="A125" s="310">
         <v>123</v>
       </c>
       <c r="B125" s="214" t="s">
@@ -12741,7 +12760,7 @@
       <c r="P125" s="220"/>
     </row>
     <row r="126" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A126" s="311">
+      <c r="A126" s="310">
         <v>124</v>
       </c>
       <c r="B126" s="214" t="s">
@@ -12781,7 +12800,7 @@
       <c r="P126" s="220"/>
     </row>
     <row r="127" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A127" s="311">
+      <c r="A127" s="310">
         <v>125</v>
       </c>
       <c r="B127" s="214" t="s">
@@ -12821,7 +12840,7 @@
       <c r="P127" s="220"/>
     </row>
     <row r="128" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A128" s="311">
+      <c r="A128" s="310">
         <v>126</v>
       </c>
       <c r="B128" s="214" t="s">
@@ -12863,7 +12882,7 @@
       <c r="P128" s="220"/>
     </row>
     <row r="129" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A129" s="311">
+      <c r="A129" s="310">
         <v>127</v>
       </c>
       <c r="B129" s="214" t="s">
@@ -12905,7 +12924,7 @@
       <c r="P129" s="220"/>
     </row>
     <row r="130" spans="1:16" s="221" customFormat="1" ht="81" hidden="1">
-      <c r="A130" s="311">
+      <c r="A130" s="310">
         <v>128</v>
       </c>
       <c r="B130" s="214" t="s">
@@ -12946,52 +12965,52 @@
       </c>
       <c r="P130" s="220"/>
     </row>
-    <row r="131" spans="1:16" s="328" customFormat="1" ht="40.5" hidden="1">
-      <c r="A131" s="284">
+    <row r="131" spans="1:16" s="327" customFormat="1" ht="40.5" hidden="1">
+      <c r="A131" s="283">
         <v>129</v>
       </c>
-      <c r="B131" s="289" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" s="289" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" s="325">
+      <c r="B131" s="288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="288" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="324">
         <v>42625</v>
       </c>
-      <c r="E131" s="314">
+      <c r="E131" s="313">
         <v>42627</v>
       </c>
-      <c r="F131" s="314" t="s">
-        <v>505</v>
-      </c>
-      <c r="G131" s="288" t="s">
-        <v>506</v>
-      </c>
-      <c r="H131" s="289" t="s">
-        <v>435</v>
-      </c>
-      <c r="I131" s="285" t="s">
-        <v>483</v>
-      </c>
-      <c r="J131" s="290"/>
-      <c r="K131" s="286">
+      <c r="F131" s="313" t="s">
+        <v>501</v>
+      </c>
+      <c r="G131" s="287" t="s">
+        <v>502</v>
+      </c>
+      <c r="H131" s="288" t="s">
+        <v>432</v>
+      </c>
+      <c r="I131" s="284" t="s">
+        <v>479</v>
+      </c>
+      <c r="J131" s="289"/>
+      <c r="K131" s="285">
         <v>42643</v>
       </c>
-      <c r="L131" s="289" t="s">
+      <c r="L131" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="M131" s="289"/>
-      <c r="N131" s="289" t="s">
-        <v>507</v>
-      </c>
-      <c r="O131" s="325">
+      <c r="M131" s="288"/>
+      <c r="N131" s="288" t="s">
+        <v>503</v>
+      </c>
+      <c r="O131" s="324">
         <v>42643</v>
       </c>
-      <c r="P131" s="327"/>
-    </row>
-    <row r="132" spans="1:16">
-      <c r="A132" s="311">
+      <c r="P131" s="326"/>
+    </row>
+    <row r="132" spans="1:16" hidden="1">
+      <c r="A132" s="310">
         <v>130</v>
       </c>
       <c r="B132" s="211" t="s">
@@ -13007,7 +13026,7 @@
         <v>42627</v>
       </c>
       <c r="F132" s="225"/>
-      <c r="G132" s="210" t="s">
+      <c r="G132" s="278" t="s">
         <v>161</v>
       </c>
       <c r="H132" s="211" t="s">
@@ -13016,14 +13035,18 @@
       <c r="I132" s="211"/>
       <c r="J132" s="28"/>
       <c r="K132" s="28"/>
-      <c r="L132" s="211"/>
+      <c r="L132" s="279" t="s">
+        <v>58</v>
+      </c>
       <c r="M132" s="211"/>
       <c r="N132" s="211"/>
-      <c r="O132" s="34"/>
+      <c r="O132" s="34">
+        <v>42652</v>
+      </c>
       <c r="P132" s="252"/>
     </row>
     <row r="133" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A133" s="311">
+      <c r="A133" s="310">
         <v>131</v>
       </c>
       <c r="B133" s="214" t="s">
@@ -13062,84 +13085,84 @@
       </c>
       <c r="P133" s="220"/>
     </row>
-    <row r="134" spans="1:16" s="328" customFormat="1" ht="54" hidden="1">
-      <c r="A134" s="311">
+    <row r="134" spans="1:16" s="327" customFormat="1" ht="54" hidden="1">
+      <c r="A134" s="310">
         <v>132</v>
       </c>
-      <c r="B134" s="289" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="289" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" s="325">
+      <c r="B134" s="288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="288" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" s="324">
         <v>42625</v>
       </c>
-      <c r="E134" s="314">
+      <c r="E134" s="313">
         <v>42627</v>
       </c>
-      <c r="F134" s="314"/>
-      <c r="G134" s="288" t="s">
-        <v>468</v>
-      </c>
-      <c r="H134" s="289"/>
-      <c r="I134" s="285" t="s">
+      <c r="F134" s="313"/>
+      <c r="G134" s="287" t="s">
+        <v>464</v>
+      </c>
+      <c r="H134" s="288"/>
+      <c r="I134" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="J134" s="326"/>
-      <c r="K134" s="325">
+      <c r="J134" s="325"/>
+      <c r="K134" s="324">
         <v>42643</v>
       </c>
-      <c r="L134" s="289" t="s">
+      <c r="L134" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="M134" s="289"/>
-      <c r="N134" s="289"/>
-      <c r="O134" s="325">
+      <c r="M134" s="288"/>
+      <c r="N134" s="288"/>
+      <c r="O134" s="324">
         <v>42643</v>
       </c>
-      <c r="P134" s="327"/>
-    </row>
-    <row r="135" spans="1:16" s="328" customFormat="1" ht="40.5" hidden="1">
-      <c r="A135" s="311">
+      <c r="P134" s="326"/>
+    </row>
+    <row r="135" spans="1:16" s="327" customFormat="1" ht="40.5" hidden="1">
+      <c r="A135" s="310">
         <v>133</v>
       </c>
-      <c r="B135" s="289" t="s">
-        <v>19</v>
-      </c>
-      <c r="C135" s="289" t="s">
-        <v>16</v>
-      </c>
-      <c r="D135" s="325">
+      <c r="B135" s="288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="288" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="324">
         <v>42625</v>
       </c>
-      <c r="E135" s="314">
+      <c r="E135" s="313">
         <v>42627</v>
       </c>
-      <c r="F135" s="314"/>
-      <c r="G135" s="288" t="s">
-        <v>467</v>
-      </c>
-      <c r="H135" s="289"/>
-      <c r="I135" s="285" t="s">
+      <c r="F135" s="313"/>
+      <c r="G135" s="287" t="s">
+        <v>463</v>
+      </c>
+      <c r="H135" s="288"/>
+      <c r="I135" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="J135" s="326"/>
-      <c r="K135" s="325">
+      <c r="J135" s="325"/>
+      <c r="K135" s="324">
         <v>42643</v>
       </c>
-      <c r="L135" s="289" t="s">
+      <c r="L135" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="M135" s="289"/>
-      <c r="N135" s="289"/>
-      <c r="O135" s="325">
+      <c r="M135" s="288"/>
+      <c r="N135" s="288"/>
+      <c r="O135" s="324">
         <v>42643</v>
       </c>
-      <c r="P135" s="327"/>
+      <c r="P135" s="326"/>
     </row>
     <row r="136" spans="1:16" ht="81">
-      <c r="A136" s="311">
+      <c r="A136" s="310">
         <v>134</v>
       </c>
       <c r="B136" s="211" t="s">
@@ -13155,10 +13178,10 @@
         <v>42627</v>
       </c>
       <c r="F136" s="225" t="s">
-        <v>471</v>
-      </c>
-      <c r="G136" s="302" t="s">
-        <v>470</v>
+        <v>467</v>
+      </c>
+      <c r="G136" s="301" t="s">
+        <v>466</v>
       </c>
       <c r="H136" s="211" t="s">
         <v>142</v>
@@ -13173,7 +13196,7 @@
       <c r="P136" s="252"/>
     </row>
     <row r="137" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
-      <c r="A137" s="311">
+      <c r="A137" s="310">
         <v>135</v>
       </c>
       <c r="B137" s="214" t="s">
@@ -13190,11 +13213,11 @@
       </c>
       <c r="F137" s="204"/>
       <c r="G137" s="217" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H137" s="218"/>
       <c r="I137" s="214" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J137" s="219"/>
       <c r="K137" s="215">
@@ -13210,50 +13233,50 @@
       </c>
       <c r="P137" s="220"/>
     </row>
-    <row r="138" spans="1:16" s="292" customFormat="1" ht="81" hidden="1">
-      <c r="A138" s="311">
+    <row r="138" spans="1:16" s="291" customFormat="1" ht="81" hidden="1">
+      <c r="A138" s="310">
         <v>136</v>
       </c>
-      <c r="B138" s="285" t="s">
-        <v>19</v>
-      </c>
-      <c r="C138" s="285" t="s">
-        <v>16</v>
-      </c>
-      <c r="D138" s="286">
+      <c r="B138" s="284" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="284" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="285">
         <v>42625</v>
       </c>
-      <c r="E138" s="287">
+      <c r="E138" s="286">
         <v>42630</v>
       </c>
-      <c r="F138" s="287"/>
-      <c r="G138" s="288" t="s">
-        <v>472</v>
-      </c>
-      <c r="H138" s="289" t="s">
+      <c r="F138" s="286"/>
+      <c r="G138" s="287" t="s">
+        <v>468</v>
+      </c>
+      <c r="H138" s="288" t="s">
         <v>47</v>
       </c>
-      <c r="I138" s="285" t="s">
+      <c r="I138" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="J138" s="290"/>
-      <c r="K138" s="286">
+      <c r="J138" s="289"/>
+      <c r="K138" s="285">
         <v>42643</v>
       </c>
-      <c r="L138" s="285" t="s">
+      <c r="L138" s="284" t="s">
         <v>58</v>
       </c>
-      <c r="M138" s="289"/>
-      <c r="N138" s="289" t="s">
-        <v>394</v>
-      </c>
-      <c r="O138" s="286">
+      <c r="M138" s="288"/>
+      <c r="N138" s="288" t="s">
+        <v>392</v>
+      </c>
+      <c r="O138" s="285">
         <v>42642</v>
       </c>
-      <c r="P138" s="291"/>
+      <c r="P138" s="290"/>
     </row>
     <row r="139" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A139" s="311">
+      <c r="A139" s="310">
         <v>137</v>
       </c>
       <c r="B139" s="214" t="s">
@@ -13269,10 +13292,10 @@
         <v>42630</v>
       </c>
       <c r="F139" s="204" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G139" s="217" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H139" s="218"/>
       <c r="I139" s="214" t="s">
@@ -13287,139 +13310,139 @@
       </c>
       <c r="M139" s="218"/>
       <c r="N139" s="218" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O139" s="215">
         <v>42630</v>
       </c>
       <c r="P139" s="220"/>
     </row>
-    <row r="140" spans="1:16" s="292" customFormat="1" ht="54" hidden="1">
-      <c r="A140" s="311">
+    <row r="140" spans="1:16" s="291" customFormat="1" ht="54" hidden="1">
+      <c r="A140" s="310">
         <v>138</v>
       </c>
-      <c r="B140" s="285" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" s="285" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" s="286">
+      <c r="B140" s="284" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="284" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="285">
         <v>42625</v>
       </c>
-      <c r="E140" s="287">
+      <c r="E140" s="286">
         <v>42630</v>
       </c>
-      <c r="F140" s="287"/>
-      <c r="G140" s="316" t="s">
+      <c r="F140" s="286"/>
+      <c r="G140" s="315" t="s">
+        <v>469</v>
+      </c>
+      <c r="H140" s="288"/>
+      <c r="I140" s="284" t="s">
+        <v>40</v>
+      </c>
+      <c r="J140" s="289"/>
+      <c r="K140" s="285">
+        <v>42643</v>
+      </c>
+      <c r="L140" s="284" t="s">
+        <v>58</v>
+      </c>
+      <c r="M140" s="288"/>
+      <c r="N140" s="288" t="s">
+        <v>390</v>
+      </c>
+      <c r="O140" s="285">
+        <v>42641</v>
+      </c>
+      <c r="P140" s="290"/>
+    </row>
+    <row r="141" spans="1:16" s="300" customFormat="1" ht="81" hidden="1">
+      <c r="A141" s="310">
+        <v>139</v>
+      </c>
+      <c r="B141" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="295">
+        <v>42625</v>
+      </c>
+      <c r="E141" s="296">
+        <v>42630</v>
+      </c>
+      <c r="F141" s="296" t="s">
+        <v>470</v>
+      </c>
+      <c r="G141" s="304" t="s">
+        <v>471</v>
+      </c>
+      <c r="H141" s="298" t="s">
+        <v>432</v>
+      </c>
+      <c r="I141" s="284" t="s">
+        <v>40</v>
+      </c>
+      <c r="J141" s="289"/>
+      <c r="K141" s="285">
+        <v>42643</v>
+      </c>
+      <c r="L141" s="294" t="s">
+        <v>58</v>
+      </c>
+      <c r="M141" s="298"/>
+      <c r="N141" s="298" t="s">
+        <v>472</v>
+      </c>
+      <c r="O141" s="295">
+        <v>42641</v>
+      </c>
+      <c r="P141" s="303"/>
+    </row>
+    <row r="142" spans="1:16" s="300" customFormat="1" ht="81" hidden="1">
+      <c r="A142" s="310">
+        <v>140</v>
+      </c>
+      <c r="B142" s="294" t="s">
+        <v>169</v>
+      </c>
+      <c r="C142" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="295">
+        <v>42616</v>
+      </c>
+      <c r="E142" s="296">
+        <v>42631</v>
+      </c>
+      <c r="F142" s="334"/>
+      <c r="G142" s="335" t="s">
         <v>473</v>
       </c>
-      <c r="H140" s="289"/>
-      <c r="I140" s="285" t="s">
+      <c r="H142" s="337"/>
+      <c r="I142" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="J140" s="290"/>
-      <c r="K140" s="286">
+      <c r="J142" s="299"/>
+      <c r="K142" s="295">
         <v>42643</v>
       </c>
-      <c r="L140" s="285" t="s">
+      <c r="L142" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M140" s="289"/>
-      <c r="N140" s="289" t="s">
-        <v>392</v>
-      </c>
-      <c r="O140" s="286">
-        <v>42641</v>
-      </c>
-      <c r="P140" s="291"/>
-    </row>
-    <row r="141" spans="1:16" s="301" customFormat="1" ht="81" hidden="1">
-      <c r="A141" s="311">
-        <v>139</v>
-      </c>
-      <c r="B141" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D141" s="296">
-        <v>42625</v>
-      </c>
-      <c r="E141" s="297">
-        <v>42630</v>
-      </c>
-      <c r="F141" s="297" t="s">
-        <v>474</v>
-      </c>
-      <c r="G141" s="305" t="s">
-        <v>475</v>
-      </c>
-      <c r="H141" s="299" t="s">
-        <v>435</v>
-      </c>
-      <c r="I141" s="285" t="s">
-        <v>40</v>
-      </c>
-      <c r="J141" s="290"/>
-      <c r="K141" s="286">
-        <v>42643</v>
-      </c>
-      <c r="L141" s="295" t="s">
-        <v>58</v>
-      </c>
-      <c r="M141" s="299"/>
-      <c r="N141" s="299" t="s">
-        <v>476</v>
-      </c>
-      <c r="O141" s="296">
-        <v>42641</v>
-      </c>
-      <c r="P141" s="304"/>
-    </row>
-    <row r="142" spans="1:16" s="301" customFormat="1" ht="81" hidden="1">
-      <c r="A142" s="311">
-        <v>140</v>
-      </c>
-      <c r="B142" s="295" t="s">
-        <v>169</v>
-      </c>
-      <c r="C142" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D142" s="296">
-        <v>42616</v>
-      </c>
-      <c r="E142" s="297">
-        <v>42631</v>
-      </c>
-      <c r="F142" s="335"/>
-      <c r="G142" s="336" t="s">
-        <v>477</v>
-      </c>
-      <c r="H142" s="338"/>
-      <c r="I142" s="295" t="s">
-        <v>40</v>
-      </c>
-      <c r="J142" s="300"/>
-      <c r="K142" s="296">
-        <v>42643</v>
-      </c>
-      <c r="L142" s="295" t="s">
-        <v>58</v>
-      </c>
-      <c r="O142" s="337">
+      <c r="O142" s="336">
         <v>42639</v>
       </c>
-      <c r="P142" s="304"/>
+      <c r="P142" s="303"/>
     </row>
     <row r="143" spans="1:16" s="221" customFormat="1" hidden="1">
-      <c r="A143" s="311">
+      <c r="A143" s="310">
         <v>141</v>
       </c>
       <c r="B143" s="214" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C143" s="214" t="s">
         <v>16</v>
@@ -13432,7 +13455,7 @@
       </c>
       <c r="F143" s="242"/>
       <c r="G143" s="243" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I143" s="221" t="s">
         <v>313</v>
@@ -13443,7 +13466,7 @@
       <c r="P143" s="220"/>
     </row>
     <row r="144" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A144" s="311">
+      <c r="A144" s="310">
         <v>142</v>
       </c>
       <c r="B144" s="214" t="s">
@@ -13460,10 +13483,10 @@
       </c>
       <c r="F144" s="242"/>
       <c r="G144" s="245" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I144" s="221" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K144" s="244">
         <v>42634</v>
@@ -13471,7 +13494,7 @@
       <c r="P144" s="220"/>
     </row>
     <row r="145" spans="1:16" s="221" customFormat="1" ht="27" hidden="1">
-      <c r="A145" s="311">
+      <c r="A145" s="310">
         <v>143</v>
       </c>
       <c r="B145" s="214" t="s">
@@ -13488,10 +13511,10 @@
       </c>
       <c r="F145" s="242"/>
       <c r="G145" s="245" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I145" s="221" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K145" s="244">
         <v>42634</v>
@@ -13499,7 +13522,7 @@
       <c r="P145" s="220"/>
     </row>
     <row r="146" spans="1:16" ht="27">
-      <c r="A146" s="311">
+      <c r="A146" s="310">
         <v>144</v>
       </c>
       <c r="B146" s="211" t="s">
@@ -13515,15 +13538,15 @@
         <v>42633</v>
       </c>
       <c r="F146" s="260" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G146" s="185" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P146" s="252"/>
     </row>
     <row r="147" spans="1:16">
-      <c r="A147" s="311">
+      <c r="A147" s="310">
         <v>145</v>
       </c>
       <c r="B147" s="211" t="s">
@@ -13539,93 +13562,93 @@
         <v>42633</v>
       </c>
       <c r="F147" s="260" t="s">
-        <v>378</v>
-      </c>
-      <c r="G147" s="309" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="G147" s="308" t="s">
+        <v>373</v>
       </c>
       <c r="P147" s="252"/>
     </row>
-    <row r="148" spans="1:16" s="262" customFormat="1" ht="67.5" hidden="1">
-      <c r="A148" s="311">
+    <row r="148" spans="1:16" s="261" customFormat="1" ht="67.5" hidden="1">
+      <c r="A148" s="310">
         <v>146</v>
       </c>
-      <c r="B148" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C148" s="299" t="s">
+      <c r="B148" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D148" s="257">
         <v>42632</v>
       </c>
-      <c r="E148" s="334">
+      <c r="E148" s="333">
         <v>42633</v>
       </c>
-      <c r="F148" s="339" t="s">
-        <v>376</v>
-      </c>
-      <c r="G148" s="340" t="s">
-        <v>478</v>
-      </c>
-      <c r="I148" s="301" t="s">
-        <v>479</v>
-      </c>
-      <c r="K148" s="341">
+      <c r="F148" s="338" t="s">
+        <v>374</v>
+      </c>
+      <c r="G148" s="339" t="s">
+        <v>474</v>
+      </c>
+      <c r="I148" s="300" t="s">
+        <v>475</v>
+      </c>
+      <c r="K148" s="340">
         <v>42643</v>
       </c>
-      <c r="L148" s="262" t="s">
+      <c r="L148" s="261" t="s">
         <v>59</v>
       </c>
-      <c r="N148" s="262" t="s">
-        <v>397</v>
-      </c>
-      <c r="O148" s="341">
+      <c r="N148" s="261" t="s">
+        <v>394</v>
+      </c>
+      <c r="O148" s="340">
         <v>42642</v>
       </c>
-      <c r="P148" s="263"/>
-    </row>
-    <row r="149" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A149" s="358">
+      <c r="P148" s="262"/>
+    </row>
+    <row r="149" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A149" s="357">
         <v>147</v>
       </c>
-      <c r="B149" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C149" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" s="296">
+      <c r="B149" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="295">
         <v>42632</v>
       </c>
-      <c r="E149" s="359">
+      <c r="E149" s="358">
         <v>42633</v>
       </c>
-      <c r="F149" s="339" t="s">
-        <v>529</v>
-      </c>
-      <c r="G149" s="340" t="s">
+      <c r="F149" s="338" t="s">
         <v>525</v>
       </c>
-      <c r="I149" s="301" t="s">
-        <v>524</v>
-      </c>
-      <c r="K149" s="337">
+      <c r="G149" s="339" t="s">
+        <v>521</v>
+      </c>
+      <c r="I149" s="300" t="s">
+        <v>520</v>
+      </c>
+      <c r="K149" s="336">
         <v>42643</v>
       </c>
-      <c r="L149" s="301" t="s">
-        <v>526</v>
-      </c>
-      <c r="N149" s="301" t="s">
-        <v>527</v>
-      </c>
-      <c r="O149" s="337">
+      <c r="L149" s="300" t="s">
+        <v>522</v>
+      </c>
+      <c r="N149" s="300" t="s">
+        <v>523</v>
+      </c>
+      <c r="O149" s="336">
         <v>42641</v>
       </c>
-      <c r="P149" s="304"/>
-    </row>
-    <row r="150" spans="1:16" ht="40.5">
-      <c r="A150" s="311">
+      <c r="P149" s="303"/>
+    </row>
+    <row r="150" spans="1:16" ht="40.5" hidden="1">
+      <c r="A150" s="310">
         <v>148</v>
       </c>
       <c r="B150" s="211" t="s">
@@ -13641,113 +13664,111 @@
         <v>42633</v>
       </c>
       <c r="F150" s="260" t="s">
-        <v>528</v>
-      </c>
-      <c r="G150" s="310" t="s">
-        <v>482</v>
-      </c>
-      <c r="I150" s="273" t="s">
-        <v>454</v>
-      </c>
-      <c r="L150" s="195" t="s">
-        <v>395</v>
+        <v>524</v>
+      </c>
+      <c r="G150" s="309" t="s">
+        <v>478</v>
+      </c>
+      <c r="I150" s="272"/>
+      <c r="L150" s="272" t="s">
+        <v>59</v>
       </c>
       <c r="N150" s="195" t="s">
-        <v>396</v>
-      </c>
-      <c r="O150" s="261">
-        <v>42642</v>
+        <v>393</v>
+      </c>
+      <c r="O150" s="276">
+        <v>42652</v>
       </c>
       <c r="P150" s="252"/>
     </row>
-    <row r="151" spans="1:16" s="301" customFormat="1" hidden="1">
-      <c r="A151" s="311">
+    <row r="151" spans="1:16" s="300" customFormat="1" hidden="1">
+      <c r="A151" s="310">
         <v>149</v>
       </c>
-      <c r="B151" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D151" s="296">
+      <c r="B151" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="295">
         <v>42634</v>
       </c>
-      <c r="E151" s="297">
+      <c r="E151" s="296">
         <v>42636</v>
       </c>
-      <c r="F151" s="313" t="s">
+      <c r="F151" s="312" t="s">
         <v>236</v>
       </c>
-      <c r="G151" s="298" t="s">
+      <c r="G151" s="297" t="s">
         <v>238</v>
       </c>
-      <c r="H151" s="299" t="s">
+      <c r="H151" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I151" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J151" s="300"/>
-      <c r="K151" s="296">
+      <c r="I151" s="294" t="s">
+        <v>480</v>
+      </c>
+      <c r="J151" s="299"/>
+      <c r="K151" s="295">
         <v>42643</v>
       </c>
-      <c r="L151" s="295" t="s">
+      <c r="L151" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M151" s="299"/>
-      <c r="N151" s="299"/>
-      <c r="O151" s="296">
+      <c r="M151" s="298"/>
+      <c r="N151" s="298"/>
+      <c r="O151" s="295">
         <v>42637</v>
       </c>
-      <c r="P151" s="304"/>
-    </row>
-    <row r="152" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
-      <c r="A152" s="311">
+      <c r="P151" s="303"/>
+    </row>
+    <row r="152" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
+      <c r="A152" s="310">
         <v>150</v>
       </c>
-      <c r="B152" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C152" s="299" t="s">
+      <c r="B152" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D152" s="257">
         <v>42634</v>
       </c>
-      <c r="E152" s="313">
+      <c r="E152" s="312">
         <v>42636</v>
       </c>
-      <c r="F152" s="313" t="s">
+      <c r="F152" s="312" t="s">
         <v>236</v>
       </c>
-      <c r="G152" s="298" t="s">
+      <c r="G152" s="297" t="s">
         <v>239</v>
       </c>
-      <c r="H152" s="299" t="s">
+      <c r="H152" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I152" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J152" s="300"/>
-      <c r="K152" s="296">
+      <c r="I152" s="294" t="s">
+        <v>480</v>
+      </c>
+      <c r="J152" s="299"/>
+      <c r="K152" s="295">
         <v>42643</v>
       </c>
-      <c r="L152" s="299" t="s">
+      <c r="L152" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="M152" s="299"/>
-      <c r="N152" s="299" t="s">
-        <v>407</v>
+      <c r="M152" s="298"/>
+      <c r="N152" s="298" t="s">
+        <v>404</v>
       </c>
       <c r="O152" s="257">
         <v>42643</v>
       </c>
-      <c r="P152" s="263"/>
+      <c r="P152" s="262"/>
     </row>
     <row r="153" spans="1:16" ht="40.5">
-      <c r="A153" s="311">
+      <c r="A153" s="310">
         <v>151</v>
       </c>
       <c r="B153" s="211" t="s">
@@ -13780,178 +13801,178 @@
       <c r="O153" s="34"/>
       <c r="P153" s="252"/>
     </row>
-    <row r="154" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
-      <c r="A154" s="311">
+    <row r="154" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
+      <c r="A154" s="310">
         <v>152</v>
       </c>
-      <c r="B154" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" s="299" t="s">
+      <c r="B154" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D154" s="257">
         <v>42634</v>
       </c>
-      <c r="E154" s="313">
+      <c r="E154" s="312">
         <v>42636</v>
       </c>
-      <c r="F154" s="313" t="s">
+      <c r="F154" s="312" t="s">
         <v>236</v>
       </c>
-      <c r="G154" s="305" t="s">
+      <c r="G154" s="304" t="s">
         <v>290</v>
       </c>
-      <c r="H154" s="299" t="s">
+      <c r="H154" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I154" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J154" s="300"/>
-      <c r="K154" s="296">
+      <c r="I154" s="294" t="s">
+        <v>480</v>
+      </c>
+      <c r="J154" s="299"/>
+      <c r="K154" s="295">
         <v>42643</v>
       </c>
-      <c r="L154" s="299" t="s">
+      <c r="L154" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="M154" s="299"/>
-      <c r="N154" s="299" t="s">
-        <v>405</v>
+      <c r="M154" s="298"/>
+      <c r="N154" s="298" t="s">
+        <v>402</v>
       </c>
       <c r="O154" s="257">
         <v>42643</v>
       </c>
-      <c r="P154" s="263"/>
-    </row>
-    <row r="155" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
-      <c r="A155" s="311">
+      <c r="P154" s="262"/>
+    </row>
+    <row r="155" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
+      <c r="A155" s="310">
         <v>153</v>
       </c>
-      <c r="B155" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="299" t="s">
+      <c r="B155" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D155" s="257">
         <v>42634</v>
       </c>
-      <c r="E155" s="313">
+      <c r="E155" s="312">
         <v>42636</v>
       </c>
-      <c r="F155" s="313" t="s">
+      <c r="F155" s="312" t="s">
         <v>294</v>
       </c>
-      <c r="G155" s="342" t="s">
-        <v>487</v>
-      </c>
-      <c r="H155" s="299"/>
-      <c r="I155" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J155" s="300"/>
-      <c r="K155" s="296">
+      <c r="G155" s="341" t="s">
+        <v>483</v>
+      </c>
+      <c r="H155" s="298"/>
+      <c r="I155" s="294" t="s">
+        <v>480</v>
+      </c>
+      <c r="J155" s="299"/>
+      <c r="K155" s="295">
         <v>42643</v>
       </c>
-      <c r="L155" s="299" t="s">
+      <c r="L155" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="M155" s="299"/>
-      <c r="N155" s="299" t="s">
-        <v>406</v>
+      <c r="M155" s="298"/>
+      <c r="N155" s="298" t="s">
+        <v>403</v>
       </c>
       <c r="O155" s="257">
         <v>42643</v>
       </c>
-      <c r="P155" s="263"/>
-    </row>
-    <row r="156" spans="1:16" s="301" customFormat="1" hidden="1">
-      <c r="A156" s="311">
+      <c r="P155" s="262"/>
+    </row>
+    <row r="156" spans="1:16" s="300" customFormat="1" hidden="1">
+      <c r="A156" s="310">
         <v>154</v>
       </c>
-      <c r="B156" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C156" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D156" s="296">
+      <c r="B156" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="295">
         <v>42634</v>
       </c>
-      <c r="E156" s="297">
+      <c r="E156" s="296">
         <v>42636</v>
       </c>
-      <c r="F156" s="313" t="s">
+      <c r="F156" s="312" t="s">
         <v>247</v>
       </c>
-      <c r="G156" s="305" t="s">
+      <c r="G156" s="304" t="s">
         <v>248</v>
       </c>
-      <c r="H156" s="299" t="s">
+      <c r="H156" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I156" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J156" s="300"/>
-      <c r="K156" s="296">
+      <c r="I156" s="294" t="s">
+        <v>480</v>
+      </c>
+      <c r="J156" s="299"/>
+      <c r="K156" s="295">
         <v>42643</v>
       </c>
-      <c r="L156" s="295" t="s">
+      <c r="L156" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M156" s="299"/>
-      <c r="N156" s="299"/>
-      <c r="O156" s="296">
+      <c r="M156" s="298"/>
+      <c r="N156" s="298"/>
+      <c r="O156" s="295">
         <v>42637</v>
       </c>
-      <c r="P156" s="304"/>
-    </row>
-    <row r="157" spans="1:16" s="262" customFormat="1" ht="54" hidden="1">
-      <c r="A157" s="311">
+      <c r="P156" s="303"/>
+    </row>
+    <row r="157" spans="1:16" s="261" customFormat="1" ht="54" hidden="1">
+      <c r="A157" s="310">
         <v>155</v>
       </c>
-      <c r="B157" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="299" t="s">
+      <c r="B157" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="257">
         <v>42634</v>
       </c>
-      <c r="E157" s="313">
+      <c r="E157" s="312">
         <v>42636</v>
       </c>
-      <c r="F157" s="313" t="s">
+      <c r="F157" s="312" t="s">
         <v>250</v>
       </c>
-      <c r="G157" s="298" t="s">
-        <v>489</v>
-      </c>
-      <c r="H157" s="299"/>
-      <c r="I157" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J157" s="300"/>
-      <c r="K157" s="296">
+      <c r="G157" s="297" t="s">
+        <v>485</v>
+      </c>
+      <c r="H157" s="298"/>
+      <c r="I157" s="294" t="s">
+        <v>480</v>
+      </c>
+      <c r="J157" s="299"/>
+      <c r="K157" s="295">
         <v>42643</v>
       </c>
-      <c r="L157" s="299" t="s">
+      <c r="L157" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="M157" s="299"/>
-      <c r="N157" s="299" t="s">
-        <v>404</v>
+      <c r="M157" s="298"/>
+      <c r="N157" s="298" t="s">
+        <v>401</v>
       </c>
       <c r="O157" s="257">
         <v>42643</v>
       </c>
-      <c r="P157" s="263"/>
+      <c r="P157" s="262"/>
     </row>
     <row r="158" spans="1:16" ht="27" hidden="1">
-      <c r="A158" s="311">
+      <c r="A158" s="310">
         <v>156</v>
       </c>
       <c r="B158" s="211" t="s">
@@ -13975,8 +13996,8 @@
       <c r="H158" s="211" t="s">
         <v>237</v>
       </c>
-      <c r="I158" s="280" t="s">
-        <v>490</v>
+      <c r="I158" s="279" t="s">
+        <v>486</v>
       </c>
       <c r="J158" s="28"/>
       <c r="K158" s="28"/>
@@ -13985,227 +14006,227 @@
       </c>
       <c r="M158" s="211"/>
       <c r="N158" s="211" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="O158" s="34">
         <v>42643</v>
       </c>
       <c r="P158" s="252"/>
     </row>
-    <row r="159" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
-      <c r="A159" s="311">
+    <row r="159" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
+      <c r="A159" s="310">
         <v>157</v>
       </c>
-      <c r="B159" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" s="299" t="s">
+      <c r="B159" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D159" s="257">
         <v>42634</v>
       </c>
-      <c r="E159" s="313">
+      <c r="E159" s="312">
         <v>42636</v>
       </c>
-      <c r="F159" s="313" t="s">
+      <c r="F159" s="312" t="s">
         <v>250</v>
       </c>
-      <c r="G159" s="298" t="s">
+      <c r="G159" s="297" t="s">
         <v>252</v>
       </c>
-      <c r="H159" s="299" t="s">
+      <c r="H159" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I159" s="295" t="s">
-        <v>491</v>
-      </c>
-      <c r="J159" s="300"/>
-      <c r="K159" s="296">
+      <c r="I159" s="294" t="s">
+        <v>487</v>
+      </c>
+      <c r="J159" s="299"/>
+      <c r="K159" s="295">
         <v>42643</v>
       </c>
-      <c r="L159" s="299" t="s">
-        <v>398</v>
-      </c>
-      <c r="M159" s="299"/>
-      <c r="N159" s="299" t="s">
-        <v>402</v>
+      <c r="L159" s="298" t="s">
+        <v>395</v>
+      </c>
+      <c r="M159" s="298"/>
+      <c r="N159" s="298" t="s">
+        <v>399</v>
       </c>
       <c r="O159" s="257">
         <v>42643</v>
       </c>
-      <c r="P159" s="263"/>
-    </row>
-    <row r="160" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A160" s="311">
+      <c r="P159" s="262"/>
+    </row>
+    <row r="160" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A160" s="310">
         <v>158</v>
       </c>
-      <c r="B160" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" s="296">
+      <c r="B160" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="295">
         <v>42634</v>
       </c>
-      <c r="E160" s="297">
+      <c r="E160" s="296">
         <v>42636</v>
       </c>
-      <c r="F160" s="313" t="s">
+      <c r="F160" s="312" t="s">
         <v>256</v>
       </c>
-      <c r="G160" s="305" t="s">
-        <v>492</v>
-      </c>
-      <c r="H160" s="299" t="s">
+      <c r="G160" s="304" t="s">
+        <v>488</v>
+      </c>
+      <c r="H160" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I160" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J160" s="300"/>
-      <c r="K160" s="296">
+      <c r="I160" s="294" t="s">
+        <v>480</v>
+      </c>
+      <c r="J160" s="299"/>
+      <c r="K160" s="295">
         <v>42643</v>
       </c>
-      <c r="L160" s="295" t="s">
+      <c r="L160" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M160" s="299"/>
-      <c r="N160" s="299"/>
-      <c r="O160" s="296">
+      <c r="M160" s="298"/>
+      <c r="N160" s="298"/>
+      <c r="O160" s="295">
         <v>42641</v>
       </c>
-      <c r="P160" s="304"/>
-    </row>
-    <row r="161" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A161" s="311">
+      <c r="P160" s="303"/>
+    </row>
+    <row r="161" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A161" s="310">
         <v>159</v>
       </c>
-      <c r="B161" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" s="296">
+      <c r="B161" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="295">
         <v>42634</v>
       </c>
-      <c r="E161" s="297">
+      <c r="E161" s="296">
         <v>42636</v>
       </c>
-      <c r="F161" s="313" t="s">
+      <c r="F161" s="312" t="s">
         <v>257</v>
       </c>
-      <c r="G161" s="298" t="s">
+      <c r="G161" s="297" t="s">
         <v>261</v>
       </c>
-      <c r="H161" s="299"/>
-      <c r="I161" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J161" s="300"/>
-      <c r="K161" s="296">
+      <c r="H161" s="298"/>
+      <c r="I161" s="294" t="s">
+        <v>480</v>
+      </c>
+      <c r="J161" s="299"/>
+      <c r="K161" s="295">
         <v>42643</v>
       </c>
-      <c r="L161" s="295" t="s">
+      <c r="L161" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M161" s="299"/>
-      <c r="N161" s="299"/>
-      <c r="O161" s="296">
+      <c r="M161" s="298"/>
+      <c r="N161" s="298"/>
+      <c r="O161" s="295">
         <v>42641</v>
       </c>
-      <c r="P161" s="304"/>
-    </row>
-    <row r="162" spans="1:16" s="301" customFormat="1" hidden="1">
-      <c r="A162" s="311">
+      <c r="P161" s="303"/>
+    </row>
+    <row r="162" spans="1:16" s="300" customFormat="1" hidden="1">
+      <c r="A162" s="310">
         <v>160</v>
       </c>
-      <c r="B162" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C162" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" s="296">
+      <c r="B162" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="295">
         <v>42634</v>
       </c>
-      <c r="E162" s="297">
+      <c r="E162" s="296">
         <v>42636</v>
       </c>
-      <c r="F162" s="313" t="s">
-        <v>332</v>
-      </c>
-      <c r="G162" s="343" t="s">
-        <v>493</v>
-      </c>
-      <c r="H162" s="299" t="s">
+      <c r="F162" s="312" t="s">
+        <v>331</v>
+      </c>
+      <c r="G162" s="342" t="s">
+        <v>489</v>
+      </c>
+      <c r="H162" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I162" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J162" s="300"/>
-      <c r="K162" s="296">
+      <c r="I162" s="294" t="s">
+        <v>480</v>
+      </c>
+      <c r="J162" s="299"/>
+      <c r="K162" s="295">
         <v>42643</v>
       </c>
-      <c r="L162" s="295" t="s">
+      <c r="L162" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="M162" s="299"/>
-      <c r="N162" s="299"/>
-      <c r="O162" s="296">
+      <c r="M162" s="298"/>
+      <c r="N162" s="298"/>
+      <c r="O162" s="295">
         <v>42637</v>
       </c>
-      <c r="P162" s="304"/>
-    </row>
-    <row r="163" spans="1:16" s="262" customFormat="1" ht="27" hidden="1">
-      <c r="A163" s="311">
+      <c r="P162" s="303"/>
+    </row>
+    <row r="163" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
+      <c r="A163" s="310">
         <v>161</v>
       </c>
-      <c r="B163" s="299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C163" s="299" t="s">
+      <c r="B163" s="298" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D163" s="257">
         <v>42634</v>
       </c>
-      <c r="E163" s="313">
+      <c r="E163" s="312">
         <v>42636</v>
       </c>
-      <c r="F163" s="313" t="s">
+      <c r="F163" s="312" t="s">
         <v>303</v>
       </c>
-      <c r="G163" s="342" t="s">
-        <v>361</v>
-      </c>
-      <c r="H163" s="299" t="s">
+      <c r="G163" s="341" t="s">
+        <v>359</v>
+      </c>
+      <c r="H163" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="I163" s="295" t="s">
-        <v>491</v>
-      </c>
-      <c r="J163" s="300"/>
-      <c r="K163" s="296">
+      <c r="I163" s="294" t="s">
+        <v>487</v>
+      </c>
+      <c r="J163" s="299"/>
+      <c r="K163" s="295">
         <v>42643</v>
       </c>
-      <c r="L163" s="299" t="s">
-        <v>398</v>
-      </c>
-      <c r="M163" s="299"/>
-      <c r="N163" s="299" t="s">
-        <v>399</v>
+      <c r="L163" s="298" t="s">
+        <v>395</v>
+      </c>
+      <c r="M163" s="298"/>
+      <c r="N163" s="298" t="s">
+        <v>396</v>
       </c>
       <c r="O163" s="257">
         <v>42643</v>
       </c>
-      <c r="P163" s="263"/>
+      <c r="P163" s="262"/>
     </row>
     <row r="164" spans="1:16" ht="27">
-      <c r="A164" s="311">
+      <c r="A164" s="310">
         <v>162</v>
       </c>
       <c r="B164" s="211" t="s">
@@ -14223,8 +14244,8 @@
       <c r="F164" s="225" t="s">
         <v>303</v>
       </c>
-      <c r="G164" s="315" t="s">
-        <v>494</v>
+      <c r="G164" s="314" t="s">
+        <v>490</v>
       </c>
       <c r="H164" s="211" t="s">
         <v>47</v>
@@ -14238,8 +14259,8 @@
       <c r="O164" s="34"/>
       <c r="P164" s="252"/>
     </row>
-    <row r="165" spans="1:16" s="207" customFormat="1" ht="27">
-      <c r="A165" s="311">
+    <row r="165" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">
+      <c r="A165" s="310">
         <v>163</v>
       </c>
       <c r="B165" s="208" t="s">
@@ -14257,115 +14278,113 @@
       <c r="F165" s="225" t="s">
         <v>304</v>
       </c>
-      <c r="G165" s="317" t="s">
-        <v>495</v>
+      <c r="G165" s="316" t="s">
+        <v>491</v>
       </c>
       <c r="H165" s="211"/>
-      <c r="I165" s="276" t="s">
-        <v>454</v>
-      </c>
+      <c r="I165" s="275"/>
       <c r="J165" s="212"/>
       <c r="K165" s="212"/>
       <c r="L165" s="208" t="s">
         <v>58</v>
       </c>
       <c r="M165" s="211"/>
-      <c r="N165" s="280" t="s">
-        <v>560</v>
+      <c r="N165" s="279" t="s">
+        <v>556</v>
       </c>
       <c r="O165" s="209">
         <v>42651</v>
       </c>
       <c r="P165" s="213"/>
     </row>
-    <row r="166" spans="1:16" s="328" customFormat="1" hidden="1">
-      <c r="A166" s="311">
+    <row r="166" spans="1:16" s="327" customFormat="1" hidden="1">
+      <c r="A166" s="310">
         <v>164</v>
       </c>
-      <c r="B166" s="289" t="s">
-        <v>19</v>
-      </c>
-      <c r="C166" s="289" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166" s="325">
+      <c r="B166" s="288" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="288" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="324">
         <v>42634</v>
       </c>
-      <c r="E166" s="314">
+      <c r="E166" s="313">
         <v>42636</v>
       </c>
-      <c r="F166" s="314" t="s">
+      <c r="F166" s="313" t="s">
         <v>306</v>
       </c>
-      <c r="G166" s="344" t="s">
+      <c r="G166" s="343" t="s">
         <v>307</v>
       </c>
-      <c r="H166" s="289" t="s">
+      <c r="H166" s="288" t="s">
         <v>47</v>
       </c>
-      <c r="I166" s="285" t="s">
-        <v>484</v>
-      </c>
-      <c r="J166" s="290"/>
-      <c r="K166" s="286">
+      <c r="I166" s="284" t="s">
+        <v>480</v>
+      </c>
+      <c r="J166" s="289"/>
+      <c r="K166" s="285">
         <v>42643</v>
       </c>
-      <c r="L166" s="289" t="s">
+      <c r="L166" s="288" t="s">
         <v>58</v>
       </c>
-      <c r="M166" s="289"/>
-      <c r="N166" s="289" t="s">
-        <v>403</v>
-      </c>
-      <c r="O166" s="325">
+      <c r="M166" s="288"/>
+      <c r="N166" s="288" t="s">
+        <v>400</v>
+      </c>
+      <c r="O166" s="324">
         <v>42643</v>
       </c>
-      <c r="P166" s="327"/>
-    </row>
-    <row r="167" spans="1:16" s="292" customFormat="1" ht="27" hidden="1">
-      <c r="A167" s="311">
+      <c r="P166" s="326"/>
+    </row>
+    <row r="167" spans="1:16" s="291" customFormat="1" ht="27" hidden="1">
+      <c r="A167" s="310">
         <v>165</v>
       </c>
-      <c r="B167" s="285" t="s">
-        <v>19</v>
-      </c>
-      <c r="C167" s="285" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" s="286">
+      <c r="B167" s="284" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="284" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" s="285">
         <v>42634</v>
       </c>
-      <c r="E167" s="287">
+      <c r="E167" s="286">
         <v>42636</v>
       </c>
-      <c r="F167" s="314" t="s">
+      <c r="F167" s="313" t="s">
         <v>306</v>
       </c>
-      <c r="G167" s="344" t="s">
+      <c r="G167" s="343" t="s">
         <v>310</v>
       </c>
-      <c r="H167" s="289" t="s">
+      <c r="H167" s="288" t="s">
         <v>47</v>
       </c>
-      <c r="I167" s="285" t="s">
-        <v>484</v>
-      </c>
-      <c r="J167" s="290"/>
-      <c r="K167" s="286">
+      <c r="I167" s="284" t="s">
+        <v>480</v>
+      </c>
+      <c r="J167" s="289"/>
+      <c r="K167" s="285">
         <v>42643</v>
       </c>
-      <c r="L167" s="285" t="s">
+      <c r="L167" s="284" t="s">
         <v>58</v>
       </c>
-      <c r="M167" s="289"/>
-      <c r="N167" s="289"/>
-      <c r="O167" s="286">
+      <c r="M167" s="288"/>
+      <c r="N167" s="288"/>
+      <c r="O167" s="285">
         <v>42637</v>
       </c>
-      <c r="P167" s="291"/>
-    </row>
-    <row r="168" spans="1:16" s="207" customFormat="1" ht="54">
-      <c r="A168" s="311">
+      <c r="P167" s="290"/>
+    </row>
+    <row r="168" spans="1:16" s="207" customFormat="1" ht="54" hidden="1">
+      <c r="A168" s="310">
         <v>166</v>
       </c>
       <c r="B168" s="208" t="s">
@@ -14383,13 +14402,11 @@
       <c r="F168" s="225" t="s">
         <v>323</v>
       </c>
-      <c r="G168" s="315" t="s">
-        <v>496</v>
+      <c r="G168" s="314" t="s">
+        <v>492</v>
       </c>
       <c r="H168" s="211"/>
-      <c r="I168" s="276" t="s">
-        <v>454</v>
-      </c>
+      <c r="I168" s="275"/>
       <c r="J168" s="212"/>
       <c r="K168" s="212"/>
       <c r="L168" s="208" t="s">
@@ -14397,15 +14414,15 @@
       </c>
       <c r="M168" s="211"/>
       <c r="N168" s="211" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O168" s="209">
-        <v>42640</v>
+        <v>42652</v>
       </c>
       <c r="P168" s="213"/>
     </row>
-    <row r="169" spans="1:16" s="207" customFormat="1" ht="54">
-      <c r="A169" s="311">
+    <row r="169" spans="1:16" s="207" customFormat="1" ht="54" hidden="1">
+      <c r="A169" s="310">
         <v>167</v>
       </c>
       <c r="B169" s="208" t="s">
@@ -14423,13 +14440,11 @@
       <c r="F169" s="225" t="s">
         <v>324</v>
       </c>
-      <c r="G169" s="317" t="s">
-        <v>497</v>
+      <c r="G169" s="316" t="s">
+        <v>493</v>
       </c>
       <c r="H169" s="211"/>
-      <c r="I169" s="276" t="s">
-        <v>454</v>
-      </c>
+      <c r="I169" s="275"/>
       <c r="J169" s="212"/>
       <c r="K169" s="212"/>
       <c r="L169" s="208" t="s">
@@ -14437,57 +14452,57 @@
       </c>
       <c r="M169" s="211"/>
       <c r="N169" s="211" t="s">
-        <v>390</v>
-      </c>
-      <c r="O169" s="209">
+        <v>388</v>
+      </c>
+      <c r="O169" s="276">
+        <v>42652</v>
+      </c>
+      <c r="P169" s="213"/>
+    </row>
+    <row r="170" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A170" s="310">
+        <v>168</v>
+      </c>
+      <c r="B170" s="294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" s="295">
+        <v>42634</v>
+      </c>
+      <c r="E170" s="296">
+        <v>42636</v>
+      </c>
+      <c r="F170" s="312" t="s">
+        <v>325</v>
+      </c>
+      <c r="G170" s="342" t="s">
+        <v>326</v>
+      </c>
+      <c r="H170" s="298" t="s">
+        <v>47</v>
+      </c>
+      <c r="I170" s="294" t="s">
+        <v>480</v>
+      </c>
+      <c r="J170" s="299"/>
+      <c r="K170" s="295">
+        <v>42643</v>
+      </c>
+      <c r="L170" s="294" t="s">
+        <v>58</v>
+      </c>
+      <c r="M170" s="298"/>
+      <c r="N170" s="298"/>
+      <c r="O170" s="295">
         <v>42640</v>
       </c>
-      <c r="P169" s="213"/>
-    </row>
-    <row r="170" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A170" s="311">
-        <v>168</v>
-      </c>
-      <c r="B170" s="295" t="s">
-        <v>19</v>
-      </c>
-      <c r="C170" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170" s="296">
-        <v>42634</v>
-      </c>
-      <c r="E170" s="297">
-        <v>42636</v>
-      </c>
-      <c r="F170" s="313" t="s">
-        <v>325</v>
-      </c>
-      <c r="G170" s="343" t="s">
-        <v>326</v>
-      </c>
-      <c r="H170" s="299" t="s">
-        <v>47</v>
-      </c>
-      <c r="I170" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J170" s="300"/>
-      <c r="K170" s="296">
-        <v>42643</v>
-      </c>
-      <c r="L170" s="295" t="s">
-        <v>58</v>
-      </c>
-      <c r="M170" s="299"/>
-      <c r="N170" s="299"/>
-      <c r="O170" s="296">
-        <v>42640</v>
-      </c>
-      <c r="P170" s="304"/>
-    </row>
-    <row r="171" spans="1:16" s="1" customFormat="1" ht="54">
-      <c r="A171" s="311">
+      <c r="P170" s="303"/>
+    </row>
+    <row r="171" spans="1:16" s="1" customFormat="1" ht="54" hidden="1">
+      <c r="A171" s="310">
         <v>169</v>
       </c>
       <c r="B171" s="208" t="s">
@@ -14503,1476 +14518,1482 @@
         <v>42636</v>
       </c>
       <c r="F171" s="183" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G171" s="184" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H171" s="211"/>
       <c r="L171" s="207" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M171" s="127"/>
       <c r="N171" s="207" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O171" s="247">
         <v>42640</v>
       </c>
       <c r="P171" s="127"/>
     </row>
-    <row r="172" spans="1:16" s="262" customFormat="1" ht="40.5" hidden="1">
-      <c r="A172" s="311">
+    <row r="172" spans="1:16" s="261" customFormat="1" ht="40.5" hidden="1">
+      <c r="A172" s="310">
         <v>170</v>
       </c>
-      <c r="B172" s="299" t="s">
+      <c r="B172" s="298" t="s">
         <v>169</v>
       </c>
-      <c r="C172" s="299" t="s">
+      <c r="C172" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D172" s="257">
         <v>42634</v>
       </c>
-      <c r="E172" s="313">
+      <c r="E172" s="312">
         <v>42636</v>
       </c>
-      <c r="F172" s="339" t="s">
+      <c r="F172" s="338" t="s">
+        <v>379</v>
+      </c>
+      <c r="G172" s="344" t="s">
+        <v>380</v>
+      </c>
+      <c r="H172" s="298" t="s">
         <v>381</v>
       </c>
-      <c r="G172" s="345" t="s">
-        <v>382</v>
-      </c>
-      <c r="H172" s="299" t="s">
-        <v>383</v>
-      </c>
-      <c r="I172" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J172" s="300"/>
-      <c r="K172" s="296">
+      <c r="I172" s="294" t="s">
+        <v>480</v>
+      </c>
+      <c r="J172" s="299"/>
+      <c r="K172" s="295">
         <v>42643</v>
       </c>
-      <c r="L172" s="262" t="s">
+      <c r="L172" s="261" t="s">
         <v>59</v>
       </c>
-      <c r="O172" s="341">
+      <c r="O172" s="340">
         <v>42642</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="262" customFormat="1" ht="94.5" hidden="1">
-      <c r="A173" s="311">
+    <row r="173" spans="1:16" s="261" customFormat="1" ht="94.5" hidden="1">
+      <c r="A173" s="310">
         <v>171</v>
       </c>
-      <c r="B173" s="299" t="s">
+      <c r="B173" s="298" t="s">
         <v>169</v>
       </c>
-      <c r="C173" s="299" t="s">
+      <c r="C173" s="298" t="s">
         <v>16</v>
       </c>
       <c r="D173" s="257">
         <v>42634</v>
       </c>
-      <c r="E173" s="313">
+      <c r="E173" s="312">
         <v>42636</v>
       </c>
-      <c r="F173" s="339" t="s">
+      <c r="F173" s="338" t="s">
+        <v>382</v>
+      </c>
+      <c r="G173" s="345" t="s">
+        <v>494</v>
+      </c>
+      <c r="H173" s="298" t="s">
+        <v>381</v>
+      </c>
+      <c r="I173" s="294" t="s">
+        <v>480</v>
+      </c>
+      <c r="J173" s="299"/>
+      <c r="K173" s="295">
+        <v>42643</v>
+      </c>
+      <c r="L173" s="261" t="s">
+        <v>59</v>
+      </c>
+      <c r="N173" s="261" t="s">
+        <v>397</v>
+      </c>
+      <c r="O173" s="340">
+        <v>42643</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" s="300" customFormat="1" ht="27" hidden="1">
+      <c r="A174" s="310">
+        <v>172</v>
+      </c>
+      <c r="B174" s="294" t="s">
+        <v>169</v>
+      </c>
+      <c r="C174" s="294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="295">
+        <v>42634</v>
+      </c>
+      <c r="E174" s="296">
+        <v>42636</v>
+      </c>
+      <c r="F174" s="312" t="s">
+        <v>383</v>
+      </c>
+      <c r="G174" s="344" t="s">
         <v>384</v>
       </c>
-      <c r="G173" s="346" t="s">
-        <v>498</v>
-      </c>
-      <c r="H173" s="299" t="s">
-        <v>383</v>
-      </c>
-      <c r="I173" s="295" t="s">
+      <c r="H174" s="298"/>
+      <c r="I174" s="294" t="s">
+        <v>480</v>
+      </c>
+      <c r="J174" s="299"/>
+      <c r="K174" s="295">
+        <v>42643</v>
+      </c>
+      <c r="L174" s="294" t="s">
+        <v>58</v>
+      </c>
+      <c r="O174" s="336">
+        <v>42639</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" ht="27" hidden="1">
+      <c r="A175" s="310">
+        <v>173</v>
+      </c>
+      <c r="B175" s="264" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="264" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="266">
+        <v>42634</v>
+      </c>
+      <c r="E175" s="267">
+        <v>42641</v>
+      </c>
+      <c r="F175" s="268" t="s">
+        <v>406</v>
+      </c>
+      <c r="G175" s="306" t="s">
+        <v>495</v>
+      </c>
+      <c r="H175" s="265"/>
+      <c r="I175" s="271" t="s">
+        <v>496</v>
+      </c>
+      <c r="J175" s="263"/>
+      <c r="K175" s="323"/>
+      <c r="L175" s="264"/>
+      <c r="M175" s="263"/>
+      <c r="N175" s="263"/>
+      <c r="O175" s="269"/>
+      <c r="P175" s="263"/>
+    </row>
+    <row r="176" spans="1:16" s="272" customFormat="1" ht="54" hidden="1">
+      <c r="A176" s="310">
+        <v>174</v>
+      </c>
+      <c r="B176" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E176" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F176" s="311" t="s">
+        <v>424</v>
+      </c>
+      <c r="G176" s="306" t="s">
+        <v>517</v>
+      </c>
+      <c r="H176" s="279"/>
+      <c r="I176" s="271"/>
+      <c r="J176" s="271"/>
+      <c r="K176" s="271"/>
+      <c r="L176" s="275" t="s">
+        <v>548</v>
+      </c>
+      <c r="M176" s="271"/>
+      <c r="N176" s="271" t="s">
+        <v>549</v>
+      </c>
+      <c r="O176" s="323">
+        <v>42651</v>
+      </c>
+      <c r="P176" s="271"/>
+    </row>
+    <row r="177" spans="1:16" s="272" customFormat="1" hidden="1">
+      <c r="A177" s="310">
+        <v>175</v>
+      </c>
+      <c r="B177" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E177" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F177" s="311" t="s">
+        <v>412</v>
+      </c>
+      <c r="G177" s="322" t="s">
+        <v>413</v>
+      </c>
+      <c r="H177" s="279"/>
+      <c r="I177" s="271"/>
+      <c r="J177" s="271"/>
+      <c r="K177" s="271"/>
+      <c r="L177" s="275" t="s">
+        <v>550</v>
+      </c>
+      <c r="M177" s="271"/>
+      <c r="N177" s="271" t="s">
+        <v>551</v>
+      </c>
+      <c r="O177" s="323">
+        <v>42651</v>
+      </c>
+      <c r="P177" s="271"/>
+    </row>
+    <row r="178" spans="1:16" s="272" customFormat="1" ht="108">
+      <c r="A178" s="310">
+        <v>176</v>
+      </c>
+      <c r="B178" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E178" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F178" s="311" t="s">
+        <v>529</v>
+      </c>
+      <c r="G178" s="306" t="s">
+        <v>526</v>
+      </c>
+      <c r="H178" s="279"/>
+      <c r="I178" s="271"/>
+      <c r="J178" s="271"/>
+      <c r="K178" s="271"/>
+      <c r="L178" s="275"/>
+      <c r="M178" s="271"/>
+      <c r="N178" s="271"/>
+      <c r="O178" s="323"/>
+      <c r="P178" s="271"/>
+    </row>
+    <row r="179" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A179" s="310">
+        <v>177</v>
+      </c>
+      <c r="B179" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E179" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F179" s="311" t="s">
+        <v>530</v>
+      </c>
+      <c r="G179" s="306" t="s">
+        <v>534</v>
+      </c>
+      <c r="H179" s="279"/>
+      <c r="I179" s="271"/>
+      <c r="J179" s="271"/>
+      <c r="K179" s="271"/>
+      <c r="L179" s="275"/>
+      <c r="M179" s="271"/>
+      <c r="N179" s="271"/>
+      <c r="O179" s="323"/>
+      <c r="P179" s="271"/>
+    </row>
+    <row r="180" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A180" s="310">
+        <v>178</v>
+      </c>
+      <c r="B180" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E180" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F180" s="311" t="s">
+        <v>531</v>
+      </c>
+      <c r="G180" s="306" t="s">
+        <v>535</v>
+      </c>
+      <c r="H180" s="279"/>
+      <c r="I180" s="271"/>
+      <c r="J180" s="271"/>
+      <c r="K180" s="271"/>
+      <c r="L180" s="275"/>
+      <c r="M180" s="271"/>
+      <c r="N180" s="271"/>
+      <c r="O180" s="323"/>
+      <c r="P180" s="271"/>
+    </row>
+    <row r="181" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A181" s="310">
+        <v>179</v>
+      </c>
+      <c r="B181" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E181" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F181" s="311" t="s">
+        <v>532</v>
+      </c>
+      <c r="G181" s="306" t="s">
+        <v>536</v>
+      </c>
+      <c r="H181" s="279"/>
+      <c r="I181" s="271"/>
+      <c r="J181" s="271"/>
+      <c r="K181" s="271"/>
+      <c r="L181" s="275"/>
+      <c r="M181" s="271"/>
+      <c r="N181" s="271"/>
+      <c r="O181" s="323"/>
+      <c r="P181" s="271"/>
+    </row>
+    <row r="182" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A182" s="310">
+        <v>180</v>
+      </c>
+      <c r="B182" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E182" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F182" s="311" t="s">
+        <v>533</v>
+      </c>
+      <c r="G182" s="306" t="s">
+        <v>537</v>
+      </c>
+      <c r="H182" s="279"/>
+      <c r="I182" s="271"/>
+      <c r="J182" s="271"/>
+      <c r="K182" s="271"/>
+      <c r="L182" s="275"/>
+      <c r="M182" s="271"/>
+      <c r="N182" s="271"/>
+      <c r="O182" s="323"/>
+      <c r="P182" s="271"/>
+    </row>
+    <row r="183" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
+      <c r="A183" s="310">
+        <v>181</v>
+      </c>
+      <c r="B183" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E183" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F183" s="311" t="s">
+        <v>419</v>
+      </c>
+      <c r="G183" s="306" t="s">
+        <v>418</v>
+      </c>
+      <c r="H183" s="279"/>
+      <c r="I183" s="271"/>
+      <c r="J183" s="271"/>
+      <c r="K183" s="271"/>
+      <c r="L183" s="275" t="s">
+        <v>562</v>
+      </c>
+      <c r="M183" s="271"/>
+      <c r="N183" s="271" t="s">
+        <v>563</v>
+      </c>
+      <c r="O183" s="323">
+        <v>42651</v>
+      </c>
+      <c r="P183" s="271"/>
+    </row>
+    <row r="184" spans="1:16" s="272" customFormat="1" ht="40.5" hidden="1">
+      <c r="A184" s="310">
+        <v>182</v>
+      </c>
+      <c r="B184" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E184" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F184" s="311" t="s">
+        <v>419</v>
+      </c>
+      <c r="G184" s="306" t="s">
+        <v>420</v>
+      </c>
+      <c r="H184" s="279"/>
+      <c r="I184" s="271"/>
+      <c r="J184" s="271"/>
+      <c r="K184" s="271"/>
+      <c r="L184" s="275" t="s">
+        <v>562</v>
+      </c>
+      <c r="M184" s="271"/>
+      <c r="N184" s="271" t="s">
+        <v>564</v>
+      </c>
+      <c r="O184" s="323">
+        <v>42651</v>
+      </c>
+      <c r="P184" s="271"/>
+    </row>
+    <row r="185" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A185" s="310">
+        <v>183</v>
+      </c>
+      <c r="B185" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E185" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F185" s="311" t="s">
+        <v>417</v>
+      </c>
+      <c r="G185" s="322" t="s">
+        <v>421</v>
+      </c>
+      <c r="H185" s="279"/>
+      <c r="I185" s="271"/>
+      <c r="J185" s="271"/>
+      <c r="K185" s="271"/>
+      <c r="L185" s="275"/>
+      <c r="M185" s="271"/>
+      <c r="N185" s="271"/>
+      <c r="O185" s="323"/>
+      <c r="P185" s="271"/>
+    </row>
+    <row r="186" spans="1:16" s="272" customFormat="1">
+      <c r="A186" s="310">
+        <v>184</v>
+      </c>
+      <c r="B186" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E186" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F186" s="311" t="s">
+        <v>426</v>
+      </c>
+      <c r="G186" s="306" t="s">
+        <v>427</v>
+      </c>
+      <c r="H186" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I186" s="271"/>
+      <c r="J186" s="271"/>
+      <c r="K186" s="271"/>
+      <c r="L186" s="275"/>
+      <c r="M186" s="271"/>
+      <c r="N186" s="271"/>
+      <c r="O186" s="323"/>
+      <c r="P186" s="271"/>
+    </row>
+    <row r="187" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A187" s="310">
+        <v>185</v>
+      </c>
+      <c r="B187" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C187" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E187" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F187" s="311" t="s">
+        <v>428</v>
+      </c>
+      <c r="G187" s="306" t="s">
+        <v>429</v>
+      </c>
+      <c r="H187" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I187" s="271"/>
+      <c r="J187" s="271"/>
+      <c r="K187" s="271"/>
+      <c r="L187" s="275"/>
+      <c r="M187" s="271"/>
+      <c r="N187" s="271"/>
+      <c r="O187" s="323"/>
+      <c r="P187" s="271"/>
+    </row>
+    <row r="188" spans="1:16" s="272" customFormat="1" ht="54">
+      <c r="A188" s="310">
+        <v>186</v>
+      </c>
+      <c r="B188" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C188" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E188" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F188" s="311" t="s">
+        <v>433</v>
+      </c>
+      <c r="G188" s="322" t="s">
+        <v>442</v>
+      </c>
+      <c r="H188" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I188" s="271"/>
+      <c r="J188" s="271"/>
+      <c r="K188" s="271"/>
+      <c r="L188" s="275"/>
+      <c r="M188" s="271"/>
+      <c r="N188" s="271"/>
+      <c r="O188" s="323"/>
+      <c r="P188" s="271"/>
+    </row>
+    <row r="189" spans="1:16" s="272" customFormat="1" ht="67.5">
+      <c r="A189" s="310">
+        <v>187</v>
+      </c>
+      <c r="B189" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E189" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F189" s="311" t="s">
+        <v>441</v>
+      </c>
+      <c r="G189" s="322" t="s">
+        <v>497</v>
+      </c>
+      <c r="H189" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I189" s="271"/>
+      <c r="J189" s="271"/>
+      <c r="K189" s="271"/>
+      <c r="L189" s="275"/>
+      <c r="M189" s="271"/>
+      <c r="N189" s="271"/>
+      <c r="O189" s="323"/>
+      <c r="P189" s="271"/>
+    </row>
+    <row r="190" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A190" s="310">
+        <v>188</v>
+      </c>
+      <c r="B190" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E190" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F190" s="311" t="s">
+        <v>434</v>
+      </c>
+      <c r="G190" s="306" t="s">
+        <v>443</v>
+      </c>
+      <c r="H190" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I190" s="271"/>
+      <c r="J190" s="271"/>
+      <c r="K190" s="271"/>
+      <c r="L190" s="275"/>
+      <c r="M190" s="271"/>
+      <c r="N190" s="271"/>
+      <c r="O190" s="323"/>
+      <c r="P190" s="271"/>
+    </row>
+    <row r="191" spans="1:16" s="272" customFormat="1" ht="40.5">
+      <c r="A191" s="310">
+        <v>189</v>
+      </c>
+      <c r="B191" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C191" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E191" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F191" s="311" t="s">
+        <v>436</v>
+      </c>
+      <c r="G191" s="306" t="s">
+        <v>435</v>
+      </c>
+      <c r="H191" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I191" s="271"/>
+      <c r="J191" s="271"/>
+      <c r="K191" s="271"/>
+      <c r="L191" s="275"/>
+      <c r="M191" s="271"/>
+      <c r="N191" s="271"/>
+      <c r="O191" s="323"/>
+      <c r="P191" s="271"/>
+    </row>
+    <row r="192" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A192" s="310">
+        <v>190</v>
+      </c>
+      <c r="B192" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E192" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F192" s="311" t="s">
+        <v>449</v>
+      </c>
+      <c r="G192" s="322" t="s">
+        <v>450</v>
+      </c>
+      <c r="H192" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I192" s="271"/>
+      <c r="J192" s="271"/>
+      <c r="K192" s="271"/>
+      <c r="L192" s="275"/>
+      <c r="M192" s="271"/>
+      <c r="N192" s="271"/>
+      <c r="O192" s="323"/>
+      <c r="P192" s="271"/>
+    </row>
+    <row r="193" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A193" s="310">
+        <v>191</v>
+      </c>
+      <c r="B193" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E193" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F193" s="311" t="s">
+        <v>437</v>
+      </c>
+      <c r="G193" s="328" t="s">
+        <v>448</v>
+      </c>
+      <c r="H193" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I193" s="271"/>
+      <c r="J193" s="271"/>
+      <c r="K193" s="271"/>
+      <c r="L193" s="275"/>
+      <c r="M193" s="271"/>
+      <c r="N193" s="271"/>
+      <c r="O193" s="323"/>
+      <c r="P193" s="271"/>
+    </row>
+    <row r="194" spans="1:16" s="272" customFormat="1">
+      <c r="A194" s="310">
+        <v>192</v>
+      </c>
+      <c r="B194" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E194" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F194" s="311" t="s">
+        <v>438</v>
+      </c>
+      <c r="G194" s="306" t="s">
+        <v>439</v>
+      </c>
+      <c r="H194" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I194" s="271"/>
+      <c r="J194" s="271"/>
+      <c r="K194" s="271"/>
+      <c r="L194" s="275"/>
+      <c r="M194" s="271"/>
+      <c r="N194" s="271"/>
+      <c r="O194" s="323"/>
+      <c r="P194" s="271"/>
+    </row>
+    <row r="195" spans="1:16" s="272" customFormat="1">
+      <c r="A195" s="310">
+        <v>193</v>
+      </c>
+      <c r="B195" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E195" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F195" s="311" t="s">
+        <v>440</v>
+      </c>
+      <c r="G195" s="306" t="s">
+        <v>446</v>
+      </c>
+      <c r="H195" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I195" s="271"/>
+      <c r="J195" s="271"/>
+      <c r="K195" s="271"/>
+      <c r="L195" s="275"/>
+      <c r="M195" s="271"/>
+      <c r="N195" s="271"/>
+      <c r="O195" s="323"/>
+      <c r="P195" s="271"/>
+    </row>
+    <row r="196" spans="1:16" s="272" customFormat="1">
+      <c r="A196" s="310">
+        <v>194</v>
+      </c>
+      <c r="B196" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E196" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F196" s="311" t="s">
+        <v>440</v>
+      </c>
+      <c r="G196" s="306" t="s">
+        <v>447</v>
+      </c>
+      <c r="H196" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I196" s="271"/>
+      <c r="J196" s="271"/>
+      <c r="K196" s="271"/>
+      <c r="L196" s="275"/>
+      <c r="M196" s="271"/>
+      <c r="N196" s="271"/>
+      <c r="O196" s="323"/>
+      <c r="P196" s="271"/>
+    </row>
+    <row r="197" spans="1:16" s="272" customFormat="1">
+      <c r="A197" s="310">
+        <v>195</v>
+      </c>
+      <c r="B197" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E197" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F197" s="311" t="s">
+        <v>444</v>
+      </c>
+      <c r="G197" s="306" t="s">
+        <v>445</v>
+      </c>
+      <c r="H197" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I197" s="271"/>
+      <c r="J197" s="271"/>
+      <c r="K197" s="271"/>
+      <c r="L197" s="275"/>
+      <c r="M197" s="271"/>
+      <c r="N197" s="271"/>
+      <c r="O197" s="323"/>
+      <c r="P197" s="271"/>
+    </row>
+    <row r="198" spans="1:16" s="272" customFormat="1" ht="54" hidden="1">
+      <c r="A198" s="310">
+        <v>196</v>
+      </c>
+      <c r="B198" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E198" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F198" s="311" t="s">
+        <v>444</v>
+      </c>
+      <c r="G198" s="322" t="s">
+        <v>504</v>
+      </c>
+      <c r="H198" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I198" s="271"/>
+      <c r="J198" s="271"/>
+      <c r="K198" s="271"/>
+      <c r="L198" s="275" t="s">
+        <v>558</v>
+      </c>
+      <c r="M198" s="271"/>
+      <c r="N198" s="271" t="s">
+        <v>557</v>
+      </c>
+      <c r="O198" s="323">
+        <v>42651</v>
+      </c>
+      <c r="P198" s="271"/>
+    </row>
+    <row r="199" spans="1:16" s="272" customFormat="1">
+      <c r="A199" s="310">
+        <v>197</v>
+      </c>
+      <c r="B199" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E199" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F199" s="311" t="s">
+        <v>454</v>
+      </c>
+      <c r="G199" s="306" t="s">
+        <v>455</v>
+      </c>
+      <c r="H199" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I199" s="271"/>
+      <c r="J199" s="271"/>
+      <c r="K199" s="271"/>
+      <c r="L199" s="275"/>
+      <c r="M199" s="271"/>
+      <c r="N199" s="271"/>
+      <c r="O199" s="323"/>
+      <c r="P199" s="271"/>
+    </row>
+    <row r="200" spans="1:16" s="272" customFormat="1" ht="40.5">
+      <c r="A200" s="310">
+        <v>198</v>
+      </c>
+      <c r="B200" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E200" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F200" s="311" t="s">
+        <v>459</v>
+      </c>
+      <c r="G200" s="306" t="s">
+        <v>481</v>
+      </c>
+      <c r="H200" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I200" s="271"/>
+      <c r="J200" s="271"/>
+      <c r="K200" s="271"/>
+      <c r="L200" s="275"/>
+      <c r="M200" s="271"/>
+      <c r="N200" s="271"/>
+      <c r="O200" s="323"/>
+      <c r="P200" s="271"/>
+    </row>
+    <row r="201" spans="1:16" s="272" customFormat="1" hidden="1">
+      <c r="A201" s="310">
+        <v>199</v>
+      </c>
+      <c r="B201" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E201" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F201" s="311" t="s">
+        <v>419</v>
+      </c>
+      <c r="G201" s="306" t="s">
+        <v>460</v>
+      </c>
+      <c r="H201" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I201" s="271"/>
+      <c r="J201" s="271"/>
+      <c r="K201" s="271"/>
+      <c r="L201" s="275" t="s">
+        <v>562</v>
+      </c>
+      <c r="M201" s="271"/>
+      <c r="N201" s="271" t="s">
+        <v>563</v>
+      </c>
+      <c r="O201" s="323">
+        <v>42651</v>
+      </c>
+      <c r="P201" s="271"/>
+    </row>
+    <row r="202" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
+      <c r="A202" s="310">
+        <v>200</v>
+      </c>
+      <c r="B202" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E202" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F202" s="311" t="s">
+        <v>462</v>
+      </c>
+      <c r="G202" s="306" t="s">
+        <v>465</v>
+      </c>
+      <c r="H202" s="279"/>
+      <c r="I202" s="271"/>
+      <c r="J202" s="271"/>
+      <c r="K202" s="271"/>
+      <c r="L202" s="275" t="s">
+        <v>552</v>
+      </c>
+      <c r="M202" s="271"/>
+      <c r="N202" s="271" t="s">
+        <v>553</v>
+      </c>
+      <c r="O202" s="323">
+        <v>42651</v>
+      </c>
+      <c r="P202" s="271"/>
+    </row>
+    <row r="203" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
+      <c r="A203" s="310">
+        <v>201</v>
+      </c>
+      <c r="B203" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E203" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F203" s="311" t="s">
+        <v>476</v>
+      </c>
+      <c r="G203" s="322" t="s">
+        <v>477</v>
+      </c>
+      <c r="H203" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I203" s="271"/>
+      <c r="J203" s="271"/>
+      <c r="K203" s="271"/>
+      <c r="L203" s="275" t="s">
+        <v>554</v>
+      </c>
+      <c r="M203" s="271"/>
+      <c r="N203" s="271"/>
+      <c r="O203" s="323">
+        <v>42651</v>
+      </c>
+      <c r="P203" s="271"/>
+    </row>
+    <row r="204" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A204" s="310">
+        <v>202</v>
+      </c>
+      <c r="B204" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" s="292">
+        <v>42643</v>
+      </c>
+      <c r="E204" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F204" s="311" t="s">
+        <v>482</v>
+      </c>
+      <c r="G204" s="306" t="s">
         <v>484</v>
       </c>
-      <c r="J173" s="300"/>
-      <c r="K173" s="296">
+      <c r="H204" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I204" s="271"/>
+      <c r="J204" s="271"/>
+      <c r="K204" s="271"/>
+      <c r="L204" s="275"/>
+      <c r="M204" s="271"/>
+      <c r="N204" s="271"/>
+      <c r="O204" s="323"/>
+      <c r="P204" s="271"/>
+    </row>
+    <row r="205" spans="1:16" s="272" customFormat="1" hidden="1">
+      <c r="A205" s="310">
+        <v>203</v>
+      </c>
+      <c r="B205" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" s="359" t="s">
+        <v>546</v>
+      </c>
+      <c r="D205" s="292">
         <v>42643</v>
       </c>
-      <c r="L173" s="262" t="s">
-        <v>59</v>
-      </c>
-      <c r="N173" s="262" t="s">
-        <v>400</v>
-      </c>
-      <c r="O173" s="341">
+      <c r="E205" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F205" s="311" t="s">
+        <v>506</v>
+      </c>
+      <c r="G205" s="306" t="s">
+        <v>507</v>
+      </c>
+      <c r="H205" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I205" s="271"/>
+      <c r="J205" s="271"/>
+      <c r="K205" s="271"/>
+      <c r="L205" s="275" t="s">
+        <v>559</v>
+      </c>
+      <c r="M205" s="271"/>
+      <c r="N205" s="271"/>
+      <c r="O205" s="323">
+        <v>42652</v>
+      </c>
+      <c r="P205" s="271"/>
+    </row>
+    <row r="206" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
+      <c r="A206" s="310">
+        <v>204</v>
+      </c>
+      <c r="B206" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" s="359" t="s">
+        <v>546</v>
+      </c>
+      <c r="D206" s="292">
         <v>42643</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" s="301" customFormat="1" ht="27" hidden="1">
-      <c r="A174" s="311">
-        <v>172</v>
-      </c>
-      <c r="B174" s="295" t="s">
-        <v>169</v>
-      </c>
-      <c r="C174" s="295" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" s="296">
-        <v>42634</v>
-      </c>
-      <c r="E174" s="297">
-        <v>42636</v>
-      </c>
-      <c r="F174" s="313" t="s">
-        <v>385</v>
-      </c>
-      <c r="G174" s="345" t="s">
-        <v>386</v>
-      </c>
-      <c r="H174" s="299"/>
-      <c r="I174" s="295" t="s">
-        <v>484</v>
-      </c>
-      <c r="J174" s="300"/>
-      <c r="K174" s="296">
+      <c r="E206" s="293">
+        <v>42645</v>
+      </c>
+      <c r="F206" s="311" t="s">
+        <v>508</v>
+      </c>
+      <c r="G206" s="306" t="s">
+        <v>519</v>
+      </c>
+      <c r="H206" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I206" s="271"/>
+      <c r="J206" s="271"/>
+      <c r="K206" s="271"/>
+      <c r="L206" s="275" t="s">
+        <v>565</v>
+      </c>
+      <c r="M206" s="271"/>
+      <c r="N206" s="271" t="s">
+        <v>566</v>
+      </c>
+      <c r="O206" s="323">
+        <v>42651</v>
+      </c>
+      <c r="P206" s="271"/>
+    </row>
+    <row r="207" spans="1:16" s="272" customFormat="1" ht="40.5">
+      <c r="A207" s="310">
+        <v>205</v>
+      </c>
+      <c r="B207" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" s="347">
         <v>42643</v>
       </c>
-      <c r="L174" s="295" t="s">
-        <v>58</v>
-      </c>
-      <c r="O174" s="337">
-        <v>42639</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" ht="27" hidden="1">
-      <c r="A175" s="311">
-        <v>173</v>
-      </c>
-      <c r="B175" s="265" t="s">
-        <v>19</v>
-      </c>
-      <c r="C175" s="265" t="s">
-        <v>16</v>
-      </c>
-      <c r="D175" s="267">
-        <v>42634</v>
-      </c>
-      <c r="E175" s="268">
-        <v>42641</v>
-      </c>
-      <c r="F175" s="269" t="s">
-        <v>409</v>
-      </c>
-      <c r="G175" s="307" t="s">
-        <v>499</v>
-      </c>
-      <c r="H175" s="266"/>
-      <c r="I175" s="272" t="s">
-        <v>500</v>
-      </c>
-      <c r="J175" s="264"/>
-      <c r="K175" s="324"/>
-      <c r="L175" s="265"/>
-      <c r="M175" s="264"/>
-      <c r="N175" s="264"/>
-      <c r="O175" s="270"/>
-      <c r="P175" s="264"/>
-    </row>
-    <row r="176" spans="1:16" s="273" customFormat="1" ht="54">
-      <c r="A176" s="311">
-        <v>174</v>
-      </c>
-      <c r="B176" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C176" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" s="293">
+      <c r="E207" s="348">
+        <v>42649</v>
+      </c>
+      <c r="F207" s="311" t="s">
+        <v>516</v>
+      </c>
+      <c r="G207" s="306" t="s">
+        <v>518</v>
+      </c>
+      <c r="H207" s="279"/>
+      <c r="I207" s="271"/>
+      <c r="J207" s="271"/>
+      <c r="K207" s="271"/>
+      <c r="L207" s="275"/>
+      <c r="M207" s="271"/>
+      <c r="N207" s="271"/>
+      <c r="O207" s="323"/>
+      <c r="P207" s="271"/>
+    </row>
+    <row r="208" spans="1:16" s="272" customFormat="1" ht="148.5">
+      <c r="A208" s="310">
+        <v>206</v>
+      </c>
+      <c r="B208" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" s="347">
         <v>42643</v>
       </c>
-      <c r="E176" s="294">
+      <c r="E208" s="348">
+        <v>42649</v>
+      </c>
+      <c r="F208" s="311" t="s">
+        <v>528</v>
+      </c>
+      <c r="G208" s="322" t="s">
+        <v>527</v>
+      </c>
+      <c r="H208" s="279" t="s">
+        <v>47</v>
+      </c>
+      <c r="I208" s="271"/>
+      <c r="J208" s="271"/>
+      <c r="K208" s="271"/>
+      <c r="L208" s="275"/>
+      <c r="M208" s="271"/>
+      <c r="N208" s="271"/>
+      <c r="O208" s="323"/>
+      <c r="P208" s="271"/>
+    </row>
+    <row r="209" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A209" s="310">
+        <v>207</v>
+      </c>
+      <c r="B209" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" s="347">
+        <v>42643</v>
+      </c>
+      <c r="E209" s="348">
         <v>42645</v>
       </c>
-      <c r="F176" s="312" t="s">
-        <v>427</v>
-      </c>
-      <c r="G176" s="307" t="s">
-        <v>521</v>
-      </c>
-      <c r="H176" s="280"/>
-      <c r="I176" s="272"/>
-      <c r="J176" s="272"/>
-      <c r="K176" s="272"/>
-      <c r="L176" s="276" t="s">
-        <v>552</v>
-      </c>
-      <c r="M176" s="272"/>
-      <c r="N176" s="272" t="s">
-        <v>553</v>
-      </c>
-      <c r="O176" s="324">
-        <v>42651</v>
-      </c>
-      <c r="P176" s="272"/>
-    </row>
-    <row r="177" spans="1:16" s="273" customFormat="1">
-      <c r="A177" s="311">
-        <v>175</v>
-      </c>
-      <c r="B177" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C177" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177" s="293">
+      <c r="F209" s="311" t="s">
+        <v>538</v>
+      </c>
+      <c r="G209" s="306" t="s">
+        <v>542</v>
+      </c>
+      <c r="H209" s="279"/>
+      <c r="I209" s="271"/>
+      <c r="J209" s="271"/>
+      <c r="K209" s="271"/>
+      <c r="L209" s="275"/>
+      <c r="M209" s="271"/>
+      <c r="N209" s="271"/>
+      <c r="O209" s="323"/>
+      <c r="P209" s="271"/>
+    </row>
+    <row r="210" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A210" s="310">
+        <v>208</v>
+      </c>
+      <c r="B210" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C210" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" s="347">
         <v>42643</v>
       </c>
-      <c r="E177" s="294">
+      <c r="E210" s="348">
         <v>42645</v>
       </c>
-      <c r="F177" s="312" t="s">
-        <v>415</v>
-      </c>
-      <c r="G177" s="323" t="s">
-        <v>416</v>
-      </c>
-      <c r="H177" s="280"/>
-      <c r="I177" s="272"/>
-      <c r="J177" s="272"/>
-      <c r="K177" s="272"/>
-      <c r="L177" s="276" t="s">
-        <v>554</v>
-      </c>
-      <c r="M177" s="272"/>
-      <c r="N177" s="272" t="s">
-        <v>555</v>
-      </c>
-      <c r="O177" s="324">
-        <v>42651</v>
-      </c>
-      <c r="P177" s="272"/>
-    </row>
-    <row r="178" spans="1:16" s="273" customFormat="1" ht="108">
-      <c r="A178" s="311">
-        <v>176</v>
-      </c>
-      <c r="B178" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C178" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D178" s="293">
+      <c r="F210" s="311" t="s">
+        <v>539</v>
+      </c>
+      <c r="G210" s="306" t="s">
+        <v>543</v>
+      </c>
+      <c r="H210" s="279"/>
+      <c r="I210" s="271"/>
+      <c r="J210" s="271"/>
+      <c r="K210" s="271"/>
+      <c r="L210" s="275"/>
+      <c r="M210" s="271"/>
+      <c r="N210" s="271"/>
+      <c r="O210" s="323"/>
+      <c r="P210" s="271"/>
+    </row>
+    <row r="211" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A211" s="310">
+        <v>209</v>
+      </c>
+      <c r="B211" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" s="347">
         <v>42643</v>
       </c>
-      <c r="E178" s="294">
+      <c r="E211" s="348">
         <v>42645</v>
       </c>
-      <c r="F178" s="312" t="s">
-        <v>533</v>
-      </c>
-      <c r="G178" s="307" t="s">
-        <v>530</v>
-      </c>
-      <c r="H178" s="280"/>
-      <c r="I178" s="272"/>
-      <c r="J178" s="272"/>
-      <c r="K178" s="272"/>
-      <c r="L178" s="276"/>
-      <c r="M178" s="272"/>
-      <c r="N178" s="272"/>
-      <c r="O178" s="324"/>
-      <c r="P178" s="272"/>
-    </row>
-    <row r="179" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A179" s="311">
-        <v>177</v>
-      </c>
-      <c r="B179" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C179" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D179" s="293">
+      <c r="F211" s="311" t="s">
+        <v>540</v>
+      </c>
+      <c r="G211" s="306" t="s">
+        <v>544</v>
+      </c>
+      <c r="H211" s="279"/>
+      <c r="I211" s="271"/>
+      <c r="J211" s="271"/>
+      <c r="K211" s="271"/>
+      <c r="L211" s="275"/>
+      <c r="M211" s="271"/>
+      <c r="N211" s="271"/>
+      <c r="O211" s="323"/>
+      <c r="P211" s="271"/>
+    </row>
+    <row r="212" spans="1:16" s="272" customFormat="1" ht="27">
+      <c r="A212" s="310">
+        <v>210</v>
+      </c>
+      <c r="B212" s="275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C212" s="275" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" s="347">
         <v>42643</v>
       </c>
-      <c r="E179" s="294">
+      <c r="E212" s="348">
         <v>42645</v>
       </c>
-      <c r="F179" s="312" t="s">
-        <v>534</v>
-      </c>
-      <c r="G179" s="307" t="s">
-        <v>538</v>
-      </c>
-      <c r="H179" s="280"/>
-      <c r="I179" s="272"/>
-      <c r="J179" s="272"/>
-      <c r="K179" s="272"/>
-      <c r="L179" s="276"/>
-      <c r="M179" s="272"/>
-      <c r="N179" s="272"/>
-      <c r="O179" s="324"/>
-      <c r="P179" s="272"/>
-    </row>
-    <row r="180" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A180" s="311">
-        <v>178</v>
-      </c>
-      <c r="B180" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C180" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E180" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F180" s="312" t="s">
-        <v>535</v>
-      </c>
-      <c r="G180" s="307" t="s">
-        <v>539</v>
-      </c>
-      <c r="H180" s="280"/>
-      <c r="I180" s="272"/>
-      <c r="J180" s="272"/>
-      <c r="K180" s="272"/>
-      <c r="L180" s="276"/>
-      <c r="M180" s="272"/>
-      <c r="N180" s="272"/>
-      <c r="O180" s="324"/>
-      <c r="P180" s="272"/>
-    </row>
-    <row r="181" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A181" s="311">
-        <v>179</v>
-      </c>
-      <c r="B181" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C181" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D181" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E181" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F181" s="312" t="s">
-        <v>536</v>
-      </c>
-      <c r="G181" s="307" t="s">
-        <v>540</v>
-      </c>
-      <c r="H181" s="280"/>
-      <c r="I181" s="272"/>
-      <c r="J181" s="272"/>
-      <c r="K181" s="272"/>
-      <c r="L181" s="276"/>
-      <c r="M181" s="272"/>
-      <c r="N181" s="272"/>
-      <c r="O181" s="324"/>
-      <c r="P181" s="272"/>
-    </row>
-    <row r="182" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A182" s="311">
-        <v>180</v>
-      </c>
-      <c r="B182" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C182" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D182" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E182" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F182" s="312" t="s">
-        <v>537</v>
-      </c>
-      <c r="G182" s="307" t="s">
+      <c r="F212" s="311" t="s">
         <v>541</v>
       </c>
-      <c r="H182" s="280"/>
-      <c r="I182" s="272"/>
-      <c r="J182" s="272"/>
-      <c r="K182" s="272"/>
-      <c r="L182" s="276"/>
-      <c r="M182" s="272"/>
-      <c r="N182" s="272"/>
-      <c r="O182" s="324"/>
-      <c r="P182" s="272"/>
-    </row>
-    <row r="183" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A183" s="311">
-        <v>181</v>
-      </c>
-      <c r="B183" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C183" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D183" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E183" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F183" s="312" t="s">
-        <v>422</v>
-      </c>
-      <c r="G183" s="307" t="s">
-        <v>421</v>
-      </c>
-      <c r="H183" s="280"/>
-      <c r="I183" s="272"/>
-      <c r="J183" s="272"/>
-      <c r="K183" s="272"/>
-      <c r="L183" s="276" t="s">
-        <v>563</v>
-      </c>
-      <c r="M183" s="272"/>
-      <c r="N183" s="272" t="s">
-        <v>564</v>
-      </c>
-      <c r="O183" s="324">
-        <v>42651</v>
-      </c>
-      <c r="P183" s="272"/>
-    </row>
-    <row r="184" spans="1:16" s="273" customFormat="1" ht="40.5">
-      <c r="A184" s="311">
-        <v>182</v>
-      </c>
-      <c r="B184" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C184" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D184" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E184" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F184" s="312" t="s">
-        <v>422</v>
-      </c>
-      <c r="G184" s="307" t="s">
-        <v>423</v>
-      </c>
-      <c r="H184" s="280"/>
-      <c r="I184" s="272"/>
-      <c r="J184" s="272"/>
-      <c r="K184" s="272"/>
-      <c r="L184" s="276" t="s">
-        <v>563</v>
-      </c>
-      <c r="M184" s="272"/>
-      <c r="N184" s="272" t="s">
-        <v>567</v>
-      </c>
-      <c r="O184" s="324">
-        <v>42651</v>
-      </c>
-      <c r="P184" s="272"/>
-    </row>
-    <row r="185" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A185" s="311">
-        <v>183</v>
-      </c>
-      <c r="B185" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C185" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D185" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E185" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F185" s="312" t="s">
-        <v>420</v>
-      </c>
-      <c r="G185" s="323" t="s">
-        <v>424</v>
-      </c>
-      <c r="H185" s="280"/>
-      <c r="I185" s="272"/>
-      <c r="J185" s="272"/>
-      <c r="K185" s="272"/>
-      <c r="L185" s="276"/>
-      <c r="M185" s="272"/>
-      <c r="N185" s="272"/>
-      <c r="O185" s="324"/>
-      <c r="P185" s="272"/>
-    </row>
-    <row r="186" spans="1:16" s="273" customFormat="1">
-      <c r="A186" s="311">
-        <v>184</v>
-      </c>
-      <c r="B186" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C186" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D186" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E186" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F186" s="312" t="s">
-        <v>429</v>
-      </c>
-      <c r="G186" s="307" t="s">
-        <v>430</v>
-      </c>
-      <c r="H186" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I186" s="272"/>
-      <c r="J186" s="272"/>
-      <c r="K186" s="272"/>
-      <c r="L186" s="276"/>
-      <c r="M186" s="272"/>
-      <c r="N186" s="272"/>
-      <c r="O186" s="324"/>
-      <c r="P186" s="272"/>
-    </row>
-    <row r="187" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A187" s="311">
-        <v>185</v>
-      </c>
-      <c r="B187" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C187" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D187" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E187" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F187" s="312" t="s">
-        <v>431</v>
-      </c>
-      <c r="G187" s="307" t="s">
-        <v>432</v>
-      </c>
-      <c r="H187" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I187" s="272"/>
-      <c r="J187" s="272"/>
-      <c r="K187" s="272"/>
-      <c r="L187" s="276"/>
-      <c r="M187" s="272"/>
-      <c r="N187" s="272"/>
-      <c r="O187" s="324"/>
-      <c r="P187" s="272"/>
-    </row>
-    <row r="188" spans="1:16" s="273" customFormat="1" ht="54">
-      <c r="A188" s="311">
-        <v>186</v>
-      </c>
-      <c r="B188" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C188" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D188" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E188" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F188" s="312" t="s">
-        <v>436</v>
-      </c>
-      <c r="G188" s="323" t="s">
-        <v>445</v>
-      </c>
-      <c r="H188" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I188" s="272"/>
-      <c r="J188" s="272"/>
-      <c r="K188" s="272"/>
-      <c r="L188" s="276"/>
-      <c r="M188" s="272"/>
-      <c r="N188" s="272"/>
-      <c r="O188" s="324"/>
-      <c r="P188" s="272"/>
-    </row>
-    <row r="189" spans="1:16" s="273" customFormat="1" ht="67.5">
-      <c r="A189" s="311">
-        <v>187</v>
-      </c>
-      <c r="B189" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C189" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D189" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E189" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F189" s="312" t="s">
-        <v>444</v>
-      </c>
-      <c r="G189" s="323" t="s">
-        <v>501</v>
-      </c>
-      <c r="H189" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I189" s="272"/>
-      <c r="J189" s="272"/>
-      <c r="K189" s="272"/>
-      <c r="L189" s="276"/>
-      <c r="M189" s="272"/>
-      <c r="N189" s="272"/>
-      <c r="O189" s="324"/>
-      <c r="P189" s="272"/>
-    </row>
-    <row r="190" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A190" s="311">
-        <v>188</v>
-      </c>
-      <c r="B190" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C190" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D190" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E190" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F190" s="312" t="s">
-        <v>437</v>
-      </c>
-      <c r="G190" s="307" t="s">
-        <v>446</v>
-      </c>
-      <c r="H190" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I190" s="272"/>
-      <c r="J190" s="272"/>
-      <c r="K190" s="272"/>
-      <c r="L190" s="276"/>
-      <c r="M190" s="272"/>
-      <c r="N190" s="272"/>
-      <c r="O190" s="324"/>
-      <c r="P190" s="272"/>
-    </row>
-    <row r="191" spans="1:16" s="273" customFormat="1" ht="40.5">
-      <c r="A191" s="311">
-        <v>189</v>
-      </c>
-      <c r="B191" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C191" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D191" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E191" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F191" s="312" t="s">
-        <v>439</v>
-      </c>
-      <c r="G191" s="307" t="s">
-        <v>438</v>
-      </c>
-      <c r="H191" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I191" s="272"/>
-      <c r="J191" s="272"/>
-      <c r="K191" s="272"/>
-      <c r="L191" s="276"/>
-      <c r="M191" s="272"/>
-      <c r="N191" s="272"/>
-      <c r="O191" s="324"/>
-      <c r="P191" s="272"/>
-    </row>
-    <row r="192" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A192" s="311">
-        <v>190</v>
-      </c>
-      <c r="B192" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C192" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D192" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E192" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F192" s="312" t="s">
-        <v>452</v>
-      </c>
-      <c r="G192" s="323" t="s">
-        <v>453</v>
-      </c>
-      <c r="H192" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I192" s="272"/>
-      <c r="J192" s="272"/>
-      <c r="K192" s="272"/>
-      <c r="L192" s="276"/>
-      <c r="M192" s="272"/>
-      <c r="N192" s="272"/>
-      <c r="O192" s="324"/>
-      <c r="P192" s="272"/>
-    </row>
-    <row r="193" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A193" s="311">
-        <v>191</v>
-      </c>
-      <c r="B193" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C193" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D193" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E193" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F193" s="312" t="s">
-        <v>440</v>
-      </c>
-      <c r="G193" s="329" t="s">
-        <v>451</v>
-      </c>
-      <c r="H193" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I193" s="272"/>
-      <c r="J193" s="272"/>
-      <c r="K193" s="272"/>
-      <c r="L193" s="276"/>
-      <c r="M193" s="272"/>
-      <c r="N193" s="272"/>
-      <c r="O193" s="324"/>
-      <c r="P193" s="272"/>
-    </row>
-    <row r="194" spans="1:16" s="273" customFormat="1">
-      <c r="A194" s="311">
-        <v>192</v>
-      </c>
-      <c r="B194" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C194" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D194" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E194" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F194" s="312" t="s">
-        <v>441</v>
-      </c>
-      <c r="G194" s="307" t="s">
-        <v>442</v>
-      </c>
-      <c r="H194" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I194" s="272"/>
-      <c r="J194" s="272"/>
-      <c r="K194" s="272"/>
-      <c r="L194" s="276"/>
-      <c r="M194" s="272"/>
-      <c r="N194" s="272"/>
-      <c r="O194" s="324"/>
-      <c r="P194" s="272"/>
-    </row>
-    <row r="195" spans="1:16" s="273" customFormat="1">
-      <c r="A195" s="311">
-        <v>193</v>
-      </c>
-      <c r="B195" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C195" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D195" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E195" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F195" s="312" t="s">
-        <v>443</v>
-      </c>
-      <c r="G195" s="307" t="s">
-        <v>449</v>
-      </c>
-      <c r="H195" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I195" s="272"/>
-      <c r="J195" s="272"/>
-      <c r="K195" s="272"/>
-      <c r="L195" s="276"/>
-      <c r="M195" s="272"/>
-      <c r="N195" s="272"/>
-      <c r="O195" s="324"/>
-      <c r="P195" s="272"/>
-    </row>
-    <row r="196" spans="1:16" s="273" customFormat="1">
-      <c r="A196" s="311">
-        <v>194</v>
-      </c>
-      <c r="B196" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C196" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D196" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E196" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F196" s="312" t="s">
-        <v>443</v>
-      </c>
-      <c r="G196" s="307" t="s">
-        <v>450</v>
-      </c>
-      <c r="H196" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I196" s="272"/>
-      <c r="J196" s="272"/>
-      <c r="K196" s="272"/>
-      <c r="L196" s="276"/>
-      <c r="M196" s="272"/>
-      <c r="N196" s="272"/>
-      <c r="O196" s="324"/>
-      <c r="P196" s="272"/>
-    </row>
-    <row r="197" spans="1:16" s="273" customFormat="1">
-      <c r="A197" s="311">
-        <v>195</v>
-      </c>
-      <c r="B197" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C197" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D197" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E197" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F197" s="312" t="s">
-        <v>447</v>
-      </c>
-      <c r="G197" s="307" t="s">
-        <v>448</v>
-      </c>
-      <c r="H197" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I197" s="272"/>
-      <c r="J197" s="272"/>
-      <c r="K197" s="272"/>
-      <c r="L197" s="276"/>
-      <c r="M197" s="272"/>
-      <c r="N197" s="272"/>
-      <c r="O197" s="324"/>
-      <c r="P197" s="272"/>
-    </row>
-    <row r="198" spans="1:16" s="273" customFormat="1" ht="54">
-      <c r="A198" s="311">
-        <v>196</v>
-      </c>
-      <c r="B198" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C198" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D198" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E198" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F198" s="312" t="s">
-        <v>447</v>
-      </c>
-      <c r="G198" s="323" t="s">
-        <v>508</v>
-      </c>
-      <c r="H198" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I198" s="272"/>
-      <c r="J198" s="272"/>
-      <c r="K198" s="272"/>
-      <c r="L198" s="276" t="s">
-        <v>562</v>
-      </c>
-      <c r="M198" s="272"/>
-      <c r="N198" s="272" t="s">
-        <v>561</v>
-      </c>
-      <c r="O198" s="324">
-        <v>42651</v>
-      </c>
-      <c r="P198" s="272"/>
-    </row>
-    <row r="199" spans="1:16" s="273" customFormat="1">
-      <c r="A199" s="311">
-        <v>197</v>
-      </c>
-      <c r="B199" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C199" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D199" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E199" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F199" s="312" t="s">
-        <v>458</v>
-      </c>
-      <c r="G199" s="307" t="s">
-        <v>459</v>
-      </c>
-      <c r="H199" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I199" s="272"/>
-      <c r="J199" s="272"/>
-      <c r="K199" s="272"/>
-      <c r="L199" s="276"/>
-      <c r="M199" s="272"/>
-      <c r="N199" s="272"/>
-      <c r="O199" s="324"/>
-      <c r="P199" s="272"/>
-    </row>
-    <row r="200" spans="1:16" s="273" customFormat="1" ht="40.5">
-      <c r="A200" s="311">
-        <v>198</v>
-      </c>
-      <c r="B200" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C200" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D200" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E200" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F200" s="312" t="s">
-        <v>463</v>
-      </c>
-      <c r="G200" s="307" t="s">
-        <v>485</v>
-      </c>
-      <c r="H200" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I200" s="272"/>
-      <c r="J200" s="272"/>
-      <c r="K200" s="272"/>
-      <c r="L200" s="276"/>
-      <c r="M200" s="272"/>
-      <c r="N200" s="272"/>
-      <c r="O200" s="324"/>
-      <c r="P200" s="272"/>
-    </row>
-    <row r="201" spans="1:16" s="273" customFormat="1">
-      <c r="A201" s="311">
-        <v>199</v>
-      </c>
-      <c r="B201" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C201" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D201" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E201" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F201" s="312" t="s">
-        <v>422</v>
-      </c>
-      <c r="G201" s="307" t="s">
-        <v>464</v>
-      </c>
-      <c r="H201" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I201" s="272"/>
-      <c r="J201" s="272"/>
-      <c r="K201" s="272"/>
-      <c r="L201" s="276" t="s">
-        <v>563</v>
-      </c>
-      <c r="M201" s="272"/>
-      <c r="N201" s="272" t="s">
-        <v>564</v>
-      </c>
-      <c r="O201" s="324">
-        <v>42651</v>
-      </c>
-      <c r="P201" s="272"/>
-    </row>
-    <row r="202" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A202" s="311">
-        <v>200</v>
-      </c>
-      <c r="B202" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C202" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D202" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E202" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F202" s="312" t="s">
-        <v>466</v>
-      </c>
-      <c r="G202" s="307" t="s">
-        <v>469</v>
-      </c>
-      <c r="H202" s="280"/>
-      <c r="I202" s="272"/>
-      <c r="J202" s="272"/>
-      <c r="K202" s="272"/>
-      <c r="L202" s="276" t="s">
-        <v>556</v>
-      </c>
-      <c r="M202" s="272"/>
-      <c r="N202" s="272" t="s">
-        <v>557</v>
-      </c>
-      <c r="O202" s="324">
-        <v>42651</v>
-      </c>
-      <c r="P202" s="272"/>
-    </row>
-    <row r="203" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A203" s="311">
-        <v>201</v>
-      </c>
-      <c r="B203" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C203" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D203" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E203" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F203" s="312" t="s">
-        <v>480</v>
-      </c>
-      <c r="G203" s="323" t="s">
-        <v>481</v>
-      </c>
-      <c r="H203" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I203" s="272"/>
-      <c r="J203" s="272"/>
-      <c r="K203" s="272"/>
-      <c r="L203" s="276" t="s">
-        <v>558</v>
-      </c>
-      <c r="M203" s="272"/>
-      <c r="N203" s="272"/>
-      <c r="O203" s="324">
-        <v>42651</v>
-      </c>
-      <c r="P203" s="272"/>
-    </row>
-    <row r="204" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A204" s="311">
-        <v>202</v>
-      </c>
-      <c r="B204" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C204" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D204" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E204" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F204" s="312" t="s">
-        <v>486</v>
-      </c>
-      <c r="G204" s="307" t="s">
-        <v>488</v>
-      </c>
-      <c r="H204" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I204" s="272"/>
-      <c r="J204" s="272"/>
-      <c r="K204" s="272"/>
-      <c r="L204" s="276"/>
-      <c r="M204" s="272"/>
-      <c r="N204" s="272"/>
-      <c r="O204" s="324"/>
-      <c r="P204" s="272"/>
-    </row>
-    <row r="205" spans="1:16" s="273" customFormat="1">
-      <c r="A205" s="311">
-        <v>203</v>
-      </c>
-      <c r="B205" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C205" s="360" t="s">
-        <v>550</v>
-      </c>
-      <c r="D205" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E205" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F205" s="312" t="s">
-        <v>510</v>
-      </c>
-      <c r="G205" s="307" t="s">
-        <v>511</v>
-      </c>
-      <c r="H205" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I205" s="272"/>
-      <c r="J205" s="272"/>
-      <c r="K205" s="272"/>
-      <c r="L205" s="276"/>
-      <c r="M205" s="272"/>
-      <c r="N205" s="272"/>
-      <c r="O205" s="324"/>
-      <c r="P205" s="272"/>
-    </row>
-    <row r="206" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A206" s="311">
-        <v>204</v>
-      </c>
-      <c r="B206" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C206" s="360" t="s">
-        <v>550</v>
-      </c>
-      <c r="D206" s="293">
-        <v>42643</v>
-      </c>
-      <c r="E206" s="294">
-        <v>42645</v>
-      </c>
-      <c r="F206" s="312" t="s">
-        <v>512</v>
-      </c>
-      <c r="G206" s="307" t="s">
-        <v>523</v>
-      </c>
-      <c r="H206" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I206" s="272"/>
-      <c r="J206" s="272"/>
-      <c r="K206" s="272"/>
-      <c r="L206" s="276" t="s">
-        <v>565</v>
-      </c>
-      <c r="M206" s="272"/>
-      <c r="N206" s="272" t="s">
-        <v>566</v>
-      </c>
-      <c r="O206" s="324">
-        <v>42651</v>
-      </c>
-      <c r="P206" s="272"/>
-    </row>
-    <row r="207" spans="1:16" s="273" customFormat="1" ht="40.5">
-      <c r="A207" s="311">
-        <v>205</v>
-      </c>
-      <c r="B207" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C207" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D207" s="348">
-        <v>42643</v>
-      </c>
-      <c r="E207" s="349">
-        <v>42649</v>
-      </c>
-      <c r="F207" s="312" t="s">
-        <v>520</v>
-      </c>
-      <c r="G207" s="307" t="s">
-        <v>522</v>
-      </c>
-      <c r="H207" s="280"/>
-      <c r="I207" s="272"/>
-      <c r="J207" s="272"/>
-      <c r="K207" s="272"/>
-      <c r="L207" s="276"/>
-      <c r="M207" s="272"/>
-      <c r="N207" s="272"/>
-      <c r="O207" s="324"/>
-      <c r="P207" s="272"/>
-    </row>
-    <row r="208" spans="1:16" s="273" customFormat="1" ht="148.5">
-      <c r="A208" s="311">
-        <v>206</v>
-      </c>
-      <c r="B208" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C208" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D208" s="348">
-        <v>42643</v>
-      </c>
-      <c r="E208" s="349">
-        <v>42649</v>
-      </c>
-      <c r="F208" s="312" t="s">
-        <v>532</v>
-      </c>
-      <c r="G208" s="323" t="s">
-        <v>531</v>
-      </c>
-      <c r="H208" s="280" t="s">
-        <v>47</v>
-      </c>
-      <c r="I208" s="272"/>
-      <c r="J208" s="272"/>
-      <c r="K208" s="272"/>
-      <c r="L208" s="276"/>
-      <c r="M208" s="272"/>
-      <c r="N208" s="272"/>
-      <c r="O208" s="324"/>
-      <c r="P208" s="272"/>
-    </row>
-    <row r="209" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A209" s="311">
-        <v>207</v>
-      </c>
-      <c r="B209" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C209" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D209" s="348">
-        <v>42643</v>
-      </c>
-      <c r="E209" s="349">
-        <v>42645</v>
-      </c>
-      <c r="F209" s="312" t="s">
-        <v>542</v>
-      </c>
-      <c r="G209" s="307" t="s">
-        <v>546</v>
-      </c>
-      <c r="H209" s="280"/>
-      <c r="I209" s="272"/>
-      <c r="J209" s="272"/>
-      <c r="K209" s="272"/>
-      <c r="L209" s="276"/>
-      <c r="M209" s="272"/>
-      <c r="N209" s="272"/>
-      <c r="O209" s="324"/>
-      <c r="P209" s="272"/>
-    </row>
-    <row r="210" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A210" s="311">
-        <v>208</v>
-      </c>
-      <c r="B210" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C210" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D210" s="348">
-        <v>42643</v>
-      </c>
-      <c r="E210" s="349">
-        <v>42645</v>
-      </c>
-      <c r="F210" s="312" t="s">
-        <v>543</v>
-      </c>
-      <c r="G210" s="307" t="s">
-        <v>547</v>
-      </c>
-      <c r="H210" s="280"/>
-      <c r="I210" s="272"/>
-      <c r="J210" s="272"/>
-      <c r="K210" s="272"/>
-      <c r="L210" s="276"/>
-      <c r="M210" s="272"/>
-      <c r="N210" s="272"/>
-      <c r="O210" s="324"/>
-      <c r="P210" s="272"/>
-    </row>
-    <row r="211" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A211" s="311">
-        <v>209</v>
-      </c>
-      <c r="B211" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C211" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D211" s="348">
-        <v>42643</v>
-      </c>
-      <c r="E211" s="349">
-        <v>42645</v>
-      </c>
-      <c r="F211" s="312" t="s">
-        <v>544</v>
-      </c>
-      <c r="G211" s="307" t="s">
-        <v>548</v>
-      </c>
-      <c r="H211" s="280"/>
-      <c r="I211" s="272"/>
-      <c r="J211" s="272"/>
-      <c r="K211" s="272"/>
-      <c r="L211" s="276"/>
-      <c r="M211" s="272"/>
-      <c r="N211" s="272"/>
-      <c r="O211" s="324"/>
-      <c r="P211" s="272"/>
-    </row>
-    <row r="212" spans="1:16" s="273" customFormat="1" ht="27">
-      <c r="A212" s="311">
-        <v>210</v>
-      </c>
-      <c r="B212" s="276" t="s">
-        <v>19</v>
-      </c>
-      <c r="C212" s="276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D212" s="348">
-        <v>42643</v>
-      </c>
-      <c r="E212" s="349">
-        <v>42645</v>
-      </c>
-      <c r="F212" s="312" t="s">
+      <c r="G212" s="306" t="s">
         <v>545</v>
       </c>
-      <c r="G212" s="307" t="s">
-        <v>549</v>
-      </c>
-      <c r="H212" s="280"/>
-      <c r="I212" s="272"/>
-      <c r="J212" s="272"/>
-      <c r="K212" s="272"/>
-      <c r="L212" s="276"/>
-      <c r="M212" s="272"/>
-      <c r="N212" s="272"/>
-      <c r="O212" s="324"/>
-      <c r="P212" s="272"/>
+      <c r="H212" s="279"/>
+      <c r="I212" s="271"/>
+      <c r="J212" s="271"/>
+      <c r="K212" s="271"/>
+      <c r="L212" s="275"/>
+      <c r="M212" s="271"/>
+      <c r="N212" s="271"/>
+      <c r="O212" s="323"/>
+      <c r="P212" s="271"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:P212">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters>
+      <filters blank="1">
         <filter val="返回"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11"/>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>
     <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I61 I63 I1:I59 I65:I1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+  <conditionalFormatting sqref="I61 I63 I65:I1048576 I1:I59">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8 L126:L142 L151:L170 L14:L50 L10 L89:L115 L174 L53:L87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8 L126:L142 L151:L170 L53:L87 L10 L89:L115 L174 L14:L50">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15995,7 +16016,7 @@
     <col min="3" max="3" width="15.875" style="50" customWidth="1"/>
     <col min="4" max="4" width="9" style="50"/>
     <col min="5" max="5" width="14.375" style="50" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="272" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="271" customWidth="1"/>
     <col min="7" max="7" width="77.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="7" customWidth="1"/>
     <col min="9" max="9" width="13.125" style="50" customWidth="1"/>
@@ -16026,8 +16047,8 @@
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="274" t="s">
-        <v>509</v>
+      <c r="F2" s="273" t="s">
+        <v>505</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -16076,7 +16097,7 @@
       <c r="E3" s="21">
         <v>42555</v>
       </c>
-      <c r="F3" s="278"/>
+      <c r="F3" s="277"/>
       <c r="G3" s="22" t="s">
         <v>21</v>
       </c>
@@ -16106,7 +16127,7 @@
       <c r="E4" s="21">
         <v>42555</v>
       </c>
-      <c r="F4" s="278"/>
+      <c r="F4" s="277"/>
       <c r="G4" s="22" t="s">
         <v>23</v>
       </c>
@@ -16136,7 +16157,7 @@
       <c r="E5" s="21">
         <v>42555</v>
       </c>
-      <c r="F5" s="278"/>
+      <c r="F5" s="277"/>
       <c r="G5" s="22" t="s">
         <v>22</v>
       </c>
@@ -16166,7 +16187,7 @@
       <c r="E6" s="21">
         <v>42555</v>
       </c>
-      <c r="F6" s="278"/>
+      <c r="F6" s="277"/>
       <c r="G6" s="22" t="s">
         <v>25</v>
       </c>
@@ -16198,7 +16219,7 @@
       <c r="E7" s="21">
         <v>42555</v>
       </c>
-      <c r="F7" s="278"/>
+      <c r="F7" s="277"/>
       <c r="G7" s="22" t="s">
         <v>26</v>
       </c>
@@ -16230,7 +16251,7 @@
       <c r="E8" s="21">
         <v>42555</v>
       </c>
-      <c r="F8" s="278"/>
+      <c r="F8" s="277"/>
       <c r="G8" s="22" t="s">
         <v>27</v>
       </c>
@@ -16262,7 +16283,7 @@
       <c r="E9" s="21">
         <v>42555</v>
       </c>
-      <c r="F9" s="278"/>
+      <c r="F9" s="277"/>
       <c r="G9" s="22" t="s">
         <v>28</v>
       </c>
@@ -16292,7 +16313,7 @@
       <c r="E10" s="171">
         <v>42627</v>
       </c>
-      <c r="F10" s="294"/>
+      <c r="F10" s="293"/>
       <c r="G10" s="132" t="s">
         <v>156</v>
       </c>
@@ -16316,7 +16337,7 @@
       <c r="C11" s="19"/>
       <c r="D11" s="49"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="278"/>
+      <c r="F11" s="277"/>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
       <c r="I11" s="19"/>
@@ -16334,7 +16355,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="49"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="278"/>
+      <c r="F12" s="277"/>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
       <c r="I12" s="19"/>
@@ -16352,7 +16373,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="62"/>
       <c r="E13" s="63"/>
-      <c r="F13" s="294"/>
+      <c r="F13" s="293"/>
       <c r="G13" s="182" t="s">
         <v>184</v>
       </c>
@@ -16372,7 +16393,7 @@
       <c r="C14" s="52"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="287"/>
+      <c r="F14" s="286"/>
       <c r="G14" s="55" t="s">
         <v>185</v>
       </c>
@@ -16392,7 +16413,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="49"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="278"/>
+      <c r="F15" s="277"/>
       <c r="G15" s="182" t="s">
         <v>186</v>
       </c>
@@ -16412,7 +16433,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="49"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="278"/>
+      <c r="F16" s="277"/>
       <c r="G16" s="182" t="s">
         <v>187</v>
       </c>
@@ -16426,46 +16447,46 @@
       <c r="O16" s="20"/>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16" s="272" customFormat="1" ht="40.5">
-      <c r="A17" s="275">
+    <row r="17" spans="1:16" s="271" customFormat="1" ht="40.5">
+      <c r="A17" s="274">
         <v>2</v>
       </c>
-      <c r="B17" s="276" t="s">
+      <c r="B17" s="275" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="276" t="s">
+      <c r="C17" s="275" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="277">
+      <c r="D17" s="276">
         <v>42632</v>
       </c>
-      <c r="E17" s="278">
+      <c r="E17" s="277">
         <v>42634</v>
       </c>
-      <c r="F17" s="278" t="s">
+      <c r="F17" s="277" t="s">
         <v>189</v>
       </c>
-      <c r="G17" s="279" t="s">
+      <c r="G17" s="278" t="s">
         <v>190</v>
       </c>
-      <c r="H17" s="280"/>
-      <c r="I17" s="276"/>
-      <c r="J17" s="281"/>
-      <c r="K17" s="281"/>
-      <c r="L17" s="276"/>
-      <c r="M17" s="280"/>
-      <c r="N17" s="280"/>
-      <c r="O17" s="277"/>
-      <c r="P17" s="282"/>
+      <c r="H17" s="279"/>
+      <c r="I17" s="275"/>
+      <c r="J17" s="280"/>
+      <c r="K17" s="280"/>
+      <c r="L17" s="275"/>
+      <c r="M17" s="279"/>
+      <c r="N17" s="279"/>
+      <c r="O17" s="276"/>
+      <c r="P17" s="281"/>
     </row>
     <row r="18" spans="1:16" s="127" customFormat="1" ht="94.5">
-      <c r="A18" s="275">
+      <c r="A18" s="274">
         <v>3</v>
       </c>
       <c r="B18" s="180" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="276" t="s">
+      <c r="C18" s="275" t="s">
         <v>107</v>
       </c>
       <c r="D18" s="134">
@@ -16496,7 +16517,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="49"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="278"/>
+      <c r="F19" s="277"/>
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
       <c r="I19" s="19"/>
@@ -16514,7 +16535,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="49"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="278"/>
+      <c r="F20" s="277"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
       <c r="I20" s="19"/>
@@ -16532,7 +16553,7 @@
       <c r="C21" s="19"/>
       <c r="D21" s="49"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="278"/>
+      <c r="F21" s="277"/>
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
       <c r="I21" s="19"/>
@@ -16550,7 +16571,7 @@
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="278"/>
+      <c r="F22" s="277"/>
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
       <c r="I22" s="19"/>
@@ -16568,7 +16589,7 @@
       <c r="C23" s="52"/>
       <c r="D23" s="53"/>
       <c r="E23" s="54"/>
-      <c r="F23" s="287"/>
+      <c r="F23" s="286"/>
       <c r="G23" s="55"/>
       <c r="H23" s="56"/>
       <c r="I23" s="52"/>
@@ -16586,7 +16607,7 @@
       <c r="C24" s="19"/>
       <c r="D24" s="49"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="278"/>
+      <c r="F24" s="277"/>
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
       <c r="I24" s="19"/>
@@ -16604,7 +16625,7 @@
       <c r="C25" s="52"/>
       <c r="D25" s="53"/>
       <c r="E25" s="54"/>
-      <c r="F25" s="287"/>
+      <c r="F25" s="286"/>
       <c r="G25" s="55"/>
       <c r="H25" s="56"/>
       <c r="I25" s="52"/>
@@ -16622,7 +16643,7 @@
       <c r="C26" s="19"/>
       <c r="D26" s="49"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="278"/>
+      <c r="F26" s="277"/>
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
       <c r="I26" s="19"/>
@@ -16640,7 +16661,7 @@
       <c r="C27" s="52"/>
       <c r="D27" s="53"/>
       <c r="E27" s="54"/>
-      <c r="F27" s="287"/>
+      <c r="F27" s="286"/>
       <c r="G27" s="55"/>
       <c r="H27" s="56"/>
       <c r="I27" s="52"/>
@@ -16658,7 +16679,7 @@
       <c r="C28" s="52"/>
       <c r="D28" s="53"/>
       <c r="E28" s="54"/>
-      <c r="F28" s="287"/>
+      <c r="F28" s="286"/>
       <c r="G28" s="55"/>
       <c r="H28" s="56"/>
       <c r="I28" s="52"/>
@@ -16676,7 +16697,7 @@
       <c r="C29" s="19"/>
       <c r="D29" s="49"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="278"/>
+      <c r="F29" s="277"/>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
       <c r="I29" s="19"/>
@@ -16694,7 +16715,7 @@
       <c r="C30" s="19"/>
       <c r="D30" s="49"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="278"/>
+      <c r="F30" s="277"/>
       <c r="G30" s="22"/>
       <c r="H30" s="23"/>
       <c r="I30" s="19"/>
@@ -16712,7 +16733,7 @@
       <c r="C31" s="19"/>
       <c r="D31" s="49"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="278"/>
+      <c r="F31" s="277"/>
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
       <c r="I31" s="19"/>
@@ -16730,7 +16751,7 @@
       <c r="C32" s="19"/>
       <c r="D32" s="49"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="278"/>
+      <c r="F32" s="277"/>
       <c r="G32" s="22"/>
       <c r="H32" s="23"/>
       <c r="I32" s="19"/>
@@ -16748,7 +16769,7 @@
       <c r="C33" s="19"/>
       <c r="D33" s="49"/>
       <c r="E33" s="21"/>
-      <c r="F33" s="278"/>
+      <c r="F33" s="277"/>
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
       <c r="I33" s="19"/>
@@ -16766,7 +16787,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="49"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="278"/>
+      <c r="F34" s="277"/>
       <c r="G34" s="22"/>
       <c r="H34" s="23"/>
       <c r="I34" s="19"/>
@@ -16784,7 +16805,7 @@
       <c r="C35" s="52"/>
       <c r="D35" s="53"/>
       <c r="E35" s="54"/>
-      <c r="F35" s="287"/>
+      <c r="F35" s="286"/>
       <c r="G35" s="55"/>
       <c r="H35" s="56"/>
       <c r="I35" s="52"/>
@@ -16802,7 +16823,7 @@
       <c r="C36" s="19"/>
       <c r="D36" s="49"/>
       <c r="E36" s="21"/>
-      <c r="F36" s="278"/>
+      <c r="F36" s="277"/>
       <c r="G36" s="22"/>
       <c r="H36" s="23"/>
       <c r="I36" s="19"/>
@@ -16820,7 +16841,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="49"/>
       <c r="E37" s="21"/>
-      <c r="F37" s="278"/>
+      <c r="F37" s="277"/>
       <c r="G37" s="22"/>
       <c r="H37" s="23"/>
       <c r="I37" s="19"/>
@@ -16838,7 +16859,7 @@
       <c r="C38" s="19"/>
       <c r="D38" s="49"/>
       <c r="E38" s="21"/>
-      <c r="F38" s="278"/>
+      <c r="F38" s="277"/>
       <c r="G38" s="22"/>
       <c r="H38" s="23"/>
       <c r="I38" s="19"/>
@@ -16856,7 +16877,7 @@
       <c r="C39" s="19"/>
       <c r="D39" s="49"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="278"/>
+      <c r="F39" s="277"/>
       <c r="G39" s="22"/>
       <c r="H39" s="23"/>
       <c r="I39" s="19"/>
@@ -16874,7 +16895,7 @@
       <c r="C40" s="52"/>
       <c r="D40" s="53"/>
       <c r="E40" s="54"/>
-      <c r="F40" s="287"/>
+      <c r="F40" s="286"/>
       <c r="G40" s="55"/>
       <c r="H40" s="56"/>
       <c r="I40" s="52"/>
@@ -16892,7 +16913,7 @@
       <c r="C41" s="52"/>
       <c r="D41" s="53"/>
       <c r="E41" s="54"/>
-      <c r="F41" s="287"/>
+      <c r="F41" s="286"/>
       <c r="G41" s="55"/>
       <c r="H41" s="56"/>
       <c r="I41" s="52"/>
@@ -16910,7 +16931,7 @@
       <c r="C42" s="19"/>
       <c r="D42" s="49"/>
       <c r="E42" s="21"/>
-      <c r="F42" s="278"/>
+      <c r="F42" s="277"/>
       <c r="G42" s="22"/>
       <c r="H42" s="23"/>
       <c r="I42" s="19"/>
@@ -16928,7 +16949,7 @@
       <c r="C43" s="19"/>
       <c r="D43" s="49"/>
       <c r="E43" s="21"/>
-      <c r="F43" s="278"/>
+      <c r="F43" s="277"/>
       <c r="G43" s="22"/>
       <c r="H43" s="23"/>
       <c r="I43" s="19"/>
@@ -16946,7 +16967,7 @@
       <c r="C44" s="19"/>
       <c r="D44" s="49"/>
       <c r="E44" s="21"/>
-      <c r="F44" s="278"/>
+      <c r="F44" s="277"/>
       <c r="G44" s="22"/>
       <c r="H44" s="23"/>
       <c r="I44" s="19"/>
@@ -16964,7 +16985,7 @@
       <c r="C45" s="19"/>
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
-      <c r="F45" s="278"/>
+      <c r="F45" s="277"/>
       <c r="G45" s="22"/>
       <c r="H45" s="23"/>
       <c r="I45" s="19"/>
@@ -16982,7 +17003,7 @@
       <c r="C46" s="19"/>
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
-      <c r="F46" s="278"/>
+      <c r="F46" s="277"/>
       <c r="G46" s="22"/>
       <c r="H46" s="23"/>
       <c r="I46" s="19"/>
@@ -17000,7 +17021,7 @@
       <c r="C47" s="19"/>
       <c r="D47" s="49"/>
       <c r="E47" s="21"/>
-      <c r="F47" s="278"/>
+      <c r="F47" s="277"/>
       <c r="G47" s="22"/>
       <c r="H47" s="23"/>
       <c r="I47" s="19"/>
@@ -17018,7 +17039,7 @@
       <c r="C48" s="19"/>
       <c r="D48" s="49"/>
       <c r="E48" s="21"/>
-      <c r="F48" s="278"/>
+      <c r="F48" s="277"/>
       <c r="G48" s="22"/>
       <c r="H48" s="23"/>
       <c r="I48" s="19"/>
@@ -17036,7 +17057,7 @@
       <c r="C49" s="19"/>
       <c r="D49" s="49"/>
       <c r="E49" s="21"/>
-      <c r="F49" s="278"/>
+      <c r="F49" s="277"/>
       <c r="G49" s="26"/>
       <c r="H49" s="23"/>
       <c r="I49" s="19"/>
@@ -17054,7 +17075,7 @@
       <c r="C50" s="19"/>
       <c r="D50" s="49"/>
       <c r="E50" s="21"/>
-      <c r="F50" s="278"/>
+      <c r="F50" s="277"/>
       <c r="G50" s="26"/>
       <c r="H50" s="23"/>
       <c r="I50" s="19"/>
@@ -17072,7 +17093,7 @@
       <c r="C51" s="19"/>
       <c r="D51" s="49"/>
       <c r="E51" s="21"/>
-      <c r="F51" s="278"/>
+      <c r="F51" s="277"/>
       <c r="G51" s="26"/>
       <c r="H51" s="23"/>
       <c r="I51" s="19"/>
@@ -17090,7 +17111,7 @@
       <c r="C52" s="52"/>
       <c r="D52" s="53"/>
       <c r="E52" s="54"/>
-      <c r="F52" s="287"/>
+      <c r="F52" s="286"/>
       <c r="G52" s="55"/>
       <c r="H52" s="56"/>
       <c r="I52" s="52"/>
@@ -17108,7 +17129,7 @@
       <c r="C53" s="19"/>
       <c r="D53" s="49"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="278"/>
+      <c r="F53" s="277"/>
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
       <c r="I53" s="19"/>
@@ -17126,7 +17147,7 @@
       <c r="C54" s="19"/>
       <c r="D54" s="49"/>
       <c r="E54" s="21"/>
-      <c r="F54" s="278"/>
+      <c r="F54" s="277"/>
       <c r="G54" s="22"/>
       <c r="H54" s="23"/>
       <c r="I54" s="19"/>
@@ -17144,7 +17165,7 @@
       <c r="C55" s="19"/>
       <c r="D55" s="49"/>
       <c r="E55" s="21"/>
-      <c r="F55" s="278"/>
+      <c r="F55" s="277"/>
       <c r="G55" s="26"/>
       <c r="H55" s="23"/>
       <c r="I55" s="19"/>
@@ -17162,7 +17183,7 @@
       <c r="C56" s="19"/>
       <c r="D56" s="49"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="278"/>
+      <c r="F56" s="277"/>
       <c r="G56" s="22"/>
       <c r="H56" s="23"/>
       <c r="I56" s="19"/>
@@ -17180,7 +17201,7 @@
       <c r="C57" s="19"/>
       <c r="D57" s="49"/>
       <c r="E57" s="21"/>
-      <c r="F57" s="278"/>
+      <c r="F57" s="277"/>
       <c r="G57" s="22"/>
       <c r="H57" s="23"/>
       <c r="I57" s="19"/>
@@ -17198,7 +17219,7 @@
       <c r="C58" s="19"/>
       <c r="D58" s="49"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="278"/>
+      <c r="F58" s="277"/>
       <c r="G58" s="22"/>
       <c r="H58" s="23"/>
       <c r="I58" s="19"/>
@@ -17216,7 +17237,7 @@
       <c r="C59" s="19"/>
       <c r="D59" s="49"/>
       <c r="E59" s="21"/>
-      <c r="F59" s="278"/>
+      <c r="F59" s="277"/>
       <c r="G59" s="22"/>
       <c r="H59" s="23"/>
       <c r="I59" s="19"/>
@@ -17234,7 +17255,7 @@
       <c r="C60" s="19"/>
       <c r="D60" s="49"/>
       <c r="E60" s="21"/>
-      <c r="F60" s="278"/>
+      <c r="F60" s="277"/>
       <c r="G60" s="22"/>
       <c r="H60" s="23"/>
       <c r="I60" s="19"/>
@@ -17252,7 +17273,7 @@
       <c r="C61" s="19"/>
       <c r="D61" s="49"/>
       <c r="E61" s="21"/>
-      <c r="F61" s="278"/>
+      <c r="F61" s="277"/>
       <c r="G61" s="22"/>
       <c r="H61" s="23"/>
       <c r="I61" s="19"/>
@@ -17270,7 +17291,7 @@
       <c r="C62" s="19"/>
       <c r="D62" s="49"/>
       <c r="E62" s="21"/>
-      <c r="F62" s="278"/>
+      <c r="F62" s="277"/>
       <c r="G62" s="22"/>
       <c r="H62" s="23"/>
       <c r="I62" s="19"/>
@@ -17288,7 +17309,7 @@
       <c r="C63" s="19"/>
       <c r="D63" s="49"/>
       <c r="E63" s="21"/>
-      <c r="F63" s="278"/>
+      <c r="F63" s="277"/>
       <c r="G63" s="22"/>
       <c r="H63" s="23"/>
       <c r="I63" s="19"/>
@@ -17306,7 +17327,7 @@
       <c r="C64" s="19"/>
       <c r="D64" s="49"/>
       <c r="E64" s="21"/>
-      <c r="F64" s="278"/>
+      <c r="F64" s="277"/>
       <c r="G64" s="22"/>
       <c r="H64" s="23"/>
       <c r="I64" s="19"/>
@@ -17324,7 +17345,7 @@
       <c r="C65" s="19"/>
       <c r="D65" s="49"/>
       <c r="E65" s="21"/>
-      <c r="F65" s="308"/>
+      <c r="F65" s="307"/>
       <c r="G65" s="50"/>
       <c r="H65" s="23"/>
       <c r="I65" s="19"/>
@@ -17342,7 +17363,7 @@
       <c r="C66" s="40"/>
       <c r="D66" s="41"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="283"/>
+      <c r="F66" s="282"/>
       <c r="G66" s="43"/>
       <c r="H66" s="44"/>
       <c r="I66" s="40"/>
@@ -17360,7 +17381,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17416,8 +17437,8 @@
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="274" t="s">
-        <v>509</v>
+      <c r="F2" s="273" t="s">
+        <v>505</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -17485,36 +17506,36 @@
       <c r="P3" s="89"/>
     </row>
     <row r="4" spans="1:16" ht="54">
-      <c r="A4" s="275">
+      <c r="A4" s="274">
         <v>2</v>
       </c>
-      <c r="B4" s="276" t="s">
+      <c r="B4" s="275" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="276" t="s">
+      <c r="C4" s="275" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="277">
+      <c r="D4" s="276">
         <v>42632</v>
       </c>
-      <c r="E4" s="303">
+      <c r="E4" s="302">
         <v>42641</v>
       </c>
-      <c r="F4" s="306" t="s">
-        <v>410</v>
-      </c>
-      <c r="G4" s="307" t="s">
-        <v>411</v>
-      </c>
-      <c r="H4" s="280"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="276"/>
-      <c r="M4" s="280"/>
-      <c r="N4" s="280"/>
-      <c r="O4" s="277"/>
-      <c r="P4" s="282"/>
+      <c r="F4" s="305" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" s="306" t="s">
+        <v>408</v>
+      </c>
+      <c r="H4" s="279"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="280"/>
+      <c r="L4" s="275"/>
+      <c r="M4" s="279"/>
+      <c r="N4" s="279"/>
+      <c r="O4" s="276"/>
+      <c r="P4" s="281"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="18"/>

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="566">
   <si>
     <t>编号</t>
   </si>
@@ -1119,10 +1119,6 @@
   </si>
   <si>
     <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7419,17 +7415,7 @@
     <cellStyle name="常规 3 7" xfId="16"/>
     <cellStyle name="常规 6" xfId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -7789,7 +7775,7 @@
         <v>42616</v>
       </c>
       <c r="F3" s="205" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G3" s="142"/>
     </row>
@@ -7808,7 +7794,7 @@
         <v>42625</v>
       </c>
       <c r="F4" s="226" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G4" s="142"/>
     </row>
@@ -7826,7 +7812,7 @@
         <v>42625</v>
       </c>
       <c r="F5" s="226" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="246" customFormat="1">
@@ -7843,7 +7829,7 @@
         <v>42632</v>
       </c>
       <c r="F6" s="226" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="206" customFormat="1">
@@ -7860,7 +7846,7 @@
         <v>42634</v>
       </c>
       <c r="F7" s="349" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="270" customFormat="1">
@@ -7872,13 +7858,13 @@
         <v>42638</v>
       </c>
       <c r="D8" s="351" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E8" s="347">
         <v>42634</v>
       </c>
       <c r="F8" s="349" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G8" s="346"/>
     </row>
@@ -7893,7 +7879,7 @@
         <v>42640</v>
       </c>
       <c r="F9" s="355" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G9" s="346"/>
     </row>
@@ -7912,7 +7898,7 @@
         <v>42643</v>
       </c>
       <c r="F10" s="349" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G10" s="346"/>
     </row>
@@ -7930,7 +7916,7 @@
         <v>42643</v>
       </c>
       <c r="F11" s="349" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7974,7 +7960,7 @@
   <dimension ref="A1:P212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M215" sqref="M215"/>
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8014,7 +8000,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="196" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -8064,13 +8050,13 @@
         <v>42555</v>
       </c>
       <c r="F3" s="202" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G3" s="190" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3" s="191" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I3" s="187"/>
       <c r="J3" s="192"/>
@@ -8080,7 +8066,7 @@
       </c>
       <c r="M3" s="191"/>
       <c r="N3" s="191" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O3" s="188">
         <v>42641</v>
@@ -8182,25 +8168,25 @@
         <v>42555</v>
       </c>
       <c r="F6" s="201" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" s="179" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H6" s="176"/>
       <c r="I6" s="172" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J6" s="131"/>
       <c r="K6" s="173">
         <v>42634</v>
       </c>
       <c r="L6" s="172" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M6" s="176"/>
       <c r="N6" s="176" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O6" s="173">
         <v>42631</v>
@@ -8224,14 +8210,14 @@
         <v>42555</v>
       </c>
       <c r="F7" s="312" t="s">
+        <v>408</v>
+      </c>
+      <c r="G7" s="297" t="s">
         <v>409</v>
-      </c>
-      <c r="G7" s="297" t="s">
-        <v>410</v>
       </c>
       <c r="H7" s="298"/>
       <c r="I7" s="294" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J7" s="299"/>
       <c r="K7" s="295">
@@ -8340,10 +8326,10 @@
         <v>42555</v>
       </c>
       <c r="F10" s="199" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G10" s="301" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H10" s="211" t="s">
         <v>47</v>
@@ -8485,7 +8471,7 @@
       </c>
       <c r="F14" s="312"/>
       <c r="G14" s="297" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" s="298"/>
       <c r="I14" s="294" t="s">
@@ -8523,7 +8509,7 @@
       </c>
       <c r="F15" s="312"/>
       <c r="G15" s="297" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H15" s="298"/>
       <c r="I15" s="294" t="s">
@@ -8561,7 +8547,7 @@
       </c>
       <c r="F16" s="312"/>
       <c r="G16" s="297" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H16" s="298"/>
       <c r="I16" s="294" t="s">
@@ -8599,7 +8585,7 @@
       </c>
       <c r="F17" s="312"/>
       <c r="G17" s="297" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H17" s="298"/>
       <c r="I17" s="294" t="s">
@@ -8619,7 +8605,7 @@
       </c>
       <c r="P17" s="303"/>
     </row>
-    <row r="18" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
+    <row r="18" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A18" s="310">
         <v>16</v>
       </c>
@@ -8637,22 +8623,22 @@
       </c>
       <c r="F18" s="201"/>
       <c r="G18" s="175" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H18" s="176"/>
       <c r="I18" s="172" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J18" s="131"/>
       <c r="K18" s="173">
         <v>42632</v>
       </c>
       <c r="L18" s="180" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M18" s="167"/>
       <c r="N18" s="167" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O18" s="134">
         <v>42632</v>
@@ -8676,10 +8662,10 @@
         <v>42555</v>
       </c>
       <c r="F19" s="199" t="s">
+        <v>341</v>
+      </c>
+      <c r="G19" s="210" t="s">
         <v>342</v>
-      </c>
-      <c r="G19" s="210" t="s">
-        <v>343</v>
       </c>
       <c r="H19" s="211"/>
       <c r="I19" s="211"/>
@@ -8712,10 +8698,10 @@
         <v>42555</v>
       </c>
       <c r="F20" s="199" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G20" s="210" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H20" s="211"/>
       <c r="I20" s="279"/>
@@ -8748,10 +8734,10 @@
         <v>42555</v>
       </c>
       <c r="F21" s="199" t="s">
+        <v>343</v>
+      </c>
+      <c r="G21" s="210" t="s">
         <v>344</v>
-      </c>
-      <c r="G21" s="210" t="s">
-        <v>345</v>
       </c>
       <c r="H21" s="211"/>
       <c r="I21" s="279"/>
@@ -8785,7 +8771,7 @@
       </c>
       <c r="F22" s="201"/>
       <c r="G22" s="175" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H22" s="176"/>
       <c r="I22" s="172" t="s">
@@ -8823,11 +8809,11 @@
       </c>
       <c r="F23" s="201"/>
       <c r="G23" s="175" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H23" s="176"/>
       <c r="I23" s="172" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J23" s="131"/>
       <c r="K23" s="173">
@@ -8861,11 +8847,11 @@
       </c>
       <c r="F24" s="201"/>
       <c r="G24" s="175" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H24" s="176"/>
       <c r="I24" s="172" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J24" s="131"/>
       <c r="K24" s="173">
@@ -8899,11 +8885,11 @@
       </c>
       <c r="F25" s="201"/>
       <c r="G25" s="175" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H25" s="176"/>
       <c r="I25" s="172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J25" s="131"/>
       <c r="K25" s="173">
@@ -8914,7 +8900,7 @@
       </c>
       <c r="M25" s="167"/>
       <c r="N25" s="167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O25" s="134">
         <v>42631</v>
@@ -8972,10 +8958,10 @@
         <v>42555</v>
       </c>
       <c r="F27" s="312" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G27" s="304" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H27" s="298" t="s">
         <v>47</v>
@@ -9014,10 +9000,10 @@
         <v>42555</v>
       </c>
       <c r="F28" s="199" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G28" s="210" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H28" s="211" t="s">
         <v>47</v>
@@ -9030,7 +9016,7 @@
       </c>
       <c r="M28" s="211"/>
       <c r="N28" s="279" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O28" s="34">
         <v>42652</v>
@@ -9055,7 +9041,7 @@
       </c>
       <c r="F29" s="199"/>
       <c r="G29" s="278" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H29" s="211"/>
       <c r="I29" s="211"/>
@@ -9089,11 +9075,11 @@
       </c>
       <c r="F30" s="216"/>
       <c r="G30" s="217" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H30" s="218"/>
       <c r="I30" s="214" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J30" s="219"/>
       <c r="K30" s="215">
@@ -9122,14 +9108,14 @@
         <v>42507</v>
       </c>
       <c r="F31" s="216" t="s">
+        <v>348</v>
+      </c>
+      <c r="G31" s="217" t="s">
         <v>349</v>
-      </c>
-      <c r="G31" s="217" t="s">
-        <v>350</v>
       </c>
       <c r="H31" s="218"/>
       <c r="I31" s="214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J31" s="219"/>
       <c r="K31" s="215">
@@ -9159,7 +9145,7 @@
       </c>
       <c r="F32" s="201"/>
       <c r="G32" s="175" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H32" s="176"/>
       <c r="I32" s="172" t="s">
@@ -9197,7 +9183,7 @@
       </c>
       <c r="F33" s="201"/>
       <c r="G33" s="175" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H33" s="176"/>
       <c r="I33" s="172" t="s">
@@ -9235,7 +9221,7 @@
       </c>
       <c r="F34" s="201"/>
       <c r="G34" s="175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H34" s="176"/>
       <c r="I34" s="172" t="s">
@@ -9273,7 +9259,7 @@
       </c>
       <c r="F35" s="201"/>
       <c r="G35" s="175" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H35" s="176"/>
       <c r="I35" s="172" t="s">
@@ -9348,25 +9334,25 @@
         <v>42555</v>
       </c>
       <c r="F37" s="201" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" s="175" t="s">
         <v>242</v>
-      </c>
-      <c r="G37" s="175" t="s">
-        <v>243</v>
       </c>
       <c r="H37" s="176"/>
       <c r="I37" s="172" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J37" s="131"/>
       <c r="K37" s="173">
         <v>42634</v>
       </c>
       <c r="L37" s="172" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M37" s="176"/>
       <c r="N37" s="176" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O37" s="173">
         <v>42631</v>
@@ -9390,26 +9376,26 @@
         <v>42555</v>
       </c>
       <c r="F38" s="176" t="s">
+        <v>231</v>
+      </c>
+      <c r="G38" s="175" t="s">
         <v>232</v>
       </c>
-      <c r="G38" s="175" t="s">
-        <v>233</v>
-      </c>
       <c r="I38" s="172" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J38" s="131"/>
       <c r="K38" s="173">
         <v>42634</v>
       </c>
       <c r="L38" s="172" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M38" s="176" t="s">
+        <v>233</v>
+      </c>
+      <c r="N38" s="176" t="s">
         <v>234</v>
-      </c>
-      <c r="N38" s="176" t="s">
-        <v>235</v>
       </c>
       <c r="O38" s="173">
         <v>42631</v>
@@ -9469,14 +9455,14 @@
         <v>42555</v>
       </c>
       <c r="F40" s="201" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G40" s="175" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H40" s="176"/>
       <c r="I40" s="172" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J40" s="131"/>
       <c r="K40" s="173">
@@ -9487,7 +9473,7 @@
       </c>
       <c r="M40" s="176"/>
       <c r="N40" s="176" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O40" s="173"/>
       <c r="P40" s="177"/>
@@ -9550,7 +9536,7 @@
       </c>
       <c r="F42" s="201"/>
       <c r="G42" s="175" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H42" s="176" t="s">
         <v>47</v>
@@ -9590,7 +9576,7 @@
       </c>
       <c r="F43" s="201"/>
       <c r="G43" s="179" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H43" s="176" t="s">
         <v>47</v>
@@ -9630,11 +9616,11 @@
       </c>
       <c r="F44" s="201"/>
       <c r="G44" s="175" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H44" s="176"/>
       <c r="I44" s="172" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J44" s="131"/>
       <c r="K44" s="173">
@@ -9668,11 +9654,11 @@
       </c>
       <c r="F45" s="201"/>
       <c r="G45" s="175" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H45" s="176"/>
       <c r="I45" s="172" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J45" s="131"/>
       <c r="K45" s="173">
@@ -9705,14 +9691,14 @@
         <v>42555</v>
       </c>
       <c r="F46" s="201" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G46" s="175" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H46" s="176"/>
       <c r="I46" s="172" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J46" s="131"/>
       <c r="K46" s="173">
@@ -9745,10 +9731,10 @@
         <v>42555</v>
       </c>
       <c r="F47" s="312" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G47" s="297" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H47" s="298"/>
       <c r="I47" s="298" t="s">
@@ -9782,7 +9768,7 @@
       </c>
       <c r="F48" s="174"/>
       <c r="G48" s="175" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H48" s="176" t="s">
         <v>142</v>
@@ -9817,13 +9803,13 @@
         <v>42558</v>
       </c>
       <c r="F49" s="199" t="s">
+        <v>350</v>
+      </c>
+      <c r="G49" s="301" t="s">
+        <v>422</v>
+      </c>
+      <c r="H49" s="211" t="s">
         <v>351</v>
-      </c>
-      <c r="G49" s="301" t="s">
-        <v>423</v>
-      </c>
-      <c r="H49" s="211" t="s">
-        <v>352</v>
       </c>
       <c r="I49" s="279" t="s">
         <v>65</v>
@@ -9836,7 +9822,7 @@
       <c r="O49" s="34"/>
       <c r="P49" s="252"/>
     </row>
-    <row r="50" spans="1:16" s="254" customFormat="1" ht="121.5">
+    <row r="50" spans="1:16" s="254" customFormat="1" ht="121.5" hidden="1">
       <c r="A50" s="310">
         <v>48</v>
       </c>
@@ -9853,23 +9839,25 @@
         <v>42558</v>
       </c>
       <c r="F50" s="225" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G50" s="278" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H50" s="211" t="s">
         <v>142</v>
       </c>
-      <c r="I50" s="211" t="s">
-        <v>145</v>
-      </c>
+      <c r="I50" s="211"/>
       <c r="J50" s="154"/>
       <c r="K50" s="253"/>
-      <c r="L50" s="211"/>
+      <c r="L50" s="279" t="s">
+        <v>58</v>
+      </c>
       <c r="M50" s="211"/>
       <c r="N50" s="211"/>
-      <c r="O50" s="253"/>
+      <c r="O50" s="253">
+        <v>42652</v>
+      </c>
       <c r="P50" s="252"/>
     </row>
     <row r="51" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
@@ -9925,21 +9913,21 @@
         <v>42612</v>
       </c>
       <c r="F52" s="311" t="s">
+        <v>513</v>
+      </c>
+      <c r="G52" s="278" t="s">
         <v>514</v>
-      </c>
-      <c r="G52" s="278" t="s">
-        <v>515</v>
       </c>
       <c r="H52" s="279"/>
       <c r="I52" s="279"/>
       <c r="J52" s="64"/>
       <c r="K52" s="347"/>
       <c r="L52" s="275" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M52" s="271"/>
       <c r="N52" s="271" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O52" s="323">
         <v>42651</v>
@@ -9963,14 +9951,14 @@
         <v>42612</v>
       </c>
       <c r="F53" s="174" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G53" s="175" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H53" s="176"/>
       <c r="I53" s="224" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J53" s="131"/>
       <c r="K53" s="173">
@@ -9999,16 +9987,16 @@
         <v>42612</v>
       </c>
       <c r="F54" s="312" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G54" s="297" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H54" s="298" t="s">
         <v>47</v>
       </c>
       <c r="I54" s="294" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J54" s="299"/>
       <c r="K54" s="295">
@@ -10019,7 +10007,7 @@
       </c>
       <c r="M54" s="298"/>
       <c r="N54" s="298" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O54" s="295">
         <v>42634</v>
@@ -10044,7 +10032,7 @@
       </c>
       <c r="F55" s="201"/>
       <c r="G55" s="175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H55" s="176" t="s">
         <v>47</v>
@@ -10084,7 +10072,7 @@
       </c>
       <c r="F56" s="201"/>
       <c r="G56" s="175" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H56" s="176"/>
       <c r="I56" s="172" t="s">
@@ -10121,16 +10109,16 @@
         <v>42612</v>
       </c>
       <c r="F57" s="312" t="s">
+        <v>429</v>
+      </c>
+      <c r="G57" s="304" t="s">
         <v>430</v>
       </c>
-      <c r="G57" s="304" t="s">
+      <c r="H57" s="298" t="s">
         <v>431</v>
       </c>
-      <c r="H57" s="298" t="s">
-        <v>432</v>
-      </c>
       <c r="I57" s="294" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J57" s="256"/>
       <c r="K57" s="257">
@@ -10160,11 +10148,11 @@
       </c>
       <c r="F58" s="204"/>
       <c r="G58" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H58" s="56"/>
       <c r="I58" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J58" s="57"/>
       <c r="K58" s="53">
@@ -10198,11 +10186,11 @@
       </c>
       <c r="F59" s="204"/>
       <c r="G59" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H59" s="56"/>
       <c r="I59" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J59" s="57"/>
       <c r="K59" s="53">
@@ -10236,21 +10224,21 @@
       </c>
       <c r="F60" s="201"/>
       <c r="G60" s="175" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I60" s="176" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J60" s="131"/>
       <c r="K60" s="173">
         <v>42634</v>
       </c>
       <c r="L60" s="172" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M60" s="176"/>
       <c r="N60" s="176" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O60" s="173">
         <v>42630</v>
@@ -10274,14 +10262,14 @@
         <v>42612</v>
       </c>
       <c r="F61" s="199" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G61" s="198" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H61" s="87"/>
       <c r="I61" s="197" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J61" s="88"/>
       <c r="K61" s="88"/>
@@ -10312,25 +10300,25 @@
         <v>42612</v>
       </c>
       <c r="F62" s="201" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G62" s="175" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H62" s="176"/>
       <c r="I62" s="176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J62" s="131"/>
       <c r="K62" s="173">
         <v>42634</v>
       </c>
       <c r="L62" s="172" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M62" s="176"/>
       <c r="N62" s="176" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O62" s="173">
         <v>42630</v>
@@ -10394,27 +10382,27 @@
         <v>42612</v>
       </c>
       <c r="F64" s="201" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G64" s="175" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H64" s="176" t="s">
         <v>47</v>
       </c>
       <c r="I64" s="176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J64" s="131"/>
       <c r="K64" s="173">
         <v>42634</v>
       </c>
       <c r="L64" s="172" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M64" s="176"/>
       <c r="N64" s="176" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O64" s="173">
         <v>42630</v>
@@ -10638,16 +10626,16 @@
         <v>42612</v>
       </c>
       <c r="F70" s="201" t="s">
+        <v>270</v>
+      </c>
+      <c r="G70" s="175" t="s">
         <v>271</v>
-      </c>
-      <c r="G70" s="175" t="s">
-        <v>272</v>
       </c>
       <c r="H70" s="176" t="s">
         <v>47</v>
       </c>
       <c r="I70" s="172" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J70" s="131"/>
       <c r="K70" s="173">
@@ -10683,13 +10671,13 @@
       </c>
       <c r="F71" s="201"/>
       <c r="G71" s="175" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H71" s="176" t="s">
         <v>142</v>
       </c>
       <c r="I71" s="172" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J71" s="131"/>
       <c r="K71" s="173">
@@ -10764,16 +10752,16 @@
         <v>42612</v>
       </c>
       <c r="F73" s="201" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G73" s="179" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H73" s="176" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I73" s="172" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J73" s="131"/>
       <c r="K73" s="173">
@@ -10807,7 +10795,7 @@
       </c>
       <c r="F74" s="201"/>
       <c r="G74" s="175" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H74" s="176" t="s">
         <v>47</v>
@@ -10888,21 +10876,21 @@
         <v>42612</v>
       </c>
       <c r="F76" s="200" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G76" s="301" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H76" s="87"/>
       <c r="I76" s="275"/>
       <c r="J76" s="64"/>
       <c r="K76" s="62"/>
       <c r="L76" s="275" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M76" s="167"/>
       <c r="N76" s="279" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O76" s="170">
         <v>42651</v>
@@ -10927,11 +10915,11 @@
       </c>
       <c r="F77" s="204"/>
       <c r="G77" s="55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H77" s="56"/>
       <c r="I77" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J77" s="57"/>
       <c r="K77" s="53">
@@ -10965,7 +10953,7 @@
       </c>
       <c r="F78" s="201"/>
       <c r="G78" s="175" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H78" s="176"/>
       <c r="I78" s="172" t="s">
@@ -11005,7 +10993,7 @@
       </c>
       <c r="F79" s="201"/>
       <c r="G79" s="175" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H79" s="176"/>
       <c r="I79" s="172" t="s">
@@ -11042,10 +11030,10 @@
         <v>42612</v>
       </c>
       <c r="F80" s="199" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G80" s="210" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H80" s="211" t="s">
         <v>47</v>
@@ -11076,14 +11064,14 @@
         <v>42612</v>
       </c>
       <c r="F81" s="313" t="s">
+        <v>497</v>
+      </c>
+      <c r="G81" s="287" t="s">
         <v>498</v>
-      </c>
-      <c r="G81" s="287" t="s">
-        <v>499</v>
       </c>
       <c r="H81" s="288"/>
       <c r="I81" s="284" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J81" s="289"/>
       <c r="K81" s="285">
@@ -11094,7 +11082,7 @@
       </c>
       <c r="M81" s="288"/>
       <c r="N81" s="288" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O81" s="285">
         <v>42639</v>
@@ -11119,7 +11107,7 @@
       </c>
       <c r="F82" s="199"/>
       <c r="G82" s="210" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H82" s="211" t="s">
         <v>47</v>
@@ -11189,7 +11177,7 @@
       </c>
       <c r="F84" s="201"/>
       <c r="G84" s="179" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H84" s="176" t="s">
         <v>47</v>
@@ -11233,7 +11221,7 @@
       </c>
       <c r="H85" s="87"/>
       <c r="I85" s="224" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J85" s="71"/>
       <c r="K85" s="67"/>
@@ -11260,16 +11248,16 @@
         <v>42616</v>
       </c>
       <c r="F86" s="204" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G86" s="229" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H86" s="218" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I86" s="214" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J86" s="219"/>
       <c r="K86" s="215">
@@ -11280,7 +11268,7 @@
       </c>
       <c r="M86" s="218"/>
       <c r="N86" s="218" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O86" s="215"/>
       <c r="P86" s="220"/>
@@ -11302,16 +11290,16 @@
         <v>42616</v>
       </c>
       <c r="F87" s="204" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G87" s="217" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H87" s="218" t="s">
         <v>47</v>
       </c>
       <c r="I87" s="214" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J87" s="219"/>
       <c r="K87" s="215">
@@ -11322,7 +11310,7 @@
       </c>
       <c r="M87" s="218"/>
       <c r="N87" s="218" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O87" s="215"/>
       <c r="P87" s="220"/>
@@ -11344,10 +11332,10 @@
         <v>42616</v>
       </c>
       <c r="F88" s="255" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G88" s="314" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P88" s="252"/>
     </row>
@@ -11369,13 +11357,13 @@
       </c>
       <c r="F89" s="216"/>
       <c r="G89" s="217" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H89" s="218" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I89" s="214" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J89" s="219"/>
       <c r="K89" s="215">
@@ -11405,13 +11393,13 @@
       </c>
       <c r="F90" s="204"/>
       <c r="G90" s="217" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H90" s="218" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I90" s="214" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J90" s="219"/>
       <c r="K90" s="215">
@@ -11422,7 +11410,7 @@
       </c>
       <c r="M90" s="218"/>
       <c r="N90" s="218" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O90" s="215"/>
       <c r="P90" s="220"/>
@@ -11445,11 +11433,11 @@
       </c>
       <c r="F91" s="204"/>
       <c r="G91" s="217" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H91" s="218"/>
       <c r="I91" s="214" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J91" s="219"/>
       <c r="K91" s="215">
@@ -11460,7 +11448,7 @@
       </c>
       <c r="M91" s="218"/>
       <c r="N91" s="218" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O91" s="215"/>
       <c r="P91" s="220"/>
@@ -11483,11 +11471,11 @@
       </c>
       <c r="F92" s="204"/>
       <c r="G92" s="217" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H92" s="218"/>
       <c r="I92" s="214" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J92" s="219"/>
       <c r="K92" s="215">
@@ -11498,7 +11486,7 @@
       </c>
       <c r="M92" s="218"/>
       <c r="N92" s="218" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O92" s="215"/>
       <c r="P92" s="220"/>
@@ -11521,11 +11509,11 @@
       </c>
       <c r="F93" s="204"/>
       <c r="G93" s="217" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H93" s="218"/>
       <c r="I93" s="214" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J93" s="219"/>
       <c r="K93" s="215">
@@ -11536,7 +11524,7 @@
       </c>
       <c r="M93" s="218"/>
       <c r="N93" s="218" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O93" s="215"/>
       <c r="P93" s="220"/>
@@ -11559,11 +11547,11 @@
       </c>
       <c r="F94" s="204"/>
       <c r="G94" s="217" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H94" s="218"/>
       <c r="I94" s="214" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J94" s="219"/>
       <c r="K94" s="215">
@@ -11574,7 +11562,7 @@
       </c>
       <c r="M94" s="218"/>
       <c r="N94" s="218" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O94" s="215"/>
       <c r="P94" s="220"/>
@@ -11597,11 +11585,11 @@
       </c>
       <c r="F95" s="204"/>
       <c r="G95" s="217" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H95" s="218"/>
       <c r="I95" s="214" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J95" s="219"/>
       <c r="K95" s="215">
@@ -11612,7 +11600,7 @@
       </c>
       <c r="M95" s="218"/>
       <c r="N95" s="218" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O95" s="215"/>
       <c r="P95" s="220"/>
@@ -11634,10 +11622,10 @@
         <v>42616</v>
       </c>
       <c r="F96" s="199" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G96" s="278" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H96" s="211" t="s">
         <v>47</v>
@@ -11668,14 +11656,14 @@
         <v>42616</v>
       </c>
       <c r="F97" s="312" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G97" s="297" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H97" s="298"/>
       <c r="I97" s="294" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J97" s="299"/>
       <c r="K97" s="257">
@@ -11708,10 +11696,10 @@
         <v>42616</v>
       </c>
       <c r="F98" s="312" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G98" s="297" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H98" s="298"/>
       <c r="I98" s="294" t="s">
@@ -11748,10 +11736,10 @@
         <v>42616</v>
       </c>
       <c r="F99" s="312" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G99" s="297" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H99" s="298"/>
       <c r="I99" s="294" t="s">
@@ -11788,10 +11776,10 @@
         <v>42616</v>
       </c>
       <c r="F100" s="312" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G100" s="297" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H100" s="298"/>
       <c r="I100" s="294" t="s">
@@ -11806,7 +11794,7 @@
       </c>
       <c r="M100" s="298"/>
       <c r="N100" s="298" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O100" s="295"/>
       <c r="P100" s="303"/>
@@ -11829,11 +11817,11 @@
       </c>
       <c r="F101" s="216"/>
       <c r="G101" s="229" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H101" s="218"/>
       <c r="I101" s="214" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J101" s="219"/>
       <c r="K101" s="215">
@@ -11863,7 +11851,7 @@
       </c>
       <c r="F102" s="204"/>
       <c r="G102" s="217" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H102" s="218"/>
       <c r="I102" s="214" t="s">
@@ -11939,7 +11927,7 @@
       </c>
       <c r="F104" s="204"/>
       <c r="G104" s="217" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H104" s="218"/>
       <c r="I104" s="214" t="s">
@@ -11977,7 +11965,7 @@
       </c>
       <c r="F105" s="204"/>
       <c r="G105" s="217" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H105" s="218" t="s">
         <v>47</v>
@@ -12057,7 +12045,7 @@
       </c>
       <c r="F107" s="204"/>
       <c r="G107" s="217" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H107" s="218" t="s">
         <v>47</v>
@@ -12074,7 +12062,7 @@
       </c>
       <c r="M107" s="218"/>
       <c r="N107" s="218" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O107" s="215">
         <v>42616</v>
@@ -12098,23 +12086,23 @@
         <v>42616</v>
       </c>
       <c r="F108" s="199" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G108" s="210" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H108" s="211" t="s">
         <v>47</v>
       </c>
       <c r="I108" s="176" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J108" s="28"/>
       <c r="K108" s="28"/>
       <c r="L108" s="211"/>
       <c r="M108" s="211"/>
       <c r="N108" s="211" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O108" s="34"/>
       <c r="P108" s="252"/>
@@ -12137,13 +12125,13 @@
       </c>
       <c r="F109" s="216"/>
       <c r="G109" s="217" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H109" s="218" t="s">
         <v>47</v>
       </c>
       <c r="I109" s="214" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J109" s="219"/>
       <c r="K109" s="215">
@@ -12174,10 +12162,10 @@
         <v>42616</v>
       </c>
       <c r="F110" s="313" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G110" s="330" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H110" s="317" t="s">
         <v>47</v>
@@ -12194,7 +12182,7 @@
       </c>
       <c r="M110" s="321"/>
       <c r="N110" s="321" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O110" s="331">
         <v>42643</v>
@@ -12219,13 +12207,13 @@
       </c>
       <c r="F111" s="232"/>
       <c r="G111" s="233" t="s">
+        <v>314</v>
+      </c>
+      <c r="H111" s="234" t="s">
         <v>315</v>
       </c>
-      <c r="H111" s="234" t="s">
-        <v>316</v>
-      </c>
       <c r="I111" s="235" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J111" s="236"/>
       <c r="K111" s="237">
@@ -12236,7 +12224,7 @@
       </c>
       <c r="M111" s="238"/>
       <c r="N111" s="238" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O111" s="237"/>
       <c r="P111" s="239"/>
@@ -12323,11 +12311,11 @@
       </c>
       <c r="F114" s="204"/>
       <c r="G114" s="217" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H114" s="218"/>
       <c r="I114" s="235" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J114" s="236"/>
       <c r="K114" s="237">
@@ -12361,11 +12349,11 @@
       </c>
       <c r="F115" s="204"/>
       <c r="G115" s="229" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H115" s="218"/>
       <c r="I115" s="235" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J115" s="236"/>
       <c r="K115" s="237">
@@ -12406,7 +12394,7 @@
       <c r="J116" s="256"/>
       <c r="K116" s="257"/>
       <c r="L116" s="279" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M116" s="211"/>
       <c r="N116" s="211"/>
@@ -12433,11 +12421,11 @@
       </c>
       <c r="F117" s="216"/>
       <c r="G117" s="217" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H117" s="218"/>
       <c r="I117" s="240" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J117" s="219"/>
       <c r="K117" s="215">
@@ -12467,7 +12455,7 @@
       </c>
       <c r="F118" s="204"/>
       <c r="G118" s="217" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H118" s="218"/>
       <c r="I118" s="240" t="s">
@@ -12482,7 +12470,7 @@
       </c>
       <c r="M118" s="218"/>
       <c r="N118" s="218" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O118" s="215">
         <v>42630</v>
@@ -12507,7 +12495,7 @@
       </c>
       <c r="F119" s="204"/>
       <c r="G119" s="217" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H119" s="218"/>
       <c r="I119" s="240" t="s">
@@ -12522,7 +12510,7 @@
       </c>
       <c r="M119" s="218"/>
       <c r="N119" s="218" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O119" s="215">
         <v>42630</v>
@@ -12547,7 +12535,7 @@
       </c>
       <c r="F120" s="204"/>
       <c r="G120" s="217" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H120" s="218"/>
       <c r="I120" s="240" t="s">
@@ -12585,11 +12573,11 @@
       </c>
       <c r="F121" s="204"/>
       <c r="G121" s="217" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H121" s="218"/>
       <c r="I121" s="240" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J121" s="219"/>
       <c r="K121" s="215">
@@ -12623,7 +12611,7 @@
       </c>
       <c r="F122" s="204"/>
       <c r="G122" s="229" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H122" s="218"/>
       <c r="I122" s="240" t="s">
@@ -12634,11 +12622,11 @@
         <v>42632</v>
       </c>
       <c r="L122" s="214" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M122" s="218"/>
       <c r="N122" s="218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O122" s="215">
         <v>42634</v>
@@ -12662,14 +12650,14 @@
         <v>42626</v>
       </c>
       <c r="F123" s="204" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G123" s="217" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H123" s="218"/>
       <c r="I123" s="214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J123" s="219"/>
       <c r="K123" s="215"/>
@@ -12678,7 +12666,7 @@
       </c>
       <c r="M123" s="218"/>
       <c r="N123" s="218" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O123" s="215"/>
       <c r="P123" s="220"/>
@@ -12701,11 +12689,11 @@
       </c>
       <c r="F124" s="204"/>
       <c r="G124" s="217" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H124" s="218"/>
       <c r="I124" s="214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J124" s="219"/>
       <c r="K124" s="215">
@@ -12739,11 +12727,11 @@
       </c>
       <c r="F125" s="204"/>
       <c r="G125" s="217" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H125" s="218"/>
       <c r="I125" s="214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J125" s="219"/>
       <c r="K125" s="215">
@@ -12777,13 +12765,13 @@
       </c>
       <c r="F126" s="204"/>
       <c r="G126" s="217" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H126" s="218" t="s">
         <v>47</v>
       </c>
       <c r="I126" s="214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J126" s="219"/>
       <c r="K126" s="215">
@@ -12794,7 +12782,7 @@
       </c>
       <c r="M126" s="218"/>
       <c r="N126" s="218" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O126" s="215"/>
       <c r="P126" s="220"/>
@@ -12817,13 +12805,13 @@
       </c>
       <c r="F127" s="204"/>
       <c r="G127" s="217" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H127" s="218" t="s">
         <v>47</v>
       </c>
       <c r="I127" s="214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J127" s="219"/>
       <c r="K127" s="215">
@@ -12857,13 +12845,13 @@
       </c>
       <c r="F128" s="204"/>
       <c r="G128" s="217" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H128" s="218" t="s">
         <v>47</v>
       </c>
       <c r="I128" s="214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J128" s="219"/>
       <c r="K128" s="215">
@@ -12874,7 +12862,7 @@
       </c>
       <c r="M128" s="218"/>
       <c r="N128" s="218" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O128" s="215">
         <v>42625</v>
@@ -12899,13 +12887,13 @@
       </c>
       <c r="F129" s="204"/>
       <c r="G129" s="217" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H129" s="218" t="s">
         <v>47</v>
       </c>
       <c r="I129" s="214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J129" s="219"/>
       <c r="K129" s="215">
@@ -12916,7 +12904,7 @@
       </c>
       <c r="M129" s="218"/>
       <c r="N129" s="218" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O129" s="215">
         <v>42625</v>
@@ -12941,13 +12929,13 @@
       </c>
       <c r="F130" s="204"/>
       <c r="G130" s="217" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H130" s="218" t="s">
         <v>47</v>
       </c>
       <c r="I130" s="214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J130" s="219"/>
       <c r="K130" s="215">
@@ -12958,7 +12946,7 @@
       </c>
       <c r="M130" s="218"/>
       <c r="N130" s="218" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O130" s="215">
         <v>42625</v>
@@ -12982,16 +12970,16 @@
         <v>42627</v>
       </c>
       <c r="F131" s="313" t="s">
+        <v>500</v>
+      </c>
+      <c r="G131" s="287" t="s">
         <v>501</v>
       </c>
-      <c r="G131" s="287" t="s">
-        <v>502</v>
-      </c>
       <c r="H131" s="288" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I131" s="284" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J131" s="289"/>
       <c r="K131" s="285">
@@ -13002,7 +12990,7 @@
       </c>
       <c r="M131" s="288"/>
       <c r="N131" s="288" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O131" s="324">
         <v>42643</v>
@@ -13027,10 +13015,10 @@
       </c>
       <c r="F132" s="225"/>
       <c r="G132" s="278" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H132" s="211" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I132" s="211"/>
       <c r="J132" s="28"/>
@@ -13063,11 +13051,11 @@
       </c>
       <c r="F133" s="204"/>
       <c r="G133" s="217" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H133" s="218"/>
       <c r="I133" s="214" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J133" s="219"/>
       <c r="K133" s="215">
@@ -13078,7 +13066,7 @@
       </c>
       <c r="M133" s="218"/>
       <c r="N133" s="218" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O133" s="215">
         <v>42625</v>
@@ -13103,7 +13091,7 @@
       </c>
       <c r="F134" s="313"/>
       <c r="G134" s="287" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H134" s="288"/>
       <c r="I134" s="284" t="s">
@@ -13141,7 +13129,7 @@
       </c>
       <c r="F135" s="313"/>
       <c r="G135" s="287" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H135" s="288"/>
       <c r="I135" s="284" t="s">
@@ -13169,7 +13157,7 @@
         <v>19</v>
       </c>
       <c r="C136" s="211" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D136" s="253">
         <v>42625</v>
@@ -13178,10 +13166,10 @@
         <v>42627</v>
       </c>
       <c r="F136" s="225" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G136" s="301" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H136" s="211" t="s">
         <v>142</v>
@@ -13213,11 +13201,11 @@
       </c>
       <c r="F137" s="204"/>
       <c r="G137" s="217" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H137" s="218"/>
       <c r="I137" s="214" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J137" s="219"/>
       <c r="K137" s="215">
@@ -13251,7 +13239,7 @@
       </c>
       <c r="F138" s="286"/>
       <c r="G138" s="287" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H138" s="288" t="s">
         <v>47</v>
@@ -13268,7 +13256,7 @@
       </c>
       <c r="M138" s="288"/>
       <c r="N138" s="288" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O138" s="285">
         <v>42642</v>
@@ -13292,14 +13280,14 @@
         <v>42630</v>
       </c>
       <c r="F139" s="204" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G139" s="217" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H139" s="218"/>
       <c r="I139" s="214" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J139" s="219"/>
       <c r="K139" s="215">
@@ -13310,7 +13298,7 @@
       </c>
       <c r="M139" s="218"/>
       <c r="N139" s="218" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O139" s="215">
         <v>42630</v>
@@ -13335,7 +13323,7 @@
       </c>
       <c r="F140" s="286"/>
       <c r="G140" s="315" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H140" s="288"/>
       <c r="I140" s="284" t="s">
@@ -13350,7 +13338,7 @@
       </c>
       <c r="M140" s="288"/>
       <c r="N140" s="288" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O140" s="285">
         <v>42641</v>
@@ -13374,13 +13362,13 @@
         <v>42630</v>
       </c>
       <c r="F141" s="296" t="s">
+        <v>469</v>
+      </c>
+      <c r="G141" s="304" t="s">
         <v>470</v>
       </c>
-      <c r="G141" s="304" t="s">
-        <v>471</v>
-      </c>
       <c r="H141" s="298" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I141" s="284" t="s">
         <v>40</v>
@@ -13394,7 +13382,7 @@
       </c>
       <c r="M141" s="298"/>
       <c r="N141" s="298" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O141" s="295">
         <v>42641</v>
@@ -13406,7 +13394,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="294" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C142" s="294" t="s">
         <v>16</v>
@@ -13419,7 +13407,7 @@
       </c>
       <c r="F142" s="334"/>
       <c r="G142" s="335" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H142" s="337"/>
       <c r="I142" s="294" t="s">
@@ -13442,7 +13430,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="214" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C143" s="214" t="s">
         <v>16</v>
@@ -13455,10 +13443,10 @@
       </c>
       <c r="F143" s="242"/>
       <c r="G143" s="243" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I143" s="221" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K143" s="244">
         <v>42634</v>
@@ -13483,10 +13471,10 @@
       </c>
       <c r="F144" s="242"/>
       <c r="G144" s="245" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I144" s="221" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K144" s="244">
         <v>42634</v>
@@ -13511,10 +13499,10 @@
       </c>
       <c r="F145" s="242"/>
       <c r="G145" s="245" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I145" s="221" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K145" s="244">
         <v>42634</v>
@@ -13538,10 +13526,10 @@
         <v>42633</v>
       </c>
       <c r="F146" s="260" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G146" s="185" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P146" s="252"/>
     </row>
@@ -13562,14 +13550,14 @@
         <v>42633</v>
       </c>
       <c r="F147" s="260" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G147" s="308" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P147" s="252"/>
     </row>
-    <row r="148" spans="1:16" s="261" customFormat="1" ht="67.5" hidden="1">
+    <row r="148" spans="1:16" s="261" customFormat="1" ht="40.5" hidden="1">
       <c r="A148" s="310">
         <v>146</v>
       </c>
@@ -13586,13 +13574,13 @@
         <v>42633</v>
       </c>
       <c r="F148" s="338" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G148" s="339" t="s">
+        <v>473</v>
+      </c>
+      <c r="I148" s="300" t="s">
         <v>474</v>
-      </c>
-      <c r="I148" s="300" t="s">
-        <v>475</v>
       </c>
       <c r="K148" s="340">
         <v>42643</v>
@@ -13601,7 +13589,7 @@
         <v>59</v>
       </c>
       <c r="N148" s="261" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O148" s="340">
         <v>42642</v>
@@ -13625,22 +13613,22 @@
         <v>42633</v>
       </c>
       <c r="F149" s="338" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G149" s="339" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I149" s="300" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K149" s="336">
         <v>42643</v>
       </c>
       <c r="L149" s="300" t="s">
+        <v>521</v>
+      </c>
+      <c r="N149" s="300" t="s">
         <v>522</v>
-      </c>
-      <c r="N149" s="300" t="s">
-        <v>523</v>
       </c>
       <c r="O149" s="336">
         <v>42641</v>
@@ -13664,17 +13652,17 @@
         <v>42633</v>
       </c>
       <c r="F150" s="260" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G150" s="309" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I150" s="272"/>
       <c r="L150" s="272" t="s">
         <v>59</v>
       </c>
       <c r="N150" s="195" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O150" s="276">
         <v>42652</v>
@@ -13698,16 +13686,16 @@
         <v>42636</v>
       </c>
       <c r="F151" s="312" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G151" s="297" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H151" s="298" t="s">
         <v>47</v>
       </c>
       <c r="I151" s="294" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J151" s="299"/>
       <c r="K151" s="295">
@@ -13740,16 +13728,16 @@
         <v>42636</v>
       </c>
       <c r="F152" s="312" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G152" s="297" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H152" s="298" t="s">
         <v>47</v>
       </c>
       <c r="I152" s="294" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J152" s="299"/>
       <c r="K152" s="295">
@@ -13760,7 +13748,7 @@
       </c>
       <c r="M152" s="298"/>
       <c r="N152" s="298" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O152" s="257">
         <v>42643</v>
@@ -13784,13 +13772,13 @@
         <v>42636</v>
       </c>
       <c r="F153" s="225" t="s">
+        <v>235</v>
+      </c>
+      <c r="G153" s="210" t="s">
+        <v>239</v>
+      </c>
+      <c r="H153" s="211" t="s">
         <v>236</v>
-      </c>
-      <c r="G153" s="210" t="s">
-        <v>240</v>
-      </c>
-      <c r="H153" s="211" t="s">
-        <v>237</v>
       </c>
       <c r="I153" s="211"/>
       <c r="J153" s="28"/>
@@ -13818,16 +13806,16 @@
         <v>42636</v>
       </c>
       <c r="F154" s="312" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G154" s="304" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H154" s="298" t="s">
         <v>47</v>
       </c>
       <c r="I154" s="294" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J154" s="299"/>
       <c r="K154" s="295">
@@ -13838,7 +13826,7 @@
       </c>
       <c r="M154" s="298"/>
       <c r="N154" s="298" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O154" s="257">
         <v>42643</v>
@@ -13862,14 +13850,14 @@
         <v>42636</v>
       </c>
       <c r="F155" s="312" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G155" s="341" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H155" s="298"/>
       <c r="I155" s="294" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J155" s="299"/>
       <c r="K155" s="295">
@@ -13880,7 +13868,7 @@
       </c>
       <c r="M155" s="298"/>
       <c r="N155" s="298" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O155" s="257">
         <v>42643</v>
@@ -13904,16 +13892,16 @@
         <v>42636</v>
       </c>
       <c r="F156" s="312" t="s">
+        <v>246</v>
+      </c>
+      <c r="G156" s="304" t="s">
         <v>247</v>
-      </c>
-      <c r="G156" s="304" t="s">
-        <v>248</v>
       </c>
       <c r="H156" s="298" t="s">
         <v>47</v>
       </c>
       <c r="I156" s="294" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J156" s="299"/>
       <c r="K156" s="295">
@@ -13946,14 +13934,14 @@
         <v>42636</v>
       </c>
       <c r="F157" s="312" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G157" s="297" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H157" s="298"/>
       <c r="I157" s="294" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J157" s="299"/>
       <c r="K157" s="295">
@@ -13964,7 +13952,7 @@
       </c>
       <c r="M157" s="298"/>
       <c r="N157" s="298" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O157" s="257">
         <v>42643</v>
@@ -13988,16 +13976,16 @@
         <v>42636</v>
       </c>
       <c r="F158" s="225" t="s">
+        <v>249</v>
+      </c>
+      <c r="G158" s="210" t="s">
         <v>250</v>
       </c>
-      <c r="G158" s="210" t="s">
-        <v>251</v>
-      </c>
       <c r="H158" s="211" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I158" s="279" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J158" s="28"/>
       <c r="K158" s="28"/>
@@ -14006,7 +13994,7 @@
       </c>
       <c r="M158" s="211"/>
       <c r="N158" s="211" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O158" s="34">
         <v>42643</v>
@@ -14030,27 +14018,27 @@
         <v>42636</v>
       </c>
       <c r="F159" s="312" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G159" s="297" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H159" s="298" t="s">
         <v>47</v>
       </c>
       <c r="I159" s="294" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J159" s="299"/>
       <c r="K159" s="295">
         <v>42643</v>
       </c>
       <c r="L159" s="298" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M159" s="298"/>
       <c r="N159" s="298" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O159" s="257">
         <v>42643</v>
@@ -14074,16 +14062,16 @@
         <v>42636</v>
       </c>
       <c r="F160" s="312" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G160" s="304" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H160" s="298" t="s">
         <v>47</v>
       </c>
       <c r="I160" s="294" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J160" s="299"/>
       <c r="K160" s="295">
@@ -14116,14 +14104,14 @@
         <v>42636</v>
       </c>
       <c r="F161" s="312" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G161" s="297" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H161" s="298"/>
       <c r="I161" s="294" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J161" s="299"/>
       <c r="K161" s="295">
@@ -14156,16 +14144,16 @@
         <v>42636</v>
       </c>
       <c r="F162" s="312" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G162" s="342" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H162" s="298" t="s">
         <v>47</v>
       </c>
       <c r="I162" s="294" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J162" s="299"/>
       <c r="K162" s="295">
@@ -14198,27 +14186,27 @@
         <v>42636</v>
       </c>
       <c r="F163" s="312" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G163" s="341" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H163" s="298" t="s">
         <v>47</v>
       </c>
       <c r="I163" s="294" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J163" s="299"/>
       <c r="K163" s="295">
         <v>42643</v>
       </c>
       <c r="L163" s="298" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M163" s="298"/>
       <c r="N163" s="298" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O163" s="257">
         <v>42643</v>
@@ -14242,10 +14230,10 @@
         <v>42636</v>
       </c>
       <c r="F164" s="225" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G164" s="314" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H164" s="211" t="s">
         <v>47</v>
@@ -14276,10 +14264,10 @@
         <v>42636</v>
       </c>
       <c r="F165" s="225" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G165" s="316" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H165" s="211"/>
       <c r="I165" s="275"/>
@@ -14290,7 +14278,7 @@
       </c>
       <c r="M165" s="211"/>
       <c r="N165" s="279" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O165" s="209">
         <v>42651</v>
@@ -14314,16 +14302,16 @@
         <v>42636</v>
       </c>
       <c r="F166" s="313" t="s">
+        <v>305</v>
+      </c>
+      <c r="G166" s="343" t="s">
         <v>306</v>
-      </c>
-      <c r="G166" s="343" t="s">
-        <v>307</v>
       </c>
       <c r="H166" s="288" t="s">
         <v>47</v>
       </c>
       <c r="I166" s="284" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J166" s="289"/>
       <c r="K166" s="285">
@@ -14334,7 +14322,7 @@
       </c>
       <c r="M166" s="288"/>
       <c r="N166" s="288" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O166" s="324">
         <v>42643</v>
@@ -14358,16 +14346,16 @@
         <v>42636</v>
       </c>
       <c r="F167" s="313" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G167" s="343" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H167" s="288" t="s">
         <v>47</v>
       </c>
       <c r="I167" s="284" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J167" s="289"/>
       <c r="K167" s="285">
@@ -14400,10 +14388,10 @@
         <v>42636</v>
       </c>
       <c r="F168" s="225" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G168" s="314" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H168" s="211"/>
       <c r="I168" s="275"/>
@@ -14414,7 +14402,7 @@
       </c>
       <c r="M168" s="211"/>
       <c r="N168" s="211" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O168" s="209">
         <v>42652</v>
@@ -14438,10 +14426,10 @@
         <v>42636</v>
       </c>
       <c r="F169" s="225" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G169" s="316" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H169" s="211"/>
       <c r="I169" s="275"/>
@@ -14452,7 +14440,7 @@
       </c>
       <c r="M169" s="211"/>
       <c r="N169" s="211" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O169" s="276">
         <v>42652</v>
@@ -14476,16 +14464,16 @@
         <v>42636</v>
       </c>
       <c r="F170" s="312" t="s">
+        <v>324</v>
+      </c>
+      <c r="G170" s="342" t="s">
         <v>325</v>
-      </c>
-      <c r="G170" s="342" t="s">
-        <v>326</v>
       </c>
       <c r="H170" s="298" t="s">
         <v>47</v>
       </c>
       <c r="I170" s="294" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J170" s="299"/>
       <c r="K170" s="295">
@@ -14506,7 +14494,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="208" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C171" s="208" t="s">
         <v>16</v>
@@ -14518,18 +14506,18 @@
         <v>42636</v>
       </c>
       <c r="F171" s="183" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G171" s="184" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H171" s="211"/>
       <c r="L171" s="207" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M171" s="127"/>
       <c r="N171" s="207" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O171" s="247">
         <v>42640</v>
@@ -14541,7 +14529,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="298" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C172" s="298" t="s">
         <v>16</v>
@@ -14553,16 +14541,16 @@
         <v>42636</v>
       </c>
       <c r="F172" s="338" t="s">
+        <v>378</v>
+      </c>
+      <c r="G172" s="344" t="s">
         <v>379</v>
       </c>
-      <c r="G172" s="344" t="s">
+      <c r="H172" s="298" t="s">
         <v>380</v>
       </c>
-      <c r="H172" s="298" t="s">
-        <v>381</v>
-      </c>
       <c r="I172" s="294" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J172" s="299"/>
       <c r="K172" s="295">
@@ -14580,7 +14568,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="298" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C173" s="298" t="s">
         <v>16</v>
@@ -14592,16 +14580,16 @@
         <v>42636</v>
       </c>
       <c r="F173" s="338" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G173" s="345" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H173" s="298" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I173" s="294" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J173" s="299"/>
       <c r="K173" s="295">
@@ -14611,7 +14599,7 @@
         <v>59</v>
       </c>
       <c r="N173" s="261" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O173" s="340">
         <v>42643</v>
@@ -14622,7 +14610,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="294" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C174" s="294" t="s">
         <v>16</v>
@@ -14634,14 +14622,14 @@
         <v>42636</v>
       </c>
       <c r="F174" s="312" t="s">
+        <v>382</v>
+      </c>
+      <c r="G174" s="344" t="s">
         <v>383</v>
-      </c>
-      <c r="G174" s="344" t="s">
-        <v>384</v>
       </c>
       <c r="H174" s="298"/>
       <c r="I174" s="294" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J174" s="299"/>
       <c r="K174" s="295">
@@ -14671,14 +14659,14 @@
         <v>42641</v>
       </c>
       <c r="F175" s="268" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G175" s="306" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H175" s="265"/>
       <c r="I175" s="271" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J175" s="263"/>
       <c r="K175" s="323"/>
@@ -14705,21 +14693,21 @@
         <v>42645</v>
       </c>
       <c r="F176" s="311" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G176" s="306" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H176" s="279"/>
       <c r="I176" s="271"/>
       <c r="J176" s="271"/>
       <c r="K176" s="271"/>
       <c r="L176" s="275" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M176" s="271"/>
       <c r="N176" s="271" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O176" s="323">
         <v>42651</v>
@@ -14743,21 +14731,21 @@
         <v>42645</v>
       </c>
       <c r="F177" s="311" t="s">
+        <v>411</v>
+      </c>
+      <c r="G177" s="322" t="s">
         <v>412</v>
-      </c>
-      <c r="G177" s="322" t="s">
-        <v>413</v>
       </c>
       <c r="H177" s="279"/>
       <c r="I177" s="271"/>
       <c r="J177" s="271"/>
       <c r="K177" s="271"/>
       <c r="L177" s="275" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M177" s="271"/>
       <c r="N177" s="271" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O177" s="323">
         <v>42651</v>
@@ -14781,10 +14769,10 @@
         <v>42645</v>
       </c>
       <c r="F178" s="311" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G178" s="306" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H178" s="279"/>
       <c r="I178" s="271"/>
@@ -14813,10 +14801,10 @@
         <v>42645</v>
       </c>
       <c r="F179" s="311" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G179" s="306" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H179" s="279"/>
       <c r="I179" s="271"/>
@@ -14845,10 +14833,10 @@
         <v>42645</v>
       </c>
       <c r="F180" s="311" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G180" s="306" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H180" s="279"/>
       <c r="I180" s="271"/>
@@ -14877,10 +14865,10 @@
         <v>42645</v>
       </c>
       <c r="F181" s="311" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G181" s="306" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H181" s="279"/>
       <c r="I181" s="271"/>
@@ -14909,10 +14897,10 @@
         <v>42645</v>
       </c>
       <c r="F182" s="311" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G182" s="306" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H182" s="279"/>
       <c r="I182" s="271"/>
@@ -14941,21 +14929,21 @@
         <v>42645</v>
       </c>
       <c r="F183" s="311" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G183" s="306" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H183" s="279"/>
       <c r="I183" s="271"/>
       <c r="J183" s="271"/>
       <c r="K183" s="271"/>
       <c r="L183" s="275" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M183" s="271"/>
       <c r="N183" s="271" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O183" s="323">
         <v>42651</v>
@@ -14979,21 +14967,21 @@
         <v>42645</v>
       </c>
       <c r="F184" s="311" t="s">
+        <v>418</v>
+      </c>
+      <c r="G184" s="306" t="s">
         <v>419</v>
-      </c>
-      <c r="G184" s="306" t="s">
-        <v>420</v>
       </c>
       <c r="H184" s="279"/>
       <c r="I184" s="271"/>
       <c r="J184" s="271"/>
       <c r="K184" s="271"/>
       <c r="L184" s="275" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M184" s="271"/>
       <c r="N184" s="271" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="O184" s="323">
         <v>42651</v>
@@ -15017,10 +15005,10 @@
         <v>42645</v>
       </c>
       <c r="F185" s="311" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G185" s="322" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H185" s="279"/>
       <c r="I185" s="271"/>
@@ -15049,10 +15037,10 @@
         <v>42645</v>
       </c>
       <c r="F186" s="311" t="s">
+        <v>425</v>
+      </c>
+      <c r="G186" s="306" t="s">
         <v>426</v>
-      </c>
-      <c r="G186" s="306" t="s">
-        <v>427</v>
       </c>
       <c r="H186" s="279" t="s">
         <v>47</v>
@@ -15083,10 +15071,10 @@
         <v>42645</v>
       </c>
       <c r="F187" s="311" t="s">
+        <v>427</v>
+      </c>
+      <c r="G187" s="306" t="s">
         <v>428</v>
-      </c>
-      <c r="G187" s="306" t="s">
-        <v>429</v>
       </c>
       <c r="H187" s="279" t="s">
         <v>47</v>
@@ -15117,10 +15105,10 @@
         <v>42645</v>
       </c>
       <c r="F188" s="311" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G188" s="322" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H188" s="279" t="s">
         <v>47</v>
@@ -15151,10 +15139,10 @@
         <v>42645</v>
       </c>
       <c r="F189" s="311" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G189" s="322" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H189" s="279" t="s">
         <v>47</v>
@@ -15185,10 +15173,10 @@
         <v>42645</v>
       </c>
       <c r="F190" s="311" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G190" s="306" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H190" s="279" t="s">
         <v>47</v>
@@ -15219,10 +15207,10 @@
         <v>42645</v>
       </c>
       <c r="F191" s="311" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G191" s="306" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H191" s="279" t="s">
         <v>47</v>
@@ -15253,10 +15241,10 @@
         <v>42645</v>
       </c>
       <c r="F192" s="311" t="s">
+        <v>448</v>
+      </c>
+      <c r="G192" s="322" t="s">
         <v>449</v>
-      </c>
-      <c r="G192" s="322" t="s">
-        <v>450</v>
       </c>
       <c r="H192" s="279" t="s">
         <v>47</v>
@@ -15287,10 +15275,10 @@
         <v>42645</v>
       </c>
       <c r="F193" s="311" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G193" s="328" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H193" s="279" t="s">
         <v>47</v>
@@ -15321,10 +15309,10 @@
         <v>42645</v>
       </c>
       <c r="F194" s="311" t="s">
+        <v>437</v>
+      </c>
+      <c r="G194" s="306" t="s">
         <v>438</v>
-      </c>
-      <c r="G194" s="306" t="s">
-        <v>439</v>
       </c>
       <c r="H194" s="279" t="s">
         <v>47</v>
@@ -15355,10 +15343,10 @@
         <v>42645</v>
       </c>
       <c r="F195" s="311" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G195" s="306" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H195" s="279" t="s">
         <v>47</v>
@@ -15389,10 +15377,10 @@
         <v>42645</v>
       </c>
       <c r="F196" s="311" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G196" s="306" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H196" s="279" t="s">
         <v>47</v>
@@ -15423,10 +15411,10 @@
         <v>42645</v>
       </c>
       <c r="F197" s="311" t="s">
+        <v>443</v>
+      </c>
+      <c r="G197" s="306" t="s">
         <v>444</v>
-      </c>
-      <c r="G197" s="306" t="s">
-        <v>445</v>
       </c>
       <c r="H197" s="279" t="s">
         <v>47</v>
@@ -15457,10 +15445,10 @@
         <v>42645</v>
       </c>
       <c r="F198" s="311" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G198" s="322" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H198" s="279" t="s">
         <v>47</v>
@@ -15469,11 +15457,11 @@
       <c r="J198" s="271"/>
       <c r="K198" s="271"/>
       <c r="L198" s="275" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M198" s="271"/>
       <c r="N198" s="271" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O198" s="323">
         <v>42651</v>
@@ -15497,10 +15485,10 @@
         <v>42645</v>
       </c>
       <c r="F199" s="311" t="s">
+        <v>453</v>
+      </c>
+      <c r="G199" s="306" t="s">
         <v>454</v>
-      </c>
-      <c r="G199" s="306" t="s">
-        <v>455</v>
       </c>
       <c r="H199" s="279" t="s">
         <v>47</v>
@@ -15531,10 +15519,10 @@
         <v>42645</v>
       </c>
       <c r="F200" s="311" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G200" s="306" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H200" s="279" t="s">
         <v>47</v>
@@ -15565,10 +15553,10 @@
         <v>42645</v>
       </c>
       <c r="F201" s="311" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G201" s="306" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H201" s="279" t="s">
         <v>47</v>
@@ -15577,11 +15565,11 @@
       <c r="J201" s="271"/>
       <c r="K201" s="271"/>
       <c r="L201" s="275" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M201" s="271"/>
       <c r="N201" s="271" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O201" s="323">
         <v>42651</v>
@@ -15605,21 +15593,21 @@
         <v>42645</v>
       </c>
       <c r="F202" s="311" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G202" s="306" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H202" s="279"/>
       <c r="I202" s="271"/>
       <c r="J202" s="271"/>
       <c r="K202" s="271"/>
       <c r="L202" s="275" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M202" s="271"/>
       <c r="N202" s="271" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O202" s="323">
         <v>42651</v>
@@ -15643,10 +15631,10 @@
         <v>42645</v>
       </c>
       <c r="F203" s="311" t="s">
+        <v>475</v>
+      </c>
+      <c r="G203" s="322" t="s">
         <v>476</v>
-      </c>
-      <c r="G203" s="322" t="s">
-        <v>477</v>
       </c>
       <c r="H203" s="279" t="s">
         <v>47</v>
@@ -15655,7 +15643,7 @@
       <c r="J203" s="271"/>
       <c r="K203" s="271"/>
       <c r="L203" s="275" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M203" s="271"/>
       <c r="N203" s="271"/>
@@ -15681,10 +15669,10 @@
         <v>42645</v>
       </c>
       <c r="F204" s="311" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G204" s="306" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H204" s="279" t="s">
         <v>47</v>
@@ -15706,7 +15694,7 @@
         <v>19</v>
       </c>
       <c r="C205" s="359" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D205" s="292">
         <v>42643</v>
@@ -15715,10 +15703,10 @@
         <v>42645</v>
       </c>
       <c r="F205" s="311" t="s">
+        <v>505</v>
+      </c>
+      <c r="G205" s="306" t="s">
         <v>506</v>
-      </c>
-      <c r="G205" s="306" t="s">
-        <v>507</v>
       </c>
       <c r="H205" s="279" t="s">
         <v>47</v>
@@ -15727,7 +15715,7 @@
       <c r="J205" s="271"/>
       <c r="K205" s="271"/>
       <c r="L205" s="275" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M205" s="271"/>
       <c r="N205" s="271"/>
@@ -15744,7 +15732,7 @@
         <v>19</v>
       </c>
       <c r="C206" s="359" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D206" s="292">
         <v>42643</v>
@@ -15753,10 +15741,10 @@
         <v>42645</v>
       </c>
       <c r="F206" s="311" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G206" s="306" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H206" s="279" t="s">
         <v>47</v>
@@ -15765,11 +15753,11 @@
       <c r="J206" s="271"/>
       <c r="K206" s="271"/>
       <c r="L206" s="275" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M206" s="271"/>
       <c r="N206" s="271" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O206" s="323">
         <v>42651</v>
@@ -15793,10 +15781,10 @@
         <v>42649</v>
       </c>
       <c r="F207" s="311" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G207" s="306" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H207" s="279"/>
       <c r="I207" s="271"/>
@@ -15825,10 +15813,10 @@
         <v>42649</v>
       </c>
       <c r="F208" s="311" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G208" s="322" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H208" s="279" t="s">
         <v>47</v>
@@ -15859,10 +15847,10 @@
         <v>42645</v>
       </c>
       <c r="F209" s="311" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G209" s="306" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H209" s="279"/>
       <c r="I209" s="271"/>
@@ -15891,10 +15879,10 @@
         <v>42645</v>
       </c>
       <c r="F210" s="311" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G210" s="306" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H210" s="279"/>
       <c r="I210" s="271"/>
@@ -15923,10 +15911,10 @@
         <v>42645</v>
       </c>
       <c r="F211" s="311" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G211" s="306" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H211" s="279"/>
       <c r="I211" s="271"/>
@@ -15955,10 +15943,10 @@
         <v>42645</v>
       </c>
       <c r="F212" s="311" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G212" s="306" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H212" s="279"/>
       <c r="I212" s="271"/>
@@ -15974,7 +15962,7 @@
   <autoFilter ref="A2:P212">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>
@@ -15988,7 +15976,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I61 I63 I65:I1048576 I1:I59">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16048,7 +16036,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="273" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -16315,7 +16303,7 @@
       </c>
       <c r="F10" s="293"/>
       <c r="G10" s="132" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H10" s="167"/>
       <c r="I10" s="166"/>
@@ -16375,7 +16363,7 @@
       <c r="E13" s="63"/>
       <c r="F13" s="293"/>
       <c r="G13" s="182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="19"/>
@@ -16395,7 +16383,7 @@
       <c r="E14" s="54"/>
       <c r="F14" s="286"/>
       <c r="G14" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H14" s="56"/>
       <c r="I14" s="52"/>
@@ -16415,7 +16403,7 @@
       <c r="E15" s="21"/>
       <c r="F15" s="277"/>
       <c r="G15" s="182" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="19"/>
@@ -16435,7 +16423,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="277"/>
       <c r="G16" s="182" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="19"/>
@@ -16452,7 +16440,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="275" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="275" t="s">
         <v>107</v>
@@ -16464,10 +16452,10 @@
         <v>42634</v>
       </c>
       <c r="F17" s="277" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="278" t="s">
         <v>189</v>
-      </c>
-      <c r="G17" s="278" t="s">
-        <v>190</v>
       </c>
       <c r="H17" s="279"/>
       <c r="I17" s="275"/>
@@ -16484,7 +16472,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="180" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="275" t="s">
         <v>107</v>
@@ -16496,10 +16484,10 @@
         <v>42634</v>
       </c>
       <c r="F18" s="183" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="184" t="s">
         <v>192</v>
-      </c>
-      <c r="G18" s="184" t="s">
-        <v>193</v>
       </c>
       <c r="H18" s="167"/>
       <c r="I18" s="180"/>
@@ -17381,7 +17369,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17438,7 +17426,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="273" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -17510,7 +17498,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="275" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="275" t="s">
         <v>107</v>
@@ -17522,10 +17510,10 @@
         <v>42641</v>
       </c>
       <c r="F4" s="305" t="s">
+        <v>406</v>
+      </c>
+      <c r="G4" s="306" t="s">
         <v>407</v>
-      </c>
-      <c r="G4" s="306" t="s">
-        <v>408</v>
       </c>
       <c r="H4" s="279"/>
       <c r="I4" s="275"/>
@@ -18413,7 +18401,7 @@
         <v>42632</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -18882,7 +18870,7 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="2:2">

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="568">
   <si>
     <t>编号</t>
   </si>
@@ -5368,6 +5368,14 @@
   </si>
   <si>
     <t>没有复现，放到二级和三级目录可以显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据10月8日晚讨论的规划修改。不自动开始读，按【5】和【OK】可以恢复。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6296,7 +6304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7382,6 +7390,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -7959,8 +7970,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="K212" sqref="K212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13509,7 +13520,7 @@
       </c>
       <c r="P145" s="220"/>
     </row>
-    <row r="146" spans="1:16" ht="27">
+    <row r="146" spans="1:16" ht="27" hidden="1">
       <c r="A146" s="310">
         <v>144</v>
       </c>
@@ -13531,9 +13542,18 @@
       <c r="G146" s="185" t="s">
         <v>371</v>
       </c>
+      <c r="L146" s="272" t="s">
+        <v>566</v>
+      </c>
+      <c r="N146" s="272" t="s">
+        <v>567</v>
+      </c>
+      <c r="O146" s="360">
+        <v>42652</v>
+      </c>
       <c r="P146" s="252"/>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" hidden="1">
       <c r="A147" s="310">
         <v>145</v>
       </c>
@@ -13554,6 +13574,12 @@
       </c>
       <c r="G147" s="308" t="s">
         <v>372</v>
+      </c>
+      <c r="L147" s="272" t="s">
+        <v>566</v>
+      </c>
+      <c r="O147" s="360">
+        <v>42652</v>
       </c>
       <c r="P147" s="252"/>
     </row>
@@ -14752,7 +14778,7 @@
       </c>
       <c r="P177" s="271"/>
     </row>
-    <row r="178" spans="1:16" s="272" customFormat="1" ht="108">
+    <row r="178" spans="1:16" s="272" customFormat="1" ht="108" hidden="1">
       <c r="A178" s="310">
         <v>176</v>
       </c>
@@ -14778,13 +14804,17 @@
       <c r="I178" s="271"/>
       <c r="J178" s="271"/>
       <c r="K178" s="271"/>
-      <c r="L178" s="275"/>
+      <c r="L178" s="275" t="s">
+        <v>566</v>
+      </c>
       <c r="M178" s="271"/>
       <c r="N178" s="271"/>
-      <c r="O178" s="323"/>
+      <c r="O178" s="323">
+        <v>42652</v>
+      </c>
       <c r="P178" s="271"/>
     </row>
-    <row r="179" spans="1:16" s="272" customFormat="1" ht="27">
+    <row r="179" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A179" s="310">
         <v>177</v>
       </c>
@@ -14810,13 +14840,17 @@
       <c r="I179" s="271"/>
       <c r="J179" s="271"/>
       <c r="K179" s="271"/>
-      <c r="L179" s="275"/>
+      <c r="L179" s="275" t="s">
+        <v>566</v>
+      </c>
       <c r="M179" s="271"/>
       <c r="N179" s="271"/>
-      <c r="O179" s="323"/>
+      <c r="O179" s="323">
+        <v>42652</v>
+      </c>
       <c r="P179" s="271"/>
     </row>
-    <row r="180" spans="1:16" s="272" customFormat="1" ht="27">
+    <row r="180" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A180" s="310">
         <v>178</v>
       </c>
@@ -14842,13 +14876,17 @@
       <c r="I180" s="271"/>
       <c r="J180" s="271"/>
       <c r="K180" s="271"/>
-      <c r="L180" s="275"/>
+      <c r="L180" s="275" t="s">
+        <v>566</v>
+      </c>
       <c r="M180" s="271"/>
       <c r="N180" s="271"/>
-      <c r="O180" s="323"/>
+      <c r="O180" s="323">
+        <v>42652</v>
+      </c>
       <c r="P180" s="271"/>
     </row>
-    <row r="181" spans="1:16" s="272" customFormat="1" ht="27">
+    <row r="181" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A181" s="310">
         <v>179</v>
       </c>
@@ -14874,13 +14912,17 @@
       <c r="I181" s="271"/>
       <c r="J181" s="271"/>
       <c r="K181" s="271"/>
-      <c r="L181" s="275"/>
+      <c r="L181" s="275" t="s">
+        <v>566</v>
+      </c>
       <c r="M181" s="271"/>
       <c r="N181" s="271"/>
-      <c r="O181" s="323"/>
+      <c r="O181" s="323">
+        <v>42652</v>
+      </c>
       <c r="P181" s="271"/>
     </row>
-    <row r="182" spans="1:16" s="272" customFormat="1" ht="27">
+    <row r="182" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
       <c r="A182" s="310">
         <v>180</v>
       </c>
@@ -14906,10 +14948,14 @@
       <c r="I182" s="271"/>
       <c r="J182" s="271"/>
       <c r="K182" s="271"/>
-      <c r="L182" s="275"/>
+      <c r="L182" s="275" t="s">
+        <v>566</v>
+      </c>
       <c r="M182" s="271"/>
       <c r="N182" s="271"/>
-      <c r="O182" s="323"/>
+      <c r="O182" s="323">
+        <v>42652</v>
+      </c>
       <c r="P182" s="271"/>
     </row>
     <row r="183" spans="1:16" s="272" customFormat="1" ht="27" hidden="1">
@@ -15962,7 +16008,7 @@
   <autoFilter ref="A2:P212">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters>
+      <filters blank="1">
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="570">
   <si>
     <t>编号</t>
   </si>
@@ -5376,6 +5376,14 @@
   </si>
   <si>
     <t>根据10月8日晚讨论的规划修改。不自动开始读，按【5】和【OK】可以恢复。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改布局文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7970,8 +7978,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="K212" sqref="K212"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7988,7 +7996,8 @@
     <col min="10" max="10" width="7" style="195" customWidth="1"/>
     <col min="11" max="13" width="9" style="195"/>
     <col min="14" max="14" width="34.5" style="195" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="195"/>
+    <col min="15" max="15" width="9.25" style="195" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="195"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
@@ -11347,6 +11356,15 @@
       </c>
       <c r="G88" s="314" t="s">
         <v>455</v>
+      </c>
+      <c r="L88" s="272" t="s">
+        <v>568</v>
+      </c>
+      <c r="N88" s="272" t="s">
+        <v>569</v>
+      </c>
+      <c r="O88" s="360">
+        <v>42653</v>
       </c>
       <c r="P88" s="252"/>
     </row>
@@ -16008,7 +16026,7 @@
   <autoFilter ref="A2:P212">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="571">
   <si>
     <t>编号</t>
   </si>
@@ -5384,6 +5384,10 @@
   </si>
   <si>
     <t>修改布局文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加两个字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7979,7 +7983,7 @@
   <dimension ref="A1:P212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96"/>
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11662,10 +11666,16 @@
       <c r="I96" s="176"/>
       <c r="J96" s="256"/>
       <c r="K96" s="257"/>
-      <c r="L96" s="211"/>
+      <c r="L96" s="279" t="s">
+        <v>58</v>
+      </c>
       <c r="M96" s="211"/>
-      <c r="N96" s="211"/>
-      <c r="O96" s="34"/>
+      <c r="N96" s="279" t="s">
+        <v>570</v>
+      </c>
+      <c r="O96" s="34">
+        <v>42653</v>
+      </c>
       <c r="P96" s="252"/>
     </row>
     <row r="97" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="572">
   <si>
     <t>编号</t>
   </si>
@@ -5388,6 +5388,10 @@
   </si>
   <si>
     <t>添加两个字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除重复引起</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7982,8 +7986,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N96" sqref="N96"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="N136" sqref="N136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14295,10 +14299,16 @@
       <c r="I164" s="211"/>
       <c r="J164" s="28"/>
       <c r="K164" s="28"/>
-      <c r="L164" s="211"/>
+      <c r="L164" s="279" t="s">
+        <v>58</v>
+      </c>
       <c r="M164" s="211"/>
-      <c r="N164" s="211"/>
-      <c r="O164" s="34"/>
+      <c r="N164" s="279" t="s">
+        <v>571</v>
+      </c>
+      <c r="O164" s="34">
+        <v>42653</v>
+      </c>
       <c r="P164" s="252"/>
     </row>
     <row r="165" spans="1:16" s="207" customFormat="1" ht="27" hidden="1">

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="574">
   <si>
     <t>编号</t>
   </si>
@@ -5392,6 +5392,14 @@
   </si>
   <si>
     <t>删除重复引起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加两个参数进行判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7986,8 +7994,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="N136" sqref="N136"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="N190" sqref="N190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15764,10 +15772,16 @@
       <c r="I204" s="271"/>
       <c r="J204" s="271"/>
       <c r="K204" s="271"/>
-      <c r="L204" s="275"/>
+      <c r="L204" s="275" t="s">
+        <v>572</v>
+      </c>
       <c r="M204" s="271"/>
-      <c r="N204" s="271"/>
-      <c r="O204" s="323"/>
+      <c r="N204" s="271" t="s">
+        <v>573</v>
+      </c>
+      <c r="O204" s="323">
+        <v>42653</v>
+      </c>
       <c r="P204" s="271"/>
     </row>
     <row r="205" spans="1:16" s="272" customFormat="1" hidden="1">

--- a/测试单-电子书_txt-word_161006.xlsx
+++ b/测试单-电子书_txt-word_161006.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="576">
   <si>
     <t>编号</t>
   </si>
@@ -5400,6 +5400,14 @@
   </si>
   <si>
     <t>添加两个参数进行判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前音频格式支持完全一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7994,8 +8002,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="N190" sqref="N190"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="N113" sqref="N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9852,10 +9860,16 @@
       </c>
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
-      <c r="L49" s="211"/>
+      <c r="L49" s="279" t="s">
+        <v>58</v>
+      </c>
       <c r="M49" s="211"/>
-      <c r="N49" s="211"/>
-      <c r="O49" s="34"/>
+      <c r="N49" s="279" t="s">
+        <v>574</v>
+      </c>
+      <c r="O49" s="34">
+        <v>42654</v>
+      </c>
       <c r="P49" s="252"/>
     </row>
     <row r="50" spans="1:16" s="254" customFormat="1" ht="121.5" hidden="1">
@@ -12338,10 +12352,16 @@
       <c r="I113" s="176"/>
       <c r="J113" s="28"/>
       <c r="K113" s="28"/>
-      <c r="L113" s="211"/>
+      <c r="L113" s="279" t="s">
+        <v>394</v>
+      </c>
       <c r="M113" s="211"/>
-      <c r="N113" s="211"/>
-      <c r="O113" s="34"/>
+      <c r="N113" s="279" t="s">
+        <v>575</v>
+      </c>
+      <c r="O113" s="34">
+        <v>42654</v>
+      </c>
       <c r="P113" s="252"/>
     </row>
     <row r="114" spans="1:16" s="221" customFormat="1" ht="40.5" hidden="1">
